--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/BALANCE   HERRADURA  MaRzO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/BALANCE   HERRADURA  MaRzO   2022.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 2         " sheetId="1" r:id="rId1"/>
     <sheet name="REMISIONES    ENERO    2 0 2 2 " sheetId="2" r:id="rId2"/>
     <sheet name="F E B R E R O      2 0 2 2     " sheetId="3" r:id="rId3"/>
     <sheet name="REMISIONES  FEBRERO   2 0 2 2  " sheetId="4" r:id="rId4"/>
-    <sheet name="Hoja5" sheetId="5" r:id="rId5"/>
-    <sheet name="Hoja6" sheetId="6" r:id="rId6"/>
+    <sheet name="    M A R Z O    2 0 2 2     " sheetId="5" r:id="rId5"/>
+    <sheet name="  REMISIONES   MARZO   2022   " sheetId="7" r:id="rId6"/>
+    <sheet name="Hoja6" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -144,8 +145,66 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ROUSS</author>
+  </authors>
+  <commentList>
+    <comment ref="J23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ROUSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ROUSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="192">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -384,9 +443,6 @@
     <t>C-8368</t>
   </si>
   <si>
-    <t>/  /</t>
-  </si>
-  <si>
     <t>C-8369</t>
   </si>
   <si>
@@ -559,6 +615,171 @@
   </si>
   <si>
     <t>NOMINA # 9</t>
+  </si>
+  <si>
+    <t>BALANCE      ABASTO 4 CARNES    H E R R A D U R A    M A R Z O           2 0 2 2</t>
+  </si>
+  <si>
+    <t>10677 C</t>
+  </si>
+  <si>
+    <t>10770 C</t>
+  </si>
+  <si>
+    <t>11001 C</t>
+  </si>
+  <si>
+    <t>11122 C</t>
+  </si>
+  <si>
+    <t>11217 C</t>
+  </si>
+  <si>
+    <t>11219 C</t>
+  </si>
+  <si>
+    <t>11317 C</t>
+  </si>
+  <si>
+    <t>11232 C</t>
+  </si>
+  <si>
+    <t>11496 C</t>
+  </si>
+  <si>
+    <t>11572 C</t>
+  </si>
+  <si>
+    <t>11641 C</t>
+  </si>
+  <si>
+    <t>11813 C</t>
+  </si>
+  <si>
+    <t>11816 C</t>
+  </si>
+  <si>
+    <t>12042 C</t>
+  </si>
+  <si>
+    <t>12201 C</t>
+  </si>
+  <si>
+    <t>12321 C</t>
+  </si>
+  <si>
+    <t>12412 C</t>
+  </si>
+  <si>
+    <t>12413 C</t>
+  </si>
+  <si>
+    <t>12550 C</t>
+  </si>
+  <si>
+    <t>12625 C</t>
+  </si>
+  <si>
+    <t>12680 C</t>
+  </si>
+  <si>
+    <t>12684 C</t>
+  </si>
+  <si>
+    <t>12741 C</t>
+  </si>
+  <si>
+    <t>12822 C</t>
+  </si>
+  <si>
+    <t>12903 C</t>
+  </si>
+  <si>
+    <t>12932 C</t>
+  </si>
+  <si>
+    <t>12992 C</t>
+  </si>
+  <si>
+    <t>13195 C</t>
+  </si>
+  <si>
+    <t>13248 C</t>
+  </si>
+  <si>
+    <t>13258 C</t>
+  </si>
+  <si>
+    <t>13388 C</t>
+  </si>
+  <si>
+    <t>13519 C</t>
+  </si>
+  <si>
+    <t>GANANCIA</t>
+  </si>
+  <si>
+    <t>13695 C</t>
+  </si>
+  <si>
+    <t>13696 C</t>
+  </si>
+  <si>
+    <t>13732 C</t>
+  </si>
+  <si>
+    <t>13933 C</t>
+  </si>
+  <si>
+    <t>13935 C</t>
+  </si>
+  <si>
+    <t>13950 C</t>
+  </si>
+  <si>
+    <t>13951 C</t>
+  </si>
+  <si>
+    <t>14128 C</t>
+  </si>
+  <si>
+    <t>14219 C</t>
+  </si>
+  <si>
+    <t>14272 C</t>
+  </si>
+  <si>
+    <t>14307 C</t>
+  </si>
+  <si>
+    <t>14427 C</t>
+  </si>
+  <si>
+    <t>14684 C</t>
+  </si>
+  <si>
+    <t>14835 C</t>
+  </si>
+  <si>
+    <t>14859 C</t>
+  </si>
+  <si>
+    <t>14964 C</t>
+  </si>
+  <si>
+    <t>15048 C</t>
+  </si>
+  <si>
+    <t>15050 C</t>
+  </si>
+  <si>
+    <t>15121 C</t>
+  </si>
+  <si>
+    <t>15211 C</t>
+  </si>
+  <si>
+    <t>15241 C</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="59">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -1723,12 +1944,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="244">
+  <cellXfs count="276">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2113,6 +2358,28 @@
     <xf numFmtId="164" fontId="2" fillId="6" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="6" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="11" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="3" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="19" fillId="3" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="38" fillId="6" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="7" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="19" fillId="11" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="11" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2227,6 +2494,48 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="38" fillId="6" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="43" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="43" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="43" fillId="6" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="43" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2236,10 +2545,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99FF"/>
+      <color rgb="FF0000FF"/>
       <color rgb="FFFF66CC"/>
-      <color rgb="FFFF99FF"/>
       <color rgb="FF99FF99"/>
-      <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3105,6 +3414,432 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5076825" y="11239499"/>
+          <a:ext cx="152400" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4991100" y="10744200"/>
+          <a:ext cx="533400" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5076825" y="11239499"/>
+          <a:ext cx="152400" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector recto de flecha 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2152650" y="10725150"/>
+          <a:ext cx="1781175" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>200023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133352</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Abrir llave 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="7648576" y="9858372"/>
+          <a:ext cx="200026" cy="2124077"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 52985"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>64250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1323990" cy="419708"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectángulo 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18916712">
+          <a:off x="0" y="11551400"/>
+          <a:ext cx="1323990" cy="419708"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="1" cap="none" spc="0">
+              <a:ln w="6600">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Rosy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="1" cap="none" spc="0" baseline="0">
+              <a:ln w="6600">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> Tellez</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1400" b="1" cap="none" spc="0">
+            <a:ln w="6600">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent2"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector recto de flecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5000625" y="11572875"/>
+          <a:ext cx="923925" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -3373,8 +4108,8 @@
   </sheetPr>
   <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3397,23 +4132,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="233"/>
-      <c r="C1" s="235" t="s">
+      <c r="B1" s="249"/>
+      <c r="C1" s="251" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="236"/>
-      <c r="L1" s="236"/>
-      <c r="M1" s="236"/>
+      <c r="D1" s="252"/>
+      <c r="E1" s="252"/>
+      <c r="F1" s="252"/>
+      <c r="G1" s="252"/>
+      <c r="H1" s="252"/>
+      <c r="I1" s="252"/>
+      <c r="J1" s="252"/>
+      <c r="K1" s="252"/>
+      <c r="L1" s="252"/>
+      <c r="M1" s="252"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="234"/>
+      <c r="B2" s="250"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -3423,21 +4158,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="237" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="238"/>
+      <c r="B3" s="253" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="254"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="239" t="s">
+      <c r="H3" s="255" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="239"/>
+      <c r="I3" s="255"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="206" t="s">
+      <c r="R3" s="222" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3452,14 +4187,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="240" t="s">
+      <c r="E4" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="241"/>
-      <c r="H4" s="242" t="s">
+      <c r="F4" s="257"/>
+      <c r="H4" s="258" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="243"/>
+      <c r="I4" s="259"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -3469,11 +4204,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="213" t="s">
+      <c r="P4" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="214"/>
-      <c r="R4" s="207"/>
+      <c r="Q4" s="230"/>
+      <c r="R4" s="223"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -4775,10 +5510,10 @@
       <c r="H34" s="37"/>
       <c r="I34" s="31"/>
       <c r="J34" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="K34" s="81" t="s">
         <v>126</v>
-      </c>
-      <c r="K34" s="81" t="s">
-        <v>127</v>
       </c>
       <c r="L34" s="82">
         <v>549</v>
@@ -4954,11 +5689,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="215">
+      <c r="M40" s="231">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="217">
+      <c r="N40" s="233">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -4984,8 +5719,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="216"/>
-      <c r="N41" s="218"/>
+      <c r="M41" s="232"/>
+      <c r="N41" s="234"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -5200,29 +5935,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="219" t="s">
+      <c r="H53" s="235" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="220"/>
+      <c r="I53" s="236"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="221">
+      <c r="K53" s="237">
         <f>I51+L51</f>
         <v>44516.57</v>
       </c>
-      <c r="L53" s="222"/>
-      <c r="M53" s="223">
+      <c r="L53" s="238"/>
+      <c r="M53" s="239">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="224"/>
+      <c r="N53" s="240"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="225" t="s">
+      <c r="D54" s="241" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="225"/>
+      <c r="E54" s="241"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1567048.43</v>
@@ -5233,22 +5968,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="226" t="s">
+      <c r="D55" s="242" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="226"/>
+      <c r="E55" s="242"/>
       <c r="F55" s="115">
-        <v>-1540248.71</v>
-      </c>
-      <c r="I55" s="227" t="s">
+        <v>-1419082.77</v>
+      </c>
+      <c r="I55" s="243" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="228"/>
-      <c r="K55" s="229">
+      <c r="J55" s="244"/>
+      <c r="K55" s="245">
         <f>F57+F58+F59</f>
-        <v>181424.23999999996</v>
-      </c>
-      <c r="L55" s="230"/>
+        <v>302590.17999999993</v>
+      </c>
+      <c r="L55" s="246"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -5272,18 +6007,18 @@
       </c>
       <c r="F57" s="115">
         <f>SUM(F54:F56)</f>
-        <v>26799.719999999972</v>
+        <v>147965.65999999992</v>
       </c>
       <c r="H57" s="24"/>
       <c r="I57" s="129" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="231">
+      <c r="K57" s="247">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="232"/>
+      <c r="L57" s="248"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -5300,22 +6035,22 @@
       <c r="C59" s="133">
         <v>44591</v>
       </c>
-      <c r="D59" s="208" t="s">
+      <c r="D59" s="224" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="209"/>
+      <c r="E59" s="225"/>
       <c r="F59" s="134">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="210" t="s">
-        <v>125</v>
-      </c>
-      <c r="J59" s="211"/>
-      <c r="K59" s="212">
+      <c r="I59" s="226" t="s">
+        <v>170</v>
+      </c>
+      <c r="J59" s="227"/>
+      <c r="K59" s="228">
         <f>K55+K57</f>
-        <v>-39635.46000000005</v>
-      </c>
-      <c r="L59" s="212"/>
+        <v>81530.479999999923</v>
+      </c>
+      <c r="L59" s="228"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -5495,8 +6230,8 @@
   </sheetPr>
   <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A49" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5954,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="202" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E22" s="197">
         <v>0</v>
@@ -5969,7 +6704,7 @@
         <v>77</v>
       </c>
       <c r="B23" s="194" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" s="195">
         <v>52417.4</v>
@@ -5990,7 +6725,7 @@
         <v>77</v>
       </c>
       <c r="B24" s="194" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" s="195">
         <v>13493.8</v>
@@ -6009,10 +6744,10 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="193" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="194" t="s">
         <v>82</v>
-      </c>
-      <c r="B25" s="194" t="s">
-        <v>83</v>
       </c>
       <c r="C25" s="195">
         <v>47877.760000000002</v>
@@ -6033,7 +6768,7 @@
         <v>65</v>
       </c>
       <c r="B26" s="194" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C26" s="195">
         <v>700</v>
@@ -6054,7 +6789,7 @@
         <v>65</v>
       </c>
       <c r="B27" s="194" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C27" s="195">
         <v>29321.599999999999</v>
@@ -6072,10 +6807,10 @@
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="193" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="194" t="s">
         <v>87</v>
-      </c>
-      <c r="B28" s="194" t="s">
-        <v>88</v>
       </c>
       <c r="C28" s="195">
         <v>76289.399999999994</v>
@@ -6093,10 +6828,10 @@
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="193" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B29" s="194" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="195">
         <v>20931.8</v>
@@ -6114,10 +6849,10 @@
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="193" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="194" t="s">
         <v>90</v>
-      </c>
-      <c r="B30" s="194" t="s">
-        <v>91</v>
       </c>
       <c r="C30" s="195">
         <v>39513.49</v>
@@ -6135,10 +6870,10 @@
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="193" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="194" t="s">
         <v>92</v>
-      </c>
-      <c r="B31" s="194" t="s">
-        <v>93</v>
       </c>
       <c r="C31" s="195">
         <v>38406.839999999997</v>
@@ -6156,16 +6891,16 @@
     </row>
     <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="193" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B32" s="194" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C32" s="195">
         <v>1462</v>
       </c>
       <c r="D32" s="203" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E32" s="204">
         <v>1462</v>
@@ -6178,10 +6913,10 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="193" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B33" s="194" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C33" s="195">
         <v>6217.6</v>
@@ -6199,10 +6934,10 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="193" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="194" t="s">
         <v>96</v>
-      </c>
-      <c r="B34" s="194" t="s">
-        <v>97</v>
       </c>
       <c r="C34" s="195">
         <v>46665.9</v>
@@ -6220,10 +6955,10 @@
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="193" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B35" s="194" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C35" s="195">
         <v>8897.7999999999993</v>
@@ -6241,10 +6976,10 @@
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="193" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="194" t="s">
         <v>99</v>
-      </c>
-      <c r="B36" s="194" t="s">
-        <v>100</v>
       </c>
       <c r="C36" s="195">
         <v>7616.4</v>
@@ -6262,10 +6997,10 @@
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="193" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B37" s="194" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C37" s="195">
         <v>100870.28</v>
@@ -6283,10 +7018,10 @@
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="193" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B38" s="194" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C38" s="195">
         <v>5418.8</v>
@@ -6304,10 +7039,10 @@
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="193" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="194" t="s">
         <v>104</v>
-      </c>
-      <c r="B39" s="194" t="s">
-        <v>105</v>
       </c>
       <c r="C39" s="195">
         <v>100279.24</v>
@@ -6325,10 +7060,10 @@
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="193" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B40" s="194" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C40" s="195">
         <v>6011.8</v>
@@ -6346,10 +7081,10 @@
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="193" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="194" t="s">
         <v>107</v>
-      </c>
-      <c r="B41" s="194" t="s">
-        <v>108</v>
       </c>
       <c r="C41" s="195">
         <v>51496.14</v>
@@ -6367,10 +7102,10 @@
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="193" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B42" s="194" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C42" s="195">
         <v>3248.8</v>
@@ -6388,10 +7123,10 @@
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="193" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="194" t="s">
         <v>110</v>
-      </c>
-      <c r="B43" s="194" t="s">
-        <v>111</v>
       </c>
       <c r="C43" s="195">
         <v>114946.5</v>
@@ -6409,10 +7144,10 @@
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="193" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B44" s="194" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C44" s="195">
         <v>11723</v>
@@ -6430,10 +7165,10 @@
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="193" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="194" t="s">
         <v>113</v>
-      </c>
-      <c r="B45" s="194" t="s">
-        <v>114</v>
       </c>
       <c r="C45" s="195">
         <v>5262.6</v>
@@ -6451,10 +7186,10 @@
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="193" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B46" s="194" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C46" s="195">
         <v>10932.6</v>
@@ -6472,10 +7207,10 @@
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="193" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B47" s="194" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C47" s="195">
         <v>1306.5</v>
@@ -6493,10 +7228,10 @@
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="193" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B48" s="194" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C48" s="195">
         <v>91103.16</v>
@@ -6514,84 +7249,76 @@
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="193" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" s="194" t="s">
         <v>118</v>
-      </c>
-      <c r="B49" s="194" t="s">
-        <v>119</v>
       </c>
       <c r="C49" s="195">
         <v>81224.759999999995</v>
       </c>
-      <c r="D49" s="200" t="s">
-        <v>79</v>
-      </c>
-      <c r="E49" s="195"/>
+      <c r="D49" s="207">
+        <v>44596</v>
+      </c>
+      <c r="E49" s="208">
+        <v>81224.759999999995</v>
+      </c>
       <c r="F49" s="161">
         <f t="shared" si="1"/>
-        <v>81224.759999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="193" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B50" s="194" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C50" s="195">
         <v>4089.6</v>
       </c>
-      <c r="D50" s="200" t="s">
-        <v>79</v>
-      </c>
-      <c r="E50" s="195">
-        <v>0</v>
+      <c r="D50" s="207">
+        <v>44596</v>
+      </c>
+      <c r="E50" s="208">
+        <v>4089.6</v>
       </c>
       <c r="F50" s="161">
         <f t="shared" si="1"/>
-        <v>85314.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="193" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B51" s="194" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C51" s="195">
         <v>8445.7999999999993</v>
       </c>
-      <c r="D51" s="200" t="s">
-        <v>79</v>
-      </c>
-      <c r="E51" s="195">
-        <v>0</v>
+      <c r="D51" s="207">
+        <v>44596</v>
+      </c>
+      <c r="E51" s="208">
+        <v>8445.7999999999993</v>
       </c>
       <c r="F51" s="161">
         <f t="shared" si="1"/>
-        <v>93760.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="193" t="s">
-        <v>122</v>
-      </c>
-      <c r="B52" s="194" t="s">
-        <v>123</v>
-      </c>
-      <c r="C52" s="195">
-        <v>121165.94</v>
-      </c>
-      <c r="D52" s="200" t="s">
-        <v>79</v>
-      </c>
-      <c r="E52" s="195">
-        <v>0</v>
-      </c>
+      <c r="A52" s="193"/>
+      <c r="B52" s="194"/>
+      <c r="C52" s="195"/>
+      <c r="D52" s="215"/>
+      <c r="E52" s="216"/>
       <c r="F52" s="161">
         <f t="shared" si="1"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -6602,7 +7329,7 @@
       <c r="E53" s="86"/>
       <c r="F53" s="161">
         <f t="shared" si="1"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -6613,7 +7340,7 @@
       <c r="E54" s="86"/>
       <c r="F54" s="161">
         <f t="shared" si="1"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -6624,7 +7351,7 @@
       <c r="E55" s="86"/>
       <c r="F55" s="161">
         <f t="shared" si="1"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -6635,7 +7362,7 @@
       <c r="E56" s="86"/>
       <c r="F56" s="161">
         <f t="shared" si="1"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -6646,7 +7373,7 @@
       <c r="E57" s="86"/>
       <c r="F57" s="161">
         <f t="shared" si="1"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -6657,7 +7384,7 @@
       <c r="E58" s="86"/>
       <c r="F58" s="161">
         <f t="shared" si="1"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -6668,7 +7395,7 @@
       <c r="E59" s="86"/>
       <c r="F59" s="161">
         <f t="shared" si="1"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -6679,7 +7406,7 @@
       <c r="E60" s="86"/>
       <c r="F60" s="161">
         <f t="shared" si="1"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -6690,7 +7417,7 @@
       <c r="E61" s="86"/>
       <c r="F61" s="161">
         <f t="shared" si="1"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -6701,7 +7428,7 @@
       <c r="E62" s="86"/>
       <c r="F62" s="161">
         <f t="shared" si="1"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -6712,7 +7439,7 @@
       <c r="E63" s="86"/>
       <c r="F63" s="161">
         <f t="shared" si="1"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6723,7 +7450,7 @@
       <c r="E64" s="86"/>
       <c r="F64" s="161">
         <f t="shared" si="1"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6734,7 +7461,7 @@
       <c r="E65" s="86"/>
       <c r="F65" s="161">
         <f t="shared" si="1"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6745,7 +7472,7 @@
       <c r="E66" s="86"/>
       <c r="F66" s="161">
         <f t="shared" si="1"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6756,7 +7483,7 @@
       <c r="E67" s="86"/>
       <c r="F67" s="161">
         <f t="shared" si="1"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6767,7 +7494,7 @@
       <c r="E68" s="86"/>
       <c r="F68" s="161">
         <f t="shared" si="1"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6778,7 +7505,7 @@
       <c r="E69" s="86"/>
       <c r="F69" s="161">
         <f t="shared" si="1"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6789,7 +7516,7 @@
       <c r="E70" s="86"/>
       <c r="F70" s="161">
         <f t="shared" si="1"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6800,7 +7527,7 @@
       <c r="E71" s="86"/>
       <c r="F71" s="161">
         <f t="shared" si="1"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6811,7 +7538,7 @@
       <c r="E72" s="86"/>
       <c r="F72" s="161">
         <f t="shared" si="1"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6822,7 +7549,7 @@
       <c r="E73" s="86"/>
       <c r="F73" s="161">
         <f t="shared" si="1"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6833,7 +7560,7 @@
       <c r="E74" s="86"/>
       <c r="F74" s="161">
         <f t="shared" si="1"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6844,7 +7571,7 @@
       <c r="E75" s="86"/>
       <c r="F75" s="161">
         <f t="shared" ref="F75:F99" si="2">F74+C75-E75</f>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6855,7 +7582,7 @@
       <c r="E76" s="86"/>
       <c r="F76" s="161">
         <f t="shared" si="2"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6866,7 +7593,7 @@
       <c r="E77" s="86"/>
       <c r="F77" s="161">
         <f t="shared" si="2"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6877,7 +7604,7 @@
       <c r="E78" s="86"/>
       <c r="F78" s="161">
         <f t="shared" si="2"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6888,7 +7615,7 @@
       <c r="E79" s="86"/>
       <c r="F79" s="161">
         <f t="shared" si="2"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6899,7 +7626,7 @@
       <c r="E80" s="86"/>
       <c r="F80" s="161">
         <f t="shared" si="2"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6910,7 +7637,7 @@
       <c r="E81" s="86"/>
       <c r="F81" s="161">
         <f t="shared" si="2"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6921,7 +7648,7 @@
       <c r="E82" s="86"/>
       <c r="F82" s="161">
         <f t="shared" si="2"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6932,7 +7659,7 @@
       <c r="E83" s="34"/>
       <c r="F83" s="161">
         <f t="shared" si="2"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6943,7 +7670,7 @@
       <c r="E84" s="34"/>
       <c r="F84" s="161">
         <f t="shared" si="2"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6954,7 +7681,7 @@
       <c r="E85" s="34"/>
       <c r="F85" s="161">
         <f t="shared" si="2"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6965,7 +7692,7 @@
       <c r="E86" s="34"/>
       <c r="F86" s="161">
         <f t="shared" si="2"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6976,7 +7703,7 @@
       <c r="E87" s="34"/>
       <c r="F87" s="161">
         <f t="shared" si="2"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6987,7 +7714,7 @@
       <c r="E88" s="34"/>
       <c r="F88" s="161">
         <f t="shared" si="2"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6998,7 +7725,7 @@
       <c r="E89" s="86"/>
       <c r="F89" s="161">
         <f t="shared" si="2"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7009,7 +7736,7 @@
       <c r="E90" s="86"/>
       <c r="F90" s="161">
         <f t="shared" si="2"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7020,7 +7747,7 @@
       <c r="E91" s="86"/>
       <c r="F91" s="161">
         <f t="shared" si="2"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7031,7 +7758,7 @@
       <c r="E92" s="86"/>
       <c r="F92" s="161">
         <f t="shared" si="2"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7042,7 +7769,7 @@
       <c r="E93" s="86"/>
       <c r="F93" s="161">
         <f t="shared" si="2"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7053,7 +7780,7 @@
       <c r="E94" s="86"/>
       <c r="F94" s="161">
         <f t="shared" si="2"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7064,7 +7791,7 @@
       <c r="E95" s="86"/>
       <c r="F95" s="161">
         <f t="shared" si="2"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7075,7 +7802,7 @@
       <c r="E96" s="86"/>
       <c r="F96" s="161">
         <f t="shared" si="2"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7086,7 +7813,7 @@
       <c r="E97" s="86"/>
       <c r="F97" s="161">
         <f t="shared" si="2"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7097,7 +7824,7 @@
       <c r="E98" s="86"/>
       <c r="F98" s="161">
         <f t="shared" si="2"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7110,7 +7837,7 @@
       <c r="E99" s="34"/>
       <c r="F99" s="161">
         <f t="shared" si="2"/>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -7118,16 +7845,16 @@
       <c r="B100" s="176"/>
       <c r="C100" s="177">
         <f>SUM(C5:C99)</f>
-        <v>1540248.7100000004</v>
+        <v>1419082.7700000005</v>
       </c>
       <c r="D100" s="189"/>
       <c r="E100" s="178">
         <f>SUM(E5:E99)</f>
-        <v>1325322.6100000003</v>
+        <v>1419082.7700000005</v>
       </c>
       <c r="F100" s="179">
         <f>F99</f>
-        <v>214926.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -7281,8 +8008,8 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7305,23 +8032,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="233"/>
-      <c r="C1" s="235" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="236"/>
-      <c r="L1" s="236"/>
-      <c r="M1" s="236"/>
+      <c r="B1" s="249"/>
+      <c r="C1" s="251" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="252"/>
+      <c r="E1" s="252"/>
+      <c r="F1" s="252"/>
+      <c r="G1" s="252"/>
+      <c r="H1" s="252"/>
+      <c r="I1" s="252"/>
+      <c r="J1" s="252"/>
+      <c r="K1" s="252"/>
+      <c r="L1" s="252"/>
+      <c r="M1" s="252"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="234"/>
+      <c r="B2" s="250"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -7331,21 +8058,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="237" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="238"/>
+      <c r="B3" s="253" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="254"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="239" t="s">
+      <c r="H3" s="255" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="239"/>
+      <c r="I3" s="255"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="206" t="s">
+      <c r="R3" s="222" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7360,14 +8087,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="240" t="s">
+      <c r="E4" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="241"/>
-      <c r="H4" s="242" t="s">
+      <c r="F4" s="257"/>
+      <c r="H4" s="258" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="243"/>
+      <c r="I4" s="259"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -7377,11 +8104,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="213" t="s">
+      <c r="P4" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="214"/>
-      <c r="R4" s="207"/>
+      <c r="Q4" s="230"/>
+      <c r="R4" s="223"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -7569,7 +8296,7 @@
         <v>12482</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" s="28">
         <v>44596</v>
@@ -7631,7 +8358,7 @@
         <v>44597</v>
       </c>
       <c r="K10" s="47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L10" s="48">
         <v>7950</v>
@@ -7666,7 +8393,7 @@
         <v>5501</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E11" s="28">
         <v>44598</v>
@@ -7799,7 +8526,7 @@
         <v>6305</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E14" s="28">
         <v>44601</v>
@@ -7949,7 +8676,7 @@
         <v>44604</v>
       </c>
       <c r="K17" s="52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L17" s="48">
         <v>10085.709999999999</v>
@@ -8124,7 +8851,7 @@
       </c>
       <c r="J21" s="38"/>
       <c r="K21" s="57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L21" s="48"/>
       <c r="M21" s="32">
@@ -8256,7 +8983,7 @@
         <v>44611</v>
       </c>
       <c r="K24" s="62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L24" s="63">
         <v>8850</v>
@@ -8463,7 +9190,7 @@
         <v>800</v>
       </c>
       <c r="D29" s="71" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E29" s="28">
         <v>44616</v>
@@ -8566,7 +9293,7 @@
         <v>44618</v>
       </c>
       <c r="K31" s="76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L31" s="77">
         <v>10371</v>
@@ -8672,9 +9399,9 @@
       <c r="H34" s="37"/>
       <c r="I34" s="31"/>
       <c r="J34" s="73"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="82"/>
-      <c r="M34" s="32">
+      <c r="K34" s="221"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="220">
         <v>0</v>
       </c>
       <c r="N34" s="33">
@@ -8703,7 +9430,7 @@
       <c r="J35" s="73"/>
       <c r="K35" s="76"/>
       <c r="L35" s="80"/>
-      <c r="M35" s="32">
+      <c r="M35" s="220">
         <v>0</v>
       </c>
       <c r="N35" s="33">
@@ -8730,9 +9457,9 @@
       <c r="H36" s="37"/>
       <c r="I36" s="31"/>
       <c r="J36" s="73"/>
-      <c r="K36" s="182"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="32">
+      <c r="K36" s="42"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="220">
         <v>0</v>
       </c>
       <c r="N36" s="33">
@@ -8759,9 +9486,9 @@
       <c r="H37" s="37"/>
       <c r="I37" s="31"/>
       <c r="J37" s="73"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="82"/>
-      <c r="M37" s="32">
+      <c r="K37" s="221"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="220">
         <v>0</v>
       </c>
       <c r="N37" s="33">
@@ -8789,7 +9516,7 @@
       <c r="J38" s="73"/>
       <c r="K38" s="76"/>
       <c r="L38" s="80"/>
-      <c r="M38" s="32">
+      <c r="M38" s="220">
         <v>0</v>
       </c>
       <c r="N38" s="33">
@@ -8816,8 +9543,8 @@
       <c r="I39" s="31"/>
       <c r="J39" s="73"/>
       <c r="K39" s="76"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="32">
+      <c r="L39" s="80"/>
+      <c r="M39" s="220">
         <v>0</v>
       </c>
       <c r="N39" s="33">
@@ -8844,12 +9571,12 @@
       <c r="I40" s="88"/>
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
-      <c r="L40" s="75"/>
-      <c r="M40" s="215">
+      <c r="L40" s="80"/>
+      <c r="M40" s="260">
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="217">
+      <c r="N40" s="233">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -8875,8 +9602,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="216"/>
-      <c r="N41" s="218"/>
+      <c r="M41" s="232"/>
+      <c r="N41" s="234"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -9091,29 +9818,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="219" t="s">
+      <c r="H53" s="235" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="220"/>
+      <c r="I53" s="236"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="221">
+      <c r="K53" s="237">
         <f>I51+L51</f>
         <v>40613.21</v>
       </c>
-      <c r="L53" s="222"/>
-      <c r="M53" s="223">
+      <c r="L53" s="238"/>
+      <c r="M53" s="239">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="224"/>
+      <c r="N53" s="240"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="225" t="s">
+      <c r="D54" s="241" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="225"/>
+      <c r="E54" s="241"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1691463.79</v>
@@ -9124,22 +9851,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="226" t="s">
+      <c r="D55" s="242" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="226"/>
+      <c r="E55" s="242"/>
       <c r="F55" s="115">
-        <v>0</v>
-      </c>
-      <c r="I55" s="227" t="s">
+        <v>-1631962.77</v>
+      </c>
+      <c r="I55" s="243" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="228"/>
-      <c r="K55" s="229">
+      <c r="J55" s="244"/>
+      <c r="K55" s="245">
         <f>F57+F58+F59</f>
-        <v>1875805.98</v>
-      </c>
-      <c r="L55" s="230"/>
+        <v>243843.21000000002</v>
+      </c>
+      <c r="L55" s="246"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -9163,18 +9890,18 @@
       </c>
       <c r="F57" s="115">
         <f>SUM(F54:F56)</f>
-        <v>1691463.79</v>
+        <v>59501.020000000019</v>
       </c>
       <c r="H57" s="24"/>
       <c r="I57" s="129" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="231">
+      <c r="K57" s="247">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="232"/>
+      <c r="L57" s="248"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -9191,22 +9918,22 @@
       <c r="C59" s="133">
         <v>44619</v>
       </c>
-      <c r="D59" s="208" t="s">
+      <c r="D59" s="224" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="209"/>
+      <c r="E59" s="225"/>
       <c r="F59" s="134">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="210" t="s">
-        <v>125</v>
-      </c>
-      <c r="J59" s="211"/>
-      <c r="K59" s="212">
+      <c r="I59" s="226" t="s">
+        <v>170</v>
+      </c>
+      <c r="J59" s="227"/>
+      <c r="K59" s="228">
         <f>K55+K57</f>
-        <v>1721491.46</v>
-      </c>
-      <c r="L59" s="212"/>
+        <v>89528.690000000031</v>
+      </c>
+      <c r="L59" s="228"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -9384,15 +10111,16 @@
   <sheetPr>
     <tabColor rgb="FFFF66CC"/>
   </sheetPr>
-  <dimension ref="A1:G136"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="117" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="201" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="117" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="201" bestFit="1" customWidth="1"/>
@@ -9402,7 +10130,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="209" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="187"/>
@@ -9414,7 +10142,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="210" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="155" t="s">
@@ -9434,1067 +10162,4346 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="193"/>
-      <c r="B3" s="194"/>
-      <c r="C3" s="195"/>
+      <c r="A3" s="193" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="194" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="195">
+        <v>121165.94</v>
+      </c>
+      <c r="D3" s="207">
+        <v>44596</v>
+      </c>
+      <c r="E3" s="208">
+        <v>121165.94</v>
+      </c>
+      <c r="F3" s="158">
+        <f>C3-E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="211">
+        <v>44593</v>
+      </c>
+      <c r="B4" s="194" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="195">
+        <v>5368.44</v>
+      </c>
+      <c r="D4" s="206">
+        <v>44596</v>
+      </c>
+      <c r="E4" s="191">
+        <v>5368.44</v>
+      </c>
+      <c r="F4" s="158">
+        <f>C4-E4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="211">
+        <v>44594</v>
+      </c>
+      <c r="B5" s="194" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="195">
+        <v>67800.3</v>
+      </c>
+      <c r="D5" s="206">
+        <v>44596</v>
+      </c>
+      <c r="E5" s="191">
+        <v>67800.3</v>
+      </c>
+      <c r="F5" s="196">
+        <f>C5-E5+F4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="211">
+        <v>44596</v>
+      </c>
+      <c r="B6" s="194" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="195">
+        <v>82150.22</v>
+      </c>
+      <c r="D6" s="206">
+        <v>44596</v>
+      </c>
+      <c r="E6" s="191">
+        <v>82150.22</v>
+      </c>
+      <c r="F6" s="161">
+        <f>C6-E6+F5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="211">
+        <v>44597</v>
+      </c>
+      <c r="B7" s="194" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="195">
+        <v>1276.5</v>
+      </c>
+      <c r="D7" s="200"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="161">
+        <f>F6+C7-E7</f>
+        <v>1276.5</v>
+      </c>
+      <c r="G7" s="162"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="211">
+        <v>44597</v>
+      </c>
+      <c r="B8" s="194" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="195">
+        <v>34446.5</v>
+      </c>
+      <c r="D8" s="200"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="161">
+        <f t="shared" ref="F8" si="0">F7+C8-E8</f>
+        <v>35723</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="211">
+        <v>44597</v>
+      </c>
+      <c r="B9" s="194" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="195">
+        <v>105739.83</v>
+      </c>
+      <c r="D9" s="200"/>
+      <c r="E9" s="195"/>
+      <c r="F9" s="161">
+        <f>F8+C9-E9</f>
+        <v>141462.83000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="211">
+        <v>44599</v>
+      </c>
+      <c r="B10" s="194" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="195">
+        <v>19806.88</v>
+      </c>
+      <c r="D10" s="200"/>
+      <c r="E10" s="195"/>
+      <c r="F10" s="161">
+        <f>F9+C10-E10</f>
+        <v>161269.71000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="211">
+        <v>44599</v>
+      </c>
+      <c r="B11" s="194" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="195">
+        <v>2830.84</v>
+      </c>
+      <c r="D11" s="200"/>
+      <c r="E11" s="195"/>
+      <c r="F11" s="161">
+        <f>F10+C11-E11</f>
+        <v>164100.55000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="211">
+        <v>44600</v>
+      </c>
+      <c r="B12" s="194" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="195">
+        <v>81188.800000000003</v>
+      </c>
+      <c r="D12" s="200"/>
+      <c r="E12" s="195"/>
+      <c r="F12" s="161">
+        <f t="shared" ref="F12:F51" si="1">F11+C12-E12</f>
+        <v>245289.35000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="211">
+        <v>44601</v>
+      </c>
+      <c r="B13" s="194" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="195">
+        <v>38204.76</v>
+      </c>
+      <c r="D13" s="200"/>
+      <c r="E13" s="195"/>
+      <c r="F13" s="161">
+        <f t="shared" si="1"/>
+        <v>283494.11000000004</v>
+      </c>
+      <c r="G13" s="162"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="211">
+        <v>44601</v>
+      </c>
+      <c r="B14" s="194" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="195">
+        <v>59088.9</v>
+      </c>
+      <c r="D14" s="200"/>
+      <c r="E14" s="195"/>
+      <c r="F14" s="161">
+        <f t="shared" si="1"/>
+        <v>342583.01000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="211">
+        <v>44603</v>
+      </c>
+      <c r="B15" s="194" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="195">
+        <v>55757.3</v>
+      </c>
+      <c r="D15" s="200"/>
+      <c r="E15" s="195"/>
+      <c r="F15" s="161">
+        <f t="shared" si="1"/>
+        <v>398340.31000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="211">
+        <v>44603</v>
+      </c>
+      <c r="B16" s="194" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="195">
+        <v>50617.440000000002</v>
+      </c>
+      <c r="D16" s="213">
+        <v>44603</v>
+      </c>
+      <c r="E16" s="214">
+        <v>448957.75</v>
+      </c>
+      <c r="F16" s="161">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="211">
+        <v>44604</v>
+      </c>
+      <c r="B17" s="194" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="195">
+        <v>57701.599999999999</v>
+      </c>
+      <c r="D17" s="200"/>
+      <c r="E17" s="195"/>
+      <c r="F17" s="161">
+        <f t="shared" si="1"/>
+        <v>57701.599999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="211">
+        <v>44606</v>
+      </c>
+      <c r="B18" s="194" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="195">
+        <v>100500.86</v>
+      </c>
+      <c r="D18" s="200"/>
+      <c r="E18" s="195"/>
+      <c r="F18" s="161">
+        <f t="shared" si="1"/>
+        <v>158202.46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="211">
+        <v>44607</v>
+      </c>
+      <c r="B19" s="194" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="195">
+        <v>12524</v>
+      </c>
+      <c r="D19" s="200"/>
+      <c r="E19" s="195"/>
+      <c r="F19" s="161">
+        <f t="shared" si="1"/>
+        <v>170726.46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="211">
+        <v>44608</v>
+      </c>
+      <c r="B20" s="194" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="195">
+        <v>122099.28</v>
+      </c>
+      <c r="D20" s="200"/>
+      <c r="E20" s="195"/>
+      <c r="F20" s="161">
+        <f t="shared" si="1"/>
+        <v>292825.74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="211">
+        <v>44608</v>
+      </c>
+      <c r="B21" s="194" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="195">
+        <v>4846.3999999999996</v>
+      </c>
+      <c r="D21" s="200"/>
+      <c r="E21" s="195"/>
+      <c r="F21" s="161">
+        <f t="shared" si="1"/>
+        <v>297672.14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="211">
+        <v>44609</v>
+      </c>
+      <c r="B22" s="194" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="195">
+        <v>3707.2</v>
+      </c>
+      <c r="D22" s="200"/>
+      <c r="E22" s="195"/>
+      <c r="F22" s="161">
+        <f t="shared" si="1"/>
+        <v>301379.34000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="211">
+        <v>44610</v>
+      </c>
+      <c r="B23" s="194" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="195">
+        <v>130649.11</v>
+      </c>
+      <c r="D23" s="218">
+        <v>44610</v>
+      </c>
+      <c r="E23" s="217">
+        <v>432028.45</v>
+      </c>
+      <c r="F23" s="161">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="211">
+        <v>44610</v>
+      </c>
+      <c r="B24" s="194" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" s="195">
+        <v>1371.2</v>
+      </c>
+      <c r="D24" s="200"/>
+      <c r="E24" s="195"/>
+      <c r="F24" s="161">
+        <f t="shared" si="1"/>
+        <v>1371.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="211">
+        <v>44610</v>
+      </c>
+      <c r="B25" s="194" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="195">
+        <v>4899.55</v>
+      </c>
+      <c r="D25" s="200"/>
+      <c r="E25" s="195"/>
+      <c r="F25" s="161">
+        <f t="shared" si="1"/>
+        <v>6270.75</v>
+      </c>
+      <c r="G25" s="162"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="211">
+        <v>44611</v>
+      </c>
+      <c r="B26" s="194" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" s="195">
+        <v>56596.6</v>
+      </c>
+      <c r="D26" s="200"/>
+      <c r="E26" s="195"/>
+      <c r="F26" s="161">
+        <f t="shared" si="1"/>
+        <v>62867.35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="211">
+        <v>44611</v>
+      </c>
+      <c r="B27" s="194" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" s="195">
+        <v>2100</v>
+      </c>
+      <c r="D27" s="200"/>
+      <c r="E27" s="195"/>
+      <c r="F27" s="161">
+        <f t="shared" si="1"/>
+        <v>64967.35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="211">
+        <v>44613</v>
+      </c>
+      <c r="B28" s="194" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="195">
+        <v>56699.519999999997</v>
+      </c>
+      <c r="D28" s="200"/>
+      <c r="E28" s="195"/>
+      <c r="F28" s="161">
+        <f t="shared" si="1"/>
+        <v>121666.87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="211">
+        <v>44613</v>
+      </c>
+      <c r="B29" s="194" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" s="195">
+        <v>6470</v>
+      </c>
+      <c r="D29" s="200"/>
+      <c r="E29" s="195"/>
+      <c r="F29" s="161">
+        <f t="shared" si="1"/>
+        <v>128136.87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="211">
+        <v>44613</v>
+      </c>
+      <c r="B30" s="194" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="195">
+        <v>5335</v>
+      </c>
+      <c r="D30" s="200"/>
+      <c r="E30" s="195"/>
+      <c r="F30" s="161">
+        <f t="shared" si="1"/>
+        <v>133471.87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="211">
+        <v>44615</v>
+      </c>
+      <c r="B31" s="194" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="195">
+        <v>105683.1</v>
+      </c>
+      <c r="D31" s="200"/>
+      <c r="E31" s="195"/>
+      <c r="F31" s="161">
+        <f t="shared" si="1"/>
+        <v>239154.97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="211">
+        <v>44616</v>
+      </c>
+      <c r="B32" s="194" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" s="195">
+        <v>40039.56</v>
+      </c>
+      <c r="D32" s="200"/>
+      <c r="E32" s="195"/>
+      <c r="F32" s="161">
+        <f t="shared" si="1"/>
+        <v>279194.53000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="211">
+        <v>44616</v>
+      </c>
+      <c r="B33" s="194" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="195">
+        <v>1553.4</v>
+      </c>
+      <c r="D33" s="200"/>
+      <c r="E33" s="195"/>
+      <c r="F33" s="161">
+        <f t="shared" si="1"/>
+        <v>280747.93000000005</v>
+      </c>
+      <c r="G33" s="162"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="211">
+        <v>44617</v>
+      </c>
+      <c r="B34" s="194" t="s">
+        <v>168</v>
+      </c>
+      <c r="C34" s="195">
+        <v>97272.02</v>
+      </c>
+      <c r="D34" s="219">
+        <v>44620</v>
+      </c>
+      <c r="E34" s="192">
+        <v>378019.95</v>
+      </c>
+      <c r="F34" s="161">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="211">
+        <v>44618</v>
+      </c>
+      <c r="B35" s="194" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="195">
+        <v>96471.72</v>
+      </c>
+      <c r="D35" s="200"/>
+      <c r="E35" s="195"/>
+      <c r="F35" s="161">
+        <f t="shared" si="1"/>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="211"/>
+      <c r="B36" s="194"/>
+      <c r="C36" s="195"/>
+      <c r="D36" s="200"/>
+      <c r="E36" s="195"/>
+      <c r="F36" s="161">
+        <f t="shared" si="1"/>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="211"/>
+      <c r="B37" s="194"/>
+      <c r="C37" s="195"/>
+      <c r="D37" s="200"/>
+      <c r="E37" s="195"/>
+      <c r="F37" s="161">
+        <f t="shared" si="1"/>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="211"/>
+      <c r="B38" s="194"/>
+      <c r="C38" s="195"/>
+      <c r="D38" s="200"/>
+      <c r="E38" s="195"/>
+      <c r="F38" s="161">
+        <f t="shared" si="1"/>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="163"/>
+      <c r="B39" s="160"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="159"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="161">
+        <f t="shared" si="1"/>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="163"/>
+      <c r="B40" s="160"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="159"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="161">
+        <f t="shared" si="1"/>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="163"/>
+      <c r="B41" s="160"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="159"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="161">
+        <f t="shared" si="1"/>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="164"/>
+      <c r="B42" s="165"/>
+      <c r="C42" s="166"/>
+      <c r="D42" s="159"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="161">
+        <f t="shared" si="1"/>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="164"/>
+      <c r="B43" s="165"/>
+      <c r="C43" s="166"/>
+      <c r="D43" s="159"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="161">
+        <f t="shared" si="1"/>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="164"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="166"/>
+      <c r="D44" s="159"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="161">
+        <f t="shared" si="1"/>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="164"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="166"/>
+      <c r="D45" s="159"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="161">
+        <f t="shared" si="1"/>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="164"/>
+      <c r="B46" s="165"/>
+      <c r="C46" s="166"/>
+      <c r="D46" s="159"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="161">
+        <f t="shared" si="1"/>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="164"/>
+      <c r="B47" s="165"/>
+      <c r="C47" s="166"/>
+      <c r="D47" s="159"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="161">
+        <f t="shared" si="1"/>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="164"/>
+      <c r="B48" s="165"/>
+      <c r="C48" s="166"/>
+      <c r="D48" s="159"/>
+      <c r="E48" s="86"/>
+      <c r="F48" s="161">
+        <f t="shared" si="1"/>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="164"/>
+      <c r="B49" s="165"/>
+      <c r="C49" s="166"/>
+      <c r="D49" s="159"/>
+      <c r="E49" s="86"/>
+      <c r="F49" s="161">
+        <f t="shared" si="1"/>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="164"/>
+      <c r="B50" s="165"/>
+      <c r="C50" s="166"/>
+      <c r="D50" s="159"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="161">
+        <f t="shared" si="1"/>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="164"/>
+      <c r="B51" s="165"/>
+      <c r="C51" s="166"/>
+      <c r="D51" s="159"/>
+      <c r="E51" s="86"/>
+      <c r="F51" s="161">
+        <f t="shared" si="1"/>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="164"/>
+      <c r="B52" s="165"/>
+      <c r="C52" s="166"/>
+      <c r="D52" s="159"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="161">
+        <f t="shared" ref="F52:F76" si="2">F51+C52-E52</f>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="164"/>
+      <c r="B53" s="165"/>
+      <c r="C53" s="166"/>
+      <c r="D53" s="159"/>
+      <c r="E53" s="86"/>
+      <c r="F53" s="161">
+        <f t="shared" si="2"/>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="164"/>
+      <c r="B54" s="165"/>
+      <c r="C54" s="166"/>
+      <c r="D54" s="159"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="161">
+        <f t="shared" si="2"/>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="164"/>
+      <c r="B55" s="165"/>
+      <c r="C55" s="166"/>
+      <c r="D55" s="159"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="161">
+        <f t="shared" si="2"/>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="164"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="166"/>
+      <c r="D56" s="159"/>
+      <c r="E56" s="86"/>
+      <c r="F56" s="161">
+        <f t="shared" si="2"/>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="164"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="166"/>
+      <c r="D57" s="159"/>
+      <c r="E57" s="86"/>
+      <c r="F57" s="161">
+        <f t="shared" si="2"/>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="164"/>
+      <c r="B58" s="165"/>
+      <c r="C58" s="166"/>
+      <c r="D58" s="159"/>
+      <c r="E58" s="86"/>
+      <c r="F58" s="161">
+        <f t="shared" si="2"/>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="164"/>
+      <c r="B59" s="165"/>
+      <c r="C59" s="166"/>
+      <c r="D59" s="159"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="161">
+        <f t="shared" si="2"/>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="167"/>
+      <c r="B60" s="168"/>
+      <c r="C60" s="169"/>
+      <c r="D60" s="170"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="161">
+        <f t="shared" si="2"/>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="167"/>
+      <c r="B61" s="168"/>
+      <c r="C61" s="169"/>
+      <c r="D61" s="170"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="161">
+        <f t="shared" si="2"/>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="167"/>
+      <c r="B62" s="168"/>
+      <c r="C62" s="169"/>
+      <c r="D62" s="170"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="161">
+        <f t="shared" si="2"/>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="167"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="169"/>
+      <c r="D63" s="170"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="161">
+        <f t="shared" si="2"/>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="167"/>
+      <c r="B64" s="168"/>
+      <c r="C64" s="169"/>
+      <c r="D64" s="170"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="161">
+        <f t="shared" si="2"/>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="167"/>
+      <c r="B65" s="168"/>
+      <c r="C65" s="169"/>
+      <c r="D65" s="170"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="161">
+        <f t="shared" si="2"/>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="164"/>
+      <c r="B66" s="165"/>
+      <c r="C66" s="166"/>
+      <c r="D66" s="171"/>
+      <c r="E66" s="86"/>
+      <c r="F66" s="161">
+        <f t="shared" si="2"/>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="164"/>
+      <c r="B67" s="165"/>
+      <c r="C67" s="166"/>
+      <c r="D67" s="171"/>
+      <c r="E67" s="86"/>
+      <c r="F67" s="161">
+        <f t="shared" si="2"/>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="164"/>
+      <c r="B68" s="165"/>
+      <c r="C68" s="166"/>
+      <c r="D68" s="171"/>
+      <c r="E68" s="86"/>
+      <c r="F68" s="161">
+        <f t="shared" si="2"/>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="164"/>
+      <c r="B69" s="165"/>
+      <c r="C69" s="166"/>
+      <c r="D69" s="171"/>
+      <c r="E69" s="86"/>
+      <c r="F69" s="161">
+        <f t="shared" si="2"/>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="164"/>
+      <c r="B70" s="165"/>
+      <c r="C70" s="166"/>
+      <c r="D70" s="171"/>
+      <c r="E70" s="86"/>
+      <c r="F70" s="161">
+        <f t="shared" si="2"/>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="164"/>
+      <c r="B71" s="165"/>
+      <c r="C71" s="166"/>
+      <c r="D71" s="171"/>
+      <c r="E71" s="86"/>
+      <c r="F71" s="161">
+        <f t="shared" si="2"/>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="164"/>
+      <c r="B72" s="165"/>
+      <c r="C72" s="166"/>
+      <c r="D72" s="171"/>
+      <c r="E72" s="86"/>
+      <c r="F72" s="161">
+        <f t="shared" si="2"/>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="164"/>
+      <c r="B73" s="165"/>
+      <c r="C73" s="166"/>
+      <c r="D73" s="171"/>
+      <c r="E73" s="86"/>
+      <c r="F73" s="161">
+        <f t="shared" si="2"/>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="164"/>
+      <c r="B74" s="165"/>
+      <c r="C74" s="166"/>
+      <c r="D74" s="171"/>
+      <c r="E74" s="86"/>
+      <c r="F74" s="161">
+        <f t="shared" si="2"/>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="164"/>
+      <c r="B75" s="165"/>
+      <c r="C75" s="166"/>
+      <c r="D75" s="171"/>
+      <c r="E75" s="86"/>
+      <c r="F75" s="161">
+        <f t="shared" si="2"/>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="172"/>
+      <c r="B76" s="173"/>
+      <c r="C76" s="34">
+        <v>0</v>
+      </c>
+      <c r="D76" s="174"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="161">
+        <f t="shared" si="2"/>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="212"/>
+      <c r="B77" s="176"/>
+      <c r="C77" s="177">
+        <f>SUM(C3:C76)</f>
+        <v>1631962.7700000003</v>
+      </c>
+      <c r="D77" s="189"/>
+      <c r="E77" s="178">
+        <f>SUM(E6:E76)</f>
+        <v>1341156.3699999999</v>
+      </c>
+      <c r="F77" s="179">
+        <f>F76</f>
+        <v>96471.72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D78" s="170"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D79" s="170"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B80" s="190"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="190"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="190"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="190"/>
+      <c r="F83" s="117"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="190"/>
+      <c r="F84" s="117"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="190"/>
+      <c r="F85" s="117"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="190"/>
+      <c r="F86" s="117"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="190"/>
+      <c r="F87" s="117"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="190"/>
+      <c r="F88" s="117"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="190"/>
+      <c r="F89" s="117"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="190"/>
+      <c r="F90" s="117"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="190"/>
+      <c r="F91" s="117"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="190"/>
+      <c r="E92" s="117"/>
+      <c r="F92" s="117"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="190"/>
+      <c r="E93" s="117"/>
+      <c r="F93" s="117"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="190"/>
+      <c r="E94" s="117"/>
+      <c r="F94" s="117"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="190"/>
+      <c r="E95" s="117"/>
+      <c r="F95" s="117"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="190"/>
+      <c r="E96" s="117"/>
+      <c r="F96" s="117"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="190"/>
+      <c r="E97" s="117"/>
+      <c r="F97" s="117"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="190"/>
+      <c r="E98" s="117"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="190"/>
+      <c r="E99" s="117"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="190"/>
+      <c r="E100" s="117"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="190"/>
+      <c r="E101" s="117"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="190"/>
+      <c r="E102" s="117"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="190"/>
+      <c r="E103" s="117"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="190"/>
+      <c r="E104" s="117"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="190"/>
+      <c r="E105" s="117"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="190"/>
+      <c r="E106" s="117"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="190"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="190"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="190"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="190"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="190"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="190"/>
+    </row>
+    <row r="113" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C113" s="180"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:U81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="116" customWidth="1"/>
+    <col min="3" max="3" width="16" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="12" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B1" s="249"/>
+      <c r="C1" s="251" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="252"/>
+      <c r="E1" s="252"/>
+      <c r="F1" s="252"/>
+      <c r="G1" s="252"/>
+      <c r="H1" s="252"/>
+      <c r="I1" s="252"/>
+      <c r="J1" s="252"/>
+      <c r="K1" s="252"/>
+      <c r="L1" s="252"/>
+      <c r="M1" s="252"/>
+    </row>
+    <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="250"/>
+      <c r="C2" s="3"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="253" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="254"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="H3" s="255" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="255"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="14"/>
+      <c r="R3" s="222" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17">
+        <v>184342.19</v>
+      </c>
+      <c r="D4" s="18">
+        <v>44619</v>
+      </c>
+      <c r="E4" s="256" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="257"/>
+      <c r="H4" s="258" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="259"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="229" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="230"/>
+      <c r="R4" s="223"/>
+    </row>
+    <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="25">
+        <v>44620</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="28">
+        <v>44620</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="30">
+        <v>44620</v>
+      </c>
+      <c r="I5" s="31"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="183"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="32">
+        <v>0</v>
+      </c>
+      <c r="N5" s="33">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="34">
+        <f>N5+M5+L5+I5+C5</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>0</v>
+      </c>
+      <c r="R5" s="184">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25">
+        <v>44621</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="28">
+        <v>44621</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="30">
+        <v>44621</v>
+      </c>
+      <c r="I6" s="31"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="32">
+        <v>0</v>
+      </c>
+      <c r="N6" s="33">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="34">
+        <f t="shared" ref="P6:P39" si="0">N6+M6+L6+I6+C6</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>0</v>
+      </c>
+      <c r="R6" s="8"/>
+    </row>
+    <row r="7" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25">
+        <v>44622</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="28">
+        <v>44622</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="30">
+        <v>44622</v>
+      </c>
+      <c r="I7" s="31"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="32">
+        <v>0</v>
+      </c>
+      <c r="N7" s="33">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+      <c r="R7" s="9"/>
+    </row>
+    <row r="8" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25">
+        <v>44623</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="28">
+        <v>44623</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="30">
+        <v>44623</v>
+      </c>
+      <c r="I8" s="31"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="32">
+        <v>0</v>
+      </c>
+      <c r="N8" s="33">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="9">
+        <f t="shared" ref="Q8:Q39" si="1">P8-F8</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25">
+        <v>44624</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="28">
+        <v>44624</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="30">
+        <v>44624</v>
+      </c>
+      <c r="I9" s="31"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="32">
+        <v>0</v>
+      </c>
+      <c r="N9" s="33">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="34">
+        <f>N9+M9+L9+I9+C9</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9">
+        <f>P9-F9</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="8"/>
+    </row>
+    <row r="10" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25">
+        <v>44625</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="28">
+        <v>44625</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="30">
+        <v>44625</v>
+      </c>
+      <c r="I10" s="31"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="32">
+        <v>0</v>
+      </c>
+      <c r="N10" s="33">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="9"/>
+      <c r="U10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="24"/>
+      <c r="B11" s="25">
+        <v>44626</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="28">
+        <v>44626</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="30">
+        <v>44626</v>
+      </c>
+      <c r="I11" s="31"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="32">
+        <v>0</v>
+      </c>
+      <c r="N11" s="33">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="34">
+        <f>N11+M11+L11+I11+C11</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25">
+        <v>44627</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="28">
+        <v>44627</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="30">
+        <v>44627</v>
+      </c>
+      <c r="I12" s="31"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="32">
+        <v>0</v>
+      </c>
+      <c r="N12" s="33">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="8"/>
+    </row>
+    <row r="13" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="24"/>
+      <c r="B13" s="25">
+        <v>44628</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="28">
+        <v>44628</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="30">
+        <v>44628</v>
+      </c>
+      <c r="I13" s="31"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="32">
+        <v>0</v>
+      </c>
+      <c r="N13" s="33">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="185"/>
+    </row>
+    <row r="14" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="24"/>
+      <c r="B14" s="25">
+        <v>44629</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="28">
+        <v>44629</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="30">
+        <v>44629</v>
+      </c>
+      <c r="I14" s="31"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="32">
+        <v>0</v>
+      </c>
+      <c r="N14" s="33">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="185"/>
+    </row>
+    <row r="15" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="24"/>
+      <c r="B15" s="25">
+        <v>44630</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="28">
+        <v>44630</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="30">
+        <v>44630</v>
+      </c>
+      <c r="I15" s="31"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="32">
+        <v>0</v>
+      </c>
+      <c r="N15" s="33">
+        <v>0</v>
+      </c>
+      <c r="P15" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="8"/>
+    </row>
+    <row r="16" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25">
+        <v>44631</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="28">
+        <v>44631</v>
+      </c>
+      <c r="F16" s="29"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="30">
+        <v>44631</v>
+      </c>
+      <c r="I16" s="31"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="32">
+        <v>0</v>
+      </c>
+      <c r="N16" s="33">
+        <v>0</v>
+      </c>
+      <c r="P16" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="24"/>
+      <c r="B17" s="25">
+        <v>44632</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="28">
+        <v>44632</v>
+      </c>
+      <c r="F17" s="29"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="30">
+        <v>44632</v>
+      </c>
+      <c r="I17" s="31"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="32">
+        <v>0</v>
+      </c>
+      <c r="N17" s="33">
+        <v>0</v>
+      </c>
+      <c r="P17" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="8"/>
+    </row>
+    <row r="18" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25">
+        <v>44633</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="28">
+        <v>44633</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="30">
+        <v>44633</v>
+      </c>
+      <c r="I18" s="31"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="32">
+        <v>0</v>
+      </c>
+      <c r="N18" s="33">
+        <v>0</v>
+      </c>
+      <c r="P18" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="8"/>
+    </row>
+    <row r="19" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25">
+        <v>44634</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="28">
+        <v>44634</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="30">
+        <v>44634</v>
+      </c>
+      <c r="I19" s="31"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="32">
+        <v>0</v>
+      </c>
+      <c r="N19" s="33">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="8"/>
+    </row>
+    <row r="20" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="24"/>
+      <c r="B20" s="25">
+        <v>44635</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="28">
+        <v>44635</v>
+      </c>
+      <c r="F20" s="29"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="30">
+        <v>44635</v>
+      </c>
+      <c r="I20" s="31"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="32">
+        <v>0</v>
+      </c>
+      <c r="N20" s="33">
+        <v>0</v>
+      </c>
+      <c r="P20" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="8"/>
+    </row>
+    <row r="21" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="24"/>
+      <c r="B21" s="25">
+        <v>44636</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="28">
+        <v>44636</v>
+      </c>
+      <c r="F21" s="29"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="30">
+        <v>44636</v>
+      </c>
+      <c r="I21" s="31"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="32">
+        <v>0</v>
+      </c>
+      <c r="N21" s="33">
+        <v>0</v>
+      </c>
+      <c r="P21" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="8"/>
+    </row>
+    <row r="22" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="24"/>
+      <c r="B22" s="25">
+        <v>44637</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="28">
+        <v>44637</v>
+      </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="30">
+        <v>44637</v>
+      </c>
+      <c r="I22" s="31"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="32">
+        <v>0</v>
+      </c>
+      <c r="N22" s="33">
+        <v>0</v>
+      </c>
+      <c r="P22" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="8"/>
+    </row>
+    <row r="23" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="24"/>
+      <c r="B23" s="25">
+        <v>44638</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="28">
+        <v>44638</v>
+      </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="30">
+        <v>44638</v>
+      </c>
+      <c r="I23" s="31"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="32">
+        <v>0</v>
+      </c>
+      <c r="N23" s="33">
+        <v>0</v>
+      </c>
+      <c r="P23" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="8"/>
+    </row>
+    <row r="24" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="24"/>
+      <c r="B24" s="25">
+        <v>44639</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="28">
+        <v>44639</v>
+      </c>
+      <c r="F24" s="29"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="30">
+        <v>44639</v>
+      </c>
+      <c r="I24" s="31"/>
+      <c r="J24" s="181"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="32">
+        <v>0</v>
+      </c>
+      <c r="N24" s="33">
+        <v>0</v>
+      </c>
+      <c r="P24" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="8"/>
+    </row>
+    <row r="25" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="24"/>
+      <c r="B25" s="25">
+        <v>44640</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="28">
+        <v>44640</v>
+      </c>
+      <c r="F25" s="29"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="30">
+        <v>44640</v>
+      </c>
+      <c r="I25" s="31"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="32">
+        <v>0</v>
+      </c>
+      <c r="N25" s="33">
+        <v>0</v>
+      </c>
+      <c r="O25" t="s">
+        <v>8</v>
+      </c>
+      <c r="P25" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="8"/>
+      <c r="S25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="24"/>
+      <c r="B26" s="25">
+        <v>44641</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="28">
+        <v>44641</v>
+      </c>
+      <c r="F26" s="29"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="30">
+        <v>44641</v>
+      </c>
+      <c r="I26" s="31"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="32">
+        <v>0</v>
+      </c>
+      <c r="N26" s="33">
+        <v>0</v>
+      </c>
+      <c r="P26" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="9"/>
+    </row>
+    <row r="27" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="24"/>
+      <c r="B27" s="25">
+        <v>44642</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="28">
+        <v>44642</v>
+      </c>
+      <c r="F27" s="29"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="30">
+        <v>44642</v>
+      </c>
+      <c r="I27" s="31"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="32">
+        <v>0</v>
+      </c>
+      <c r="N27" s="33">
+        <v>0</v>
+      </c>
+      <c r="P27" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="8"/>
+    </row>
+    <row r="28" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="24"/>
+      <c r="B28" s="25">
+        <v>44643</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="28">
+        <v>44643</v>
+      </c>
+      <c r="F28" s="29"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="30">
+        <v>44643</v>
+      </c>
+      <c r="I28" s="31"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="32">
+        <v>0</v>
+      </c>
+      <c r="N28" s="33">
+        <v>0</v>
+      </c>
+      <c r="P28" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="8"/>
+    </row>
+    <row r="29" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="24"/>
+      <c r="B29" s="25">
+        <v>44644</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="28">
+        <v>44644</v>
+      </c>
+      <c r="F29" s="29"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="30">
+        <v>44644</v>
+      </c>
+      <c r="I29" s="31"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="32">
+        <v>0</v>
+      </c>
+      <c r="N29" s="33">
+        <v>0</v>
+      </c>
+      <c r="P29" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="8"/>
+    </row>
+    <row r="30" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="24"/>
+      <c r="B30" s="25">
+        <v>44645</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="28">
+        <v>44645</v>
+      </c>
+      <c r="F30" s="29"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="30">
+        <v>44645</v>
+      </c>
+      <c r="I30" s="31"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="32">
+        <v>0</v>
+      </c>
+      <c r="N30" s="33">
+        <v>0</v>
+      </c>
+      <c r="P30" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="8"/>
+    </row>
+    <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="24"/>
+      <c r="B31" s="25">
+        <v>44646</v>
+      </c>
+      <c r="C31" s="26"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="28">
+        <v>44646</v>
+      </c>
+      <c r="F31" s="29"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="30">
+        <v>44646</v>
+      </c>
+      <c r="I31" s="31"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="32">
+        <v>0</v>
+      </c>
+      <c r="N31" s="33">
+        <v>0</v>
+      </c>
+      <c r="P31" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="8"/>
+    </row>
+    <row r="32" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="24"/>
+      <c r="B32" s="25">
+        <v>44647</v>
+      </c>
+      <c r="C32" s="26"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="28">
+        <v>44647</v>
+      </c>
+      <c r="F32" s="29"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="30">
+        <v>44647</v>
+      </c>
+      <c r="I32" s="31"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="32">
+        <v>0</v>
+      </c>
+      <c r="N32" s="33">
+        <v>0</v>
+      </c>
+      <c r="P32" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="8"/>
+    </row>
+    <row r="33" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="24"/>
+      <c r="B33" s="25">
+        <v>44648</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="28">
+        <v>44648</v>
+      </c>
+      <c r="F33" s="29"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="30">
+        <v>44648</v>
+      </c>
+      <c r="I33" s="31"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="32">
+        <v>0</v>
+      </c>
+      <c r="N33" s="33">
+        <v>0</v>
+      </c>
+      <c r="P33" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="8"/>
+    </row>
+    <row r="34" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="24"/>
+      <c r="B34" s="25">
+        <v>44649</v>
+      </c>
+      <c r="C34" s="26"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="28">
+        <v>44649</v>
+      </c>
+      <c r="F34" s="29"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="30">
+        <v>44649</v>
+      </c>
+      <c r="I34" s="31"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="32">
+        <v>0</v>
+      </c>
+      <c r="N34" s="33">
+        <v>0</v>
+      </c>
+      <c r="P34" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="8"/>
+    </row>
+    <row r="35" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="24"/>
+      <c r="B35" s="25">
+        <v>44650</v>
+      </c>
+      <c r="C35" s="26"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="28">
+        <v>44650</v>
+      </c>
+      <c r="F35" s="29"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="30">
+        <v>44650</v>
+      </c>
+      <c r="I35" s="31"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="32">
+        <v>0</v>
+      </c>
+      <c r="N35" s="33">
+        <v>0</v>
+      </c>
+      <c r="P35" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="8"/>
+    </row>
+    <row r="36" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="24"/>
+      <c r="B36" s="25">
+        <v>44651</v>
+      </c>
+      <c r="C36" s="26"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="28">
+        <v>44651</v>
+      </c>
+      <c r="F36" s="29"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="30">
+        <v>44651</v>
+      </c>
+      <c r="I36" s="31"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="182"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="32">
+        <v>0</v>
+      </c>
+      <c r="N36" s="33">
+        <v>0</v>
+      </c>
+      <c r="P36" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="8"/>
+    </row>
+    <row r="37" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="24"/>
+      <c r="B37" s="25">
+        <v>44652</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="28">
+        <v>44652</v>
+      </c>
+      <c r="F37" s="29"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="30">
+        <v>44652</v>
+      </c>
+      <c r="I37" s="31"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="82"/>
+      <c r="M37" s="32">
+        <v>0</v>
+      </c>
+      <c r="N37" s="33">
+        <v>0</v>
+      </c>
+      <c r="P37" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="24"/>
+      <c r="B38" s="25">
+        <v>44653</v>
+      </c>
+      <c r="C38" s="26"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="28">
+        <v>44653</v>
+      </c>
+      <c r="F38" s="29"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="30">
+        <v>44653</v>
+      </c>
+      <c r="I38" s="31"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="80"/>
+      <c r="M38" s="32">
+        <v>0</v>
+      </c>
+      <c r="N38" s="33">
+        <v>0</v>
+      </c>
+      <c r="P38" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="24"/>
+      <c r="B39" s="25">
+        <v>44654</v>
+      </c>
+      <c r="C39" s="26"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="28">
+        <v>44654</v>
+      </c>
+      <c r="F39" s="85"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="30">
+        <v>44654</v>
+      </c>
+      <c r="I39" s="31"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="32">
+        <v>0</v>
+      </c>
+      <c r="N39" s="33">
+        <v>0</v>
+      </c>
+      <c r="P39" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="24"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="88"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="89"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="231">
+        <f>SUM(M5:M39)</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="233">
+        <f>SUM(N5:N39)</f>
+        <v>0</v>
+      </c>
+      <c r="P40" s="34">
+        <f>SUM(P5:P39)</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="9">
+        <f>SUM(Q5:Q38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="24"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="232"/>
+      <c r="N41" s="234"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="9"/>
+    </row>
+    <row r="42" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="24"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="94"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="76"/>
+      <c r="L42" s="80"/>
+      <c r="M42" s="96"/>
+      <c r="N42" s="97"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="9"/>
+    </row>
+    <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="24"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="90"/>
+      <c r="D43" s="91"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="94"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="76"/>
+      <c r="L43" s="80"/>
+      <c r="M43" s="96"/>
+      <c r="N43" s="97"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="9"/>
+    </row>
+    <row r="44" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="24"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="91"/>
+      <c r="E44" s="92"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="94"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="73"/>
+      <c r="K44" s="76"/>
+      <c r="L44" s="80"/>
+      <c r="M44" s="96"/>
+      <c r="N44" s="97"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="9"/>
+    </row>
+    <row r="45" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="24"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="90"/>
+      <c r="D45" s="91"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="94"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="76"/>
+      <c r="L45" s="80"/>
+      <c r="M45" s="96"/>
+      <c r="N45" s="97"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="9"/>
+    </row>
+    <row r="46" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="24"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="90"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="92"/>
+      <c r="F46" s="93"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="94"/>
+      <c r="I46" s="95"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="76"/>
+      <c r="L46" s="80"/>
+      <c r="M46" s="96"/>
+      <c r="N46" s="97"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="9"/>
+    </row>
+    <row r="47" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="24"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="90"/>
+      <c r="D47" s="91"/>
+      <c r="E47" s="92"/>
+      <c r="F47" s="93"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="94"/>
+      <c r="I47" s="95"/>
+      <c r="J47" s="73"/>
+      <c r="K47" s="76"/>
+      <c r="L47" s="80"/>
+      <c r="M47" s="96"/>
+      <c r="N47" s="97"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="9"/>
+    </row>
+    <row r="48" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="24"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="91"/>
+      <c r="E48" s="92"/>
+      <c r="F48" s="93"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="94"/>
+      <c r="I48" s="95"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="76"/>
+      <c r="L48" s="80"/>
+      <c r="M48" s="96"/>
+      <c r="N48" s="97"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="9"/>
+    </row>
+    <row r="49" spans="1:17" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="24"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="91"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="93"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="94"/>
+      <c r="I49" s="95"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="76"/>
+      <c r="L49" s="80"/>
+      <c r="M49" s="96"/>
+      <c r="N49" s="97"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="9"/>
+    </row>
+    <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="24"/>
+      <c r="B50" s="98"/>
+      <c r="C50" s="26">
+        <v>0</v>
+      </c>
+      <c r="D50" s="99"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="90"/>
+      <c r="H50" s="101"/>
+      <c r="I50" s="95"/>
+      <c r="J50" s="102"/>
+      <c r="K50" s="103"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="104"/>
+      <c r="N50" s="33"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="9"/>
+    </row>
+    <row r="51" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="106">
+        <f>SUM(C5:C50)</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="107"/>
+      <c r="E51" s="108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="109">
+        <f>SUM(F5:F50)</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="107"/>
+      <c r="H51" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" s="111">
+        <f>SUM(I5:I50)</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="112"/>
+      <c r="K51" s="113" t="s">
+        <v>11</v>
+      </c>
+      <c r="L51" s="114">
+        <f>SUM(L5:L50)</f>
+        <v>0</v>
+      </c>
+      <c r="M51" s="115"/>
+      <c r="N51" s="115"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="9"/>
+    </row>
+    <row r="52" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="9"/>
+    </row>
+    <row r="53" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="117"/>
+      <c r="B53" s="118"/>
+      <c r="C53" s="1"/>
+      <c r="H53" s="235" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="236"/>
+      <c r="J53" s="119"/>
+      <c r="K53" s="237">
+        <f>I51+L51</f>
+        <v>0</v>
+      </c>
+      <c r="L53" s="238"/>
+      <c r="M53" s="239">
+        <f>N40+M40</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="240"/>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="9"/>
+    </row>
+    <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D54" s="241" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="241"/>
+      <c r="F54" s="120">
+        <f>F51-K53-C51</f>
+        <v>0</v>
+      </c>
+      <c r="I54" s="121"/>
+      <c r="J54" s="122"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="9"/>
+    </row>
+    <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D55" s="242" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="242"/>
+      <c r="F55" s="115">
+        <v>0</v>
+      </c>
+      <c r="I55" s="243" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" s="244"/>
+      <c r="K55" s="245">
+        <f>F57+F58+F59</f>
+        <v>0</v>
+      </c>
+      <c r="L55" s="246"/>
+      <c r="P55" s="34"/>
+      <c r="Q55" s="9"/>
+    </row>
+    <row r="56" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D56" s="123"/>
+      <c r="E56" s="117"/>
+      <c r="F56" s="124">
+        <v>0</v>
+      </c>
+      <c r="I56" s="125"/>
+      <c r="J56" s="126"/>
+      <c r="K56" s="127"/>
+      <c r="L56" s="128"/>
+    </row>
+    <row r="57" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="117" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="115">
+        <f>SUM(F54:F56)</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="24"/>
+      <c r="I57" s="129" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="130"/>
+      <c r="K57" s="247">
+        <f>-C4</f>
+        <v>-184342.19</v>
+      </c>
+      <c r="L57" s="248"/>
+    </row>
+    <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D58" s="131" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" s="132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C59" s="133"/>
+      <c r="D59" s="224" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="225"/>
+      <c r="F59" s="134">
+        <v>0</v>
+      </c>
+      <c r="I59" s="226" t="s">
+        <v>124</v>
+      </c>
+      <c r="J59" s="227"/>
+      <c r="K59" s="228">
+        <f>K55+K57</f>
+        <v>-184342.19</v>
+      </c>
+      <c r="L59" s="228"/>
+    </row>
+    <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C60" s="135"/>
+      <c r="D60" s="136"/>
+      <c r="E60" s="137"/>
+      <c r="F60" s="138"/>
+      <c r="J60" s="139"/>
+    </row>
+    <row r="61" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I61" s="140"/>
+      <c r="J61" s="140"/>
+      <c r="K61" s="141"/>
+      <c r="L61" s="141"/>
+    </row>
+    <row r="62" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="142"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="144"/>
+      <c r="E62" s="34"/>
+      <c r="I62" s="140"/>
+      <c r="J62" s="140"/>
+      <c r="K62" s="141"/>
+      <c r="L62" s="141"/>
+      <c r="M62" s="145"/>
+      <c r="N62" s="117"/>
+    </row>
+    <row r="63" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="142"/>
+      <c r="C63" s="146"/>
+      <c r="E63" s="34"/>
+      <c r="M63" s="145"/>
+      <c r="N63" s="117"/>
+    </row>
+    <row r="64" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="142"/>
+      <c r="C64" s="146"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="147"/>
+      <c r="L64" s="148"/>
+      <c r="M64" s="1"/>
+    </row>
+    <row r="65" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B65" s="142"/>
+      <c r="C65" s="146"/>
+      <c r="E65" s="34"/>
+      <c r="M65" s="1"/>
+    </row>
+    <row r="66" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="142"/>
+      <c r="C66" s="146"/>
+      <c r="D66" s="149"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="150"/>
+      <c r="M66" s="1"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D67" s="149"/>
+      <c r="E67" s="151"/>
+      <c r="F67" s="34"/>
+      <c r="M67" s="1"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D68" s="149"/>
+      <c r="E68" s="151"/>
+      <c r="F68" s="34"/>
+      <c r="M68" s="1"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D69" s="149"/>
+      <c r="E69" s="151"/>
+      <c r="F69" s="34"/>
+      <c r="M69" s="1"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D70" s="149"/>
+      <c r="E70" s="151"/>
+      <c r="F70" s="34"/>
+      <c r="M70" s="1"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D71" s="149"/>
+      <c r="E71" s="151"/>
+      <c r="F71" s="34"/>
+      <c r="M71" s="1"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D72" s="149"/>
+      <c r="E72" s="151"/>
+      <c r="F72" s="34"/>
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D73" s="149"/>
+      <c r="E73" s="151"/>
+      <c r="F73" s="34"/>
+      <c r="M73" s="1"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D74" s="149"/>
+      <c r="E74" s="151"/>
+      <c r="F74" s="34"/>
+      <c r="M74" s="1"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D75" s="149"/>
+      <c r="E75" s="151"/>
+      <c r="F75" s="34"/>
+      <c r="M75" s="1"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D76" s="149"/>
+      <c r="E76" s="151"/>
+      <c r="F76" s="34"/>
+      <c r="M76" s="1"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D77" s="149"/>
+      <c r="E77" s="151"/>
+      <c r="F77" s="34"/>
+      <c r="M77" s="1"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D78" s="149"/>
+      <c r="E78" s="151"/>
+      <c r="F78" s="34"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D79" s="149"/>
+      <c r="E79" s="149"/>
+      <c r="F79" s="150"/>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D80" s="149"/>
+      <c r="E80" s="149"/>
+      <c r="F80" s="150"/>
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D81" s="149"/>
+      <c r="E81" s="149"/>
+      <c r="F81" s="150"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:G136"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" style="270" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="273" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="201" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="117"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="261" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="271"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="153" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="262" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="155" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="156" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="199" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="156" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="157" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="263">
+        <v>44620</v>
+      </c>
+      <c r="B3" s="194" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="195">
+        <v>63981.4</v>
+      </c>
       <c r="D3" s="200"/>
       <c r="E3" s="195"/>
       <c r="F3" s="158">
         <f>C3-E3</f>
-        <v>0</v>
+        <v>63981.4</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="193"/>
-      <c r="B4" s="194"/>
-      <c r="C4" s="195"/>
+      <c r="A4" s="263">
+        <v>44620</v>
+      </c>
+      <c r="B4" s="194" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="195">
+        <v>28417.4</v>
+      </c>
       <c r="D4" s="200"/>
       <c r="E4" s="195"/>
       <c r="F4" s="196">
         <f>C4-E4+F3</f>
-        <v>0</v>
+        <v>92398.8</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="193"/>
-      <c r="B5" s="194"/>
-      <c r="C5" s="195"/>
+      <c r="A5" s="263">
+        <v>44620</v>
+      </c>
+      <c r="B5" s="194" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="195">
+        <v>3848.8</v>
+      </c>
       <c r="D5" s="200"/>
       <c r="E5" s="195"/>
       <c r="F5" s="161">
         <f>C5-E5+F4</f>
-        <v>0</v>
+        <v>96247.6</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="193"/>
-      <c r="B6" s="194"/>
-      <c r="C6" s="195"/>
+      <c r="A6" s="263">
+        <v>44622</v>
+      </c>
+      <c r="B6" s="194" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="195">
+        <v>20212.599999999999</v>
+      </c>
       <c r="D6" s="200"/>
       <c r="E6" s="195"/>
       <c r="F6" s="161">
         <f>F5+C6-E6</f>
-        <v>0</v>
+        <v>116460.20000000001</v>
       </c>
       <c r="G6" s="162"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="193"/>
-      <c r="B7" s="194"/>
-      <c r="C7" s="195"/>
+      <c r="A7" s="263">
+        <v>44622</v>
+      </c>
+      <c r="B7" s="194" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="195">
+        <v>2787.2</v>
+      </c>
       <c r="D7" s="200"/>
       <c r="E7" s="195"/>
       <c r="F7" s="161">
         <f t="shared" ref="F7" si="0">F6+C7-E7</f>
-        <v>0</v>
+        <v>119247.40000000001</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="193"/>
-      <c r="B8" s="194"/>
-      <c r="C8" s="195"/>
+      <c r="A8" s="263">
+        <v>44622</v>
+      </c>
+      <c r="B8" s="194" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="195">
+        <v>76427.399999999994</v>
+      </c>
       <c r="D8" s="200"/>
       <c r="E8" s="195"/>
       <c r="F8" s="161">
         <f>F7+C8-E8</f>
-        <v>0</v>
+        <v>195674.8</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="193"/>
-      <c r="B9" s="194"/>
-      <c r="C9" s="195"/>
+      <c r="A9" s="263">
+        <v>44622</v>
+      </c>
+      <c r="B9" s="194" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="195">
+        <v>21897</v>
+      </c>
       <c r="D9" s="200"/>
       <c r="E9" s="195"/>
       <c r="F9" s="161">
         <f>F8+C9-E9</f>
-        <v>0</v>
+        <v>217571.8</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="193"/>
-      <c r="B10" s="194"/>
-      <c r="C10" s="195"/>
+      <c r="A10" s="263">
+        <v>44624</v>
+      </c>
+      <c r="B10" s="194" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="195">
+        <v>117583.32</v>
+      </c>
       <c r="D10" s="200"/>
       <c r="E10" s="195"/>
       <c r="F10" s="161">
         <f>F9+C10-E10</f>
-        <v>0</v>
+        <v>335155.12</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="193"/>
-      <c r="B11" s="194"/>
-      <c r="C11" s="195"/>
+      <c r="A11" s="263">
+        <v>44624</v>
+      </c>
+      <c r="B11" s="194" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="195">
+        <v>23317.8</v>
+      </c>
       <c r="D11" s="200"/>
       <c r="E11" s="195"/>
       <c r="F11" s="161">
         <f t="shared" ref="F11:F74" si="1">F10+C11-E11</f>
-        <v>0</v>
+        <v>358472.92</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="193"/>
-      <c r="B12" s="194"/>
-      <c r="C12" s="195"/>
+      <c r="A12" s="263">
+        <v>44625</v>
+      </c>
+      <c r="B12" s="194" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="195">
+        <v>92582.65</v>
+      </c>
       <c r="D12" s="200"/>
       <c r="E12" s="195"/>
       <c r="F12" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>451055.56999999995</v>
       </c>
       <c r="G12" s="162"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="193"/>
-      <c r="B13" s="194"/>
-      <c r="C13" s="195"/>
+      <c r="A13" s="263">
+        <v>44625</v>
+      </c>
+      <c r="B13" s="194" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="195">
+        <v>37678.199999999997</v>
+      </c>
       <c r="D13" s="200"/>
       <c r="E13" s="195"/>
       <c r="F13" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>488733.76999999996</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="193"/>
-      <c r="B14" s="194"/>
-      <c r="C14" s="195"/>
+      <c r="A14" s="263">
+        <v>44627</v>
+      </c>
+      <c r="B14" s="194" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="195">
+        <v>71302.149999999994</v>
+      </c>
       <c r="D14" s="200"/>
       <c r="E14" s="195"/>
       <c r="F14" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>560035.91999999993</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="193"/>
-      <c r="B15" s="194"/>
-      <c r="C15" s="195"/>
+      <c r="A15" s="263">
+        <v>44629</v>
+      </c>
+      <c r="B15" s="194" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15" s="195">
+        <v>122152.6</v>
+      </c>
       <c r="D15" s="200"/>
       <c r="E15" s="195"/>
       <c r="F15" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>682188.5199999999</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="193"/>
-      <c r="B16" s="194"/>
-      <c r="C16" s="195"/>
+      <c r="A16" s="263">
+        <v>44630</v>
+      </c>
+      <c r="B16" s="194" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" s="195">
+        <v>19883.2</v>
+      </c>
       <c r="D16" s="200"/>
       <c r="E16" s="195"/>
       <c r="F16" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>702071.71999999986</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="193"/>
-      <c r="B17" s="194"/>
-      <c r="C17" s="195"/>
+      <c r="A17" s="263">
+        <v>44630</v>
+      </c>
+      <c r="B17" s="194" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" s="195">
+        <v>76107.320000000007</v>
+      </c>
       <c r="D17" s="200"/>
       <c r="E17" s="195"/>
       <c r="F17" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>778179.0399999998</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="193"/>
-      <c r="B18" s="194"/>
-      <c r="C18" s="195"/>
+      <c r="A18" s="263">
+        <v>44631</v>
+      </c>
+      <c r="B18" s="275" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="204"/>
       <c r="D18" s="200"/>
       <c r="E18" s="195"/>
       <c r="F18" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>778179.0399999998</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="193"/>
-      <c r="B19" s="194"/>
-      <c r="C19" s="195"/>
+      <c r="A19" s="263">
+        <v>44632</v>
+      </c>
+      <c r="B19" s="275" t="s">
+        <v>187</v>
+      </c>
+      <c r="C19" s="204"/>
       <c r="D19" s="200"/>
       <c r="E19" s="195"/>
       <c r="F19" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>778179.0399999998</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="193"/>
-      <c r="B20" s="194"/>
-      <c r="C20" s="195"/>
+      <c r="A20" s="263">
+        <v>44632</v>
+      </c>
+      <c r="B20" s="275" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20" s="204"/>
       <c r="D20" s="200"/>
       <c r="E20" s="195"/>
       <c r="F20" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>778179.0399999998</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="193"/>
-      <c r="B21" s="194"/>
-      <c r="C21" s="195"/>
+      <c r="A21" s="263">
+        <v>44632</v>
+      </c>
+      <c r="B21" s="275" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21" s="204"/>
       <c r="D21" s="200"/>
       <c r="E21" s="195"/>
       <c r="F21" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>778179.0399999998</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="193"/>
-      <c r="B22" s="194"/>
-      <c r="C22" s="195"/>
+      <c r="A22" s="263">
+        <v>44634</v>
+      </c>
+      <c r="B22" s="194" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="195">
+        <v>95938.68</v>
+      </c>
       <c r="D22" s="202"/>
       <c r="E22" s="195"/>
       <c r="F22" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>874117.71999999974</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="193"/>
-      <c r="B23" s="194"/>
-      <c r="C23" s="195"/>
+      <c r="A23" s="263">
+        <v>44634</v>
+      </c>
+      <c r="B23" s="194" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="195">
+        <v>9400.2000000000007</v>
+      </c>
       <c r="D23" s="200"/>
       <c r="E23" s="195"/>
       <c r="F23" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="193"/>
+      <c r="A24" s="263"/>
       <c r="B24" s="194"/>
       <c r="C24" s="195"/>
       <c r="D24" s="200"/>
       <c r="E24" s="195"/>
       <c r="F24" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
       <c r="G24" s="162"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="193"/>
+      <c r="A25" s="263"/>
       <c r="B25" s="194"/>
       <c r="C25" s="195"/>
       <c r="D25" s="200"/>
       <c r="E25" s="195"/>
       <c r="F25" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="193"/>
+      <c r="A26" s="263"/>
       <c r="B26" s="194"/>
       <c r="C26" s="195"/>
       <c r="D26" s="200"/>
       <c r="E26" s="195"/>
       <c r="F26" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="193"/>
+      <c r="A27" s="263"/>
       <c r="B27" s="194"/>
       <c r="C27" s="195"/>
       <c r="D27" s="200"/>
       <c r="E27" s="195"/>
       <c r="F27" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="193"/>
+      <c r="A28" s="263"/>
       <c r="B28" s="194"/>
       <c r="C28" s="195"/>
       <c r="D28" s="200"/>
       <c r="E28" s="195"/>
       <c r="F28" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="193"/>
+      <c r="A29" s="263"/>
       <c r="B29" s="194"/>
       <c r="C29" s="195"/>
       <c r="D29" s="200"/>
       <c r="E29" s="195"/>
       <c r="F29" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="193"/>
+      <c r="A30" s="263"/>
       <c r="B30" s="194"/>
       <c r="C30" s="195"/>
       <c r="D30" s="200"/>
       <c r="E30" s="195"/>
       <c r="F30" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="193"/>
+      <c r="A31" s="263"/>
       <c r="B31" s="194"/>
       <c r="C31" s="195"/>
       <c r="D31" s="200"/>
       <c r="E31" s="195"/>
       <c r="F31" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="193"/>
+      <c r="A32" s="263"/>
       <c r="B32" s="194"/>
       <c r="C32" s="195"/>
       <c r="D32" s="200"/>
       <c r="E32" s="195"/>
       <c r="F32" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
       <c r="G32" s="162"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="193"/>
+      <c r="A33" s="263"/>
       <c r="B33" s="194"/>
       <c r="C33" s="195"/>
       <c r="D33" s="200"/>
       <c r="E33" s="195"/>
       <c r="F33" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="193"/>
+      <c r="A34" s="263"/>
       <c r="B34" s="194"/>
       <c r="C34" s="195"/>
       <c r="D34" s="200"/>
       <c r="E34" s="195"/>
       <c r="F34" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="193"/>
+      <c r="A35" s="263"/>
       <c r="B35" s="194"/>
       <c r="C35" s="195"/>
       <c r="D35" s="200"/>
       <c r="E35" s="195"/>
       <c r="F35" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="193"/>
+      <c r="A36" s="263"/>
       <c r="B36" s="194"/>
       <c r="C36" s="195"/>
       <c r="D36" s="200"/>
       <c r="E36" s="195"/>
       <c r="F36" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="193"/>
+      <c r="A37" s="263"/>
       <c r="B37" s="194"/>
       <c r="C37" s="195"/>
       <c r="D37" s="200"/>
       <c r="E37" s="195"/>
       <c r="F37" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="193"/>
+      <c r="A38" s="263"/>
       <c r="B38" s="194"/>
       <c r="C38" s="195"/>
       <c r="D38" s="200"/>
       <c r="E38" s="195"/>
       <c r="F38" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="193"/>
+      <c r="A39" s="263"/>
       <c r="B39" s="194"/>
       <c r="C39" s="195"/>
       <c r="D39" s="200"/>
       <c r="E39" s="195"/>
       <c r="F39" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="193"/>
+      <c r="A40" s="263"/>
       <c r="B40" s="194"/>
       <c r="C40" s="195"/>
       <c r="D40" s="200"/>
       <c r="E40" s="195"/>
       <c r="F40" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="193"/>
+      <c r="A41" s="263"/>
       <c r="B41" s="194"/>
       <c r="C41" s="195"/>
       <c r="D41" s="200"/>
       <c r="E41" s="195"/>
       <c r="F41" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="193"/>
+      <c r="A42" s="263"/>
       <c r="B42" s="194"/>
       <c r="C42" s="195"/>
       <c r="D42" s="200"/>
       <c r="E42" s="195"/>
       <c r="F42" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="193"/>
+      <c r="A43" s="263"/>
       <c r="B43" s="194"/>
       <c r="C43" s="195"/>
       <c r="D43" s="200"/>
       <c r="E43" s="195"/>
       <c r="F43" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="193"/>
+      <c r="A44" s="263"/>
       <c r="B44" s="194"/>
       <c r="C44" s="195"/>
       <c r="D44" s="200"/>
       <c r="E44" s="195"/>
       <c r="F44" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="193"/>
+      <c r="A45" s="263"/>
       <c r="B45" s="194"/>
       <c r="C45" s="195"/>
       <c r="D45" s="200"/>
       <c r="E45" s="195"/>
       <c r="F45" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="193"/>
+      <c r="A46" s="263"/>
       <c r="B46" s="194"/>
       <c r="C46" s="195"/>
       <c r="D46" s="200"/>
       <c r="E46" s="195"/>
       <c r="F46" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="193"/>
+      <c r="A47" s="263"/>
       <c r="B47" s="194"/>
       <c r="C47" s="195"/>
       <c r="D47" s="200"/>
       <c r="E47" s="195"/>
       <c r="F47" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="193"/>
+      <c r="A48" s="263"/>
       <c r="B48" s="194"/>
       <c r="C48" s="195"/>
       <c r="D48" s="200"/>
       <c r="E48" s="195"/>
       <c r="F48" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="193"/>
+      <c r="A49" s="263"/>
       <c r="B49" s="194"/>
       <c r="C49" s="195"/>
       <c r="D49" s="200"/>
       <c r="E49" s="195"/>
       <c r="F49" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="193"/>
+      <c r="A50" s="263"/>
       <c r="B50" s="194"/>
       <c r="C50" s="195"/>
       <c r="D50" s="200"/>
       <c r="E50" s="195"/>
       <c r="F50" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="193"/>
+      <c r="A51" s="263"/>
       <c r="B51" s="194"/>
       <c r="C51" s="195"/>
       <c r="D51" s="200"/>
       <c r="E51" s="195"/>
       <c r="F51" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="193"/>
+      <c r="A52" s="263"/>
       <c r="B52" s="194"/>
       <c r="C52" s="195"/>
       <c r="D52" s="200"/>
       <c r="E52" s="195"/>
       <c r="F52" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="159"/>
+      <c r="A53" s="264"/>
       <c r="B53" s="160"/>
       <c r="C53" s="86"/>
       <c r="D53" s="159"/>
       <c r="E53" s="86"/>
       <c r="F53" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="159"/>
+      <c r="A54" s="264"/>
       <c r="B54" s="160"/>
       <c r="C54" s="86"/>
       <c r="D54" s="159"/>
       <c r="E54" s="86"/>
       <c r="F54" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="159"/>
+      <c r="A55" s="264"/>
       <c r="B55" s="160"/>
       <c r="C55" s="86"/>
       <c r="D55" s="159"/>
       <c r="E55" s="86"/>
       <c r="F55" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="163"/>
+      <c r="A56" s="265"/>
       <c r="B56" s="160"/>
       <c r="C56" s="86"/>
       <c r="D56" s="159"/>
       <c r="E56" s="86"/>
       <c r="F56" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="163"/>
+      <c r="A57" s="265"/>
       <c r="B57" s="160"/>
       <c r="C57" s="86"/>
       <c r="D57" s="159"/>
       <c r="E57" s="86"/>
       <c r="F57" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="163"/>
+      <c r="A58" s="265"/>
       <c r="B58" s="160"/>
       <c r="C58" s="86"/>
       <c r="D58" s="159"/>
       <c r="E58" s="86"/>
       <c r="F58" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="159"/>
+      <c r="A59" s="264"/>
       <c r="B59" s="160"/>
       <c r="C59" s="86"/>
       <c r="D59" s="159"/>
       <c r="E59" s="86"/>
       <c r="F59" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="159"/>
+      <c r="A60" s="264"/>
       <c r="B60" s="160"/>
       <c r="C60" s="86"/>
       <c r="D60" s="159"/>
       <c r="E60" s="86"/>
       <c r="F60" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="159"/>
+      <c r="A61" s="264"/>
       <c r="B61" s="160"/>
       <c r="C61" s="86"/>
       <c r="D61" s="159"/>
       <c r="E61" s="86"/>
       <c r="F61" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="163"/>
+      <c r="A62" s="265"/>
       <c r="B62" s="160"/>
       <c r="C62" s="86"/>
       <c r="D62" s="159"/>
       <c r="E62" s="86"/>
       <c r="F62" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="163"/>
+      <c r="A63" s="265"/>
       <c r="B63" s="160"/>
       <c r="C63" s="86"/>
       <c r="D63" s="159"/>
       <c r="E63" s="86"/>
       <c r="F63" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="163"/>
+      <c r="A64" s="265"/>
       <c r="B64" s="160"/>
       <c r="C64" s="86"/>
       <c r="D64" s="159"/>
       <c r="E64" s="86"/>
       <c r="F64" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="164"/>
+      <c r="A65" s="266"/>
       <c r="B65" s="165"/>
       <c r="C65" s="166"/>
       <c r="D65" s="159"/>
       <c r="E65" s="86"/>
       <c r="F65" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="164"/>
+      <c r="A66" s="266"/>
       <c r="B66" s="165"/>
       <c r="C66" s="166"/>
       <c r="D66" s="159"/>
       <c r="E66" s="86"/>
       <c r="F66" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="164"/>
+      <c r="A67" s="266"/>
       <c r="B67" s="165"/>
       <c r="C67" s="166"/>
       <c r="D67" s="159"/>
       <c r="E67" s="86"/>
       <c r="F67" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="164"/>
+      <c r="A68" s="266"/>
       <c r="B68" s="165"/>
       <c r="C68" s="166"/>
       <c r="D68" s="159"/>
       <c r="E68" s="86"/>
       <c r="F68" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="164"/>
+      <c r="A69" s="266"/>
       <c r="B69" s="165"/>
       <c r="C69" s="166"/>
       <c r="D69" s="159"/>
       <c r="E69" s="86"/>
       <c r="F69" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="164"/>
+      <c r="A70" s="266"/>
       <c r="B70" s="165"/>
       <c r="C70" s="166"/>
       <c r="D70" s="159"/>
       <c r="E70" s="86"/>
       <c r="F70" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="164"/>
+      <c r="A71" s="266"/>
       <c r="B71" s="165"/>
       <c r="C71" s="166"/>
       <c r="D71" s="159"/>
       <c r="E71" s="86"/>
       <c r="F71" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="164"/>
+      <c r="A72" s="266"/>
       <c r="B72" s="165"/>
       <c r="C72" s="166"/>
       <c r="D72" s="159"/>
       <c r="E72" s="86"/>
       <c r="F72" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="164"/>
+      <c r="A73" s="266"/>
       <c r="B73" s="165"/>
       <c r="C73" s="166"/>
       <c r="D73" s="159"/>
       <c r="E73" s="86"/>
       <c r="F73" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="164"/>
+      <c r="A74" s="266"/>
       <c r="B74" s="165"/>
       <c r="C74" s="166"/>
       <c r="D74" s="159"/>
       <c r="E74" s="86"/>
       <c r="F74" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="164"/>
+      <c r="A75" s="266"/>
       <c r="B75" s="165"/>
       <c r="C75" s="166"/>
       <c r="D75" s="159"/>
       <c r="E75" s="86"/>
       <c r="F75" s="161">
         <f t="shared" ref="F75:F99" si="2">F74+C75-E75</f>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="164"/>
+      <c r="A76" s="266"/>
       <c r="B76" s="165"/>
       <c r="C76" s="166"/>
       <c r="D76" s="159"/>
       <c r="E76" s="86"/>
       <c r="F76" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="164"/>
+      <c r="A77" s="266"/>
       <c r="B77" s="165"/>
       <c r="C77" s="166"/>
       <c r="D77" s="159"/>
       <c r="E77" s="86"/>
       <c r="F77" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="164"/>
+      <c r="A78" s="266"/>
       <c r="B78" s="165"/>
       <c r="C78" s="166"/>
       <c r="D78" s="159"/>
       <c r="E78" s="86"/>
       <c r="F78" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="164"/>
+      <c r="A79" s="266"/>
       <c r="B79" s="165"/>
       <c r="C79" s="166"/>
       <c r="D79" s="159"/>
       <c r="E79" s="86"/>
       <c r="F79" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="164"/>
+      <c r="A80" s="266"/>
       <c r="B80" s="165"/>
       <c r="C80" s="166"/>
       <c r="D80" s="159"/>
       <c r="E80" s="86"/>
       <c r="F80" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="164"/>
+      <c r="A81" s="266"/>
       <c r="B81" s="165"/>
       <c r="C81" s="166"/>
       <c r="D81" s="159"/>
       <c r="E81" s="86"/>
       <c r="F81" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="164"/>
+      <c r="A82" s="266"/>
       <c r="B82" s="165"/>
       <c r="C82" s="166"/>
       <c r="D82" s="159"/>
       <c r="E82" s="86"/>
       <c r="F82" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="167"/>
+      <c r="A83" s="267"/>
       <c r="B83" s="168"/>
       <c r="C83" s="169"/>
       <c r="D83" s="170"/>
       <c r="E83" s="34"/>
       <c r="F83" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="167"/>
+      <c r="A84" s="267"/>
       <c r="B84" s="168"/>
       <c r="C84" s="169"/>
       <c r="D84" s="170"/>
       <c r="E84" s="34"/>
       <c r="F84" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="167"/>
+      <c r="A85" s="267"/>
       <c r="B85" s="168"/>
       <c r="C85" s="169"/>
       <c r="D85" s="170"/>
       <c r="E85" s="34"/>
       <c r="F85" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="167"/>
+      <c r="A86" s="267"/>
       <c r="B86" s="168"/>
       <c r="C86" s="169"/>
       <c r="D86" s="170"/>
       <c r="E86" s="34"/>
       <c r="F86" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="167"/>
+      <c r="A87" s="267"/>
       <c r="B87" s="168"/>
       <c r="C87" s="169"/>
       <c r="D87" s="170"/>
       <c r="E87" s="34"/>
       <c r="F87" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="167"/>
+      <c r="A88" s="267"/>
       <c r="B88" s="168"/>
       <c r="C88" s="169"/>
       <c r="D88" s="170"/>
       <c r="E88" s="34"/>
       <c r="F88" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="164"/>
+      <c r="A89" s="266"/>
       <c r="B89" s="165"/>
       <c r="C89" s="166"/>
       <c r="D89" s="171"/>
       <c r="E89" s="86"/>
       <c r="F89" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="164"/>
+      <c r="A90" s="266"/>
       <c r="B90" s="165"/>
       <c r="C90" s="166"/>
       <c r="D90" s="171"/>
       <c r="E90" s="86"/>
       <c r="F90" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="164"/>
+      <c r="A91" s="266"/>
       <c r="B91" s="165"/>
       <c r="C91" s="166"/>
       <c r="D91" s="171"/>
       <c r="E91" s="86"/>
       <c r="F91" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="164"/>
+      <c r="A92" s="266"/>
       <c r="B92" s="165"/>
       <c r="C92" s="166"/>
       <c r="D92" s="171"/>
       <c r="E92" s="86"/>
       <c r="F92" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="164"/>
+      <c r="A93" s="266"/>
       <c r="B93" s="165"/>
       <c r="C93" s="166"/>
       <c r="D93" s="171"/>
       <c r="E93" s="86"/>
       <c r="F93" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="164"/>
+      <c r="A94" s="266"/>
       <c r="B94" s="165"/>
       <c r="C94" s="166"/>
       <c r="D94" s="171"/>
       <c r="E94" s="86"/>
       <c r="F94" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="164"/>
+      <c r="A95" s="266"/>
       <c r="B95" s="165"/>
       <c r="C95" s="166"/>
       <c r="D95" s="171"/>
       <c r="E95" s="86"/>
       <c r="F95" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="164"/>
+      <c r="A96" s="266"/>
       <c r="B96" s="165"/>
       <c r="C96" s="166"/>
       <c r="D96" s="171"/>
       <c r="E96" s="86"/>
       <c r="F96" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="164"/>
+      <c r="A97" s="266"/>
       <c r="B97" s="165"/>
       <c r="C97" s="166"/>
       <c r="D97" s="171"/>
       <c r="E97" s="86"/>
       <c r="F97" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="164"/>
+      <c r="A98" s="266"/>
       <c r="B98" s="165"/>
       <c r="C98" s="166"/>
       <c r="D98" s="171"/>
       <c r="E98" s="86"/>
       <c r="F98" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="172"/>
+      <c r="A99" s="268"/>
       <c r="B99" s="173"/>
       <c r="C99" s="34">
         <v>0</v>
@@ -10503,15 +14510,15 @@
       <c r="E99" s="34"/>
       <c r="F99" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="175"/>
-      <c r="B100" s="176"/>
+      <c r="A100" s="269"/>
+      <c r="B100" s="272"/>
       <c r="C100" s="177">
         <f>SUM(C5:C99)</f>
-        <v>0</v>
+        <v>791119.11999999988</v>
       </c>
       <c r="D100" s="189"/>
       <c r="E100" s="178">
@@ -10520,7 +14527,7 @@
       </c>
       <c r="F100" s="179">
         <f>F99</f>
-        <v>0</v>
+        <v>883517.91999999969</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -10530,155 +14537,144 @@
       <c r="D102" s="170"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B103" s="190"/>
+      <c r="B103" s="274"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="190"/>
+      <c r="B104" s="274"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B105" s="190"/>
+      <c r="B105" s="274"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B106" s="190"/>
+      <c r="B106" s="274"/>
       <c r="F106" s="117"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B107" s="190"/>
+      <c r="B107" s="274"/>
       <c r="F107" s="117"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B108" s="190"/>
+      <c r="B108" s="274"/>
       <c r="F108" s="117"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B109" s="190"/>
+      <c r="B109" s="274"/>
       <c r="F109" s="117"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B110" s="190"/>
+      <c r="B110" s="274"/>
       <c r="F110" s="117"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B111" s="190"/>
+      <c r="B111" s="274"/>
       <c r="F111" s="117"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B112" s="190"/>
+      <c r="B112" s="274"/>
       <c r="F112" s="117"/>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B113" s="190"/>
+      <c r="B113" s="274"/>
       <c r="F113" s="117"/>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B114" s="190"/>
+      <c r="B114" s="274"/>
       <c r="F114" s="117"/>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B115" s="190"/>
+      <c r="B115" s="274"/>
       <c r="E115" s="117"/>
       <c r="F115" s="117"/>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B116" s="190"/>
+      <c r="B116" s="274"/>
       <c r="E116" s="117"/>
       <c r="F116" s="117"/>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B117" s="190"/>
+      <c r="B117" s="274"/>
       <c r="E117" s="117"/>
       <c r="F117" s="117"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B118" s="190"/>
+      <c r="B118" s="274"/>
       <c r="E118" s="117"/>
       <c r="F118" s="117"/>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B119" s="190"/>
+      <c r="B119" s="274"/>
       <c r="E119" s="117"/>
       <c r="F119" s="117"/>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B120" s="190"/>
+      <c r="B120" s="274"/>
       <c r="E120" s="117"/>
       <c r="F120" s="117"/>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B121" s="190"/>
+      <c r="B121" s="274"/>
       <c r="E121" s="117"/>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B122" s="190"/>
+      <c r="B122" s="274"/>
       <c r="E122" s="117"/>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B123" s="190"/>
+      <c r="B123" s="274"/>
       <c r="E123" s="117"/>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B124" s="190"/>
+      <c r="B124" s="274"/>
       <c r="E124" s="117"/>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B125" s="190"/>
+      <c r="B125" s="274"/>
       <c r="E125" s="117"/>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B126" s="190"/>
+      <c r="B126" s="274"/>
       <c r="E126" s="117"/>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B127" s="190"/>
+      <c r="B127" s="274"/>
       <c r="E127" s="117"/>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B128" s="190"/>
+      <c r="B128" s="274"/>
       <c r="E128" s="117"/>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B129" s="190"/>
+      <c r="B129" s="274"/>
       <c r="E129" s="117"/>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B130" s="190"/>
+      <c r="B130" s="274"/>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B131" s="190"/>
+      <c r="B131" s="274"/>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B132" s="190"/>
+      <c r="B132" s="274"/>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B133" s="190"/>
+      <c r="B133" s="274"/>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B134" s="190"/>
+      <c r="B134" s="274"/>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B135" s="190"/>
+      <c r="B135" s="274"/>
     </row>
     <row r="136" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C136" s="180"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/BALANCE   HERRADURA  MaRzO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/BALANCE   HERRADURA  MaRzO   2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 2         " sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="199">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -780,6 +780,27 @@
   </si>
   <si>
     <t>15241 C</t>
+  </si>
+  <si>
+    <t>LUZ</t>
+  </si>
+  <si>
+    <t>Proteccion Civil</t>
+  </si>
+  <si>
+    <t>LONGANIZA-ENCHILADA</t>
+  </si>
+  <si>
+    <t>NOMINA # 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPRAS CENTRAL </t>
+  </si>
+  <si>
+    <t>LONGANIZA--CHORIZO</t>
+  </si>
+  <si>
+    <t>NOMINA # 11</t>
   </si>
 </sst>
 </file>
@@ -1973,7 +1994,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="276">
+  <cellXfs count="278">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2380,6 +2401,84 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="38" fillId="6" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="43" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="43" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="43" fillId="6" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="43" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2461,80 +2560,8 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="38" fillId="6" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="43" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="43" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="43" fillId="6" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="43" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2545,8 +2572,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFFF99FF"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFF66CC"/>
       <color rgb="FF99FF99"/>
     </mruColors>
@@ -4108,8 +4135,8 @@
   </sheetPr>
   <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4132,23 +4159,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="249"/>
-      <c r="C1" s="251" t="s">
+      <c r="B1" s="239"/>
+      <c r="C1" s="241" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
-      <c r="I1" s="252"/>
-      <c r="J1" s="252"/>
-      <c r="K1" s="252"/>
-      <c r="L1" s="252"/>
-      <c r="M1" s="252"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="250"/>
+      <c r="B2" s="240"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -4158,21 +4185,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="253" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="254"/>
+      <c r="B3" s="243" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="244"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="255" t="s">
+      <c r="H3" s="245" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="255"/>
+      <c r="I3" s="245"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="222" t="s">
+      <c r="R3" s="250" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4187,14 +4214,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="256" t="s">
+      <c r="E4" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="257"/>
-      <c r="H4" s="258" t="s">
+      <c r="F4" s="247"/>
+      <c r="H4" s="248" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="259"/>
+      <c r="I4" s="249"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -4204,11 +4231,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="229" t="s">
+      <c r="P4" s="257" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="230"/>
-      <c r="R4" s="223"/>
+      <c r="Q4" s="258"/>
+      <c r="R4" s="251"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -5689,11 +5716,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="231">
+      <c r="M40" s="259">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="233">
+      <c r="N40" s="261">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -5719,8 +5746,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="232"/>
-      <c r="N41" s="234"/>
+      <c r="M41" s="260"/>
+      <c r="N41" s="262"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -5935,29 +5962,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="235" t="s">
+      <c r="H53" s="263" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="236"/>
+      <c r="I53" s="264"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="237">
+      <c r="K53" s="265">
         <f>I51+L51</f>
         <v>44516.57</v>
       </c>
-      <c r="L53" s="238"/>
-      <c r="M53" s="239">
+      <c r="L53" s="266"/>
+      <c r="M53" s="267">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="240"/>
+      <c r="N53" s="268"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="241" t="s">
+      <c r="D54" s="269" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="241"/>
+      <c r="E54" s="269"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1567048.43</v>
@@ -5968,22 +5995,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="242" t="s">
+      <c r="D55" s="270" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="242"/>
+      <c r="E55" s="270"/>
       <c r="F55" s="115">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="243" t="s">
+      <c r="I55" s="271" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="244"/>
-      <c r="K55" s="245">
+      <c r="J55" s="272"/>
+      <c r="K55" s="273">
         <f>F57+F58+F59</f>
         <v>302590.17999999993</v>
       </c>
-      <c r="L55" s="246"/>
+      <c r="L55" s="274"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -6014,11 +6041,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="247">
+      <c r="K57" s="275">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="248"/>
+      <c r="L57" s="276"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -6035,22 +6062,22 @@
       <c r="C59" s="133">
         <v>44591</v>
       </c>
-      <c r="D59" s="224" t="s">
+      <c r="D59" s="252" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="225"/>
+      <c r="E59" s="253"/>
       <c r="F59" s="134">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="226" t="s">
+      <c r="I59" s="254" t="s">
         <v>170</v>
       </c>
-      <c r="J59" s="227"/>
-      <c r="K59" s="228">
+      <c r="J59" s="255"/>
+      <c r="K59" s="256">
         <f>K55+K57</f>
         <v>81530.479999999923</v>
       </c>
-      <c r="L59" s="228"/>
+      <c r="L59" s="256"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -6194,12 +6221,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
@@ -6215,6 +6236,12 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8008,8 +8035,8 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8032,23 +8059,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="249"/>
-      <c r="C1" s="251" t="s">
+      <c r="B1" s="239"/>
+      <c r="C1" s="241" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
-      <c r="I1" s="252"/>
-      <c r="J1" s="252"/>
-      <c r="K1" s="252"/>
-      <c r="L1" s="252"/>
-      <c r="M1" s="252"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="250"/>
+      <c r="B2" s="240"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -8058,21 +8085,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="253" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="254"/>
+      <c r="B3" s="243" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="244"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="255" t="s">
+      <c r="H3" s="245" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="255"/>
+      <c r="I3" s="245"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="222" t="s">
+      <c r="R3" s="250" t="s">
         <v>38</v>
       </c>
     </row>
@@ -8087,14 +8114,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="256" t="s">
+      <c r="E4" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="257"/>
-      <c r="H4" s="258" t="s">
+      <c r="F4" s="247"/>
+      <c r="H4" s="248" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="259"/>
+      <c r="I4" s="249"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -8104,11 +8131,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="229" t="s">
+      <c r="P4" s="257" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="230"/>
-      <c r="R4" s="223"/>
+      <c r="Q4" s="258"/>
+      <c r="R4" s="251"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -9072,11 +9099,11 @@
       <c r="H26" s="37">
         <v>44613</v>
       </c>
-      <c r="I26" s="31">
+      <c r="I26" s="95">
         <v>73</v>
       </c>
-      <c r="J26" s="38"/>
-      <c r="K26" s="62"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="238"/>
       <c r="L26" s="48"/>
       <c r="M26" s="32">
         <f>25440+20000</f>
@@ -9572,11 +9599,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="80"/>
-      <c r="M40" s="260">
+      <c r="M40" s="277">
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="233">
+      <c r="N40" s="261">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -9602,8 +9629,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="232"/>
-      <c r="N41" s="234"/>
+      <c r="M41" s="260"/>
+      <c r="N41" s="262"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -9818,29 +9845,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="235" t="s">
+      <c r="H53" s="263" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="236"/>
+      <c r="I53" s="264"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="237">
+      <c r="K53" s="265">
         <f>I51+L51</f>
         <v>40613.21</v>
       </c>
-      <c r="L53" s="238"/>
-      <c r="M53" s="239">
+      <c r="L53" s="266"/>
+      <c r="M53" s="267">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="240"/>
+      <c r="N53" s="268"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="241" t="s">
+      <c r="D54" s="269" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="241"/>
+      <c r="E54" s="269"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1691463.79</v>
@@ -9851,22 +9878,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="242" t="s">
+      <c r="D55" s="270" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="242"/>
+      <c r="E55" s="270"/>
       <c r="F55" s="115">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="243" t="s">
+      <c r="I55" s="271" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="244"/>
-      <c r="K55" s="245">
+      <c r="J55" s="272"/>
+      <c r="K55" s="273">
         <f>F57+F58+F59</f>
         <v>243843.21000000002</v>
       </c>
-      <c r="L55" s="246"/>
+      <c r="L55" s="274"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -9897,11 +9924,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="247">
+      <c r="K57" s="275">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="248"/>
+      <c r="L57" s="276"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -9918,22 +9945,22 @@
       <c r="C59" s="133">
         <v>44619</v>
       </c>
-      <c r="D59" s="224" t="s">
+      <c r="D59" s="252" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="225"/>
+      <c r="E59" s="253"/>
       <c r="F59" s="134">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="226" t="s">
+      <c r="I59" s="254" t="s">
         <v>170</v>
       </c>
-      <c r="J59" s="227"/>
-      <c r="K59" s="228">
+      <c r="J59" s="255"/>
+      <c r="K59" s="256">
         <f>K55+K57</f>
         <v>89528.690000000031</v>
       </c>
-      <c r="L59" s="228"/>
+      <c r="L59" s="256"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -10077,18 +10104,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -10098,6 +10113,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11374,8 +11401,8 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11398,23 +11425,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="249"/>
-      <c r="C1" s="251" t="s">
+      <c r="B1" s="239"/>
+      <c r="C1" s="241" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
-      <c r="I1" s="252"/>
-      <c r="J1" s="252"/>
-      <c r="K1" s="252"/>
-      <c r="L1" s="252"/>
-      <c r="M1" s="252"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="250"/>
+      <c r="B2" s="240"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -11424,21 +11451,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="253" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="254"/>
+      <c r="B3" s="243" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="244"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="255" t="s">
+      <c r="H3" s="245" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="255"/>
+      <c r="I3" s="245"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="222" t="s">
+      <c r="R3" s="250" t="s">
         <v>38</v>
       </c>
     </row>
@@ -11453,14 +11480,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="256" t="s">
+      <c r="E4" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="257"/>
-      <c r="H4" s="258" t="s">
+      <c r="F4" s="247"/>
+      <c r="H4" s="248" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="259"/>
+      <c r="I4" s="249"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -11470,11 +11497,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="229" t="s">
+      <c r="P4" s="257" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="230"/>
-      <c r="R4" s="223"/>
+      <c r="Q4" s="258"/>
+      <c r="R4" s="251"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -11483,70 +11510,92 @@
       <c r="B5" s="25">
         <v>44620</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="26">
+        <v>0</v>
+      </c>
       <c r="D5" s="27"/>
       <c r="E5" s="28">
         <v>44620</v>
       </c>
-      <c r="F5" s="29"/>
+      <c r="F5" s="29">
+        <v>56916</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="30">
         <v>44620</v>
       </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="183"/>
-      <c r="L5" s="9"/>
+      <c r="I5" s="31">
+        <v>698</v>
+      </c>
+      <c r="J5" s="7">
+        <v>44620</v>
+      </c>
+      <c r="K5" s="182" t="s">
+        <v>193</v>
+      </c>
+      <c r="L5" s="9">
+        <v>11500</v>
+      </c>
       <c r="M5" s="32">
-        <v>0</v>
+        <f>20000+23470</f>
+        <v>43470</v>
       </c>
       <c r="N5" s="33">
-        <v>0</v>
+        <v>1246</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="34">
         <f>N5+M5+L5+I5+C5</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="13">
-        <v>0</v>
-      </c>
-      <c r="R5" s="184">
-        <v>310</v>
-      </c>
+        <v>56914</v>
+      </c>
+      <c r="Q5" s="61">
+        <f>P5-F5</f>
+        <v>-2</v>
+      </c>
+      <c r="R5" s="9"/>
     </row>
     <row r="6" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="24"/>
       <c r="B6" s="25">
         <v>44621</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="36"/>
+      <c r="C6" s="26">
+        <v>5100</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>194</v>
+      </c>
       <c r="E6" s="28">
         <v>44621</v>
       </c>
-      <c r="F6" s="29"/>
+      <c r="F6" s="29">
+        <v>58709</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="30">
         <v>44621</v>
       </c>
-      <c r="I6" s="31"/>
+      <c r="I6" s="31">
+        <v>60</v>
+      </c>
       <c r="J6" s="38"/>
       <c r="K6" s="39"/>
       <c r="L6" s="40"/>
       <c r="M6" s="32">
-        <v>0</v>
+        <f>15000+38320</f>
+        <v>53320</v>
       </c>
       <c r="N6" s="33">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="34">
         <f t="shared" ref="P6:P39" si="0">N6+M6+L6+I6+C6</f>
-        <v>0</v>
+        <v>58714</v>
       </c>
       <c r="Q6" s="13">
-        <v>0</v>
+        <f t="shared" ref="Q6:Q40" si="1">P6-F6</f>
+        <v>5</v>
       </c>
       <c r="R6" s="8"/>
     </row>
@@ -11555,22 +11604,28 @@
       <c r="B7" s="25">
         <v>44622</v>
       </c>
-      <c r="C7" s="26"/>
+      <c r="C7" s="26">
+        <v>0</v>
+      </c>
       <c r="D7" s="41"/>
       <c r="E7" s="28">
         <v>44622</v>
       </c>
-      <c r="F7" s="29"/>
+      <c r="F7" s="29">
+        <v>33319</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="30">
         <v>44622</v>
       </c>
-      <c r="I7" s="31"/>
+      <c r="I7" s="31">
+        <v>113</v>
+      </c>
       <c r="J7" s="38"/>
       <c r="K7" s="42"/>
       <c r="L7" s="40"/>
       <c r="M7" s="32">
-        <v>0</v>
+        <v>33206</v>
       </c>
       <c r="N7" s="33">
         <v>0</v>
@@ -11578,9 +11633,10 @@
       <c r="O7" s="2"/>
       <c r="P7" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="9">
+        <v>33319</v>
+      </c>
+      <c r="Q7" s="13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R7" s="9"/>
@@ -11590,33 +11646,40 @@
       <c r="B8" s="25">
         <v>44623</v>
       </c>
-      <c r="C8" s="26"/>
+      <c r="C8" s="26">
+        <v>0</v>
+      </c>
       <c r="D8" s="41"/>
       <c r="E8" s="28">
         <v>44623</v>
       </c>
-      <c r="F8" s="29"/>
+      <c r="F8" s="29">
+        <v>74800</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="30">
         <v>44623</v>
       </c>
-      <c r="I8" s="31"/>
+      <c r="I8" s="31">
+        <v>15</v>
+      </c>
       <c r="J8" s="44"/>
       <c r="K8" s="45"/>
       <c r="L8" s="40"/>
       <c r="M8" s="32">
-        <v>0</v>
+        <f>24900+47651</f>
+        <v>72551</v>
       </c>
       <c r="N8" s="33">
-        <v>0</v>
+        <v>2234</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="9">
-        <f t="shared" ref="Q8:Q39" si="1">P8-F8</f>
+        <v>74800</v>
+      </c>
+      <c r="Q8" s="13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R8" s="9"/>
@@ -11626,33 +11689,40 @@
       <c r="B9" s="25">
         <v>44624</v>
       </c>
-      <c r="C9" s="26"/>
+      <c r="C9" s="26">
+        <v>0</v>
+      </c>
       <c r="D9" s="41"/>
       <c r="E9" s="28">
         <v>44624</v>
       </c>
-      <c r="F9" s="29"/>
+      <c r="F9" s="29">
+        <v>74961</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="30">
         <v>44624</v>
       </c>
-      <c r="I9" s="31"/>
+      <c r="I9" s="31">
+        <v>107</v>
+      </c>
       <c r="J9" s="38"/>
       <c r="K9" s="46"/>
       <c r="L9" s="40"/>
       <c r="M9" s="32">
-        <v>0</v>
+        <f>40000+34810</f>
+        <v>74810</v>
       </c>
       <c r="N9" s="33">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="34">
         <f>N9+M9+L9+I9+C9</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="9">
-        <f>P9-F9</f>
+        <v>74961</v>
+      </c>
+      <c r="Q9" s="13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R9" s="8"/>
@@ -11662,34 +11732,47 @@
       <c r="B10" s="25">
         <v>44625</v>
       </c>
-      <c r="C10" s="26"/>
+      <c r="C10" s="26">
+        <v>0</v>
+      </c>
       <c r="D10" s="36"/>
       <c r="E10" s="28">
         <v>44625</v>
       </c>
-      <c r="F10" s="29"/>
+      <c r="F10" s="29">
+        <v>84896</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="30">
         <v>44625</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="48"/>
+      <c r="I10" s="31">
+        <v>39</v>
+      </c>
+      <c r="J10" s="38">
+        <v>44625</v>
+      </c>
+      <c r="K10" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="L10" s="48">
+        <v>9800</v>
+      </c>
       <c r="M10" s="32">
-        <v>0</v>
+        <f>45000+21140</f>
+        <v>66140</v>
       </c>
       <c r="N10" s="33">
-        <v>0</v>
+        <v>8922</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>84901</v>
       </c>
       <c r="Q10" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R10" s="9"/>
       <c r="U10" t="s">
@@ -11701,30 +11784,39 @@
       <c r="B11" s="25">
         <v>44626</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="36"/>
+      <c r="C11" s="26">
+        <v>7790</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>196</v>
+      </c>
       <c r="E11" s="28">
         <v>44626</v>
       </c>
-      <c r="F11" s="29"/>
+      <c r="F11" s="29">
+        <v>110400</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="30">
         <v>44626</v>
       </c>
-      <c r="I11" s="31"/>
+      <c r="I11" s="31">
+        <v>52</v>
+      </c>
       <c r="J11" s="44"/>
       <c r="K11" s="49"/>
       <c r="L11" s="40"/>
       <c r="M11" s="32">
-        <v>0</v>
+        <f>60000+30000+11311</f>
+        <v>101311</v>
       </c>
       <c r="N11" s="33">
-        <v>0</v>
+        <v>1247</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="34">
         <f>N11+M11+L11+I11+C11</f>
-        <v>0</v>
+        <v>110400</v>
       </c>
       <c r="Q11" s="13">
         <f t="shared" si="1"/>
@@ -11739,32 +11831,39 @@
       <c r="B12" s="25">
         <v>44627</v>
       </c>
-      <c r="C12" s="26"/>
+      <c r="C12" s="26">
+        <v>0</v>
+      </c>
       <c r="D12" s="36"/>
       <c r="E12" s="28">
         <v>44627</v>
       </c>
-      <c r="F12" s="29"/>
+      <c r="F12" s="29">
+        <v>52725</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="30">
         <v>44627</v>
       </c>
-      <c r="I12" s="31"/>
+      <c r="I12" s="31">
+        <v>45</v>
+      </c>
       <c r="J12" s="38"/>
       <c r="K12" s="50"/>
       <c r="L12" s="40"/>
       <c r="M12" s="32">
-        <v>0</v>
+        <f>26020+25560</f>
+        <v>51580</v>
       </c>
       <c r="N12" s="33">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="9">
+        <v>52725</v>
+      </c>
+      <c r="Q12" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11775,22 +11874,31 @@
       <c r="B13" s="25">
         <v>44628</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="41"/>
+      <c r="C13" s="26">
+        <v>2840</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>197</v>
+      </c>
       <c r="E13" s="28">
         <v>44628</v>
       </c>
-      <c r="F13" s="29"/>
+      <c r="F13" s="29">
+        <v>53875</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="30">
         <v>44628</v>
       </c>
-      <c r="I13" s="31"/>
+      <c r="I13" s="31">
+        <v>67</v>
+      </c>
       <c r="J13" s="38"/>
       <c r="K13" s="39"/>
       <c r="L13" s="40"/>
       <c r="M13" s="32">
-        <v>0</v>
+        <f>25000+25970</f>
+        <v>50970</v>
       </c>
       <c r="N13" s="33">
         <v>0</v>
@@ -11798,11 +11906,11 @@
       <c r="O13" s="2"/>
       <c r="P13" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>53877</v>
       </c>
       <c r="Q13" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R13" s="185"/>
     </row>
@@ -11811,34 +11919,41 @@
       <c r="B14" s="25">
         <v>44629</v>
       </c>
-      <c r="C14" s="26"/>
+      <c r="C14" s="26">
+        <v>0</v>
+      </c>
       <c r="D14" s="51"/>
       <c r="E14" s="28">
         <v>44629</v>
       </c>
-      <c r="F14" s="29"/>
+      <c r="F14" s="29">
+        <v>40883</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="30">
         <v>44629</v>
       </c>
-      <c r="I14" s="31"/>
+      <c r="I14" s="31">
+        <v>412</v>
+      </c>
       <c r="J14" s="38"/>
       <c r="K14" s="45"/>
       <c r="L14" s="40"/>
       <c r="M14" s="32">
-        <v>0</v>
+        <f>25430+15000</f>
+        <v>40430</v>
       </c>
       <c r="N14" s="33">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40882</v>
+      </c>
+      <c r="Q14" s="61">
+        <f t="shared" si="1"/>
+        <v>-1</v>
       </c>
       <c r="R14" s="185"/>
     </row>
@@ -11847,33 +11962,40 @@
       <c r="B15" s="25">
         <v>44630</v>
       </c>
-      <c r="C15" s="26"/>
+      <c r="C15" s="26">
+        <v>0</v>
+      </c>
       <c r="D15" s="51"/>
       <c r="E15" s="28">
         <v>44630</v>
       </c>
-      <c r="F15" s="29"/>
+      <c r="F15" s="29">
+        <v>67399</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="30">
         <v>44630</v>
       </c>
-      <c r="I15" s="31"/>
+      <c r="I15" s="31">
+        <v>88</v>
+      </c>
       <c r="J15" s="38"/>
       <c r="K15" s="45"/>
       <c r="L15" s="40"/>
       <c r="M15" s="32">
-        <v>0</v>
+        <f>10000+400+30000+26420</f>
+        <v>66820</v>
       </c>
       <c r="N15" s="33">
-        <v>0</v>
+        <v>497</v>
       </c>
       <c r="P15" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67405</v>
       </c>
       <c r="Q15" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R15" s="8"/>
     </row>
@@ -11882,33 +12004,40 @@
       <c r="B16" s="25">
         <v>44631</v>
       </c>
-      <c r="C16" s="26"/>
+      <c r="C16" s="26">
+        <v>0</v>
+      </c>
       <c r="D16" s="36"/>
       <c r="E16" s="28">
         <v>44631</v>
       </c>
-      <c r="F16" s="29"/>
+      <c r="F16" s="29">
+        <v>90868</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="30">
         <v>44631</v>
       </c>
-      <c r="I16" s="31"/>
+      <c r="I16" s="31">
+        <v>30</v>
+      </c>
       <c r="J16" s="38"/>
       <c r="K16" s="45"/>
       <c r="L16" s="9"/>
       <c r="M16" s="32">
-        <v>0</v>
+        <f>45000+45700</f>
+        <v>90700</v>
       </c>
       <c r="N16" s="33">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="P16" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>90867</v>
+      </c>
+      <c r="Q16" s="61">
+        <f t="shared" si="1"/>
+        <v>-1</v>
       </c>
       <c r="R16" s="8" t="s">
         <v>8</v>
@@ -11919,33 +12048,48 @@
       <c r="B17" s="25">
         <v>44632</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="41"/>
+      <c r="C17" s="26">
+        <v>2040</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>47</v>
+      </c>
       <c r="E17" s="28">
         <v>44632</v>
       </c>
-      <c r="F17" s="29"/>
+      <c r="F17" s="29">
+        <v>87020</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="30">
         <v>44632</v>
       </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="48"/>
+      <c r="I17" s="31">
+        <v>28</v>
+      </c>
+      <c r="J17" s="38">
+        <v>44632</v>
+      </c>
+      <c r="K17" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="L17" s="48">
+        <v>9800</v>
+      </c>
       <c r="M17" s="32">
-        <v>0</v>
+        <f>40000+23370</f>
+        <v>63370</v>
       </c>
       <c r="N17" s="33">
-        <v>0</v>
+        <v>11780</v>
       </c>
       <c r="P17" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>87018</v>
+      </c>
+      <c r="Q17" s="61">
+        <f t="shared" si="1"/>
+        <v>-2</v>
       </c>
       <c r="R17" s="8"/>
     </row>
@@ -11954,31 +12098,40 @@
       <c r="B18" s="25">
         <v>44633</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="36"/>
+      <c r="C18" s="26">
+        <v>24281</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>196</v>
+      </c>
       <c r="E18" s="28">
         <v>44633</v>
       </c>
-      <c r="F18" s="29"/>
+      <c r="F18" s="29">
+        <v>109237</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="30">
         <v>44633</v>
       </c>
-      <c r="I18" s="31"/>
+      <c r="I18" s="31">
+        <v>48</v>
+      </c>
       <c r="J18" s="38"/>
       <c r="K18" s="53"/>
       <c r="L18" s="40"/>
       <c r="M18" s="32">
-        <v>0</v>
+        <f>65000+11662+7772</f>
+        <v>84434</v>
       </c>
       <c r="N18" s="33">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="P18" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="9">
+        <v>109237</v>
+      </c>
+      <c r="Q18" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11989,22 +12142,29 @@
       <c r="B19" s="25">
         <v>44634</v>
       </c>
-      <c r="C19" s="26"/>
+      <c r="C19" s="26">
+        <v>0</v>
+      </c>
       <c r="D19" s="36"/>
       <c r="E19" s="28">
         <v>44634</v>
       </c>
-      <c r="F19" s="29"/>
+      <c r="F19" s="29">
+        <v>44651</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="30">
         <v>44634</v>
       </c>
-      <c r="I19" s="31"/>
+      <c r="I19" s="31">
+        <v>85</v>
+      </c>
       <c r="J19" s="38"/>
       <c r="K19" s="54"/>
       <c r="L19" s="55"/>
       <c r="M19" s="32">
-        <v>0</v>
+        <f>21166+23400</f>
+        <v>44566</v>
       </c>
       <c r="N19" s="33">
         <v>0</v>
@@ -12012,9 +12172,9 @@
       <c r="O19" s="2"/>
       <c r="P19" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="9">
+        <v>44651</v>
+      </c>
+      <c r="Q19" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -12025,33 +12185,40 @@
       <c r="B20" s="25">
         <v>44635</v>
       </c>
-      <c r="C20" s="26"/>
+      <c r="C20" s="26">
+        <v>0</v>
+      </c>
       <c r="D20" s="36"/>
       <c r="E20" s="28">
         <v>44635</v>
       </c>
-      <c r="F20" s="29"/>
+      <c r="F20" s="29">
+        <v>65142</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="30">
         <v>44635</v>
       </c>
-      <c r="I20" s="31"/>
+      <c r="I20" s="31">
+        <v>10</v>
+      </c>
       <c r="J20" s="38"/>
       <c r="K20" s="56"/>
       <c r="L20" s="48"/>
       <c r="M20" s="32">
-        <v>0</v>
+        <f>40000+24630</f>
+        <v>64630</v>
       </c>
       <c r="N20" s="33">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="P20" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>65140</v>
+      </c>
+      <c r="Q20" s="61">
+        <f t="shared" si="1"/>
+        <v>-2</v>
       </c>
       <c r="R20" s="8"/>
     </row>
@@ -12060,33 +12227,42 @@
       <c r="B21" s="25">
         <v>44636</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="36"/>
+      <c r="C21" s="26">
+        <v>2862</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>47</v>
+      </c>
       <c r="E21" s="28">
         <v>44636</v>
       </c>
-      <c r="F21" s="29"/>
+      <c r="F21" s="29">
+        <v>37330</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="30">
         <v>44636</v>
       </c>
-      <c r="I21" s="31"/>
+      <c r="I21" s="31">
+        <v>66</v>
+      </c>
       <c r="J21" s="38"/>
       <c r="K21" s="57"/>
       <c r="L21" s="48"/>
       <c r="M21" s="32">
-        <v>0</v>
+        <f>15000+19350</f>
+        <v>34350</v>
       </c>
       <c r="N21" s="33">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P21" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>37328</v>
+      </c>
+      <c r="Q21" s="61">
+        <f t="shared" si="1"/>
+        <v>-2</v>
       </c>
       <c r="R21" s="8"/>
     </row>
@@ -12095,7 +12271,9 @@
       <c r="B22" s="25">
         <v>44637</v>
       </c>
-      <c r="C22" s="26"/>
+      <c r="C22" s="26">
+        <v>0</v>
+      </c>
       <c r="D22" s="36"/>
       <c r="E22" s="28">
         <v>44637</v>
@@ -12107,7 +12285,7 @@
       </c>
       <c r="I22" s="31"/>
       <c r="J22" s="38"/>
-      <c r="K22" s="35"/>
+      <c r="K22" s="45"/>
       <c r="L22" s="58"/>
       <c r="M22" s="32">
         <v>0</v>
@@ -12130,7 +12308,9 @@
       <c r="B23" s="25">
         <v>44638</v>
       </c>
-      <c r="C23" s="26"/>
+      <c r="C23" s="26">
+        <v>0</v>
+      </c>
       <c r="D23" s="36"/>
       <c r="E23" s="28">
         <v>44638</v>
@@ -12165,7 +12345,9 @@
       <c r="B24" s="25">
         <v>44639</v>
       </c>
-      <c r="C24" s="26"/>
+      <c r="C24" s="26">
+        <v>0</v>
+      </c>
       <c r="D24" s="41"/>
       <c r="E24" s="28">
         <v>44639</v>
@@ -12200,7 +12382,9 @@
       <c r="B25" s="25">
         <v>44640</v>
       </c>
-      <c r="C25" s="26"/>
+      <c r="C25" s="26">
+        <v>0</v>
+      </c>
       <c r="D25" s="36"/>
       <c r="E25" s="28">
         <v>44640</v>
@@ -12241,7 +12425,9 @@
       <c r="B26" s="25">
         <v>44641</v>
       </c>
-      <c r="C26" s="26"/>
+      <c r="C26" s="26">
+        <v>0</v>
+      </c>
       <c r="D26" s="36"/>
       <c r="E26" s="28">
         <v>44641</v>
@@ -12276,7 +12462,9 @@
       <c r="B27" s="25">
         <v>44642</v>
       </c>
-      <c r="C27" s="26"/>
+      <c r="C27" s="26">
+        <v>0</v>
+      </c>
       <c r="D27" s="41"/>
       <c r="E27" s="28">
         <v>44642</v>
@@ -12311,7 +12499,9 @@
       <c r="B28" s="25">
         <v>44643</v>
       </c>
-      <c r="C28" s="26"/>
+      <c r="C28" s="26">
+        <v>0</v>
+      </c>
       <c r="D28" s="41"/>
       <c r="E28" s="28">
         <v>44643</v>
@@ -12346,7 +12536,9 @@
       <c r="B29" s="25">
         <v>44644</v>
       </c>
-      <c r="C29" s="26"/>
+      <c r="C29" s="26">
+        <v>0</v>
+      </c>
       <c r="D29" s="71"/>
       <c r="E29" s="28">
         <v>44644</v>
@@ -12381,7 +12573,9 @@
       <c r="B30" s="25">
         <v>44645</v>
       </c>
-      <c r="C30" s="26"/>
+      <c r="C30" s="26">
+        <v>0</v>
+      </c>
       <c r="D30" s="71"/>
       <c r="E30" s="28">
         <v>44645</v>
@@ -12405,7 +12599,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="9">
+      <c r="Q30" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -12416,7 +12610,9 @@
       <c r="B31" s="25">
         <v>44646</v>
       </c>
-      <c r="C31" s="26"/>
+      <c r="C31" s="26">
+        <v>0</v>
+      </c>
       <c r="D31" s="83"/>
       <c r="E31" s="28">
         <v>44646</v>
@@ -12440,7 +12636,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q31" s="9">
+      <c r="Q31" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -12451,7 +12647,9 @@
       <c r="B32" s="25">
         <v>44647</v>
       </c>
-      <c r="C32" s="26"/>
+      <c r="C32" s="26">
+        <v>0</v>
+      </c>
       <c r="D32" s="78"/>
       <c r="E32" s="28">
         <v>44647</v>
@@ -12475,7 +12673,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="9">
+      <c r="Q32" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -12486,7 +12684,9 @@
       <c r="B33" s="25">
         <v>44648</v>
       </c>
-      <c r="C33" s="26"/>
+      <c r="C33" s="26">
+        <v>0</v>
+      </c>
       <c r="D33" s="79"/>
       <c r="E33" s="28">
         <v>44648</v>
@@ -12510,7 +12710,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="9">
+      <c r="Q33" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -12521,7 +12721,9 @@
       <c r="B34" s="25">
         <v>44649</v>
       </c>
-      <c r="C34" s="26"/>
+      <c r="C34" s="26">
+        <v>0</v>
+      </c>
       <c r="D34" s="78"/>
       <c r="E34" s="28">
         <v>44649</v>
@@ -12545,7 +12747,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q34" s="9">
+      <c r="Q34" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -12556,7 +12758,9 @@
       <c r="B35" s="25">
         <v>44650</v>
       </c>
-      <c r="C35" s="26"/>
+      <c r="C35" s="26">
+        <v>0</v>
+      </c>
       <c r="D35" s="83"/>
       <c r="E35" s="28">
         <v>44650</v>
@@ -12570,7 +12774,7 @@
       <c r="J35" s="73"/>
       <c r="K35" s="76"/>
       <c r="L35" s="80"/>
-      <c r="M35" s="32">
+      <c r="M35" s="220">
         <v>0</v>
       </c>
       <c r="N35" s="33">
@@ -12580,7 +12784,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q35" s="9">
+      <c r="Q35" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -12591,7 +12795,9 @@
       <c r="B36" s="25">
         <v>44651</v>
       </c>
-      <c r="C36" s="26"/>
+      <c r="C36" s="26">
+        <v>0</v>
+      </c>
       <c r="D36" s="84"/>
       <c r="E36" s="28">
         <v>44651</v>
@@ -12603,9 +12809,9 @@
       </c>
       <c r="I36" s="31"/>
       <c r="J36" s="73"/>
-      <c r="K36" s="182"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="32">
+      <c r="K36" s="42"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="220">
         <v>0</v>
       </c>
       <c r="N36" s="33">
@@ -12615,7 +12821,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="9">
+      <c r="Q36" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -12626,7 +12832,9 @@
       <c r="B37" s="25">
         <v>44652</v>
       </c>
-      <c r="C37" s="26"/>
+      <c r="C37" s="26">
+        <v>0</v>
+      </c>
       <c r="D37" s="78"/>
       <c r="E37" s="28">
         <v>44652</v>
@@ -12638,9 +12846,9 @@
       </c>
       <c r="I37" s="31"/>
       <c r="J37" s="73"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="82"/>
-      <c r="M37" s="32">
+      <c r="K37" s="221"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="220">
         <v>0</v>
       </c>
       <c r="N37" s="33">
@@ -12650,7 +12858,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q37" s="9">
+      <c r="Q37" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -12660,7 +12868,9 @@
       <c r="B38" s="25">
         <v>44653</v>
       </c>
-      <c r="C38" s="26"/>
+      <c r="C38" s="26">
+        <v>0</v>
+      </c>
       <c r="D38" s="79"/>
       <c r="E38" s="28">
         <v>44653</v>
@@ -12684,7 +12894,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q38" s="9">
+      <c r="Q38" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -12694,7 +12904,9 @@
       <c r="B39" s="25">
         <v>44654</v>
       </c>
-      <c r="C39" s="26"/>
+      <c r="C39" s="26">
+        <v>0</v>
+      </c>
       <c r="D39" s="79"/>
       <c r="E39" s="28">
         <v>44654</v>
@@ -12718,7 +12930,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q39" s="9">
+      <c r="Q39" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -12736,21 +12948,21 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="231">
+      <c r="M40" s="259">
         <f>SUM(M5:M39)</f>
-        <v>0</v>
-      </c>
-      <c r="N40" s="233">
+        <v>1036658</v>
+      </c>
+      <c r="N40" s="261">
         <f>SUM(N5:N39)</f>
-        <v>0</v>
+        <v>28505</v>
       </c>
       <c r="P40" s="34">
         <f>SUM(P5:P39)</f>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="9">
-        <f>SUM(Q5:Q38)</f>
-        <v>0</v>
+        <v>1143139</v>
+      </c>
+      <c r="Q40" s="13">
+        <f t="shared" si="1"/>
+        <v>1143139</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -12764,10 +12976,14 @@
       <c r="H41" s="37"/>
       <c r="I41" s="88"/>
       <c r="J41" s="73"/>
-      <c r="K41" s="76"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="232"/>
-      <c r="N41" s="234"/>
+      <c r="K41" s="237" t="s">
+        <v>192</v>
+      </c>
+      <c r="L41" s="75">
+        <v>25678</v>
+      </c>
+      <c r="M41" s="260"/>
+      <c r="N41" s="262"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -12940,7 +13156,7 @@
       </c>
       <c r="C51" s="106">
         <f>SUM(C5:C50)</f>
-        <v>0</v>
+        <v>44913</v>
       </c>
       <c r="D51" s="107"/>
       <c r="E51" s="108" t="s">
@@ -12948,7 +13164,7 @@
       </c>
       <c r="F51" s="109">
         <f>SUM(F5:F50)</f>
-        <v>0</v>
+        <v>1143131</v>
       </c>
       <c r="G51" s="107"/>
       <c r="H51" s="110" t="s">
@@ -12956,7 +13172,7 @@
       </c>
       <c r="I51" s="111">
         <f>SUM(I5:I50)</f>
-        <v>0</v>
+        <v>1963</v>
       </c>
       <c r="J51" s="112"/>
       <c r="K51" s="113" t="s">
@@ -12964,7 +13180,7 @@
       </c>
       <c r="L51" s="114">
         <f>SUM(L5:L50)</f>
-        <v>0</v>
+        <v>56778</v>
       </c>
       <c r="M51" s="115"/>
       <c r="N51" s="115"/>
@@ -12982,32 +13198,32 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="235" t="s">
+      <c r="H53" s="263" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="236"/>
+      <c r="I53" s="264"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="237">
+      <c r="K53" s="265">
         <f>I51+L51</f>
-        <v>0</v>
-      </c>
-      <c r="L53" s="238"/>
-      <c r="M53" s="239">
+        <v>58741</v>
+      </c>
+      <c r="L53" s="266"/>
+      <c r="M53" s="267">
         <f>N40+M40</f>
-        <v>0</v>
-      </c>
-      <c r="N53" s="240"/>
+        <v>1065163</v>
+      </c>
+      <c r="N53" s="268"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="241" t="s">
+      <c r="D54" s="269" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="241"/>
+      <c r="E54" s="269"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
-        <v>0</v>
+        <v>1039477</v>
       </c>
       <c r="I54" s="121"/>
       <c r="J54" s="122"/>
@@ -13015,22 +13231,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="242" t="s">
+      <c r="D55" s="270" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="242"/>
+      <c r="E55" s="270"/>
       <c r="F55" s="115">
         <v>0</v>
       </c>
-      <c r="I55" s="243" t="s">
+      <c r="I55" s="271" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="244"/>
-      <c r="K55" s="245">
+      <c r="J55" s="272"/>
+      <c r="K55" s="273">
         <f>F57+F58+F59</f>
-        <v>0</v>
-      </c>
-      <c r="L55" s="246"/>
+        <v>1039477</v>
+      </c>
+      <c r="L55" s="274"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -13054,18 +13270,18 @@
       </c>
       <c r="F57" s="115">
         <f>SUM(F54:F56)</f>
-        <v>0</v>
+        <v>1039477</v>
       </c>
       <c r="H57" s="24"/>
       <c r="I57" s="129" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="247">
+      <c r="K57" s="275">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L57" s="248"/>
+      <c r="L57" s="276"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -13080,22 +13296,22 @@
     </row>
     <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C59" s="133"/>
-      <c r="D59" s="224" t="s">
+      <c r="D59" s="252" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="225"/>
+      <c r="E59" s="253"/>
       <c r="F59" s="134">
         <v>0</v>
       </c>
-      <c r="I59" s="226" t="s">
+      <c r="I59" s="254" t="s">
         <v>124</v>
       </c>
-      <c r="J59" s="227"/>
-      <c r="K59" s="228">
+      <c r="J59" s="255"/>
+      <c r="K59" s="256">
         <f>K55+K57</f>
-        <v>-184342.19</v>
-      </c>
-      <c r="L59" s="228"/>
+        <v>855134.81</v>
+      </c>
+      <c r="L59" s="256"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -13239,20 +13455,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
@@ -13260,6 +13462,20 @@
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
     <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13275,14 +13491,14 @@
   </sheetPr>
   <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="270" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="273" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="231" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="234" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="201" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
@@ -13291,10 +13507,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="261" t="s">
+      <c r="A1" s="222" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="271"/>
+      <c r="B1" s="232"/>
       <c r="C1" s="188"/>
       <c r="D1" s="198"/>
       <c r="E1" s="188"/>
@@ -13303,7 +13519,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="262" t="s">
+      <c r="A2" s="223" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="155" t="s">
@@ -13323,7 +13539,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="263">
+      <c r="A3" s="224">
         <v>44620</v>
       </c>
       <c r="B3" s="194" t="s">
@@ -13340,7 +13556,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="263">
+      <c r="A4" s="224">
         <v>44620</v>
       </c>
       <c r="B4" s="194" t="s">
@@ -13357,7 +13573,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="263">
+      <c r="A5" s="224">
         <v>44620</v>
       </c>
       <c r="B5" s="194" t="s">
@@ -13374,7 +13590,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="263">
+      <c r="A6" s="224">
         <v>44622</v>
       </c>
       <c r="B6" s="194" t="s">
@@ -13392,7 +13608,7 @@
       <c r="G6" s="162"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="263">
+      <c r="A7" s="224">
         <v>44622</v>
       </c>
       <c r="B7" s="194" t="s">
@@ -13409,7 +13625,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="263">
+      <c r="A8" s="224">
         <v>44622</v>
       </c>
       <c r="B8" s="194" t="s">
@@ -13426,7 +13642,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="263">
+      <c r="A9" s="224">
         <v>44622</v>
       </c>
       <c r="B9" s="194" t="s">
@@ -13443,7 +13659,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="263">
+      <c r="A10" s="224">
         <v>44624</v>
       </c>
       <c r="B10" s="194" t="s">
@@ -13460,7 +13676,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="263">
+      <c r="A11" s="224">
         <v>44624</v>
       </c>
       <c r="B11" s="194" t="s">
@@ -13477,7 +13693,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="263">
+      <c r="A12" s="224">
         <v>44625</v>
       </c>
       <c r="B12" s="194" t="s">
@@ -13495,7 +13711,7 @@
       <c r="G12" s="162"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="263">
+      <c r="A13" s="224">
         <v>44625</v>
       </c>
       <c r="B13" s="194" t="s">
@@ -13512,7 +13728,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="263">
+      <c r="A14" s="224">
         <v>44627</v>
       </c>
       <c r="B14" s="194" t="s">
@@ -13529,7 +13745,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="263">
+      <c r="A15" s="224">
         <v>44629</v>
       </c>
       <c r="B15" s="194" t="s">
@@ -13546,7 +13762,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="263">
+      <c r="A16" s="224">
         <v>44630</v>
       </c>
       <c r="B16" s="194" t="s">
@@ -13563,7 +13779,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="263">
+      <c r="A17" s="224">
         <v>44630</v>
       </c>
       <c r="B17" s="194" t="s">
@@ -13580,10 +13796,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="263">
+      <c r="A18" s="224">
         <v>44631</v>
       </c>
-      <c r="B18" s="275" t="s">
+      <c r="B18" s="236" t="s">
         <v>186</v>
       </c>
       <c r="C18" s="204"/>
@@ -13595,10 +13811,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="263">
+      <c r="A19" s="224">
         <v>44632</v>
       </c>
-      <c r="B19" s="275" t="s">
+      <c r="B19" s="236" t="s">
         <v>187</v>
       </c>
       <c r="C19" s="204"/>
@@ -13610,10 +13826,10 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="263">
+      <c r="A20" s="224">
         <v>44632</v>
       </c>
-      <c r="B20" s="275" t="s">
+      <c r="B20" s="236" t="s">
         <v>188</v>
       </c>
       <c r="C20" s="204"/>
@@ -13625,10 +13841,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="263">
+      <c r="A21" s="224">
         <v>44632</v>
       </c>
-      <c r="B21" s="275" t="s">
+      <c r="B21" s="236" t="s">
         <v>189</v>
       </c>
       <c r="C21" s="204"/>
@@ -13640,7 +13856,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="263">
+      <c r="A22" s="224">
         <v>44634</v>
       </c>
       <c r="B22" s="194" t="s">
@@ -13657,7 +13873,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="263">
+      <c r="A23" s="224">
         <v>44634</v>
       </c>
       <c r="B23" s="194" t="s">
@@ -13674,7 +13890,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="263"/>
+      <c r="A24" s="224"/>
       <c r="B24" s="194"/>
       <c r="C24" s="195"/>
       <c r="D24" s="200"/>
@@ -13686,7 +13902,7 @@
       <c r="G24" s="162"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="263"/>
+      <c r="A25" s="224"/>
       <c r="B25" s="194"/>
       <c r="C25" s="195"/>
       <c r="D25" s="200"/>
@@ -13697,7 +13913,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="263"/>
+      <c r="A26" s="224"/>
       <c r="B26" s="194"/>
       <c r="C26" s="195"/>
       <c r="D26" s="200"/>
@@ -13708,7 +13924,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="263"/>
+      <c r="A27" s="224"/>
       <c r="B27" s="194"/>
       <c r="C27" s="195"/>
       <c r="D27" s="200"/>
@@ -13719,7 +13935,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="263"/>
+      <c r="A28" s="224"/>
       <c r="B28" s="194"/>
       <c r="C28" s="195"/>
       <c r="D28" s="200"/>
@@ -13730,7 +13946,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="263"/>
+      <c r="A29" s="224"/>
       <c r="B29" s="194"/>
       <c r="C29" s="195"/>
       <c r="D29" s="200"/>
@@ -13741,7 +13957,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="263"/>
+      <c r="A30" s="224"/>
       <c r="B30" s="194"/>
       <c r="C30" s="195"/>
       <c r="D30" s="200"/>
@@ -13752,7 +13968,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="263"/>
+      <c r="A31" s="224"/>
       <c r="B31" s="194"/>
       <c r="C31" s="195"/>
       <c r="D31" s="200"/>
@@ -13763,7 +13979,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="263"/>
+      <c r="A32" s="224"/>
       <c r="B32" s="194"/>
       <c r="C32" s="195"/>
       <c r="D32" s="200"/>
@@ -13775,7 +13991,7 @@
       <c r="G32" s="162"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="263"/>
+      <c r="A33" s="224"/>
       <c r="B33" s="194"/>
       <c r="C33" s="195"/>
       <c r="D33" s="200"/>
@@ -13786,7 +14002,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="263"/>
+      <c r="A34" s="224"/>
       <c r="B34" s="194"/>
       <c r="C34" s="195"/>
       <c r="D34" s="200"/>
@@ -13797,7 +14013,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="263"/>
+      <c r="A35" s="224"/>
       <c r="B35" s="194"/>
       <c r="C35" s="195"/>
       <c r="D35" s="200"/>
@@ -13808,7 +14024,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="263"/>
+      <c r="A36" s="224"/>
       <c r="B36" s="194"/>
       <c r="C36" s="195"/>
       <c r="D36" s="200"/>
@@ -13819,7 +14035,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="263"/>
+      <c r="A37" s="224"/>
       <c r="B37" s="194"/>
       <c r="C37" s="195"/>
       <c r="D37" s="200"/>
@@ -13830,7 +14046,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="263"/>
+      <c r="A38" s="224"/>
       <c r="B38" s="194"/>
       <c r="C38" s="195"/>
       <c r="D38" s="200"/>
@@ -13841,7 +14057,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="263"/>
+      <c r="A39" s="224"/>
       <c r="B39" s="194"/>
       <c r="C39" s="195"/>
       <c r="D39" s="200"/>
@@ -13852,7 +14068,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="263"/>
+      <c r="A40" s="224"/>
       <c r="B40" s="194"/>
       <c r="C40" s="195"/>
       <c r="D40" s="200"/>
@@ -13863,7 +14079,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="263"/>
+      <c r="A41" s="224"/>
       <c r="B41" s="194"/>
       <c r="C41" s="195"/>
       <c r="D41" s="200"/>
@@ -13874,7 +14090,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="263"/>
+      <c r="A42" s="224"/>
       <c r="B42" s="194"/>
       <c r="C42" s="195"/>
       <c r="D42" s="200"/>
@@ -13885,7 +14101,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="263"/>
+      <c r="A43" s="224"/>
       <c r="B43" s="194"/>
       <c r="C43" s="195"/>
       <c r="D43" s="200"/>
@@ -13896,7 +14112,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="263"/>
+      <c r="A44" s="224"/>
       <c r="B44" s="194"/>
       <c r="C44" s="195"/>
       <c r="D44" s="200"/>
@@ -13907,7 +14123,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="263"/>
+      <c r="A45" s="224"/>
       <c r="B45" s="194"/>
       <c r="C45" s="195"/>
       <c r="D45" s="200"/>
@@ -13918,7 +14134,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="263"/>
+      <c r="A46" s="224"/>
       <c r="B46" s="194"/>
       <c r="C46" s="195"/>
       <c r="D46" s="200"/>
@@ -13929,7 +14145,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="263"/>
+      <c r="A47" s="224"/>
       <c r="B47" s="194"/>
       <c r="C47" s="195"/>
       <c r="D47" s="200"/>
@@ -13940,7 +14156,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="263"/>
+      <c r="A48" s="224"/>
       <c r="B48" s="194"/>
       <c r="C48" s="195"/>
       <c r="D48" s="200"/>
@@ -13951,7 +14167,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="263"/>
+      <c r="A49" s="224"/>
       <c r="B49" s="194"/>
       <c r="C49" s="195"/>
       <c r="D49" s="200"/>
@@ -13962,7 +14178,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="263"/>
+      <c r="A50" s="224"/>
       <c r="B50" s="194"/>
       <c r="C50" s="195"/>
       <c r="D50" s="200"/>
@@ -13973,7 +14189,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="263"/>
+      <c r="A51" s="224"/>
       <c r="B51" s="194"/>
       <c r="C51" s="195"/>
       <c r="D51" s="200"/>
@@ -13984,7 +14200,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="263"/>
+      <c r="A52" s="224"/>
       <c r="B52" s="194"/>
       <c r="C52" s="195"/>
       <c r="D52" s="200"/>
@@ -13995,7 +14211,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="264"/>
+      <c r="A53" s="225"/>
       <c r="B53" s="160"/>
       <c r="C53" s="86"/>
       <c r="D53" s="159"/>
@@ -14006,7 +14222,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="264"/>
+      <c r="A54" s="225"/>
       <c r="B54" s="160"/>
       <c r="C54" s="86"/>
       <c r="D54" s="159"/>
@@ -14017,7 +14233,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="264"/>
+      <c r="A55" s="225"/>
       <c r="B55" s="160"/>
       <c r="C55" s="86"/>
       <c r="D55" s="159"/>
@@ -14028,7 +14244,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="265"/>
+      <c r="A56" s="226"/>
       <c r="B56" s="160"/>
       <c r="C56" s="86"/>
       <c r="D56" s="159"/>
@@ -14039,7 +14255,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="265"/>
+      <c r="A57" s="226"/>
       <c r="B57" s="160"/>
       <c r="C57" s="86"/>
       <c r="D57" s="159"/>
@@ -14050,7 +14266,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="265"/>
+      <c r="A58" s="226"/>
       <c r="B58" s="160"/>
       <c r="C58" s="86"/>
       <c r="D58" s="159"/>
@@ -14061,7 +14277,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="264"/>
+      <c r="A59" s="225"/>
       <c r="B59" s="160"/>
       <c r="C59" s="86"/>
       <c r="D59" s="159"/>
@@ -14072,7 +14288,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="264"/>
+      <c r="A60" s="225"/>
       <c r="B60" s="160"/>
       <c r="C60" s="86"/>
       <c r="D60" s="159"/>
@@ -14083,7 +14299,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="264"/>
+      <c r="A61" s="225"/>
       <c r="B61" s="160"/>
       <c r="C61" s="86"/>
       <c r="D61" s="159"/>
@@ -14094,7 +14310,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="265"/>
+      <c r="A62" s="226"/>
       <c r="B62" s="160"/>
       <c r="C62" s="86"/>
       <c r="D62" s="159"/>
@@ -14105,7 +14321,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="265"/>
+      <c r="A63" s="226"/>
       <c r="B63" s="160"/>
       <c r="C63" s="86"/>
       <c r="D63" s="159"/>
@@ -14116,7 +14332,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="265"/>
+      <c r="A64" s="226"/>
       <c r="B64" s="160"/>
       <c r="C64" s="86"/>
       <c r="D64" s="159"/>
@@ -14127,7 +14343,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="266"/>
+      <c r="A65" s="227"/>
       <c r="B65" s="165"/>
       <c r="C65" s="166"/>
       <c r="D65" s="159"/>
@@ -14138,7 +14354,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="266"/>
+      <c r="A66" s="227"/>
       <c r="B66" s="165"/>
       <c r="C66" s="166"/>
       <c r="D66" s="159"/>
@@ -14149,7 +14365,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="266"/>
+      <c r="A67" s="227"/>
       <c r="B67" s="165"/>
       <c r="C67" s="166"/>
       <c r="D67" s="159"/>
@@ -14160,7 +14376,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="266"/>
+      <c r="A68" s="227"/>
       <c r="B68" s="165"/>
       <c r="C68" s="166"/>
       <c r="D68" s="159"/>
@@ -14171,7 +14387,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="266"/>
+      <c r="A69" s="227"/>
       <c r="B69" s="165"/>
       <c r="C69" s="166"/>
       <c r="D69" s="159"/>
@@ -14182,7 +14398,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="266"/>
+      <c r="A70" s="227"/>
       <c r="B70" s="165"/>
       <c r="C70" s="166"/>
       <c r="D70" s="159"/>
@@ -14193,7 +14409,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="266"/>
+      <c r="A71" s="227"/>
       <c r="B71" s="165"/>
       <c r="C71" s="166"/>
       <c r="D71" s="159"/>
@@ -14204,7 +14420,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="266"/>
+      <c r="A72" s="227"/>
       <c r="B72" s="165"/>
       <c r="C72" s="166"/>
       <c r="D72" s="159"/>
@@ -14215,7 +14431,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="266"/>
+      <c r="A73" s="227"/>
       <c r="B73" s="165"/>
       <c r="C73" s="166"/>
       <c r="D73" s="159"/>
@@ -14226,7 +14442,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="266"/>
+      <c r="A74" s="227"/>
       <c r="B74" s="165"/>
       <c r="C74" s="166"/>
       <c r="D74" s="159"/>
@@ -14237,7 +14453,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="266"/>
+      <c r="A75" s="227"/>
       <c r="B75" s="165"/>
       <c r="C75" s="166"/>
       <c r="D75" s="159"/>
@@ -14248,7 +14464,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="266"/>
+      <c r="A76" s="227"/>
       <c r="B76" s="165"/>
       <c r="C76" s="166"/>
       <c r="D76" s="159"/>
@@ -14259,7 +14475,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="266"/>
+      <c r="A77" s="227"/>
       <c r="B77" s="165"/>
       <c r="C77" s="166"/>
       <c r="D77" s="159"/>
@@ -14270,7 +14486,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="266"/>
+      <c r="A78" s="227"/>
       <c r="B78" s="165"/>
       <c r="C78" s="166"/>
       <c r="D78" s="159"/>
@@ -14281,7 +14497,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="266"/>
+      <c r="A79" s="227"/>
       <c r="B79" s="165"/>
       <c r="C79" s="166"/>
       <c r="D79" s="159"/>
@@ -14292,7 +14508,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="266"/>
+      <c r="A80" s="227"/>
       <c r="B80" s="165"/>
       <c r="C80" s="166"/>
       <c r="D80" s="159"/>
@@ -14303,7 +14519,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="266"/>
+      <c r="A81" s="227"/>
       <c r="B81" s="165"/>
       <c r="C81" s="166"/>
       <c r="D81" s="159"/>
@@ -14314,7 +14530,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="266"/>
+      <c r="A82" s="227"/>
       <c r="B82" s="165"/>
       <c r="C82" s="166"/>
       <c r="D82" s="159"/>
@@ -14325,7 +14541,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="267"/>
+      <c r="A83" s="228"/>
       <c r="B83" s="168"/>
       <c r="C83" s="169"/>
       <c r="D83" s="170"/>
@@ -14336,7 +14552,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="267"/>
+      <c r="A84" s="228"/>
       <c r="B84" s="168"/>
       <c r="C84" s="169"/>
       <c r="D84" s="170"/>
@@ -14347,7 +14563,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="267"/>
+      <c r="A85" s="228"/>
       <c r="B85" s="168"/>
       <c r="C85" s="169"/>
       <c r="D85" s="170"/>
@@ -14358,7 +14574,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="267"/>
+      <c r="A86" s="228"/>
       <c r="B86" s="168"/>
       <c r="C86" s="169"/>
       <c r="D86" s="170"/>
@@ -14369,7 +14585,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="267"/>
+      <c r="A87" s="228"/>
       <c r="B87" s="168"/>
       <c r="C87" s="169"/>
       <c r="D87" s="170"/>
@@ -14380,7 +14596,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="267"/>
+      <c r="A88" s="228"/>
       <c r="B88" s="168"/>
       <c r="C88" s="169"/>
       <c r="D88" s="170"/>
@@ -14391,7 +14607,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="266"/>
+      <c r="A89" s="227"/>
       <c r="B89" s="165"/>
       <c r="C89" s="166"/>
       <c r="D89" s="171"/>
@@ -14402,7 +14618,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="266"/>
+      <c r="A90" s="227"/>
       <c r="B90" s="165"/>
       <c r="C90" s="166"/>
       <c r="D90" s="171"/>
@@ -14413,7 +14629,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="266"/>
+      <c r="A91" s="227"/>
       <c r="B91" s="165"/>
       <c r="C91" s="166"/>
       <c r="D91" s="171"/>
@@ -14424,7 +14640,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="266"/>
+      <c r="A92" s="227"/>
       <c r="B92" s="165"/>
       <c r="C92" s="166"/>
       <c r="D92" s="171"/>
@@ -14435,7 +14651,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="266"/>
+      <c r="A93" s="227"/>
       <c r="B93" s="165"/>
       <c r="C93" s="166"/>
       <c r="D93" s="171"/>
@@ -14446,7 +14662,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="266"/>
+      <c r="A94" s="227"/>
       <c r="B94" s="165"/>
       <c r="C94" s="166"/>
       <c r="D94" s="171"/>
@@ -14457,7 +14673,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="266"/>
+      <c r="A95" s="227"/>
       <c r="B95" s="165"/>
       <c r="C95" s="166"/>
       <c r="D95" s="171"/>
@@ -14468,7 +14684,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="266"/>
+      <c r="A96" s="227"/>
       <c r="B96" s="165"/>
       <c r="C96" s="166"/>
       <c r="D96" s="171"/>
@@ -14479,7 +14695,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="266"/>
+      <c r="A97" s="227"/>
       <c r="B97" s="165"/>
       <c r="C97" s="166"/>
       <c r="D97" s="171"/>
@@ -14490,7 +14706,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="266"/>
+      <c r="A98" s="227"/>
       <c r="B98" s="165"/>
       <c r="C98" s="166"/>
       <c r="D98" s="171"/>
@@ -14501,7 +14717,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="268"/>
+      <c r="A99" s="229"/>
       <c r="B99" s="173"/>
       <c r="C99" s="34">
         <v>0</v>
@@ -14514,8 +14730,8 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="269"/>
-      <c r="B100" s="272"/>
+      <c r="A100" s="230"/>
+      <c r="B100" s="233"/>
       <c r="C100" s="177">
         <f>SUM(C5:C99)</f>
         <v>791119.11999999988</v>
@@ -14537,133 +14753,133 @@
       <c r="D102" s="170"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B103" s="274"/>
+      <c r="B103" s="235"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="274"/>
+      <c r="B104" s="235"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B105" s="274"/>
+      <c r="B105" s="235"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B106" s="274"/>
+      <c r="B106" s="235"/>
       <c r="F106" s="117"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B107" s="274"/>
+      <c r="B107" s="235"/>
       <c r="F107" s="117"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B108" s="274"/>
+      <c r="B108" s="235"/>
       <c r="F108" s="117"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B109" s="274"/>
+      <c r="B109" s="235"/>
       <c r="F109" s="117"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B110" s="274"/>
+      <c r="B110" s="235"/>
       <c r="F110" s="117"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B111" s="274"/>
+      <c r="B111" s="235"/>
       <c r="F111" s="117"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B112" s="274"/>
+      <c r="B112" s="235"/>
       <c r="F112" s="117"/>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B113" s="274"/>
+      <c r="B113" s="235"/>
       <c r="F113" s="117"/>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B114" s="274"/>
+      <c r="B114" s="235"/>
       <c r="F114" s="117"/>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B115" s="274"/>
+      <c r="B115" s="235"/>
       <c r="E115" s="117"/>
       <c r="F115" s="117"/>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B116" s="274"/>
+      <c r="B116" s="235"/>
       <c r="E116" s="117"/>
       <c r="F116" s="117"/>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B117" s="274"/>
+      <c r="B117" s="235"/>
       <c r="E117" s="117"/>
       <c r="F117" s="117"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B118" s="274"/>
+      <c r="B118" s="235"/>
       <c r="E118" s="117"/>
       <c r="F118" s="117"/>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B119" s="274"/>
+      <c r="B119" s="235"/>
       <c r="E119" s="117"/>
       <c r="F119" s="117"/>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B120" s="274"/>
+      <c r="B120" s="235"/>
       <c r="E120" s="117"/>
       <c r="F120" s="117"/>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B121" s="274"/>
+      <c r="B121" s="235"/>
       <c r="E121" s="117"/>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B122" s="274"/>
+      <c r="B122" s="235"/>
       <c r="E122" s="117"/>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B123" s="274"/>
+      <c r="B123" s="235"/>
       <c r="E123" s="117"/>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B124" s="274"/>
+      <c r="B124" s="235"/>
       <c r="E124" s="117"/>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B125" s="274"/>
+      <c r="B125" s="235"/>
       <c r="E125" s="117"/>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B126" s="274"/>
+      <c r="B126" s="235"/>
       <c r="E126" s="117"/>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B127" s="274"/>
+      <c r="B127" s="235"/>
       <c r="E127" s="117"/>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B128" s="274"/>
+      <c r="B128" s="235"/>
       <c r="E128" s="117"/>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B129" s="274"/>
+      <c r="B129" s="235"/>
       <c r="E129" s="117"/>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B130" s="274"/>
+      <c r="B130" s="235"/>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B131" s="274"/>
+      <c r="B131" s="235"/>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B132" s="274"/>
+      <c r="B132" s="235"/>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B133" s="274"/>
+      <c r="B133" s="235"/>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B134" s="274"/>
+      <c r="B134" s="235"/>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B135" s="274"/>
+      <c r="B135" s="235"/>
     </row>
     <row r="136" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C136" s="180"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/BALANCE   HERRADURA  MaRzO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/BALANCE   HERRADURA  MaRzO   2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 2         " sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="203">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -801,6 +801,18 @@
   </si>
   <si>
     <t>NOMINA # 11</t>
+  </si>
+  <si>
+    <t>15422 C</t>
+  </si>
+  <si>
+    <t>15450 C</t>
+  </si>
+  <si>
+    <t>15647 C</t>
+  </si>
+  <si>
+    <t>15688 C</t>
   </si>
 </sst>
 </file>
@@ -1994,7 +2006,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="278">
+  <cellXfs count="277">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2437,47 +2449,11 @@
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2558,6 +2534,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4159,23 +4168,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="239"/>
-      <c r="C1" s="241" t="s">
+      <c r="B1" s="265"/>
+      <c r="C1" s="267" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="242"/>
-      <c r="I1" s="242"/>
-      <c r="J1" s="242"/>
-      <c r="K1" s="242"/>
-      <c r="L1" s="242"/>
-      <c r="M1" s="242"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="268"/>
+      <c r="F1" s="268"/>
+      <c r="G1" s="268"/>
+      <c r="H1" s="268"/>
+      <c r="I1" s="268"/>
+      <c r="J1" s="268"/>
+      <c r="K1" s="268"/>
+      <c r="L1" s="268"/>
+      <c r="M1" s="268"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="240"/>
+      <c r="B2" s="266"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -4185,21 +4194,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="243" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="244"/>
+      <c r="B3" s="269" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="270"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="245" t="s">
+      <c r="H3" s="271" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="245"/>
+      <c r="I3" s="271"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="250" t="s">
+      <c r="R3" s="238" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4214,14 +4223,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="246" t="s">
+      <c r="E4" s="272" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="247"/>
-      <c r="H4" s="248" t="s">
+      <c r="F4" s="273"/>
+      <c r="H4" s="274" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="249"/>
+      <c r="I4" s="275"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -4231,11 +4240,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="257" t="s">
+      <c r="P4" s="245" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="258"/>
-      <c r="R4" s="251"/>
+      <c r="Q4" s="246"/>
+      <c r="R4" s="239"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -5716,11 +5725,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="259">
+      <c r="M40" s="247">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="261">
+      <c r="N40" s="249">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -5746,8 +5755,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="260"/>
-      <c r="N41" s="262"/>
+      <c r="M41" s="248"/>
+      <c r="N41" s="250"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -5962,29 +5971,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="263" t="s">
+      <c r="H53" s="251" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="264"/>
+      <c r="I53" s="252"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="265">
+      <c r="K53" s="253">
         <f>I51+L51</f>
         <v>44516.57</v>
       </c>
-      <c r="L53" s="266"/>
-      <c r="M53" s="267">
+      <c r="L53" s="254"/>
+      <c r="M53" s="255">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="268"/>
+      <c r="N53" s="256"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="269" t="s">
+      <c r="D54" s="257" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="269"/>
+      <c r="E54" s="257"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1567048.43</v>
@@ -5995,22 +6004,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="270" t="s">
+      <c r="D55" s="258" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="270"/>
+      <c r="E55" s="258"/>
       <c r="F55" s="115">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="271" t="s">
+      <c r="I55" s="259" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="272"/>
-      <c r="K55" s="273">
+      <c r="J55" s="260"/>
+      <c r="K55" s="261">
         <f>F57+F58+F59</f>
         <v>302590.17999999993</v>
       </c>
-      <c r="L55" s="274"/>
+      <c r="L55" s="262"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -6041,11 +6050,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="275">
+      <c r="K57" s="263">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="276"/>
+      <c r="L57" s="264"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -6062,22 +6071,22 @@
       <c r="C59" s="133">
         <v>44591</v>
       </c>
-      <c r="D59" s="252" t="s">
+      <c r="D59" s="240" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="253"/>
+      <c r="E59" s="241"/>
       <c r="F59" s="134">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="254" t="s">
+      <c r="I59" s="242" t="s">
         <v>170</v>
       </c>
-      <c r="J59" s="255"/>
-      <c r="K59" s="256">
+      <c r="J59" s="243"/>
+      <c r="K59" s="244">
         <f>K55+K57</f>
         <v>81530.479999999923</v>
       </c>
-      <c r="L59" s="256"/>
+      <c r="L59" s="244"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -6221,6 +6230,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
@@ -6236,12 +6251,6 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8059,23 +8068,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="239"/>
-      <c r="C1" s="241" t="s">
+      <c r="B1" s="265"/>
+      <c r="C1" s="267" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="242"/>
-      <c r="I1" s="242"/>
-      <c r="J1" s="242"/>
-      <c r="K1" s="242"/>
-      <c r="L1" s="242"/>
-      <c r="M1" s="242"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="268"/>
+      <c r="F1" s="268"/>
+      <c r="G1" s="268"/>
+      <c r="H1" s="268"/>
+      <c r="I1" s="268"/>
+      <c r="J1" s="268"/>
+      <c r="K1" s="268"/>
+      <c r="L1" s="268"/>
+      <c r="M1" s="268"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="240"/>
+      <c r="B2" s="266"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -8085,21 +8094,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="243" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="244"/>
+      <c r="B3" s="269" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="270"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="245" t="s">
+      <c r="H3" s="271" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="245"/>
+      <c r="I3" s="271"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="250" t="s">
+      <c r="R3" s="238" t="s">
         <v>38</v>
       </c>
     </row>
@@ -8114,14 +8123,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="246" t="s">
+      <c r="E4" s="272" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="247"/>
-      <c r="H4" s="248" t="s">
+      <c r="F4" s="273"/>
+      <c r="H4" s="274" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="249"/>
+      <c r="I4" s="275"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -8131,11 +8140,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="257" t="s">
+      <c r="P4" s="245" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="258"/>
-      <c r="R4" s="251"/>
+      <c r="Q4" s="246"/>
+      <c r="R4" s="239"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -9103,7 +9112,7 @@
         <v>73</v>
       </c>
       <c r="J26" s="69"/>
-      <c r="K26" s="238"/>
+      <c r="K26" s="237"/>
       <c r="L26" s="48"/>
       <c r="M26" s="32">
         <f>25440+20000</f>
@@ -9599,11 +9608,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="80"/>
-      <c r="M40" s="277">
+      <c r="M40" s="276">
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="261">
+      <c r="N40" s="249">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -9629,8 +9638,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="260"/>
-      <c r="N41" s="262"/>
+      <c r="M41" s="248"/>
+      <c r="N41" s="250"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -9845,29 +9854,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="263" t="s">
+      <c r="H53" s="251" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="264"/>
+      <c r="I53" s="252"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="265">
+      <c r="K53" s="253">
         <f>I51+L51</f>
         <v>40613.21</v>
       </c>
-      <c r="L53" s="266"/>
-      <c r="M53" s="267">
+      <c r="L53" s="254"/>
+      <c r="M53" s="255">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="268"/>
+      <c r="N53" s="256"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="269" t="s">
+      <c r="D54" s="257" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="269"/>
+      <c r="E54" s="257"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1691463.79</v>
@@ -9878,22 +9887,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="270" t="s">
+      <c r="D55" s="258" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="270"/>
+      <c r="E55" s="258"/>
       <c r="F55" s="115">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="271" t="s">
+      <c r="I55" s="259" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="272"/>
-      <c r="K55" s="273">
+      <c r="J55" s="260"/>
+      <c r="K55" s="261">
         <f>F57+F58+F59</f>
         <v>243843.21000000002</v>
       </c>
-      <c r="L55" s="274"/>
+      <c r="L55" s="262"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -9924,11 +9933,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="275">
+      <c r="K57" s="263">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="276"/>
+      <c r="L57" s="264"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -9945,22 +9954,22 @@
       <c r="C59" s="133">
         <v>44619</v>
       </c>
-      <c r="D59" s="252" t="s">
+      <c r="D59" s="240" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="253"/>
+      <c r="E59" s="241"/>
       <c r="F59" s="134">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="254" t="s">
+      <c r="I59" s="242" t="s">
         <v>170</v>
       </c>
-      <c r="J59" s="255"/>
-      <c r="K59" s="256">
+      <c r="J59" s="243"/>
+      <c r="K59" s="244">
         <f>K55+K57</f>
         <v>89528.690000000031</v>
       </c>
-      <c r="L59" s="256"/>
+      <c r="L59" s="244"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -10104,6 +10113,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -10113,18 +10134,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11401,7 +11410,7 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
+    <sheetView topLeftCell="G13" workbookViewId="0">
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
@@ -11425,23 +11434,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="239"/>
-      <c r="C1" s="241" t="s">
+      <c r="B1" s="265"/>
+      <c r="C1" s="267" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="242"/>
-      <c r="I1" s="242"/>
-      <c r="J1" s="242"/>
-      <c r="K1" s="242"/>
-      <c r="L1" s="242"/>
-      <c r="M1" s="242"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="268"/>
+      <c r="F1" s="268"/>
+      <c r="G1" s="268"/>
+      <c r="H1" s="268"/>
+      <c r="I1" s="268"/>
+      <c r="J1" s="268"/>
+      <c r="K1" s="268"/>
+      <c r="L1" s="268"/>
+      <c r="M1" s="268"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="240"/>
+      <c r="B2" s="266"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -11451,21 +11460,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="243" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="244"/>
+      <c r="B3" s="269" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="270"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="245" t="s">
+      <c r="H3" s="271" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="245"/>
+      <c r="I3" s="271"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="250" t="s">
+      <c r="R3" s="238" t="s">
         <v>38</v>
       </c>
     </row>
@@ -11480,14 +11489,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="246" t="s">
+      <c r="E4" s="272" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="247"/>
-      <c r="H4" s="248" t="s">
+      <c r="F4" s="273"/>
+      <c r="H4" s="274" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="249"/>
+      <c r="I4" s="275"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -11497,11 +11506,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="257" t="s">
+      <c r="P4" s="245" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="258"/>
-      <c r="R4" s="251"/>
+      <c r="Q4" s="246"/>
+      <c r="R4" s="239"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -12948,11 +12957,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="259">
+      <c r="M40" s="247">
         <f>SUM(M5:M39)</f>
         <v>1036658</v>
       </c>
-      <c r="N40" s="261">
+      <c r="N40" s="249">
         <f>SUM(N5:N39)</f>
         <v>28505</v>
       </c>
@@ -12976,14 +12985,14 @@
       <c r="H41" s="37"/>
       <c r="I41" s="88"/>
       <c r="J41" s="73"/>
-      <c r="K41" s="237" t="s">
+      <c r="K41" s="236" t="s">
         <v>192</v>
       </c>
       <c r="L41" s="75">
         <v>25678</v>
       </c>
-      <c r="M41" s="260"/>
-      <c r="N41" s="262"/>
+      <c r="M41" s="248"/>
+      <c r="N41" s="250"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -13198,29 +13207,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="263" t="s">
+      <c r="H53" s="251" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="264"/>
+      <c r="I53" s="252"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="265">
+      <c r="K53" s="253">
         <f>I51+L51</f>
         <v>58741</v>
       </c>
-      <c r="L53" s="266"/>
-      <c r="M53" s="267">
+      <c r="L53" s="254"/>
+      <c r="M53" s="255">
         <f>N40+M40</f>
         <v>1065163</v>
       </c>
-      <c r="N53" s="268"/>
+      <c r="N53" s="256"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="269" t="s">
+      <c r="D54" s="257" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="269"/>
+      <c r="E54" s="257"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1039477</v>
@@ -13231,22 +13240,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="270" t="s">
+      <c r="D55" s="258" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="270"/>
+      <c r="E55" s="258"/>
       <c r="F55" s="115">
         <v>0</v>
       </c>
-      <c r="I55" s="271" t="s">
+      <c r="I55" s="259" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="272"/>
-      <c r="K55" s="273">
+      <c r="J55" s="260"/>
+      <c r="K55" s="261">
         <f>F57+F58+F59</f>
         <v>1039477</v>
       </c>
-      <c r="L55" s="274"/>
+      <c r="L55" s="262"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -13277,11 +13286,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="275">
+      <c r="K57" s="263">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L57" s="276"/>
+      <c r="L57" s="264"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -13296,22 +13305,22 @@
     </row>
     <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C59" s="133"/>
-      <c r="D59" s="252" t="s">
+      <c r="D59" s="240" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="253"/>
+      <c r="E59" s="241"/>
       <c r="F59" s="134">
         <v>0</v>
       </c>
-      <c r="I59" s="254" t="s">
+      <c r="I59" s="242" t="s">
         <v>124</v>
       </c>
-      <c r="J59" s="255"/>
-      <c r="K59" s="256">
+      <c r="J59" s="243"/>
+      <c r="K59" s="244">
         <f>K55+K57</f>
         <v>855134.81</v>
       </c>
-      <c r="L59" s="256"/>
+      <c r="L59" s="244"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -13455,18 +13464,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -13476,6 +13473,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13491,8 +13500,8 @@
   </sheetPr>
   <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13799,60 +13808,68 @@
       <c r="A18" s="224">
         <v>44631</v>
       </c>
-      <c r="B18" s="236" t="s">
+      <c r="B18" s="194" t="s">
         <v>186</v>
       </c>
-      <c r="C18" s="204"/>
+      <c r="C18" s="195">
+        <v>84276.9</v>
+      </c>
       <c r="D18" s="200"/>
       <c r="E18" s="195"/>
       <c r="F18" s="161">
         <f t="shared" si="1"/>
-        <v>778179.0399999998</v>
+        <v>862455.93999999983</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="224">
         <v>44632</v>
       </c>
-      <c r="B19" s="236" t="s">
+      <c r="B19" s="194" t="s">
         <v>187</v>
       </c>
-      <c r="C19" s="204"/>
+      <c r="C19" s="195">
+        <v>47979.55</v>
+      </c>
       <c r="D19" s="200"/>
       <c r="E19" s="195"/>
       <c r="F19" s="161">
         <f t="shared" si="1"/>
-        <v>778179.0399999998</v>
+        <v>910435.48999999987</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="224">
         <v>44632</v>
       </c>
-      <c r="B20" s="236" t="s">
+      <c r="B20" s="194" t="s">
         <v>188</v>
       </c>
-      <c r="C20" s="204"/>
+      <c r="C20" s="195">
+        <v>1377.6</v>
+      </c>
       <c r="D20" s="200"/>
       <c r="E20" s="195"/>
       <c r="F20" s="161">
         <f t="shared" si="1"/>
-        <v>778179.0399999998</v>
+        <v>911813.08999999985</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="224">
         <v>44632</v>
       </c>
-      <c r="B21" s="236" t="s">
+      <c r="B21" s="194" t="s">
         <v>189</v>
       </c>
-      <c r="C21" s="204"/>
+      <c r="C21" s="195">
+        <v>12015.5</v>
+      </c>
       <c r="D21" s="200"/>
       <c r="E21" s="195"/>
       <c r="F21" s="161">
         <f t="shared" si="1"/>
-        <v>778179.0399999998</v>
+        <v>923828.58999999985</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -13869,7 +13886,7 @@
       <c r="E22" s="195"/>
       <c r="F22" s="161">
         <f t="shared" si="1"/>
-        <v>874117.71999999974</v>
+        <v>1019767.2699999998</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -13886,52 +13903,76 @@
       <c r="E23" s="195"/>
       <c r="F23" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1029167.4699999997</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="224"/>
-      <c r="B24" s="194"/>
-      <c r="C24" s="195"/>
+      <c r="A24" s="224">
+        <v>44636</v>
+      </c>
+      <c r="B24" s="194" t="s">
+        <v>199</v>
+      </c>
+      <c r="C24" s="195">
+        <v>121105.5</v>
+      </c>
       <c r="D24" s="200"/>
       <c r="E24" s="195"/>
       <c r="F24" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1150272.9699999997</v>
       </c>
       <c r="G24" s="162"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="224"/>
-      <c r="B25" s="194"/>
-      <c r="C25" s="195"/>
+      <c r="A25" s="224">
+        <v>44636</v>
+      </c>
+      <c r="B25" s="194" t="s">
+        <v>200</v>
+      </c>
+      <c r="C25" s="195">
+        <v>17248.8</v>
+      </c>
       <c r="D25" s="200"/>
       <c r="E25" s="195"/>
       <c r="F25" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1167521.7699999998</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="224"/>
-      <c r="B26" s="194"/>
-      <c r="C26" s="195"/>
+      <c r="A26" s="224">
+        <v>44637</v>
+      </c>
+      <c r="B26" s="194" t="s">
+        <v>201</v>
+      </c>
+      <c r="C26" s="195">
+        <v>21554.400000000001</v>
+      </c>
       <c r="D26" s="200"/>
       <c r="E26" s="195"/>
       <c r="F26" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1189076.1699999997</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="224"/>
-      <c r="B27" s="194"/>
-      <c r="C27" s="195"/>
+      <c r="A27" s="224">
+        <v>44638</v>
+      </c>
+      <c r="B27" s="194" t="s">
+        <v>202</v>
+      </c>
+      <c r="C27" s="195">
+        <v>79239.5</v>
+      </c>
       <c r="D27" s="200"/>
       <c r="E27" s="195"/>
       <c r="F27" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -13942,7 +13983,7 @@
       <c r="E28" s="195"/>
       <c r="F28" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -13953,7 +13994,7 @@
       <c r="E29" s="195"/>
       <c r="F29" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -13964,7 +14005,7 @@
       <c r="E30" s="195"/>
       <c r="F30" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -13975,7 +14016,7 @@
       <c r="E31" s="195"/>
       <c r="F31" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -13986,7 +14027,7 @@
       <c r="E32" s="195"/>
       <c r="F32" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
       <c r="G32" s="162"/>
     </row>
@@ -13998,7 +14039,7 @@
       <c r="E33" s="195"/>
       <c r="F33" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14009,7 +14050,7 @@
       <c r="E34" s="195"/>
       <c r="F34" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14020,7 +14061,7 @@
       <c r="E35" s="195"/>
       <c r="F35" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14031,7 +14072,7 @@
       <c r="E36" s="195"/>
       <c r="F36" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14042,7 +14083,7 @@
       <c r="E37" s="195"/>
       <c r="F37" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14053,7 +14094,7 @@
       <c r="E38" s="195"/>
       <c r="F38" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14064,7 +14105,7 @@
       <c r="E39" s="195"/>
       <c r="F39" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14075,7 +14116,7 @@
       <c r="E40" s="195"/>
       <c r="F40" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14086,7 +14127,7 @@
       <c r="E41" s="195"/>
       <c r="F41" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14097,7 +14138,7 @@
       <c r="E42" s="195"/>
       <c r="F42" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14108,7 +14149,7 @@
       <c r="E43" s="195"/>
       <c r="F43" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14119,7 +14160,7 @@
       <c r="E44" s="195"/>
       <c r="F44" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14130,7 +14171,7 @@
       <c r="E45" s="195"/>
       <c r="F45" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14141,7 +14182,7 @@
       <c r="E46" s="195"/>
       <c r="F46" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14152,7 +14193,7 @@
       <c r="E47" s="195"/>
       <c r="F47" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14163,7 +14204,7 @@
       <c r="E48" s="195"/>
       <c r="F48" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14174,7 +14215,7 @@
       <c r="E49" s="195"/>
       <c r="F49" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14185,7 +14226,7 @@
       <c r="E50" s="195"/>
       <c r="F50" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14196,7 +14237,7 @@
       <c r="E51" s="195"/>
       <c r="F51" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14207,7 +14248,7 @@
       <c r="E52" s="195"/>
       <c r="F52" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14218,7 +14259,7 @@
       <c r="E53" s="86"/>
       <c r="F53" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14229,7 +14270,7 @@
       <c r="E54" s="86"/>
       <c r="F54" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14240,7 +14281,7 @@
       <c r="E55" s="86"/>
       <c r="F55" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14251,7 +14292,7 @@
       <c r="E56" s="86"/>
       <c r="F56" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14262,7 +14303,7 @@
       <c r="E57" s="86"/>
       <c r="F57" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14273,7 +14314,7 @@
       <c r="E58" s="86"/>
       <c r="F58" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14284,7 +14325,7 @@
       <c r="E59" s="86"/>
       <c r="F59" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14295,7 +14336,7 @@
       <c r="E60" s="86"/>
       <c r="F60" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14306,7 +14347,7 @@
       <c r="E61" s="86"/>
       <c r="F61" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14317,7 +14358,7 @@
       <c r="E62" s="86"/>
       <c r="F62" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14328,7 +14369,7 @@
       <c r="E63" s="86"/>
       <c r="F63" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -14339,7 +14380,7 @@
       <c r="E64" s="86"/>
       <c r="F64" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14350,7 +14391,7 @@
       <c r="E65" s="86"/>
       <c r="F65" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14361,7 +14402,7 @@
       <c r="E66" s="86"/>
       <c r="F66" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14372,7 +14413,7 @@
       <c r="E67" s="86"/>
       <c r="F67" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14383,7 +14424,7 @@
       <c r="E68" s="86"/>
       <c r="F68" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14394,7 +14435,7 @@
       <c r="E69" s="86"/>
       <c r="F69" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14405,7 +14446,7 @@
       <c r="E70" s="86"/>
       <c r="F70" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14416,7 +14457,7 @@
       <c r="E71" s="86"/>
       <c r="F71" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14427,7 +14468,7 @@
       <c r="E72" s="86"/>
       <c r="F72" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14438,7 +14479,7 @@
       <c r="E73" s="86"/>
       <c r="F73" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14449,7 +14490,7 @@
       <c r="E74" s="86"/>
       <c r="F74" s="161">
         <f t="shared" si="1"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14460,7 +14501,7 @@
       <c r="E75" s="86"/>
       <c r="F75" s="161">
         <f t="shared" ref="F75:F99" si="2">F74+C75-E75</f>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14471,7 +14512,7 @@
       <c r="E76" s="86"/>
       <c r="F76" s="161">
         <f t="shared" si="2"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14482,7 +14523,7 @@
       <c r="E77" s="86"/>
       <c r="F77" s="161">
         <f t="shared" si="2"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14493,7 +14534,7 @@
       <c r="E78" s="86"/>
       <c r="F78" s="161">
         <f t="shared" si="2"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14504,7 +14545,7 @@
       <c r="E79" s="86"/>
       <c r="F79" s="161">
         <f t="shared" si="2"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14515,7 +14556,7 @@
       <c r="E80" s="86"/>
       <c r="F80" s="161">
         <f t="shared" si="2"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14526,7 +14567,7 @@
       <c r="E81" s="86"/>
       <c r="F81" s="161">
         <f t="shared" si="2"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14537,7 +14578,7 @@
       <c r="E82" s="86"/>
       <c r="F82" s="161">
         <f t="shared" si="2"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14548,7 +14589,7 @@
       <c r="E83" s="34"/>
       <c r="F83" s="161">
         <f t="shared" si="2"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14559,7 +14600,7 @@
       <c r="E84" s="34"/>
       <c r="F84" s="161">
         <f t="shared" si="2"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14570,7 +14611,7 @@
       <c r="E85" s="34"/>
       <c r="F85" s="161">
         <f t="shared" si="2"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14581,7 +14622,7 @@
       <c r="E86" s="34"/>
       <c r="F86" s="161">
         <f t="shared" si="2"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14592,7 +14633,7 @@
       <c r="E87" s="34"/>
       <c r="F87" s="161">
         <f t="shared" si="2"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14603,7 +14644,7 @@
       <c r="E88" s="34"/>
       <c r="F88" s="161">
         <f t="shared" si="2"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14614,7 +14655,7 @@
       <c r="E89" s="86"/>
       <c r="F89" s="161">
         <f t="shared" si="2"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14625,7 +14666,7 @@
       <c r="E90" s="86"/>
       <c r="F90" s="161">
         <f t="shared" si="2"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14636,7 +14677,7 @@
       <c r="E91" s="86"/>
       <c r="F91" s="161">
         <f t="shared" si="2"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14647,7 +14688,7 @@
       <c r="E92" s="86"/>
       <c r="F92" s="161">
         <f t="shared" si="2"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14658,7 +14699,7 @@
       <c r="E93" s="86"/>
       <c r="F93" s="161">
         <f t="shared" si="2"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14669,7 +14710,7 @@
       <c r="E94" s="86"/>
       <c r="F94" s="161">
         <f t="shared" si="2"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14680,7 +14721,7 @@
       <c r="E95" s="86"/>
       <c r="F95" s="161">
         <f t="shared" si="2"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14691,7 +14732,7 @@
       <c r="E96" s="86"/>
       <c r="F96" s="161">
         <f t="shared" si="2"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14702,7 +14743,7 @@
       <c r="E97" s="86"/>
       <c r="F97" s="161">
         <f t="shared" si="2"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14713,7 +14754,7 @@
       <c r="E98" s="86"/>
       <c r="F98" s="161">
         <f t="shared" si="2"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14726,7 +14767,7 @@
       <c r="E99" s="34"/>
       <c r="F99" s="161">
         <f t="shared" si="2"/>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -14734,7 +14775,7 @@
       <c r="B100" s="233"/>
       <c r="C100" s="177">
         <f>SUM(C5:C99)</f>
-        <v>791119.11999999988</v>
+        <v>1175916.8699999999</v>
       </c>
       <c r="D100" s="189"/>
       <c r="E100" s="178">
@@ -14743,7 +14784,7 @@
       </c>
       <c r="F100" s="179">
         <f>F99</f>
-        <v>883517.91999999969</v>
+        <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/BALANCE   HERRADURA  MaRzO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/BALANCE   HERRADURA  MaRzO   2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 2         " sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="210">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -813,6 +813,27 @@
   </si>
   <si>
     <t>15688 C</t>
+  </si>
+  <si>
+    <t>COMISION</t>
+  </si>
+  <si>
+    <t>BANCARIA</t>
+  </si>
+  <si>
+    <t>BANCO</t>
+  </si>
+  <si>
+    <t>ADT</t>
+  </si>
+  <si>
+    <t>FUMIGACION</t>
+  </si>
+  <si>
+    <t>COMSION Banco</t>
+  </si>
+  <si>
+    <t>COMSIONES P.V.</t>
   </si>
 </sst>
 </file>
@@ -2006,7 +2027,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="278">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2455,6 +2476,39 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2536,41 +2590,11 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4144,8 +4168,8 @@
   </sheetPr>
   <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4168,23 +4192,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="265"/>
-      <c r="C1" s="267" t="s">
+      <c r="B1" s="238"/>
+      <c r="C1" s="240" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="268"/>
-      <c r="J1" s="268"/>
-      <c r="K1" s="268"/>
-      <c r="L1" s="268"/>
-      <c r="M1" s="268"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="241"/>
+      <c r="J1" s="241"/>
+      <c r="K1" s="241"/>
+      <c r="L1" s="241"/>
+      <c r="M1" s="241"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="266"/>
+      <c r="B2" s="239"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -4194,21 +4218,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="269" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="270"/>
+      <c r="B3" s="242" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="243"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="271" t="s">
+      <c r="H3" s="244" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="271"/>
+      <c r="I3" s="244"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="238" t="s">
+      <c r="R3" s="249" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4223,14 +4247,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="272" t="s">
+      <c r="E4" s="245" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="273"/>
-      <c r="H4" s="274" t="s">
+      <c r="F4" s="246"/>
+      <c r="H4" s="247" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="275"/>
+      <c r="I4" s="248"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -4240,11 +4264,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="245" t="s">
+      <c r="P4" s="256" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="246"/>
-      <c r="R4" s="239"/>
+      <c r="Q4" s="257"/>
+      <c r="R4" s="250"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -5609,9 +5633,15 @@
       <c r="G36" s="2"/>
       <c r="H36" s="37"/>
       <c r="I36" s="31"/>
-      <c r="J36" s="73"/>
-      <c r="K36" s="182"/>
-      <c r="L36" s="82"/>
+      <c r="J36" s="73" t="s">
+        <v>203</v>
+      </c>
+      <c r="K36" s="182" t="s">
+        <v>204</v>
+      </c>
+      <c r="L36" s="82">
+        <v>2143.61</v>
+      </c>
       <c r="M36" s="32">
         <v>0</v>
       </c>
@@ -5620,11 +5650,11 @@
       </c>
       <c r="P36" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2143.61</v>
       </c>
       <c r="Q36" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2143.61</v>
       </c>
       <c r="R36" s="8"/>
     </row>
@@ -5638,9 +5668,15 @@
       <c r="G37" s="2"/>
       <c r="H37" s="37"/>
       <c r="I37" s="31"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="82"/>
+      <c r="J37" s="73" t="s">
+        <v>203</v>
+      </c>
+      <c r="K37" s="81" t="s">
+        <v>205</v>
+      </c>
+      <c r="L37" s="82">
+        <v>1195.68</v>
+      </c>
       <c r="M37" s="32">
         <v>0</v>
       </c>
@@ -5649,11 +5685,11 @@
       </c>
       <c r="P37" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1195.68</v>
       </c>
       <c r="Q37" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1195.68</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -5667,8 +5703,12 @@
       <c r="H38" s="37"/>
       <c r="I38" s="31"/>
       <c r="J38" s="73"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="80"/>
+      <c r="K38" s="76" t="s">
+        <v>206</v>
+      </c>
+      <c r="L38" s="80">
+        <v>895.42</v>
+      </c>
       <c r="M38" s="32">
         <v>0</v>
       </c>
@@ -5677,11 +5717,11 @@
       </c>
       <c r="P38" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>895.42</v>
       </c>
       <c r="Q38" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>895.42</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -5695,8 +5735,12 @@
       <c r="H39" s="37"/>
       <c r="I39" s="31"/>
       <c r="J39" s="73"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="75"/>
+      <c r="K39" s="76" t="s">
+        <v>207</v>
+      </c>
+      <c r="L39" s="75">
+        <v>1392</v>
+      </c>
       <c r="M39" s="32">
         <v>0</v>
       </c>
@@ -5705,11 +5749,11 @@
       </c>
       <c r="P39" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1392</v>
       </c>
       <c r="Q39" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5725,21 +5769,21 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="247">
+      <c r="M40" s="258">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="249">
+      <c r="N40" s="260">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
       <c r="P40" s="34">
         <f>SUM(P5:P39)</f>
-        <v>1696456.57</v>
+        <v>1702083.28</v>
       </c>
       <c r="Q40" s="9">
         <f>SUM(Q5:Q38)</f>
-        <v>588.56999999999243</v>
+        <v>4823.2799999999925</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -5755,8 +5799,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="248"/>
-      <c r="N41" s="250"/>
+      <c r="M41" s="259"/>
+      <c r="N41" s="261"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -5953,7 +5997,7 @@
       </c>
       <c r="L51" s="114">
         <f>SUM(L5:L50)</f>
-        <v>43194.57</v>
+        <v>48821.279999999999</v>
       </c>
       <c r="M51" s="115"/>
       <c r="N51" s="115"/>
@@ -5971,32 +6015,32 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="251" t="s">
+      <c r="H53" s="262" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="252"/>
+      <c r="I53" s="263"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="253">
+      <c r="K53" s="264">
         <f>I51+L51</f>
-        <v>44516.57</v>
-      </c>
-      <c r="L53" s="254"/>
-      <c r="M53" s="255">
+        <v>50143.28</v>
+      </c>
+      <c r="L53" s="265"/>
+      <c r="M53" s="266">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="256"/>
+      <c r="N53" s="267"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="257" t="s">
+      <c r="D54" s="268" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="257"/>
+      <c r="E54" s="268"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
-        <v>1567048.43</v>
+        <v>1561421.72</v>
       </c>
       <c r="I54" s="121"/>
       <c r="J54" s="122"/>
@@ -6004,22 +6048,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="258" t="s">
+      <c r="D55" s="269" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="258"/>
+      <c r="E55" s="269"/>
       <c r="F55" s="115">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="259" t="s">
+      <c r="I55" s="270" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="260"/>
-      <c r="K55" s="261">
+      <c r="J55" s="271"/>
+      <c r="K55" s="272">
         <f>F57+F58+F59</f>
-        <v>302590.17999999993</v>
-      </c>
-      <c r="L55" s="262"/>
+        <v>296963.46999999997</v>
+      </c>
+      <c r="L55" s="273"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -6043,18 +6087,18 @@
       </c>
       <c r="F57" s="115">
         <f>SUM(F54:F56)</f>
-        <v>147965.65999999992</v>
+        <v>142338.94999999995</v>
       </c>
       <c r="H57" s="24"/>
       <c r="I57" s="129" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="263">
+      <c r="K57" s="274">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="264"/>
+      <c r="L57" s="275"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -6071,22 +6115,22 @@
       <c r="C59" s="133">
         <v>44591</v>
       </c>
-      <c r="D59" s="240" t="s">
+      <c r="D59" s="251" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="241"/>
+      <c r="E59" s="252"/>
       <c r="F59" s="134">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="242" t="s">
+      <c r="I59" s="253" t="s">
         <v>170</v>
       </c>
-      <c r="J59" s="243"/>
-      <c r="K59" s="244">
+      <c r="J59" s="254"/>
+      <c r="K59" s="255">
         <f>K55+K57</f>
-        <v>81530.479999999923</v>
-      </c>
-      <c r="L59" s="244"/>
+        <v>75903.76999999996</v>
+      </c>
+      <c r="L59" s="255"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -6230,12 +6274,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
@@ -6251,6 +6289,12 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8044,8 +8088,8 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8068,23 +8112,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="265"/>
-      <c r="C1" s="267" t="s">
+      <c r="B1" s="238"/>
+      <c r="C1" s="240" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="268"/>
-      <c r="J1" s="268"/>
-      <c r="K1" s="268"/>
-      <c r="L1" s="268"/>
-      <c r="M1" s="268"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="241"/>
+      <c r="J1" s="241"/>
+      <c r="K1" s="241"/>
+      <c r="L1" s="241"/>
+      <c r="M1" s="241"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="266"/>
+      <c r="B2" s="239"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -8094,21 +8138,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="269" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="270"/>
+      <c r="B3" s="242" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="243"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="271" t="s">
+      <c r="H3" s="244" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="271"/>
+      <c r="I3" s="244"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="238" t="s">
+      <c r="R3" s="249" t="s">
         <v>38</v>
       </c>
     </row>
@@ -8123,14 +8167,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="272" t="s">
+      <c r="E4" s="245" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="273"/>
-      <c r="H4" s="274" t="s">
+      <c r="F4" s="246"/>
+      <c r="H4" s="247" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="275"/>
+      <c r="I4" s="248"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -8140,11 +8184,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="245" t="s">
+      <c r="P4" s="256" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="246"/>
-      <c r="R4" s="239"/>
+      <c r="Q4" s="257"/>
+      <c r="R4" s="250"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -9464,8 +9508,12 @@
       <c r="H35" s="37"/>
       <c r="I35" s="31"/>
       <c r="J35" s="73"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="80"/>
+      <c r="K35" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="L35" s="80">
+        <v>549</v>
+      </c>
       <c r="M35" s="220">
         <v>0</v>
       </c>
@@ -9474,11 +9522,11 @@
       </c>
       <c r="P35" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>549</v>
       </c>
       <c r="Q35" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>549</v>
       </c>
       <c r="R35" s="8"/>
     </row>
@@ -9493,8 +9541,12 @@
       <c r="H36" s="37"/>
       <c r="I36" s="31"/>
       <c r="J36" s="73"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="80"/>
+      <c r="K36" s="277" t="s">
+        <v>208</v>
+      </c>
+      <c r="L36" s="80">
+        <v>1195.68</v>
+      </c>
       <c r="M36" s="220">
         <v>0</v>
       </c>
@@ -9503,11 +9555,11 @@
       </c>
       <c r="P36" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1195.68</v>
       </c>
       <c r="Q36" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1195.68</v>
       </c>
       <c r="R36" s="8"/>
     </row>
@@ -9522,8 +9574,12 @@
       <c r="H37" s="37"/>
       <c r="I37" s="31"/>
       <c r="J37" s="73"/>
-      <c r="K37" s="221"/>
-      <c r="L37" s="80"/>
+      <c r="K37" s="221" t="s">
+        <v>206</v>
+      </c>
+      <c r="L37" s="80">
+        <v>1055.9100000000001</v>
+      </c>
       <c r="M37" s="220">
         <v>0</v>
       </c>
@@ -9532,11 +9588,11 @@
       </c>
       <c r="P37" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1055.9100000000001</v>
       </c>
       <c r="Q37" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1055.9100000000001</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -9550,8 +9606,12 @@
       <c r="H38" s="37"/>
       <c r="I38" s="31"/>
       <c r="J38" s="73"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="80"/>
+      <c r="K38" s="76" t="s">
+        <v>207</v>
+      </c>
+      <c r="L38" s="80">
+        <v>1392</v>
+      </c>
       <c r="M38" s="220">
         <v>0</v>
       </c>
@@ -9560,11 +9620,11 @@
       </c>
       <c r="P38" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1392</v>
       </c>
       <c r="Q38" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -9578,8 +9638,12 @@
       <c r="H39" s="37"/>
       <c r="I39" s="31"/>
       <c r="J39" s="73"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="80"/>
+      <c r="K39" s="76" t="s">
+        <v>209</v>
+      </c>
+      <c r="L39" s="80">
+        <v>828.48</v>
+      </c>
       <c r="M39" s="220">
         <v>0</v>
       </c>
@@ -9588,11 +9652,11 @@
       </c>
       <c r="P39" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>828.48</v>
       </c>
       <c r="Q39" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>828.48</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9612,17 +9676,17 @@
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="249">
+      <c r="N40" s="260">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
       <c r="P40" s="34">
         <f>SUM(P5:P39)</f>
-        <v>1821239.21</v>
+        <v>1826260.2799999998</v>
       </c>
       <c r="Q40" s="9">
         <f>SUM(Q5:Q38)</f>
-        <v>9.2099999999991269</v>
+        <v>4201.7999999999993</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -9638,8 +9702,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="248"/>
-      <c r="N41" s="250"/>
+      <c r="M41" s="259"/>
+      <c r="N41" s="261"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -9836,7 +9900,7 @@
       </c>
       <c r="L51" s="114">
         <f>SUM(L5:L50)</f>
-        <v>37256.71</v>
+        <v>42277.780000000006</v>
       </c>
       <c r="M51" s="115"/>
       <c r="N51" s="115"/>
@@ -9854,32 +9918,32 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="251" t="s">
+      <c r="H53" s="262" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="252"/>
+      <c r="I53" s="263"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="253">
+      <c r="K53" s="264">
         <f>I51+L51</f>
-        <v>40613.21</v>
-      </c>
-      <c r="L53" s="254"/>
-      <c r="M53" s="255">
+        <v>45634.280000000006</v>
+      </c>
+      <c r="L53" s="265"/>
+      <c r="M53" s="266">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="256"/>
+      <c r="N53" s="267"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="257" t="s">
+      <c r="D54" s="268" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="257"/>
+      <c r="E54" s="268"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
-        <v>1691463.79</v>
+        <v>1686442.72</v>
       </c>
       <c r="I54" s="121"/>
       <c r="J54" s="122"/>
@@ -9887,22 +9951,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="258" t="s">
+      <c r="D55" s="269" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="258"/>
+      <c r="E55" s="269"/>
       <c r="F55" s="115">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="259" t="s">
+      <c r="I55" s="270" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="260"/>
-      <c r="K55" s="261">
+      <c r="J55" s="271"/>
+      <c r="K55" s="272">
         <f>F57+F58+F59</f>
-        <v>243843.21000000002</v>
-      </c>
-      <c r="L55" s="262"/>
+        <v>238822.13999999996</v>
+      </c>
+      <c r="L55" s="273"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -9926,18 +9990,18 @@
       </c>
       <c r="F57" s="115">
         <f>SUM(F54:F56)</f>
-        <v>59501.020000000019</v>
+        <v>54479.949999999953</v>
       </c>
       <c r="H57" s="24"/>
       <c r="I57" s="129" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="263">
+      <c r="K57" s="274">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="264"/>
+      <c r="L57" s="275"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -9954,22 +10018,22 @@
       <c r="C59" s="133">
         <v>44619</v>
       </c>
-      <c r="D59" s="240" t="s">
+      <c r="D59" s="251" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="241"/>
+      <c r="E59" s="252"/>
       <c r="F59" s="134">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="242" t="s">
+      <c r="I59" s="253" t="s">
         <v>170</v>
       </c>
-      <c r="J59" s="243"/>
-      <c r="K59" s="244">
+      <c r="J59" s="254"/>
+      <c r="K59" s="255">
         <f>K55+K57</f>
-        <v>89528.690000000031</v>
-      </c>
-      <c r="L59" s="244"/>
+        <v>84507.619999999966</v>
+      </c>
+      <c r="L59" s="255"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -10113,18 +10177,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -10134,6 +10186,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11410,8 +11474,8 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView topLeftCell="G13" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11434,23 +11498,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="265"/>
-      <c r="C1" s="267" t="s">
+      <c r="B1" s="238"/>
+      <c r="C1" s="240" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="268"/>
-      <c r="J1" s="268"/>
-      <c r="K1" s="268"/>
-      <c r="L1" s="268"/>
-      <c r="M1" s="268"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="241"/>
+      <c r="J1" s="241"/>
+      <c r="K1" s="241"/>
+      <c r="L1" s="241"/>
+      <c r="M1" s="241"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="266"/>
+      <c r="B2" s="239"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -11460,21 +11524,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="269" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="270"/>
+      <c r="B3" s="242" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="243"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="271" t="s">
+      <c r="H3" s="244" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="271"/>
+      <c r="I3" s="244"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="238" t="s">
+      <c r="R3" s="249" t="s">
         <v>38</v>
       </c>
     </row>
@@ -11489,14 +11553,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="272" t="s">
+      <c r="E4" s="245" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="273"/>
-      <c r="H4" s="274" t="s">
+      <c r="F4" s="246"/>
+      <c r="H4" s="247" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="275"/>
+      <c r="I4" s="248"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -11506,11 +11570,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="245" t="s">
+      <c r="P4" s="256" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="246"/>
-      <c r="R4" s="239"/>
+      <c r="Q4" s="257"/>
+      <c r="R4" s="250"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -12957,11 +13021,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="247">
+      <c r="M40" s="258">
         <f>SUM(M5:M39)</f>
         <v>1036658</v>
       </c>
-      <c r="N40" s="249">
+      <c r="N40" s="260">
         <f>SUM(N5:N39)</f>
         <v>28505</v>
       </c>
@@ -12991,8 +13055,8 @@
       <c r="L41" s="75">
         <v>25678</v>
       </c>
-      <c r="M41" s="248"/>
-      <c r="N41" s="250"/>
+      <c r="M41" s="259"/>
+      <c r="N41" s="261"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -13207,29 +13271,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="251" t="s">
+      <c r="H53" s="262" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="252"/>
+      <c r="I53" s="263"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="253">
+      <c r="K53" s="264">
         <f>I51+L51</f>
         <v>58741</v>
       </c>
-      <c r="L53" s="254"/>
-      <c r="M53" s="255">
+      <c r="L53" s="265"/>
+      <c r="M53" s="266">
         <f>N40+M40</f>
         <v>1065163</v>
       </c>
-      <c r="N53" s="256"/>
+      <c r="N53" s="267"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="257" t="s">
+      <c r="D54" s="268" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="257"/>
+      <c r="E54" s="268"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1039477</v>
@@ -13240,22 +13304,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="258" t="s">
+      <c r="D55" s="269" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="258"/>
+      <c r="E55" s="269"/>
       <c r="F55" s="115">
         <v>0</v>
       </c>
-      <c r="I55" s="259" t="s">
+      <c r="I55" s="270" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="260"/>
-      <c r="K55" s="261">
+      <c r="J55" s="271"/>
+      <c r="K55" s="272">
         <f>F57+F58+F59</f>
         <v>1039477</v>
       </c>
-      <c r="L55" s="262"/>
+      <c r="L55" s="273"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -13286,11 +13350,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="263">
+      <c r="K57" s="274">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L57" s="264"/>
+      <c r="L57" s="275"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -13305,22 +13369,22 @@
     </row>
     <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C59" s="133"/>
-      <c r="D59" s="240" t="s">
+      <c r="D59" s="251" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="241"/>
+      <c r="E59" s="252"/>
       <c r="F59" s="134">
         <v>0</v>
       </c>
-      <c r="I59" s="242" t="s">
+      <c r="I59" s="253" t="s">
         <v>124</v>
       </c>
-      <c r="J59" s="243"/>
-      <c r="K59" s="244">
+      <c r="J59" s="254"/>
+      <c r="K59" s="255">
         <f>K55+K57</f>
         <v>855134.81</v>
       </c>
-      <c r="L59" s="244"/>
+      <c r="L59" s="255"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -13464,6 +13528,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -13473,18 +13549,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13500,7 +13564,7 @@
   </sheetPr>
   <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/BALANCE   HERRADURA  MaRzO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/BALANCE   HERRADURA  MaRzO   2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 2         " sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="226">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -834,6 +834,54 @@
   </si>
   <si>
     <t>COMSIONES P.V.</t>
+  </si>
+  <si>
+    <t>15768 C</t>
+  </si>
+  <si>
+    <t>15783 C</t>
+  </si>
+  <si>
+    <t>15790 C</t>
+  </si>
+  <si>
+    <t>15906 C</t>
+  </si>
+  <si>
+    <t>15980 C</t>
+  </si>
+  <si>
+    <t>16224 C</t>
+  </si>
+  <si>
+    <t>16351 C</t>
+  </si>
+  <si>
+    <t>16450 C</t>
+  </si>
+  <si>
+    <t>16523 C</t>
+  </si>
+  <si>
+    <t>16601 C</t>
+  </si>
+  <si>
+    <t>16603 C</t>
+  </si>
+  <si>
+    <t>16729 C</t>
+  </si>
+  <si>
+    <t>16731 C</t>
+  </si>
+  <si>
+    <t>NOMINA # 12 Y Vacaciones</t>
+  </si>
+  <si>
+    <t>COMPRAS CENTRAL --PEREJIL</t>
+  </si>
+  <si>
+    <t>QUESOS-LONGANIZA</t>
   </si>
 </sst>
 </file>
@@ -2476,6 +2524,9 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2592,9 +2643,6 @@
     </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4192,23 +4240,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="238"/>
-      <c r="C1" s="240" t="s">
+      <c r="B1" s="239"/>
+      <c r="C1" s="241" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="241"/>
-      <c r="E1" s="241"/>
-      <c r="F1" s="241"/>
-      <c r="G1" s="241"/>
-      <c r="H1" s="241"/>
-      <c r="I1" s="241"/>
-      <c r="J1" s="241"/>
-      <c r="K1" s="241"/>
-      <c r="L1" s="241"/>
-      <c r="M1" s="241"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="239"/>
+      <c r="B2" s="240"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -4218,21 +4266,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="242" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="243"/>
+      <c r="B3" s="243" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="244"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="244" t="s">
+      <c r="H3" s="245" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="244"/>
+      <c r="I3" s="245"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="249" t="s">
+      <c r="R3" s="250" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4247,14 +4295,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="245" t="s">
+      <c r="E4" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="246"/>
-      <c r="H4" s="247" t="s">
+      <c r="F4" s="247"/>
+      <c r="H4" s="248" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="248"/>
+      <c r="I4" s="249"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -4264,11 +4312,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="256" t="s">
+      <c r="P4" s="257" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="257"/>
-      <c r="R4" s="250"/>
+      <c r="Q4" s="258"/>
+      <c r="R4" s="251"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -5769,11 +5817,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="258">
+      <c r="M40" s="259">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="260">
+      <c r="N40" s="261">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -5799,8 +5847,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="259"/>
-      <c r="N41" s="261"/>
+      <c r="M41" s="260"/>
+      <c r="N41" s="262"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -6015,29 +6063,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="262" t="s">
+      <c r="H53" s="263" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="263"/>
+      <c r="I53" s="264"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="264">
+      <c r="K53" s="265">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="265"/>
-      <c r="M53" s="266">
+      <c r="L53" s="266"/>
+      <c r="M53" s="267">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="267"/>
+      <c r="N53" s="268"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="268" t="s">
+      <c r="D54" s="269" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="268"/>
+      <c r="E54" s="269"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -6048,22 +6096,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="269" t="s">
+      <c r="D55" s="270" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="269"/>
+      <c r="E55" s="270"/>
       <c r="F55" s="115">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="270" t="s">
+      <c r="I55" s="271" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="271"/>
-      <c r="K55" s="272">
+      <c r="J55" s="272"/>
+      <c r="K55" s="273">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="273"/>
+      <c r="L55" s="274"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -6094,11 +6142,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="274">
+      <c r="K57" s="275">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="275"/>
+      <c r="L57" s="276"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -6115,22 +6163,22 @@
       <c r="C59" s="133">
         <v>44591</v>
       </c>
-      <c r="D59" s="251" t="s">
+      <c r="D59" s="252" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="252"/>
+      <c r="E59" s="253"/>
       <c r="F59" s="134">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="253" t="s">
+      <c r="I59" s="254" t="s">
         <v>170</v>
       </c>
-      <c r="J59" s="254"/>
-      <c r="K59" s="255">
+      <c r="J59" s="255"/>
+      <c r="K59" s="256">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="255"/>
+      <c r="L59" s="256"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -8112,23 +8160,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="238"/>
-      <c r="C1" s="240" t="s">
+      <c r="B1" s="239"/>
+      <c r="C1" s="241" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="241"/>
-      <c r="E1" s="241"/>
-      <c r="F1" s="241"/>
-      <c r="G1" s="241"/>
-      <c r="H1" s="241"/>
-      <c r="I1" s="241"/>
-      <c r="J1" s="241"/>
-      <c r="K1" s="241"/>
-      <c r="L1" s="241"/>
-      <c r="M1" s="241"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="239"/>
+      <c r="B2" s="240"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -8138,21 +8186,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="242" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="243"/>
+      <c r="B3" s="243" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="244"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="244" t="s">
+      <c r="H3" s="245" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="244"/>
+      <c r="I3" s="245"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="249" t="s">
+      <c r="R3" s="250" t="s">
         <v>38</v>
       </c>
     </row>
@@ -8167,14 +8215,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="245" t="s">
+      <c r="E4" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="246"/>
-      <c r="H4" s="247" t="s">
+      <c r="F4" s="247"/>
+      <c r="H4" s="248" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="248"/>
+      <c r="I4" s="249"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -8184,11 +8232,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="256" t="s">
+      <c r="P4" s="257" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="257"/>
-      <c r="R4" s="250"/>
+      <c r="Q4" s="258"/>
+      <c r="R4" s="251"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -9541,7 +9589,7 @@
       <c r="H36" s="37"/>
       <c r="I36" s="31"/>
       <c r="J36" s="73"/>
-      <c r="K36" s="277" t="s">
+      <c r="K36" s="238" t="s">
         <v>208</v>
       </c>
       <c r="L36" s="80">
@@ -9672,11 +9720,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="80"/>
-      <c r="M40" s="276">
+      <c r="M40" s="277">
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="260">
+      <c r="N40" s="261">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -9702,8 +9750,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="259"/>
-      <c r="N41" s="261"/>
+      <c r="M41" s="260"/>
+      <c r="N41" s="262"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -9918,29 +9966,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="262" t="s">
+      <c r="H53" s="263" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="263"/>
+      <c r="I53" s="264"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="264">
+      <c r="K53" s="265">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="265"/>
-      <c r="M53" s="266">
+      <c r="L53" s="266"/>
+      <c r="M53" s="267">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="267"/>
+      <c r="N53" s="268"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="268" t="s">
+      <c r="D54" s="269" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="268"/>
+      <c r="E54" s="269"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -9951,22 +9999,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="269" t="s">
+      <c r="D55" s="270" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="269"/>
+      <c r="E55" s="270"/>
       <c r="F55" s="115">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="270" t="s">
+      <c r="I55" s="271" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="271"/>
-      <c r="K55" s="272">
+      <c r="J55" s="272"/>
+      <c r="K55" s="273">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="273"/>
+      <c r="L55" s="274"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -9997,11 +10045,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="274">
+      <c r="K57" s="275">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="275"/>
+      <c r="L57" s="276"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -10018,22 +10066,22 @@
       <c r="C59" s="133">
         <v>44619</v>
       </c>
-      <c r="D59" s="251" t="s">
+      <c r="D59" s="252" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="252"/>
+      <c r="E59" s="253"/>
       <c r="F59" s="134">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="253" t="s">
+      <c r="I59" s="254" t="s">
         <v>170</v>
       </c>
-      <c r="J59" s="254"/>
-      <c r="K59" s="255">
+      <c r="J59" s="255"/>
+      <c r="K59" s="256">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="255"/>
+      <c r="L59" s="256"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -10214,8 +10262,8 @@
   <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11474,8 +11522,8 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11498,23 +11546,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="238"/>
-      <c r="C1" s="240" t="s">
+      <c r="B1" s="239"/>
+      <c r="C1" s="241" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="241"/>
-      <c r="E1" s="241"/>
-      <c r="F1" s="241"/>
-      <c r="G1" s="241"/>
-      <c r="H1" s="241"/>
-      <c r="I1" s="241"/>
-      <c r="J1" s="241"/>
-      <c r="K1" s="241"/>
-      <c r="L1" s="241"/>
-      <c r="M1" s="241"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="239"/>
+      <c r="B2" s="240"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -11524,21 +11572,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="242" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="243"/>
+      <c r="B3" s="243" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="244"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="244" t="s">
+      <c r="H3" s="245" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="244"/>
+      <c r="I3" s="245"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="249" t="s">
+      <c r="R3" s="250" t="s">
         <v>38</v>
       </c>
     </row>
@@ -11553,14 +11601,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="245" t="s">
+      <c r="E4" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="246"/>
-      <c r="H4" s="247" t="s">
+      <c r="F4" s="247"/>
+      <c r="H4" s="248" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="248"/>
+      <c r="I4" s="249"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -11570,11 +11618,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="256" t="s">
+      <c r="P4" s="257" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="257"/>
-      <c r="R4" s="250"/>
+      <c r="Q4" s="258"/>
+      <c r="R4" s="251"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -12351,28 +12399,33 @@
       <c r="E22" s="28">
         <v>44637</v>
       </c>
-      <c r="F22" s="29"/>
+      <c r="F22" s="29">
+        <v>61658</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="30">
         <v>44637</v>
       </c>
-      <c r="I22" s="31"/>
+      <c r="I22" s="31">
+        <v>172</v>
+      </c>
       <c r="J22" s="38"/>
       <c r="K22" s="45"/>
       <c r="L22" s="58"/>
       <c r="M22" s="32">
-        <v>0</v>
+        <f>30000+29190</f>
+        <v>59190</v>
       </c>
       <c r="N22" s="33">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="P22" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61662</v>
       </c>
       <c r="Q22" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R22" s="8"/>
     </row>
@@ -12382,34 +12435,41 @@
         <v>44638</v>
       </c>
       <c r="C23" s="26">
-        <v>0</v>
-      </c>
-      <c r="D23" s="36"/>
+        <v>2160</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>47</v>
+      </c>
       <c r="E23" s="28">
         <v>44638</v>
       </c>
-      <c r="F23" s="29"/>
+      <c r="F23" s="29">
+        <v>88642</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="30">
         <v>44638</v>
       </c>
-      <c r="I23" s="31"/>
+      <c r="I23" s="31">
+        <v>551</v>
+      </c>
       <c r="J23" s="59"/>
       <c r="K23" s="60"/>
       <c r="L23" s="48"/>
       <c r="M23" s="32">
-        <v>0</v>
+        <f>50920+35000</f>
+        <v>85920</v>
       </c>
       <c r="N23" s="33">
         <v>0</v>
       </c>
       <c r="P23" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>88631</v>
       </c>
       <c r="Q23" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="R23" s="8"/>
     </row>
@@ -12425,28 +12485,39 @@
       <c r="E24" s="28">
         <v>44639</v>
       </c>
-      <c r="F24" s="29"/>
+      <c r="F24" s="29">
+        <v>100597</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="30">
         <v>44639</v>
       </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="181"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="63"/>
+      <c r="I24" s="31">
+        <v>43</v>
+      </c>
+      <c r="J24" s="181">
+        <v>44639</v>
+      </c>
+      <c r="K24" s="62" t="s">
+        <v>223</v>
+      </c>
+      <c r="L24" s="63">
+        <v>12300</v>
+      </c>
       <c r="M24" s="32">
-        <v>0</v>
+        <f>26940+45000</f>
+        <v>71940</v>
       </c>
       <c r="N24" s="33">
-        <v>0</v>
+        <v>16319</v>
       </c>
       <c r="P24" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100602</v>
       </c>
       <c r="Q24" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R24" s="8"/>
     </row>
@@ -12456,33 +12527,40 @@
         <v>44640</v>
       </c>
       <c r="C25" s="26">
-        <v>0</v>
-      </c>
-      <c r="D25" s="36"/>
+        <v>15145</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>224</v>
+      </c>
       <c r="E25" s="28">
         <v>44640</v>
       </c>
-      <c r="F25" s="29"/>
+      <c r="F25" s="29">
+        <v>85876</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="30">
         <v>44640</v>
       </c>
-      <c r="I25" s="31"/>
+      <c r="I25" s="31">
+        <v>23</v>
+      </c>
       <c r="J25" s="64"/>
       <c r="K25" s="65"/>
       <c r="L25" s="66"/>
       <c r="M25" s="32">
-        <v>0</v>
+        <f>50000+13533</f>
+        <v>63533</v>
       </c>
       <c r="N25" s="33">
-        <v>0</v>
+        <v>7175</v>
       </c>
       <c r="O25" t="s">
         <v>8</v>
       </c>
       <c r="P25" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>85876</v>
       </c>
       <c r="Q25" s="13">
         <f t="shared" si="1"/>
@@ -12505,24 +12583,29 @@
       <c r="E26" s="28">
         <v>44641</v>
       </c>
-      <c r="F26" s="29"/>
+      <c r="F26" s="29">
+        <v>75915</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="30">
         <v>44641</v>
       </c>
-      <c r="I26" s="31"/>
+      <c r="I26" s="31">
+        <v>59</v>
+      </c>
       <c r="J26" s="38"/>
       <c r="K26" s="62"/>
       <c r="L26" s="48"/>
       <c r="M26" s="32">
-        <v>0</v>
+        <f>50600+25043</f>
+        <v>75643</v>
       </c>
       <c r="N26" s="33">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="P26" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75915</v>
       </c>
       <c r="Q26" s="13">
         <f t="shared" si="1"/>
@@ -12536,34 +12619,41 @@
         <v>44642</v>
       </c>
       <c r="C27" s="26">
-        <v>0</v>
-      </c>
-      <c r="D27" s="41"/>
+        <v>4490</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>225</v>
+      </c>
       <c r="E27" s="28">
         <v>44642</v>
       </c>
-      <c r="F27" s="29"/>
+      <c r="F27" s="29">
+        <v>51455</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="30">
         <v>44642</v>
       </c>
-      <c r="I27" s="31"/>
+      <c r="I27" s="31">
+        <v>0</v>
+      </c>
       <c r="J27" s="67"/>
       <c r="K27" s="68"/>
       <c r="L27" s="66"/>
       <c r="M27" s="32">
-        <v>0</v>
+        <f>20000+26270</f>
+        <v>46270</v>
       </c>
       <c r="N27" s="33">
-        <v>0</v>
+        <v>696</v>
       </c>
       <c r="P27" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>51456</v>
       </c>
       <c r="Q27" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="8"/>
     </row>
@@ -13021,21 +13111,21 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="258">
+      <c r="M40" s="259">
         <f>SUM(M5:M39)</f>
-        <v>1036658</v>
-      </c>
-      <c r="N40" s="260">
+        <v>1439154</v>
+      </c>
+      <c r="N40" s="261">
         <f>SUM(N5:N39)</f>
-        <v>28505</v>
+        <v>55208</v>
       </c>
       <c r="P40" s="34">
         <f>SUM(P5:P39)</f>
-        <v>1143139</v>
+        <v>1607281</v>
       </c>
       <c r="Q40" s="13">
         <f t="shared" si="1"/>
-        <v>1143139</v>
+        <v>1607281</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -13055,8 +13145,8 @@
       <c r="L41" s="75">
         <v>25678</v>
       </c>
-      <c r="M41" s="259"/>
-      <c r="N41" s="261"/>
+      <c r="M41" s="260"/>
+      <c r="N41" s="262"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -13229,7 +13319,7 @@
       </c>
       <c r="C51" s="106">
         <f>SUM(C5:C50)</f>
-        <v>44913</v>
+        <v>66708</v>
       </c>
       <c r="D51" s="107"/>
       <c r="E51" s="108" t="s">
@@ -13237,7 +13327,7 @@
       </c>
       <c r="F51" s="109">
         <f>SUM(F5:F50)</f>
-        <v>1143131</v>
+        <v>1607274</v>
       </c>
       <c r="G51" s="107"/>
       <c r="H51" s="110" t="s">
@@ -13245,7 +13335,7 @@
       </c>
       <c r="I51" s="111">
         <f>SUM(I5:I50)</f>
-        <v>1963</v>
+        <v>2811</v>
       </c>
       <c r="J51" s="112"/>
       <c r="K51" s="113" t="s">
@@ -13253,7 +13343,7 @@
       </c>
       <c r="L51" s="114">
         <f>SUM(L5:L50)</f>
-        <v>56778</v>
+        <v>69078</v>
       </c>
       <c r="M51" s="115"/>
       <c r="N51" s="115"/>
@@ -13271,32 +13361,32 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="262" t="s">
+      <c r="H53" s="263" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="263"/>
+      <c r="I53" s="264"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="264">
+      <c r="K53" s="265">
         <f>I51+L51</f>
-        <v>58741</v>
-      </c>
-      <c r="L53" s="265"/>
-      <c r="M53" s="266">
+        <v>71889</v>
+      </c>
+      <c r="L53" s="266"/>
+      <c r="M53" s="267">
         <f>N40+M40</f>
-        <v>1065163</v>
-      </c>
-      <c r="N53" s="267"/>
+        <v>1494362</v>
+      </c>
+      <c r="N53" s="268"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="268" t="s">
+      <c r="D54" s="269" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="268"/>
+      <c r="E54" s="269"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
-        <v>1039477</v>
+        <v>1468677</v>
       </c>
       <c r="I54" s="121"/>
       <c r="J54" s="122"/>
@@ -13304,22 +13394,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="269" t="s">
+      <c r="D55" s="270" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="269"/>
+      <c r="E55" s="270"/>
       <c r="F55" s="115">
         <v>0</v>
       </c>
-      <c r="I55" s="270" t="s">
+      <c r="I55" s="271" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="271"/>
-      <c r="K55" s="272">
+      <c r="J55" s="272"/>
+      <c r="K55" s="273">
         <f>F57+F58+F59</f>
-        <v>1039477</v>
-      </c>
-      <c r="L55" s="273"/>
+        <v>1468677</v>
+      </c>
+      <c r="L55" s="274"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -13343,18 +13433,18 @@
       </c>
       <c r="F57" s="115">
         <f>SUM(F54:F56)</f>
-        <v>1039477</v>
+        <v>1468677</v>
       </c>
       <c r="H57" s="24"/>
       <c r="I57" s="129" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="274">
+      <c r="K57" s="275">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L57" s="275"/>
+      <c r="L57" s="276"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -13369,22 +13459,22 @@
     </row>
     <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C59" s="133"/>
-      <c r="D59" s="251" t="s">
+      <c r="D59" s="252" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="252"/>
+      <c r="E59" s="253"/>
       <c r="F59" s="134">
         <v>0</v>
       </c>
-      <c r="I59" s="253" t="s">
+      <c r="I59" s="254" t="s">
         <v>124</v>
       </c>
-      <c r="J59" s="254"/>
-      <c r="K59" s="255">
+      <c r="J59" s="255"/>
+      <c r="K59" s="256">
         <f>K55+K57</f>
-        <v>855134.81</v>
-      </c>
-      <c r="L59" s="255"/>
+        <v>1284334.81</v>
+      </c>
+      <c r="L59" s="256"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -13564,8 +13654,8 @@
   </sheetPr>
   <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13657,8 +13747,8 @@
       </c>
       <c r="D5" s="200"/>
       <c r="E5" s="195"/>
-      <c r="F5" s="161">
-        <f>C5-E5+F4</f>
+      <c r="F5" s="196">
+        <f t="shared" ref="F5:F68" si="0">C5-E5+F4</f>
         <v>96247.6</v>
       </c>
     </row>
@@ -13674,8 +13764,8 @@
       </c>
       <c r="D6" s="200"/>
       <c r="E6" s="195"/>
-      <c r="F6" s="161">
-        <f>F5+C6-E6</f>
+      <c r="F6" s="196">
+        <f t="shared" si="0"/>
         <v>116460.20000000001</v>
       </c>
       <c r="G6" s="162"/>
@@ -13692,8 +13782,8 @@
       </c>
       <c r="D7" s="200"/>
       <c r="E7" s="195"/>
-      <c r="F7" s="161">
-        <f t="shared" ref="F7" si="0">F6+C7-E7</f>
+      <c r="F7" s="196">
+        <f t="shared" si="0"/>
         <v>119247.40000000001</v>
       </c>
     </row>
@@ -13709,8 +13799,8 @@
       </c>
       <c r="D8" s="200"/>
       <c r="E8" s="195"/>
-      <c r="F8" s="161">
-        <f>F7+C8-E8</f>
+      <c r="F8" s="196">
+        <f t="shared" si="0"/>
         <v>195674.8</v>
       </c>
     </row>
@@ -13726,8 +13816,8 @@
       </c>
       <c r="D9" s="200"/>
       <c r="E9" s="195"/>
-      <c r="F9" s="161">
-        <f>F8+C9-E9</f>
+      <c r="F9" s="196">
+        <f t="shared" si="0"/>
         <v>217571.8</v>
       </c>
     </row>
@@ -13743,8 +13833,8 @@
       </c>
       <c r="D10" s="200"/>
       <c r="E10" s="195"/>
-      <c r="F10" s="161">
-        <f>F9+C10-E10</f>
+      <c r="F10" s="196">
+        <f t="shared" si="0"/>
         <v>335155.12</v>
       </c>
     </row>
@@ -13760,8 +13850,8 @@
       </c>
       <c r="D11" s="200"/>
       <c r="E11" s="195"/>
-      <c r="F11" s="161">
-        <f t="shared" ref="F11:F74" si="1">F10+C11-E11</f>
+      <c r="F11" s="196">
+        <f t="shared" si="0"/>
         <v>358472.92</v>
       </c>
     </row>
@@ -13777,8 +13867,8 @@
       </c>
       <c r="D12" s="200"/>
       <c r="E12" s="195"/>
-      <c r="F12" s="161">
-        <f t="shared" si="1"/>
+      <c r="F12" s="196">
+        <f t="shared" si="0"/>
         <v>451055.56999999995</v>
       </c>
       <c r="G12" s="162"/>
@@ -13795,8 +13885,8 @@
       </c>
       <c r="D13" s="200"/>
       <c r="E13" s="195"/>
-      <c r="F13" s="161">
-        <f t="shared" si="1"/>
+      <c r="F13" s="196">
+        <f t="shared" si="0"/>
         <v>488733.76999999996</v>
       </c>
     </row>
@@ -13812,8 +13902,8 @@
       </c>
       <c r="D14" s="200"/>
       <c r="E14" s="195"/>
-      <c r="F14" s="161">
-        <f t="shared" si="1"/>
+      <c r="F14" s="196">
+        <f t="shared" si="0"/>
         <v>560035.91999999993</v>
       </c>
     </row>
@@ -13829,8 +13919,8 @@
       </c>
       <c r="D15" s="200"/>
       <c r="E15" s="195"/>
-      <c r="F15" s="161">
-        <f t="shared" si="1"/>
+      <c r="F15" s="196">
+        <f t="shared" si="0"/>
         <v>682188.5199999999</v>
       </c>
     </row>
@@ -13846,8 +13936,8 @@
       </c>
       <c r="D16" s="200"/>
       <c r="E16" s="195"/>
-      <c r="F16" s="161">
-        <f t="shared" si="1"/>
+      <c r="F16" s="196">
+        <f t="shared" si="0"/>
         <v>702071.71999999986</v>
       </c>
     </row>
@@ -13863,8 +13953,8 @@
       </c>
       <c r="D17" s="200"/>
       <c r="E17" s="195"/>
-      <c r="F17" s="161">
-        <f t="shared" si="1"/>
+      <c r="F17" s="196">
+        <f t="shared" si="0"/>
         <v>778179.0399999998</v>
       </c>
     </row>
@@ -13880,8 +13970,8 @@
       </c>
       <c r="D18" s="200"/>
       <c r="E18" s="195"/>
-      <c r="F18" s="161">
-        <f t="shared" si="1"/>
+      <c r="F18" s="196">
+        <f t="shared" si="0"/>
         <v>862455.93999999983</v>
       </c>
     </row>
@@ -13897,8 +13987,8 @@
       </c>
       <c r="D19" s="200"/>
       <c r="E19" s="195"/>
-      <c r="F19" s="161">
-        <f t="shared" si="1"/>
+      <c r="F19" s="196">
+        <f t="shared" si="0"/>
         <v>910435.48999999987</v>
       </c>
     </row>
@@ -13914,8 +14004,8 @@
       </c>
       <c r="D20" s="200"/>
       <c r="E20" s="195"/>
-      <c r="F20" s="161">
-        <f t="shared" si="1"/>
+      <c r="F20" s="196">
+        <f t="shared" si="0"/>
         <v>911813.08999999985</v>
       </c>
     </row>
@@ -13931,8 +14021,8 @@
       </c>
       <c r="D21" s="200"/>
       <c r="E21" s="195"/>
-      <c r="F21" s="161">
-        <f t="shared" si="1"/>
+      <c r="F21" s="196">
+        <f t="shared" si="0"/>
         <v>923828.58999999985</v>
       </c>
     </row>
@@ -13948,8 +14038,8 @@
       </c>
       <c r="D22" s="202"/>
       <c r="E22" s="195"/>
-      <c r="F22" s="161">
-        <f t="shared" si="1"/>
+      <c r="F22" s="196">
+        <f t="shared" si="0"/>
         <v>1019767.2699999998</v>
       </c>
     </row>
@@ -13965,8 +14055,8 @@
       </c>
       <c r="D23" s="200"/>
       <c r="E23" s="195"/>
-      <c r="F23" s="161">
-        <f t="shared" si="1"/>
+      <c r="F23" s="196">
+        <f t="shared" si="0"/>
         <v>1029167.4699999997</v>
       </c>
     </row>
@@ -13982,8 +14072,8 @@
       </c>
       <c r="D24" s="200"/>
       <c r="E24" s="195"/>
-      <c r="F24" s="161">
-        <f t="shared" si="1"/>
+      <c r="F24" s="196">
+        <f t="shared" si="0"/>
         <v>1150272.9699999997</v>
       </c>
       <c r="G24" s="162"/>
@@ -14000,8 +14090,8 @@
       </c>
       <c r="D25" s="200"/>
       <c r="E25" s="195"/>
-      <c r="F25" s="161">
-        <f t="shared" si="1"/>
+      <c r="F25" s="196">
+        <f t="shared" si="0"/>
         <v>1167521.7699999998</v>
       </c>
     </row>
@@ -14017,8 +14107,8 @@
       </c>
       <c r="D26" s="200"/>
       <c r="E26" s="195"/>
-      <c r="F26" s="161">
-        <f t="shared" si="1"/>
+      <c r="F26" s="196">
+        <f t="shared" si="0"/>
         <v>1189076.1699999997</v>
       </c>
     </row>
@@ -14034,153 +14124,231 @@
       </c>
       <c r="D27" s="200"/>
       <c r="E27" s="195"/>
-      <c r="F27" s="161">
-        <f t="shared" si="1"/>
+      <c r="F27" s="196">
+        <f t="shared" si="0"/>
         <v>1268315.6699999997</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="224"/>
-      <c r="B28" s="194"/>
-      <c r="C28" s="195"/>
+      <c r="A28" s="224">
+        <v>44638</v>
+      </c>
+      <c r="B28" s="194" t="s">
+        <v>210</v>
+      </c>
+      <c r="C28" s="195">
+        <v>12469.8</v>
+      </c>
       <c r="D28" s="200"/>
       <c r="E28" s="195"/>
-      <c r="F28" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F28" s="196">
+        <f t="shared" si="0"/>
+        <v>1280785.4699999997</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="224"/>
-      <c r="B29" s="194"/>
-      <c r="C29" s="195"/>
+      <c r="A29" s="224">
+        <v>44639</v>
+      </c>
+      <c r="B29" s="194" t="s">
+        <v>211</v>
+      </c>
+      <c r="C29" s="195">
+        <v>99143.25</v>
+      </c>
       <c r="D29" s="200"/>
       <c r="E29" s="195"/>
-      <c r="F29" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F29" s="196">
+        <f t="shared" si="0"/>
+        <v>1379928.7199999997</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="224"/>
-      <c r="B30" s="194"/>
-      <c r="C30" s="195"/>
+      <c r="A30" s="224">
+        <v>44639</v>
+      </c>
+      <c r="B30" s="194" t="s">
+        <v>212</v>
+      </c>
+      <c r="C30" s="195">
+        <v>6625</v>
+      </c>
       <c r="D30" s="200"/>
       <c r="E30" s="195"/>
-      <c r="F30" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F30" s="196">
+        <f t="shared" si="0"/>
+        <v>1386553.7199999997</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="224"/>
-      <c r="B31" s="194"/>
-      <c r="C31" s="195"/>
+      <c r="A31" s="224">
+        <v>44639</v>
+      </c>
+      <c r="B31" s="194" t="s">
+        <v>213</v>
+      </c>
+      <c r="C31" s="195">
+        <v>2445.6</v>
+      </c>
       <c r="D31" s="200"/>
       <c r="E31" s="195"/>
-      <c r="F31" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F31" s="196">
+        <f t="shared" si="0"/>
+        <v>1388999.3199999998</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="224"/>
-      <c r="B32" s="194"/>
-      <c r="C32" s="195"/>
+      <c r="A32" s="224">
+        <v>44641</v>
+      </c>
+      <c r="B32" s="194" t="s">
+        <v>214</v>
+      </c>
+      <c r="C32" s="195">
+        <v>99443</v>
+      </c>
       <c r="D32" s="200"/>
       <c r="E32" s="195"/>
-      <c r="F32" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F32" s="196">
+        <f t="shared" si="0"/>
+        <v>1488442.3199999998</v>
       </c>
       <c r="G32" s="162"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="224"/>
-      <c r="B33" s="194"/>
-      <c r="C33" s="195"/>
+      <c r="A33" s="224">
+        <v>44643</v>
+      </c>
+      <c r="B33" s="194" t="s">
+        <v>215</v>
+      </c>
+      <c r="C33" s="195">
+        <v>117287.22</v>
+      </c>
       <c r="D33" s="200"/>
       <c r="E33" s="195"/>
-      <c r="F33" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F33" s="196">
+        <f t="shared" si="0"/>
+        <v>1605729.5399999998</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="224"/>
-      <c r="B34" s="194"/>
-      <c r="C34" s="195"/>
+      <c r="A34" s="224">
+        <v>44644</v>
+      </c>
+      <c r="B34" s="194" t="s">
+        <v>216</v>
+      </c>
+      <c r="C34" s="195">
+        <v>27776.2</v>
+      </c>
       <c r="D34" s="200"/>
       <c r="E34" s="195"/>
-      <c r="F34" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F34" s="196">
+        <f t="shared" si="0"/>
+        <v>1633505.7399999998</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="224"/>
-      <c r="B35" s="194"/>
-      <c r="C35" s="195"/>
+      <c r="A35" s="224">
+        <v>44645</v>
+      </c>
+      <c r="B35" s="194" t="s">
+        <v>217</v>
+      </c>
+      <c r="C35" s="195">
+        <v>100979.1</v>
+      </c>
       <c r="D35" s="200"/>
       <c r="E35" s="195"/>
-      <c r="F35" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F35" s="196">
+        <f t="shared" si="0"/>
+        <v>1734484.8399999999</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="224"/>
-      <c r="B36" s="194"/>
-      <c r="C36" s="195"/>
+      <c r="A36" s="224">
+        <v>44645</v>
+      </c>
+      <c r="B36" s="194" t="s">
+        <v>218</v>
+      </c>
+      <c r="C36" s="195">
+        <v>2400</v>
+      </c>
       <c r="D36" s="200"/>
       <c r="E36" s="195"/>
-      <c r="F36" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F36" s="196">
+        <f t="shared" si="0"/>
+        <v>1736884.8399999999</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="224"/>
-      <c r="B37" s="194"/>
-      <c r="C37" s="195"/>
+      <c r="A37" s="224">
+        <v>44646</v>
+      </c>
+      <c r="B37" s="194" t="s">
+        <v>219</v>
+      </c>
+      <c r="C37" s="195">
+        <v>100244.2</v>
+      </c>
       <c r="D37" s="200"/>
       <c r="E37" s="195"/>
-      <c r="F37" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F37" s="196">
+        <f t="shared" si="0"/>
+        <v>1837129.0399999998</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="224"/>
-      <c r="B38" s="194"/>
-      <c r="C38" s="195"/>
+      <c r="A38" s="224">
+        <v>44646</v>
+      </c>
+      <c r="B38" s="194" t="s">
+        <v>220</v>
+      </c>
+      <c r="C38" s="195">
+        <v>400</v>
+      </c>
       <c r="D38" s="200"/>
       <c r="E38" s="195"/>
-      <c r="F38" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F38" s="196">
+        <f t="shared" si="0"/>
+        <v>1837529.0399999998</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="224"/>
-      <c r="B39" s="194"/>
-      <c r="C39" s="195"/>
+      <c r="A39" s="224">
+        <v>44647</v>
+      </c>
+      <c r="B39" s="194" t="s">
+        <v>221</v>
+      </c>
+      <c r="C39" s="195">
+        <v>2696.4</v>
+      </c>
       <c r="D39" s="200"/>
       <c r="E39" s="195"/>
-      <c r="F39" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F39" s="196">
+        <f t="shared" si="0"/>
+        <v>1840225.4399999997</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="224"/>
-      <c r="B40" s="194"/>
-      <c r="C40" s="195"/>
+      <c r="A40" s="224">
+        <v>44647</v>
+      </c>
+      <c r="B40" s="194" t="s">
+        <v>222</v>
+      </c>
+      <c r="C40" s="195">
+        <v>7911.2</v>
+      </c>
       <c r="D40" s="200"/>
       <c r="E40" s="195"/>
-      <c r="F40" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F40" s="196">
+        <f t="shared" si="0"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14189,9 +14357,9 @@
       <c r="C41" s="195"/>
       <c r="D41" s="200"/>
       <c r="E41" s="195"/>
-      <c r="F41" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F41" s="196">
+        <f t="shared" si="0"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14200,9 +14368,9 @@
       <c r="C42" s="195"/>
       <c r="D42" s="200"/>
       <c r="E42" s="195"/>
-      <c r="F42" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F42" s="196">
+        <f t="shared" si="0"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14211,9 +14379,9 @@
       <c r="C43" s="195"/>
       <c r="D43" s="200"/>
       <c r="E43" s="195"/>
-      <c r="F43" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F43" s="196">
+        <f t="shared" si="0"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14222,9 +14390,9 @@
       <c r="C44" s="195"/>
       <c r="D44" s="200"/>
       <c r="E44" s="195"/>
-      <c r="F44" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F44" s="196">
+        <f t="shared" si="0"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14233,9 +14401,9 @@
       <c r="C45" s="195"/>
       <c r="D45" s="200"/>
       <c r="E45" s="195"/>
-      <c r="F45" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F45" s="196">
+        <f t="shared" si="0"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14244,9 +14412,9 @@
       <c r="C46" s="195"/>
       <c r="D46" s="200"/>
       <c r="E46" s="195"/>
-      <c r="F46" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F46" s="196">
+        <f t="shared" si="0"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14255,9 +14423,9 @@
       <c r="C47" s="195"/>
       <c r="D47" s="200"/>
       <c r="E47" s="195"/>
-      <c r="F47" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F47" s="196">
+        <f t="shared" si="0"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14266,9 +14434,9 @@
       <c r="C48" s="195"/>
       <c r="D48" s="200"/>
       <c r="E48" s="195"/>
-      <c r="F48" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F48" s="196">
+        <f t="shared" si="0"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14277,9 +14445,9 @@
       <c r="C49" s="195"/>
       <c r="D49" s="200"/>
       <c r="E49" s="195"/>
-      <c r="F49" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F49" s="196">
+        <f t="shared" si="0"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14288,9 +14456,9 @@
       <c r="C50" s="195"/>
       <c r="D50" s="200"/>
       <c r="E50" s="195"/>
-      <c r="F50" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F50" s="196">
+        <f t="shared" si="0"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14299,9 +14467,9 @@
       <c r="C51" s="195"/>
       <c r="D51" s="200"/>
       <c r="E51" s="195"/>
-      <c r="F51" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F51" s="196">
+        <f t="shared" si="0"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14310,9 +14478,9 @@
       <c r="C52" s="195"/>
       <c r="D52" s="200"/>
       <c r="E52" s="195"/>
-      <c r="F52" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F52" s="196">
+        <f t="shared" si="0"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14321,9 +14489,9 @@
       <c r="C53" s="86"/>
       <c r="D53" s="159"/>
       <c r="E53" s="86"/>
-      <c r="F53" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F53" s="196">
+        <f t="shared" si="0"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14332,9 +14500,9 @@
       <c r="C54" s="86"/>
       <c r="D54" s="159"/>
       <c r="E54" s="86"/>
-      <c r="F54" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F54" s="196">
+        <f t="shared" si="0"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14343,9 +14511,9 @@
       <c r="C55" s="86"/>
       <c r="D55" s="159"/>
       <c r="E55" s="86"/>
-      <c r="F55" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F55" s="196">
+        <f t="shared" si="0"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14354,9 +14522,9 @@
       <c r="C56" s="86"/>
       <c r="D56" s="159"/>
       <c r="E56" s="86"/>
-      <c r="F56" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F56" s="196">
+        <f t="shared" si="0"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14365,9 +14533,9 @@
       <c r="C57" s="86"/>
       <c r="D57" s="159"/>
       <c r="E57" s="86"/>
-      <c r="F57" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F57" s="196">
+        <f t="shared" si="0"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14376,9 +14544,9 @@
       <c r="C58" s="86"/>
       <c r="D58" s="159"/>
       <c r="E58" s="86"/>
-      <c r="F58" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F58" s="196">
+        <f t="shared" si="0"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14387,9 +14555,9 @@
       <c r="C59" s="86"/>
       <c r="D59" s="159"/>
       <c r="E59" s="86"/>
-      <c r="F59" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F59" s="196">
+        <f t="shared" si="0"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14398,9 +14566,9 @@
       <c r="C60" s="86"/>
       <c r="D60" s="159"/>
       <c r="E60" s="86"/>
-      <c r="F60" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F60" s="196">
+        <f t="shared" si="0"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14409,9 +14577,9 @@
       <c r="C61" s="86"/>
       <c r="D61" s="159"/>
       <c r="E61" s="86"/>
-      <c r="F61" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F61" s="196">
+        <f t="shared" si="0"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14420,9 +14588,9 @@
       <c r="C62" s="86"/>
       <c r="D62" s="159"/>
       <c r="E62" s="86"/>
-      <c r="F62" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F62" s="196">
+        <f t="shared" si="0"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14431,9 +14599,9 @@
       <c r="C63" s="86"/>
       <c r="D63" s="159"/>
       <c r="E63" s="86"/>
-      <c r="F63" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F63" s="196">
+        <f t="shared" si="0"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -14442,9 +14610,9 @@
       <c r="C64" s="86"/>
       <c r="D64" s="159"/>
       <c r="E64" s="86"/>
-      <c r="F64" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F64" s="196">
+        <f t="shared" si="0"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14453,9 +14621,9 @@
       <c r="C65" s="166"/>
       <c r="D65" s="159"/>
       <c r="E65" s="86"/>
-      <c r="F65" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F65" s="196">
+        <f t="shared" si="0"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14464,9 +14632,9 @@
       <c r="C66" s="166"/>
       <c r="D66" s="159"/>
       <c r="E66" s="86"/>
-      <c r="F66" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F66" s="196">
+        <f t="shared" si="0"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14475,9 +14643,9 @@
       <c r="C67" s="166"/>
       <c r="D67" s="159"/>
       <c r="E67" s="86"/>
-      <c r="F67" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F67" s="196">
+        <f t="shared" si="0"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14486,9 +14654,9 @@
       <c r="C68" s="166"/>
       <c r="D68" s="159"/>
       <c r="E68" s="86"/>
-      <c r="F68" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F68" s="196">
+        <f t="shared" si="0"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14497,9 +14665,9 @@
       <c r="C69" s="166"/>
       <c r="D69" s="159"/>
       <c r="E69" s="86"/>
-      <c r="F69" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F69" s="196">
+        <f t="shared" ref="F69:F99" si="1">C69-E69+F68</f>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14508,9 +14676,9 @@
       <c r="C70" s="166"/>
       <c r="D70" s="159"/>
       <c r="E70" s="86"/>
-      <c r="F70" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F70" s="196">
+        <f t="shared" si="1"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14519,9 +14687,9 @@
       <c r="C71" s="166"/>
       <c r="D71" s="159"/>
       <c r="E71" s="86"/>
-      <c r="F71" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F71" s="196">
+        <f t="shared" si="1"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14530,9 +14698,9 @@
       <c r="C72" s="166"/>
       <c r="D72" s="159"/>
       <c r="E72" s="86"/>
-      <c r="F72" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F72" s="196">
+        <f t="shared" si="1"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14541,9 +14709,9 @@
       <c r="C73" s="166"/>
       <c r="D73" s="159"/>
       <c r="E73" s="86"/>
-      <c r="F73" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F73" s="196">
+        <f t="shared" si="1"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14552,9 +14720,9 @@
       <c r="C74" s="166"/>
       <c r="D74" s="159"/>
       <c r="E74" s="86"/>
-      <c r="F74" s="161">
-        <f t="shared" si="1"/>
-        <v>1268315.6699999997</v>
+      <c r="F74" s="196">
+        <f t="shared" si="1"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14563,9 +14731,9 @@
       <c r="C75" s="166"/>
       <c r="D75" s="159"/>
       <c r="E75" s="86"/>
-      <c r="F75" s="161">
-        <f t="shared" ref="F75:F99" si="2">F74+C75-E75</f>
-        <v>1268315.6699999997</v>
+      <c r="F75" s="196">
+        <f t="shared" si="1"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14574,9 +14742,9 @@
       <c r="C76" s="166"/>
       <c r="D76" s="159"/>
       <c r="E76" s="86"/>
-      <c r="F76" s="161">
-        <f t="shared" si="2"/>
-        <v>1268315.6699999997</v>
+      <c r="F76" s="196">
+        <f t="shared" si="1"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14585,9 +14753,9 @@
       <c r="C77" s="166"/>
       <c r="D77" s="159"/>
       <c r="E77" s="86"/>
-      <c r="F77" s="161">
-        <f t="shared" si="2"/>
-        <v>1268315.6699999997</v>
+      <c r="F77" s="196">
+        <f t="shared" si="1"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14596,9 +14764,9 @@
       <c r="C78" s="166"/>
       <c r="D78" s="159"/>
       <c r="E78" s="86"/>
-      <c r="F78" s="161">
-        <f t="shared" si="2"/>
-        <v>1268315.6699999997</v>
+      <c r="F78" s="196">
+        <f t="shared" si="1"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14607,9 +14775,9 @@
       <c r="C79" s="166"/>
       <c r="D79" s="159"/>
       <c r="E79" s="86"/>
-      <c r="F79" s="161">
-        <f t="shared" si="2"/>
-        <v>1268315.6699999997</v>
+      <c r="F79" s="196">
+        <f t="shared" si="1"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14618,9 +14786,9 @@
       <c r="C80" s="166"/>
       <c r="D80" s="159"/>
       <c r="E80" s="86"/>
-      <c r="F80" s="161">
-        <f t="shared" si="2"/>
-        <v>1268315.6699999997</v>
+      <c r="F80" s="196">
+        <f t="shared" si="1"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14629,9 +14797,9 @@
       <c r="C81" s="166"/>
       <c r="D81" s="159"/>
       <c r="E81" s="86"/>
-      <c r="F81" s="161">
-        <f t="shared" si="2"/>
-        <v>1268315.6699999997</v>
+      <c r="F81" s="196">
+        <f t="shared" si="1"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14640,9 +14808,9 @@
       <c r="C82" s="166"/>
       <c r="D82" s="159"/>
       <c r="E82" s="86"/>
-      <c r="F82" s="161">
-        <f t="shared" si="2"/>
-        <v>1268315.6699999997</v>
+      <c r="F82" s="196">
+        <f t="shared" si="1"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14651,9 +14819,9 @@
       <c r="C83" s="169"/>
       <c r="D83" s="170"/>
       <c r="E83" s="34"/>
-      <c r="F83" s="161">
-        <f t="shared" si="2"/>
-        <v>1268315.6699999997</v>
+      <c r="F83" s="196">
+        <f t="shared" si="1"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14662,9 +14830,9 @@
       <c r="C84" s="169"/>
       <c r="D84" s="170"/>
       <c r="E84" s="34"/>
-      <c r="F84" s="161">
-        <f t="shared" si="2"/>
-        <v>1268315.6699999997</v>
+      <c r="F84" s="196">
+        <f t="shared" si="1"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14673,9 +14841,9 @@
       <c r="C85" s="169"/>
       <c r="D85" s="170"/>
       <c r="E85" s="34"/>
-      <c r="F85" s="161">
-        <f t="shared" si="2"/>
-        <v>1268315.6699999997</v>
+      <c r="F85" s="196">
+        <f t="shared" si="1"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14684,9 +14852,9 @@
       <c r="C86" s="169"/>
       <c r="D86" s="170"/>
       <c r="E86" s="34"/>
-      <c r="F86" s="161">
-        <f t="shared" si="2"/>
-        <v>1268315.6699999997</v>
+      <c r="F86" s="196">
+        <f t="shared" si="1"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14695,9 +14863,9 @@
       <c r="C87" s="169"/>
       <c r="D87" s="170"/>
       <c r="E87" s="34"/>
-      <c r="F87" s="161">
-        <f t="shared" si="2"/>
-        <v>1268315.6699999997</v>
+      <c r="F87" s="196">
+        <f t="shared" si="1"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14706,9 +14874,9 @@
       <c r="C88" s="169"/>
       <c r="D88" s="170"/>
       <c r="E88" s="34"/>
-      <c r="F88" s="161">
-        <f t="shared" si="2"/>
-        <v>1268315.6699999997</v>
+      <c r="F88" s="196">
+        <f t="shared" si="1"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14717,9 +14885,9 @@
       <c r="C89" s="166"/>
       <c r="D89" s="171"/>
       <c r="E89" s="86"/>
-      <c r="F89" s="161">
-        <f t="shared" si="2"/>
-        <v>1268315.6699999997</v>
+      <c r="F89" s="196">
+        <f t="shared" si="1"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14728,9 +14896,9 @@
       <c r="C90" s="166"/>
       <c r="D90" s="171"/>
       <c r="E90" s="86"/>
-      <c r="F90" s="161">
-        <f t="shared" si="2"/>
-        <v>1268315.6699999997</v>
+      <c r="F90" s="196">
+        <f t="shared" si="1"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14739,9 +14907,9 @@
       <c r="C91" s="166"/>
       <c r="D91" s="171"/>
       <c r="E91" s="86"/>
-      <c r="F91" s="161">
-        <f t="shared" si="2"/>
-        <v>1268315.6699999997</v>
+      <c r="F91" s="196">
+        <f t="shared" si="1"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14750,9 +14918,9 @@
       <c r="C92" s="166"/>
       <c r="D92" s="171"/>
       <c r="E92" s="86"/>
-      <c r="F92" s="161">
-        <f t="shared" si="2"/>
-        <v>1268315.6699999997</v>
+      <c r="F92" s="196">
+        <f t="shared" si="1"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14761,9 +14929,9 @@
       <c r="C93" s="166"/>
       <c r="D93" s="171"/>
       <c r="E93" s="86"/>
-      <c r="F93" s="161">
-        <f t="shared" si="2"/>
-        <v>1268315.6699999997</v>
+      <c r="F93" s="196">
+        <f t="shared" si="1"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14772,9 +14940,9 @@
       <c r="C94" s="166"/>
       <c r="D94" s="171"/>
       <c r="E94" s="86"/>
-      <c r="F94" s="161">
-        <f t="shared" si="2"/>
-        <v>1268315.6699999997</v>
+      <c r="F94" s="196">
+        <f t="shared" si="1"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14783,9 +14951,9 @@
       <c r="C95" s="166"/>
       <c r="D95" s="171"/>
       <c r="E95" s="86"/>
-      <c r="F95" s="161">
-        <f t="shared" si="2"/>
-        <v>1268315.6699999997</v>
+      <c r="F95" s="196">
+        <f t="shared" si="1"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14794,9 +14962,9 @@
       <c r="C96" s="166"/>
       <c r="D96" s="171"/>
       <c r="E96" s="86"/>
-      <c r="F96" s="161">
-        <f t="shared" si="2"/>
-        <v>1268315.6699999997</v>
+      <c r="F96" s="196">
+        <f t="shared" si="1"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14805,9 +14973,9 @@
       <c r="C97" s="166"/>
       <c r="D97" s="171"/>
       <c r="E97" s="86"/>
-      <c r="F97" s="161">
-        <f t="shared" si="2"/>
-        <v>1268315.6699999997</v>
+      <c r="F97" s="196">
+        <f t="shared" si="1"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14816,9 +14984,9 @@
       <c r="C98" s="166"/>
       <c r="D98" s="171"/>
       <c r="E98" s="86"/>
-      <c r="F98" s="161">
-        <f t="shared" si="2"/>
-        <v>1268315.6699999997</v>
+      <c r="F98" s="196">
+        <f t="shared" si="1"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14829,17 +14997,17 @@
       </c>
       <c r="D99" s="174"/>
       <c r="E99" s="34"/>
-      <c r="F99" s="161">
-        <f t="shared" si="2"/>
-        <v>1268315.6699999997</v>
+      <c r="F99" s="196">
+        <f t="shared" si="1"/>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="230"/>
       <c r="B100" s="233"/>
       <c r="C100" s="177">
-        <f>SUM(C5:C99)</f>
-        <v>1175916.8699999999</v>
+        <f>SUM(C3:C99)</f>
+        <v>1848136.6399999997</v>
       </c>
       <c r="D100" s="189"/>
       <c r="E100" s="178">
@@ -14848,7 +15016,7 @@
       </c>
       <c r="F100" s="179">
         <f>F99</f>
-        <v>1268315.6699999997</v>
+        <v>1848136.6399999997</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/BALANCE   HERRADURA  MaRzO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/BALANCE   HERRADURA  MaRzO   2022.xlsx
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="227">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -882,6 +882,9 @@
   </si>
   <si>
     <t>QUESOS-LONGANIZA</t>
+  </si>
+  <si>
+    <t>nomina # 13</t>
   </si>
 </sst>
 </file>
@@ -2527,39 +2530,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2639,6 +2609,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4240,23 +4243,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="239"/>
-      <c r="C1" s="241" t="s">
+      <c r="B1" s="266"/>
+      <c r="C1" s="268" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="242"/>
-      <c r="I1" s="242"/>
-      <c r="J1" s="242"/>
-      <c r="K1" s="242"/>
-      <c r="L1" s="242"/>
-      <c r="M1" s="242"/>
+      <c r="D1" s="269"/>
+      <c r="E1" s="269"/>
+      <c r="F1" s="269"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
+      <c r="I1" s="269"/>
+      <c r="J1" s="269"/>
+      <c r="K1" s="269"/>
+      <c r="L1" s="269"/>
+      <c r="M1" s="269"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="240"/>
+      <c r="B2" s="267"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -4266,21 +4269,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="243" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="244"/>
+      <c r="B3" s="270" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="271"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="245" t="s">
+      <c r="H3" s="272" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="245"/>
+      <c r="I3" s="272"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="250" t="s">
+      <c r="R3" s="239" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4295,14 +4298,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="246" t="s">
+      <c r="E4" s="273" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="247"/>
-      <c r="H4" s="248" t="s">
+      <c r="F4" s="274"/>
+      <c r="H4" s="275" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="249"/>
+      <c r="I4" s="276"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -4312,11 +4315,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="257" t="s">
+      <c r="P4" s="246" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="258"/>
-      <c r="R4" s="251"/>
+      <c r="Q4" s="247"/>
+      <c r="R4" s="240"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -5817,11 +5820,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="259">
+      <c r="M40" s="248">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="261">
+      <c r="N40" s="250">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -5847,8 +5850,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="260"/>
-      <c r="N41" s="262"/>
+      <c r="M41" s="249"/>
+      <c r="N41" s="251"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -6063,29 +6066,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="263" t="s">
+      <c r="H53" s="252" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="264"/>
+      <c r="I53" s="253"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="265">
+      <c r="K53" s="254">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="266"/>
-      <c r="M53" s="267">
+      <c r="L53" s="255"/>
+      <c r="M53" s="256">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="268"/>
+      <c r="N53" s="257"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="269" t="s">
+      <c r="D54" s="258" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="269"/>
+      <c r="E54" s="258"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -6096,22 +6099,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="270" t="s">
+      <c r="D55" s="259" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="270"/>
+      <c r="E55" s="259"/>
       <c r="F55" s="115">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="271" t="s">
+      <c r="I55" s="260" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="272"/>
-      <c r="K55" s="273">
+      <c r="J55" s="261"/>
+      <c r="K55" s="262">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="274"/>
+      <c r="L55" s="263"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -6142,11 +6145,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="275">
+      <c r="K57" s="264">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="276"/>
+      <c r="L57" s="265"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -6163,22 +6166,22 @@
       <c r="C59" s="133">
         <v>44591</v>
       </c>
-      <c r="D59" s="252" t="s">
+      <c r="D59" s="241" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="253"/>
+      <c r="E59" s="242"/>
       <c r="F59" s="134">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="254" t="s">
+      <c r="I59" s="243" t="s">
         <v>170</v>
       </c>
-      <c r="J59" s="255"/>
-      <c r="K59" s="256">
+      <c r="J59" s="244"/>
+      <c r="K59" s="245">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="256"/>
+      <c r="L59" s="245"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -6322,6 +6325,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
@@ -6337,12 +6346,6 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8160,23 +8163,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="239"/>
-      <c r="C1" s="241" t="s">
+      <c r="B1" s="266"/>
+      <c r="C1" s="268" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="242"/>
-      <c r="I1" s="242"/>
-      <c r="J1" s="242"/>
-      <c r="K1" s="242"/>
-      <c r="L1" s="242"/>
-      <c r="M1" s="242"/>
+      <c r="D1" s="269"/>
+      <c r="E1" s="269"/>
+      <c r="F1" s="269"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
+      <c r="I1" s="269"/>
+      <c r="J1" s="269"/>
+      <c r="K1" s="269"/>
+      <c r="L1" s="269"/>
+      <c r="M1" s="269"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="240"/>
+      <c r="B2" s="267"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -8186,21 +8189,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="243" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="244"/>
+      <c r="B3" s="270" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="271"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="245" t="s">
+      <c r="H3" s="272" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="245"/>
+      <c r="I3" s="272"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="250" t="s">
+      <c r="R3" s="239" t="s">
         <v>38</v>
       </c>
     </row>
@@ -8215,14 +8218,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="246" t="s">
+      <c r="E4" s="273" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="247"/>
-      <c r="H4" s="248" t="s">
+      <c r="F4" s="274"/>
+      <c r="H4" s="275" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="249"/>
+      <c r="I4" s="276"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -8232,11 +8235,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="257" t="s">
+      <c r="P4" s="246" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="258"/>
-      <c r="R4" s="251"/>
+      <c r="Q4" s="247"/>
+      <c r="R4" s="240"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -9724,7 +9727,7 @@
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="261">
+      <c r="N40" s="250">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -9750,8 +9753,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="260"/>
-      <c r="N41" s="262"/>
+      <c r="M41" s="249"/>
+      <c r="N41" s="251"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -9966,29 +9969,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="263" t="s">
+      <c r="H53" s="252" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="264"/>
+      <c r="I53" s="253"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="265">
+      <c r="K53" s="254">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="266"/>
-      <c r="M53" s="267">
+      <c r="L53" s="255"/>
+      <c r="M53" s="256">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="268"/>
+      <c r="N53" s="257"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="269" t="s">
+      <c r="D54" s="258" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="269"/>
+      <c r="E54" s="258"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -9999,22 +10002,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="270" t="s">
+      <c r="D55" s="259" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="270"/>
+      <c r="E55" s="259"/>
       <c r="F55" s="115">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="271" t="s">
+      <c r="I55" s="260" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="272"/>
-      <c r="K55" s="273">
+      <c r="J55" s="261"/>
+      <c r="K55" s="262">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="274"/>
+      <c r="L55" s="263"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -10045,11 +10048,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="275">
+      <c r="K57" s="264">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="276"/>
+      <c r="L57" s="265"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -10066,22 +10069,22 @@
       <c r="C59" s="133">
         <v>44619</v>
       </c>
-      <c r="D59" s="252" t="s">
+      <c r="D59" s="241" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="253"/>
+      <c r="E59" s="242"/>
       <c r="F59" s="134">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="254" t="s">
+      <c r="I59" s="243" t="s">
         <v>170</v>
       </c>
-      <c r="J59" s="255"/>
-      <c r="K59" s="256">
+      <c r="J59" s="244"/>
+      <c r="K59" s="245">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="256"/>
+      <c r="L59" s="245"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -10225,6 +10228,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -10234,18 +10249,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11522,8 +11525,8 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView tabSelected="1" topLeftCell="I19" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11546,23 +11549,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="239"/>
-      <c r="C1" s="241" t="s">
+      <c r="B1" s="266"/>
+      <c r="C1" s="268" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="242"/>
-      <c r="I1" s="242"/>
-      <c r="J1" s="242"/>
-      <c r="K1" s="242"/>
-      <c r="L1" s="242"/>
-      <c r="M1" s="242"/>
+      <c r="D1" s="269"/>
+      <c r="E1" s="269"/>
+      <c r="F1" s="269"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
+      <c r="I1" s="269"/>
+      <c r="J1" s="269"/>
+      <c r="K1" s="269"/>
+      <c r="L1" s="269"/>
+      <c r="M1" s="269"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="240"/>
+      <c r="B2" s="267"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -11572,21 +11575,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="243" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="244"/>
+      <c r="B3" s="270" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="271"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="245" t="s">
+      <c r="H3" s="272" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="245"/>
+      <c r="I3" s="272"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="250" t="s">
+      <c r="R3" s="239" t="s">
         <v>38</v>
       </c>
     </row>
@@ -11601,14 +11604,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="246" t="s">
+      <c r="E4" s="273" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="247"/>
-      <c r="H4" s="248" t="s">
+      <c r="F4" s="274"/>
+      <c r="H4" s="275" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="249"/>
+      <c r="I4" s="276"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -11618,11 +11621,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="257" t="s">
+      <c r="P4" s="246" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="258"/>
-      <c r="R4" s="251"/>
+      <c r="Q4" s="247"/>
+      <c r="R4" s="240"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -12467,7 +12470,7 @@
         <f t="shared" si="0"/>
         <v>88631</v>
       </c>
-      <c r="Q23" s="13">
+      <c r="Q23" s="61">
         <f t="shared" si="1"/>
         <v>-11</v>
       </c>
@@ -12669,28 +12672,33 @@
       <c r="E28" s="28">
         <v>44643</v>
       </c>
-      <c r="F28" s="29"/>
+      <c r="F28" s="29">
+        <v>45642</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="30">
         <v>44643</v>
       </c>
-      <c r="I28" s="31"/>
+      <c r="I28" s="31">
+        <v>81</v>
+      </c>
       <c r="J28" s="69"/>
       <c r="K28" s="70"/>
       <c r="L28" s="66"/>
       <c r="M28" s="32">
-        <v>0</v>
+        <f>25570+20000</f>
+        <v>45570</v>
       </c>
       <c r="N28" s="33">
         <v>0</v>
       </c>
       <c r="P28" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45651</v>
       </c>
       <c r="Q28" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R28" s="8"/>
     </row>
@@ -12706,28 +12714,33 @@
       <c r="E29" s="28">
         <v>44644</v>
       </c>
-      <c r="F29" s="29"/>
+      <c r="F29" s="29">
+        <v>64298</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="30">
         <v>44644</v>
       </c>
-      <c r="I29" s="31"/>
+      <c r="I29" s="31">
+        <v>157</v>
+      </c>
       <c r="J29" s="67"/>
       <c r="K29" s="72"/>
       <c r="L29" s="66"/>
       <c r="M29" s="32">
-        <v>0</v>
+        <f>44140+20000</f>
+        <v>64140</v>
       </c>
       <c r="N29" s="33">
         <v>0</v>
       </c>
       <c r="P29" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>64297</v>
       </c>
       <c r="Q29" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R29" s="8"/>
     </row>
@@ -12743,24 +12756,29 @@
       <c r="E30" s="28">
         <v>44645</v>
       </c>
-      <c r="F30" s="29"/>
+      <c r="F30" s="29">
+        <v>81544</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="30">
         <v>44645</v>
       </c>
-      <c r="I30" s="31"/>
+      <c r="I30" s="31">
+        <v>39</v>
+      </c>
       <c r="J30" s="73"/>
       <c r="K30" s="74"/>
       <c r="L30" s="75"/>
       <c r="M30" s="32">
-        <v>0</v>
+        <f>71505+10000</f>
+        <v>81505</v>
       </c>
       <c r="N30" s="33">
         <v>0</v>
       </c>
       <c r="P30" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>81544</v>
       </c>
       <c r="Q30" s="13">
         <f t="shared" si="1"/>
@@ -12774,34 +12792,47 @@
         <v>44646</v>
       </c>
       <c r="C31" s="26">
-        <v>0</v>
-      </c>
-      <c r="D31" s="83"/>
+        <v>33</v>
+      </c>
+      <c r="D31" s="83" t="s">
+        <v>34</v>
+      </c>
       <c r="E31" s="28">
         <v>44646</v>
       </c>
-      <c r="F31" s="29"/>
+      <c r="F31" s="29">
+        <v>92844</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="30">
         <v>44646</v>
       </c>
-      <c r="I31" s="31"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="77"/>
+      <c r="I31" s="31">
+        <v>554</v>
+      </c>
+      <c r="J31" s="73">
+        <v>44646</v>
+      </c>
+      <c r="K31" s="76" t="s">
+        <v>226</v>
+      </c>
+      <c r="L31" s="77">
+        <v>10185.709999999999</v>
+      </c>
       <c r="M31" s="32">
-        <v>0</v>
+        <f>25000+48620</f>
+        <v>73620</v>
       </c>
       <c r="N31" s="33">
-        <v>0</v>
+        <v>8457</v>
       </c>
       <c r="P31" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>92849.709999999992</v>
       </c>
       <c r="Q31" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.7099999999918509</v>
       </c>
       <c r="R31" s="8"/>
     </row>
@@ -12817,48 +12848,47 @@
       <c r="E32" s="28">
         <v>44647</v>
       </c>
-      <c r="F32" s="29"/>
+      <c r="F32" s="29">
+        <v>89834</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="30">
         <v>44647</v>
       </c>
-      <c r="I32" s="31"/>
+      <c r="I32" s="31">
+        <v>58</v>
+      </c>
       <c r="J32" s="73"/>
       <c r="K32" s="74"/>
       <c r="L32" s="75"/>
       <c r="M32" s="32">
-        <v>0</v>
+        <f>80000+9446</f>
+        <v>89446</v>
       </c>
       <c r="N32" s="33">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="P32" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>89834</v>
       </c>
       <c r="Q32" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R32" s="8"/>
+      <c r="R32" s="8" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="33" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="24"/>
-      <c r="B33" s="25">
-        <v>44648</v>
-      </c>
-      <c r="C33" s="26">
-        <v>0</v>
-      </c>
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
       <c r="D33" s="79"/>
-      <c r="E33" s="28">
-        <v>44648</v>
-      </c>
+      <c r="E33" s="28"/>
       <c r="F33" s="29"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="30">
-        <v>44648</v>
-      </c>
+      <c r="H33" s="30"/>
       <c r="I33" s="31"/>
       <c r="J33" s="73"/>
       <c r="K33" s="76"/>
@@ -12881,21 +12911,13 @@
     </row>
     <row r="34" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="24"/>
-      <c r="B34" s="25">
-        <v>44649</v>
-      </c>
-      <c r="C34" s="26">
-        <v>0</v>
-      </c>
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
       <c r="D34" s="78"/>
-      <c r="E34" s="28">
-        <v>44649</v>
-      </c>
+      <c r="E34" s="28"/>
       <c r="F34" s="29"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="30">
-        <v>44649</v>
-      </c>
+      <c r="H34" s="30"/>
       <c r="I34" s="31"/>
       <c r="J34" s="73"/>
       <c r="K34" s="81"/>
@@ -12918,21 +12940,13 @@
     </row>
     <row r="35" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="24"/>
-      <c r="B35" s="25">
-        <v>44650</v>
-      </c>
-      <c r="C35" s="26">
-        <v>0</v>
-      </c>
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
       <c r="D35" s="83"/>
-      <c r="E35" s="28">
-        <v>44650</v>
-      </c>
+      <c r="E35" s="28"/>
       <c r="F35" s="29"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="30">
-        <v>44650</v>
-      </c>
+      <c r="H35" s="30"/>
       <c r="I35" s="31"/>
       <c r="J35" s="73"/>
       <c r="K35" s="76"/>
@@ -12955,21 +12969,13 @@
     </row>
     <row r="36" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="24"/>
-      <c r="B36" s="25">
-        <v>44651</v>
-      </c>
-      <c r="C36" s="26">
-        <v>0</v>
-      </c>
+      <c r="B36" s="25"/>
+      <c r="C36" s="26"/>
       <c r="D36" s="84"/>
-      <c r="E36" s="28">
-        <v>44651</v>
-      </c>
+      <c r="E36" s="28"/>
       <c r="F36" s="29"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="30">
-        <v>44651</v>
-      </c>
+      <c r="H36" s="30"/>
       <c r="I36" s="31"/>
       <c r="J36" s="73"/>
       <c r="K36" s="42"/>
@@ -12992,21 +12998,13 @@
     </row>
     <row r="37" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="24"/>
-      <c r="B37" s="25">
-        <v>44652</v>
-      </c>
-      <c r="C37" s="26">
-        <v>0</v>
-      </c>
+      <c r="B37" s="25"/>
+      <c r="C37" s="26"/>
       <c r="D37" s="78"/>
-      <c r="E37" s="28">
-        <v>44652</v>
-      </c>
+      <c r="E37" s="28"/>
       <c r="F37" s="29"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="30">
-        <v>44652</v>
-      </c>
+      <c r="H37" s="30"/>
       <c r="I37" s="31"/>
       <c r="J37" s="73"/>
       <c r="K37" s="221"/>
@@ -13028,21 +13026,13 @@
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="24"/>
-      <c r="B38" s="25">
-        <v>44653</v>
-      </c>
-      <c r="C38" s="26">
-        <v>0</v>
-      </c>
+      <c r="B38" s="25"/>
+      <c r="C38" s="26"/>
       <c r="D38" s="79"/>
-      <c r="E38" s="28">
-        <v>44653</v>
-      </c>
+      <c r="E38" s="28"/>
       <c r="F38" s="29"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="30">
-        <v>44653</v>
-      </c>
+      <c r="H38" s="30"/>
       <c r="I38" s="31"/>
       <c r="J38" s="73"/>
       <c r="K38" s="76"/>
@@ -13064,21 +13054,13 @@
     </row>
     <row r="39" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="24"/>
-      <c r="B39" s="25">
-        <v>44654</v>
-      </c>
-      <c r="C39" s="26">
-        <v>0</v>
-      </c>
+      <c r="B39" s="25"/>
+      <c r="C39" s="26"/>
       <c r="D39" s="79"/>
-      <c r="E39" s="28">
-        <v>44654</v>
-      </c>
+      <c r="E39" s="28"/>
       <c r="F39" s="85"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="30">
-        <v>44654</v>
-      </c>
+      <c r="H39" s="30"/>
       <c r="I39" s="31"/>
       <c r="J39" s="73"/>
       <c r="K39" s="76"/>
@@ -13111,21 +13093,21 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="259">
+      <c r="M40" s="248">
         <f>SUM(M5:M39)</f>
-        <v>1439154</v>
-      </c>
-      <c r="N40" s="261">
+        <v>1793435</v>
+      </c>
+      <c r="N40" s="250">
         <f>SUM(N5:N39)</f>
-        <v>55208</v>
+        <v>63995</v>
       </c>
       <c r="P40" s="34">
         <f>SUM(P5:P39)</f>
-        <v>1607281</v>
+        <v>1981456.71</v>
       </c>
       <c r="Q40" s="13">
         <f t="shared" si="1"/>
-        <v>1607281</v>
+        <v>1981456.71</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -13145,8 +13127,8 @@
       <c r="L41" s="75">
         <v>25678</v>
       </c>
-      <c r="M41" s="260"/>
-      <c r="N41" s="262"/>
+      <c r="M41" s="249"/>
+      <c r="N41" s="251"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -13319,7 +13301,7 @@
       </c>
       <c r="C51" s="106">
         <f>SUM(C5:C50)</f>
-        <v>66708</v>
+        <v>66741</v>
       </c>
       <c r="D51" s="107"/>
       <c r="E51" s="108" t="s">
@@ -13327,7 +13309,7 @@
       </c>
       <c r="F51" s="109">
         <f>SUM(F5:F50)</f>
-        <v>1607274</v>
+        <v>1981436</v>
       </c>
       <c r="G51" s="107"/>
       <c r="H51" s="110" t="s">
@@ -13335,7 +13317,7 @@
       </c>
       <c r="I51" s="111">
         <f>SUM(I5:I50)</f>
-        <v>2811</v>
+        <v>3700</v>
       </c>
       <c r="J51" s="112"/>
       <c r="K51" s="113" t="s">
@@ -13343,7 +13325,7 @@
       </c>
       <c r="L51" s="114">
         <f>SUM(L5:L50)</f>
-        <v>69078</v>
+        <v>79263.709999999992</v>
       </c>
       <c r="M51" s="115"/>
       <c r="N51" s="115"/>
@@ -13361,32 +13343,32 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="263" t="s">
+      <c r="H53" s="252" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="264"/>
+      <c r="I53" s="253"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="265">
+      <c r="K53" s="254">
         <f>I51+L51</f>
-        <v>71889</v>
-      </c>
-      <c r="L53" s="266"/>
-      <c r="M53" s="267">
+        <v>82963.709999999992</v>
+      </c>
+      <c r="L53" s="255"/>
+      <c r="M53" s="256">
         <f>N40+M40</f>
-        <v>1494362</v>
-      </c>
-      <c r="N53" s="268"/>
+        <v>1857430</v>
+      </c>
+      <c r="N53" s="257"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="269" t="s">
+      <c r="D54" s="258" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="269"/>
+      <c r="E54" s="258"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
-        <v>1468677</v>
+        <v>1831731.29</v>
       </c>
       <c r="I54" s="121"/>
       <c r="J54" s="122"/>
@@ -13394,22 +13376,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="270" t="s">
+      <c r="D55" s="259" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="270"/>
+      <c r="E55" s="259"/>
       <c r="F55" s="115">
         <v>0</v>
       </c>
-      <c r="I55" s="271" t="s">
+      <c r="I55" s="260" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="272"/>
-      <c r="K55" s="273">
+      <c r="J55" s="261"/>
+      <c r="K55" s="262">
         <f>F57+F58+F59</f>
-        <v>1468677</v>
-      </c>
-      <c r="L55" s="274"/>
+        <v>1831731.29</v>
+      </c>
+      <c r="L55" s="263"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -13433,18 +13415,18 @@
       </c>
       <c r="F57" s="115">
         <f>SUM(F54:F56)</f>
-        <v>1468677</v>
+        <v>1831731.29</v>
       </c>
       <c r="H57" s="24"/>
       <c r="I57" s="129" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="275">
+      <c r="K57" s="264">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L57" s="276"/>
+      <c r="L57" s="265"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -13459,22 +13441,22 @@
     </row>
     <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C59" s="133"/>
-      <c r="D59" s="252" t="s">
+      <c r="D59" s="241" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="253"/>
+      <c r="E59" s="242"/>
       <c r="F59" s="134">
         <v>0</v>
       </c>
-      <c r="I59" s="254" t="s">
+      <c r="I59" s="243" t="s">
         <v>124</v>
       </c>
-      <c r="J59" s="255"/>
-      <c r="K59" s="256">
+      <c r="J59" s="244"/>
+      <c r="K59" s="245">
         <f>K55+K57</f>
-        <v>1284334.81</v>
-      </c>
-      <c r="L59" s="256"/>
+        <v>1647389.1</v>
+      </c>
+      <c r="L59" s="245"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -13618,18 +13600,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -13639,6 +13609,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/BALANCE   HERRADURA  MaRzO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/BALANCE   HERRADURA  MaRzO   2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 2         " sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="226">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -567,9 +567,6 @@
   </si>
   <si>
     <t>C-10335</t>
-  </si>
-  <si>
-    <t>31/01/2022</t>
   </si>
   <si>
     <t>C-10529</t>
@@ -899,7 +896,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1252,6 +1249,30 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF66CC"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2078,7 +2099,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="278">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2530,6 +2551,39 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2611,42 +2665,16 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="10" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="45" fillId="0" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="46" fillId="0" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="47" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="47" fillId="0" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2656,10 +2684,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF66CC"/>
       <color rgb="FF0000FF"/>
+      <color rgb="FF99FF99"/>
       <color rgb="FFFF99FF"/>
-      <color rgb="FFFF66CC"/>
-      <color rgb="FF99FF99"/>
     </mruColors>
   </colors>
   <extLst>
@@ -4243,23 +4271,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="266"/>
-      <c r="C1" s="268" t="s">
+      <c r="B1" s="239"/>
+      <c r="C1" s="241" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="269"/>
-      <c r="E1" s="269"/>
-      <c r="F1" s="269"/>
-      <c r="G1" s="269"/>
-      <c r="H1" s="269"/>
-      <c r="I1" s="269"/>
-      <c r="J1" s="269"/>
-      <c r="K1" s="269"/>
-      <c r="L1" s="269"/>
-      <c r="M1" s="269"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="267"/>
+      <c r="B2" s="240"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -4269,21 +4297,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="270" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="271"/>
+      <c r="B3" s="243" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="244"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="272" t="s">
+      <c r="H3" s="245" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="272"/>
+      <c r="I3" s="245"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="239" t="s">
+      <c r="R3" s="250" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4298,14 +4326,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="273" t="s">
+      <c r="E4" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="274"/>
-      <c r="H4" s="275" t="s">
+      <c r="F4" s="247"/>
+      <c r="H4" s="248" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="276"/>
+      <c r="I4" s="249"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -4315,11 +4343,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="246" t="s">
+      <c r="P4" s="257" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="247"/>
-      <c r="R4" s="240"/>
+      <c r="Q4" s="258"/>
+      <c r="R4" s="251"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -5621,10 +5649,10 @@
       <c r="H34" s="37"/>
       <c r="I34" s="31"/>
       <c r="J34" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="K34" s="81" t="s">
         <v>125</v>
-      </c>
-      <c r="K34" s="81" t="s">
-        <v>126</v>
       </c>
       <c r="L34" s="82">
         <v>549</v>
@@ -5685,10 +5713,10 @@
       <c r="H36" s="37"/>
       <c r="I36" s="31"/>
       <c r="J36" s="73" t="s">
+        <v>202</v>
+      </c>
+      <c r="K36" s="182" t="s">
         <v>203</v>
-      </c>
-      <c r="K36" s="182" t="s">
-        <v>204</v>
       </c>
       <c r="L36" s="82">
         <v>2143.61</v>
@@ -5720,10 +5748,10 @@
       <c r="H37" s="37"/>
       <c r="I37" s="31"/>
       <c r="J37" s="73" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K37" s="81" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L37" s="82">
         <v>1195.68</v>
@@ -5755,7 +5783,7 @@
       <c r="I38" s="31"/>
       <c r="J38" s="73"/>
       <c r="K38" s="76" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L38" s="80">
         <v>895.42</v>
@@ -5787,7 +5815,7 @@
       <c r="I39" s="31"/>
       <c r="J39" s="73"/>
       <c r="K39" s="76" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L39" s="75">
         <v>1392</v>
@@ -5820,11 +5848,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="248">
+      <c r="M40" s="259">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="250">
+      <c r="N40" s="261">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -5850,8 +5878,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="249"/>
-      <c r="N41" s="251"/>
+      <c r="M41" s="260"/>
+      <c r="N41" s="262"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -6066,29 +6094,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="252" t="s">
+      <c r="H53" s="263" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="253"/>
+      <c r="I53" s="264"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="254">
+      <c r="K53" s="265">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="255"/>
-      <c r="M53" s="256">
+      <c r="L53" s="266"/>
+      <c r="M53" s="267">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="257"/>
+      <c r="N53" s="268"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="258" t="s">
+      <c r="D54" s="269" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="258"/>
+      <c r="E54" s="269"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -6099,22 +6127,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="259" t="s">
+      <c r="D55" s="270" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="259"/>
+      <c r="E55" s="270"/>
       <c r="F55" s="115">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="260" t="s">
+      <c r="I55" s="271" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="261"/>
-      <c r="K55" s="262">
+      <c r="J55" s="272"/>
+      <c r="K55" s="273">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="263"/>
+      <c r="L55" s="274"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -6145,11 +6173,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="264">
+      <c r="K57" s="275">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="265"/>
+      <c r="L57" s="276"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -6166,22 +6194,22 @@
       <c r="C59" s="133">
         <v>44591</v>
       </c>
-      <c r="D59" s="241" t="s">
+      <c r="D59" s="252" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="242"/>
+      <c r="E59" s="253"/>
       <c r="F59" s="134">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="243" t="s">
-        <v>170</v>
-      </c>
-      <c r="J59" s="244"/>
-      <c r="K59" s="245">
+      <c r="I59" s="254" t="s">
+        <v>169</v>
+      </c>
+      <c r="J59" s="255"/>
+      <c r="K59" s="256">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="245"/>
+      <c r="L59" s="256"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -6325,12 +6353,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
@@ -6346,6 +6368,12 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6820,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="202" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E22" s="197">
         <v>0</v>
@@ -8163,23 +8191,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="266"/>
-      <c r="C1" s="268" t="s">
-        <v>127</v>
-      </c>
-      <c r="D1" s="269"/>
-      <c r="E1" s="269"/>
-      <c r="F1" s="269"/>
-      <c r="G1" s="269"/>
-      <c r="H1" s="269"/>
-      <c r="I1" s="269"/>
-      <c r="J1" s="269"/>
-      <c r="K1" s="269"/>
-      <c r="L1" s="269"/>
-      <c r="M1" s="269"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="241" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="267"/>
+      <c r="B2" s="240"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -8189,21 +8217,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="270" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="271"/>
+      <c r="B3" s="243" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="244"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="272" t="s">
+      <c r="H3" s="245" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="272"/>
+      <c r="I3" s="245"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="239" t="s">
+      <c r="R3" s="250" t="s">
         <v>38</v>
       </c>
     </row>
@@ -8218,14 +8246,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="273" t="s">
+      <c r="E4" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="274"/>
-      <c r="H4" s="275" t="s">
+      <c r="F4" s="247"/>
+      <c r="H4" s="248" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="276"/>
+      <c r="I4" s="249"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -8235,11 +8263,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="246" t="s">
+      <c r="P4" s="257" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="247"/>
-      <c r="R4" s="240"/>
+      <c r="Q4" s="258"/>
+      <c r="R4" s="251"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -8427,7 +8455,7 @@
         <v>12482</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E9" s="28">
         <v>44596</v>
@@ -8489,7 +8517,7 @@
         <v>44597</v>
       </c>
       <c r="K10" s="47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L10" s="48">
         <v>7950</v>
@@ -8524,7 +8552,7 @@
         <v>5501</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E11" s="28">
         <v>44598</v>
@@ -8657,7 +8685,7 @@
         <v>6305</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E14" s="28">
         <v>44601</v>
@@ -8807,7 +8835,7 @@
         <v>44604</v>
       </c>
       <c r="K17" s="52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L17" s="48">
         <v>10085.709999999999</v>
@@ -8982,7 +9010,7 @@
       </c>
       <c r="J21" s="38"/>
       <c r="K21" s="57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L21" s="48"/>
       <c r="M21" s="32">
@@ -9114,7 +9142,7 @@
         <v>44611</v>
       </c>
       <c r="K24" s="62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L24" s="63">
         <v>8850</v>
@@ -9321,7 +9349,7 @@
         <v>800</v>
       </c>
       <c r="D29" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E29" s="28">
         <v>44616</v>
@@ -9424,7 +9452,7 @@
         <v>44618</v>
       </c>
       <c r="K31" s="76" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L31" s="77">
         <v>10371</v>
@@ -9560,7 +9588,7 @@
       <c r="I35" s="31"/>
       <c r="J35" s="73"/>
       <c r="K35" s="76" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L35" s="80">
         <v>549</v>
@@ -9593,7 +9621,7 @@
       <c r="I36" s="31"/>
       <c r="J36" s="73"/>
       <c r="K36" s="238" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L36" s="80">
         <v>1195.68</v>
@@ -9626,7 +9654,7 @@
       <c r="I37" s="31"/>
       <c r="J37" s="73"/>
       <c r="K37" s="221" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L37" s="80">
         <v>1055.9100000000001</v>
@@ -9658,7 +9686,7 @@
       <c r="I38" s="31"/>
       <c r="J38" s="73"/>
       <c r="K38" s="76" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L38" s="80">
         <v>1392</v>
@@ -9690,7 +9718,7 @@
       <c r="I39" s="31"/>
       <c r="J39" s="73"/>
       <c r="K39" s="76" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L39" s="80">
         <v>828.48</v>
@@ -9727,7 +9755,7 @@
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="250">
+      <c r="N40" s="261">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -9753,8 +9781,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="249"/>
-      <c r="N41" s="251"/>
+      <c r="M41" s="260"/>
+      <c r="N41" s="262"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -9969,29 +9997,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="252" t="s">
+      <c r="H53" s="263" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="253"/>
+      <c r="I53" s="264"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="254">
+      <c r="K53" s="265">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="255"/>
-      <c r="M53" s="256">
+      <c r="L53" s="266"/>
+      <c r="M53" s="267">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="257"/>
+      <c r="N53" s="268"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="258" t="s">
+      <c r="D54" s="269" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="258"/>
+      <c r="E54" s="269"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -10002,22 +10030,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="259" t="s">
+      <c r="D55" s="270" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="259"/>
+      <c r="E55" s="270"/>
       <c r="F55" s="115">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="260" t="s">
+      <c r="I55" s="271" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="261"/>
-      <c r="K55" s="262">
+      <c r="J55" s="272"/>
+      <c r="K55" s="273">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="263"/>
+      <c r="L55" s="274"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -10048,11 +10076,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="264">
+      <c r="K57" s="275">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="265"/>
+      <c r="L57" s="276"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -10069,22 +10097,3398 @@
       <c r="C59" s="133">
         <v>44619</v>
       </c>
-      <c r="D59" s="241" t="s">
+      <c r="D59" s="252" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="242"/>
+      <c r="E59" s="253"/>
       <c r="F59" s="134">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="243" t="s">
-        <v>170</v>
-      </c>
-      <c r="J59" s="244"/>
-      <c r="K59" s="245">
+      <c r="I59" s="254" t="s">
+        <v>169</v>
+      </c>
+      <c r="J59" s="255"/>
+      <c r="K59" s="256">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="245"/>
+      <c r="L59" s="256"/>
+    </row>
+    <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C60" s="135"/>
+      <c r="D60" s="136"/>
+      <c r="E60" s="137"/>
+      <c r="F60" s="138"/>
+      <c r="J60" s="139"/>
+    </row>
+    <row r="61" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I61" s="140"/>
+      <c r="J61" s="140"/>
+      <c r="K61" s="141"/>
+      <c r="L61" s="141"/>
+    </row>
+    <row r="62" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="142"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="144"/>
+      <c r="E62" s="34"/>
+      <c r="I62" s="140"/>
+      <c r="J62" s="140"/>
+      <c r="K62" s="141"/>
+      <c r="L62" s="141"/>
+      <c r="M62" s="145"/>
+      <c r="N62" s="117"/>
+    </row>
+    <row r="63" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="142"/>
+      <c r="C63" s="146"/>
+      <c r="E63" s="34"/>
+      <c r="M63" s="145"/>
+      <c r="N63" s="117"/>
+    </row>
+    <row r="64" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="142"/>
+      <c r="C64" s="146"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="147"/>
+      <c r="L64" s="148"/>
+      <c r="M64" s="1"/>
+    </row>
+    <row r="65" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B65" s="142"/>
+      <c r="C65" s="146"/>
+      <c r="E65" s="34"/>
+      <c r="M65" s="1"/>
+    </row>
+    <row r="66" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="142"/>
+      <c r="C66" s="146"/>
+      <c r="D66" s="149"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="150"/>
+      <c r="M66" s="1"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D67" s="149"/>
+      <c r="E67" s="151"/>
+      <c r="F67" s="34"/>
+      <c r="M67" s="1"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D68" s="149"/>
+      <c r="E68" s="151"/>
+      <c r="F68" s="34"/>
+      <c r="M68" s="1"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D69" s="149"/>
+      <c r="E69" s="151"/>
+      <c r="F69" s="34"/>
+      <c r="M69" s="1"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D70" s="149"/>
+      <c r="E70" s="151"/>
+      <c r="F70" s="34"/>
+      <c r="M70" s="1"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D71" s="149"/>
+      <c r="E71" s="151"/>
+      <c r="F71" s="34"/>
+      <c r="M71" s="1"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D72" s="149"/>
+      <c r="E72" s="151"/>
+      <c r="F72" s="34"/>
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D73" s="149"/>
+      <c r="E73" s="151"/>
+      <c r="F73" s="34"/>
+      <c r="M73" s="1"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D74" s="149"/>
+      <c r="E74" s="151"/>
+      <c r="F74" s="34"/>
+      <c r="M74" s="1"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D75" s="149"/>
+      <c r="E75" s="151"/>
+      <c r="F75" s="34"/>
+      <c r="M75" s="1"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D76" s="149"/>
+      <c r="E76" s="151"/>
+      <c r="F76" s="34"/>
+      <c r="M76" s="1"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D77" s="149"/>
+      <c r="E77" s="151"/>
+      <c r="F77" s="34"/>
+      <c r="M77" s="1"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D78" s="149"/>
+      <c r="E78" s="151"/>
+      <c r="F78" s="34"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D79" s="149"/>
+      <c r="E79" s="149"/>
+      <c r="F79" s="150"/>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D80" s="149"/>
+      <c r="E80" s="149"/>
+      <c r="F80" s="150"/>
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D81" s="149"/>
+      <c r="E81" s="149"/>
+      <c r="F81" s="150"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF66CC"/>
+  </sheetPr>
+  <dimension ref="A1:G113"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35:E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" style="201" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="117" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="201" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="117"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="209" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="187"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="153" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="210" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="155" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="156" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="199" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="156" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="157" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="211">
+        <v>44592</v>
+      </c>
+      <c r="B3" s="194" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="195">
+        <v>121165.94</v>
+      </c>
+      <c r="D3" s="207">
+        <v>44596</v>
+      </c>
+      <c r="E3" s="208">
+        <v>121165.94</v>
+      </c>
+      <c r="F3" s="158">
+        <f>C3-E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="211">
+        <v>44593</v>
+      </c>
+      <c r="B4" s="194" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="195">
+        <v>5368.44</v>
+      </c>
+      <c r="D4" s="206">
+        <v>44596</v>
+      </c>
+      <c r="E4" s="191">
+        <v>5368.44</v>
+      </c>
+      <c r="F4" s="158">
+        <f>C4-E4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="211">
+        <v>44594</v>
+      </c>
+      <c r="B5" s="194" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="195">
+        <v>67800.3</v>
+      </c>
+      <c r="D5" s="206">
+        <v>44596</v>
+      </c>
+      <c r="E5" s="191">
+        <v>67800.3</v>
+      </c>
+      <c r="F5" s="196">
+        <f>C5-E5+F4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="211">
+        <v>44596</v>
+      </c>
+      <c r="B6" s="194" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="195">
+        <v>82150.22</v>
+      </c>
+      <c r="D6" s="206">
+        <v>44596</v>
+      </c>
+      <c r="E6" s="191">
+        <v>82150.22</v>
+      </c>
+      <c r="F6" s="161">
+        <f>C6-E6+F5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="211">
+        <v>44597</v>
+      </c>
+      <c r="B7" s="194" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="195">
+        <v>1276.5</v>
+      </c>
+      <c r="D7" s="200"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="161">
+        <f>F6+C7-E7</f>
+        <v>1276.5</v>
+      </c>
+      <c r="G7" s="162"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="211">
+        <v>44597</v>
+      </c>
+      <c r="B8" s="194" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="195">
+        <v>34446.5</v>
+      </c>
+      <c r="D8" s="200"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="161">
+        <f t="shared" ref="F8" si="0">F7+C8-E8</f>
+        <v>35723</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="211">
+        <v>44597</v>
+      </c>
+      <c r="B9" s="194" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="195">
+        <v>105739.83</v>
+      </c>
+      <c r="D9" s="200"/>
+      <c r="E9" s="195"/>
+      <c r="F9" s="161">
+        <f>F8+C9-E9</f>
+        <v>141462.83000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="211">
+        <v>44599</v>
+      </c>
+      <c r="B10" s="194" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="195">
+        <v>19806.88</v>
+      </c>
+      <c r="D10" s="200"/>
+      <c r="E10" s="195"/>
+      <c r="F10" s="161">
+        <f>F9+C10-E10</f>
+        <v>161269.71000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="211">
+        <v>44599</v>
+      </c>
+      <c r="B11" s="194" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="195">
+        <v>2830.84</v>
+      </c>
+      <c r="D11" s="200"/>
+      <c r="E11" s="195"/>
+      <c r="F11" s="161">
+        <f>F10+C11-E11</f>
+        <v>164100.55000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="211">
+        <v>44600</v>
+      </c>
+      <c r="B12" s="194" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="195">
+        <v>81188.800000000003</v>
+      </c>
+      <c r="D12" s="200"/>
+      <c r="E12" s="195"/>
+      <c r="F12" s="161">
+        <f t="shared" ref="F12:F51" si="1">F11+C12-E12</f>
+        <v>245289.35000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="211">
+        <v>44601</v>
+      </c>
+      <c r="B13" s="194" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="195">
+        <v>38204.76</v>
+      </c>
+      <c r="D13" s="200"/>
+      <c r="E13" s="195"/>
+      <c r="F13" s="161">
+        <f t="shared" si="1"/>
+        <v>283494.11000000004</v>
+      </c>
+      <c r="G13" s="162"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="211">
+        <v>44601</v>
+      </c>
+      <c r="B14" s="194" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="195">
+        <v>59088.9</v>
+      </c>
+      <c r="D14" s="200"/>
+      <c r="E14" s="195"/>
+      <c r="F14" s="161">
+        <f t="shared" si="1"/>
+        <v>342583.01000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="211">
+        <v>44603</v>
+      </c>
+      <c r="B15" s="194" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="195">
+        <v>55757.3</v>
+      </c>
+      <c r="D15" s="200"/>
+      <c r="E15" s="195"/>
+      <c r="F15" s="161">
+        <f t="shared" si="1"/>
+        <v>398340.31000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="211">
+        <v>44603</v>
+      </c>
+      <c r="B16" s="194" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="195">
+        <v>50617.440000000002</v>
+      </c>
+      <c r="D16" s="213">
+        <v>44603</v>
+      </c>
+      <c r="E16" s="214">
+        <v>448957.75</v>
+      </c>
+      <c r="F16" s="161">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="211">
+        <v>44604</v>
+      </c>
+      <c r="B17" s="194" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="195">
+        <v>57701.599999999999</v>
+      </c>
+      <c r="D17" s="200"/>
+      <c r="E17" s="195"/>
+      <c r="F17" s="161">
+        <f t="shared" si="1"/>
+        <v>57701.599999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="211">
+        <v>44606</v>
+      </c>
+      <c r="B18" s="194" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="195">
+        <v>100500.86</v>
+      </c>
+      <c r="D18" s="200"/>
+      <c r="E18" s="195"/>
+      <c r="F18" s="161">
+        <f t="shared" si="1"/>
+        <v>158202.46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="211">
+        <v>44607</v>
+      </c>
+      <c r="B19" s="194" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="195">
+        <v>12524</v>
+      </c>
+      <c r="D19" s="200"/>
+      <c r="E19" s="195"/>
+      <c r="F19" s="161">
+        <f t="shared" si="1"/>
+        <v>170726.46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="211">
+        <v>44608</v>
+      </c>
+      <c r="B20" s="194" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="195">
+        <v>122099.28</v>
+      </c>
+      <c r="D20" s="200"/>
+      <c r="E20" s="195"/>
+      <c r="F20" s="161">
+        <f t="shared" si="1"/>
+        <v>292825.74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="211">
+        <v>44608</v>
+      </c>
+      <c r="B21" s="194" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="195">
+        <v>4846.3999999999996</v>
+      </c>
+      <c r="D21" s="200"/>
+      <c r="E21" s="195"/>
+      <c r="F21" s="161">
+        <f t="shared" si="1"/>
+        <v>297672.14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="211">
+        <v>44609</v>
+      </c>
+      <c r="B22" s="194" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="195">
+        <v>3707.2</v>
+      </c>
+      <c r="D22" s="200"/>
+      <c r="E22" s="195"/>
+      <c r="F22" s="161">
+        <f t="shared" si="1"/>
+        <v>301379.34000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="211">
+        <v>44610</v>
+      </c>
+      <c r="B23" s="194" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="195">
+        <v>130649.11</v>
+      </c>
+      <c r="D23" s="218">
+        <v>44610</v>
+      </c>
+      <c r="E23" s="217">
+        <v>432028.45</v>
+      </c>
+      <c r="F23" s="161">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="211">
+        <v>44610</v>
+      </c>
+      <c r="B24" s="194" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="195">
+        <v>1371.2</v>
+      </c>
+      <c r="D24" s="200"/>
+      <c r="E24" s="195"/>
+      <c r="F24" s="161">
+        <f t="shared" si="1"/>
+        <v>1371.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="211">
+        <v>44610</v>
+      </c>
+      <c r="B25" s="194" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" s="195">
+        <v>4899.55</v>
+      </c>
+      <c r="D25" s="200"/>
+      <c r="E25" s="195"/>
+      <c r="F25" s="161">
+        <f t="shared" si="1"/>
+        <v>6270.75</v>
+      </c>
+      <c r="G25" s="162"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="211">
+        <v>44611</v>
+      </c>
+      <c r="B26" s="194" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="195">
+        <v>56596.6</v>
+      </c>
+      <c r="D26" s="200"/>
+      <c r="E26" s="195"/>
+      <c r="F26" s="161">
+        <f t="shared" si="1"/>
+        <v>62867.35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="211">
+        <v>44611</v>
+      </c>
+      <c r="B27" s="194" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="195">
+        <v>2100</v>
+      </c>
+      <c r="D27" s="200"/>
+      <c r="E27" s="195"/>
+      <c r="F27" s="161">
+        <f t="shared" si="1"/>
+        <v>64967.35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="211">
+        <v>44613</v>
+      </c>
+      <c r="B28" s="194" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="195">
+        <v>56699.519999999997</v>
+      </c>
+      <c r="D28" s="200"/>
+      <c r="E28" s="195"/>
+      <c r="F28" s="161">
+        <f t="shared" si="1"/>
+        <v>121666.87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="211">
+        <v>44613</v>
+      </c>
+      <c r="B29" s="194" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="195">
+        <v>6470</v>
+      </c>
+      <c r="D29" s="200"/>
+      <c r="E29" s="195"/>
+      <c r="F29" s="161">
+        <f t="shared" si="1"/>
+        <v>128136.87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="211">
+        <v>44613</v>
+      </c>
+      <c r="B30" s="194" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" s="195">
+        <v>5335</v>
+      </c>
+      <c r="D30" s="200"/>
+      <c r="E30" s="195"/>
+      <c r="F30" s="161">
+        <f t="shared" si="1"/>
+        <v>133471.87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="211">
+        <v>44615</v>
+      </c>
+      <c r="B31" s="194" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" s="195">
+        <v>105683.1</v>
+      </c>
+      <c r="D31" s="200"/>
+      <c r="E31" s="195"/>
+      <c r="F31" s="161">
+        <f t="shared" si="1"/>
+        <v>239154.97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="211">
+        <v>44616</v>
+      </c>
+      <c r="B32" s="194" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="195">
+        <v>40039.56</v>
+      </c>
+      <c r="D32" s="200"/>
+      <c r="E32" s="195"/>
+      <c r="F32" s="161">
+        <f t="shared" si="1"/>
+        <v>279194.53000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="211">
+        <v>44616</v>
+      </c>
+      <c r="B33" s="194" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" s="195">
+        <v>1553.4</v>
+      </c>
+      <c r="D33" s="200"/>
+      <c r="E33" s="195"/>
+      <c r="F33" s="161">
+        <f t="shared" si="1"/>
+        <v>280747.93000000005</v>
+      </c>
+      <c r="G33" s="162"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="211">
+        <v>44617</v>
+      </c>
+      <c r="B34" s="194" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" s="195">
+        <v>97272.02</v>
+      </c>
+      <c r="D34" s="219">
+        <v>44620</v>
+      </c>
+      <c r="E34" s="192">
+        <v>378019.95</v>
+      </c>
+      <c r="F34" s="161">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="211">
+        <v>44618</v>
+      </c>
+      <c r="B35" s="194" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="195">
+        <v>96471.72</v>
+      </c>
+      <c r="D35" s="278">
+        <v>44624</v>
+      </c>
+      <c r="E35" s="197">
+        <v>96471.72</v>
+      </c>
+      <c r="F35" s="161">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="211"/>
+      <c r="B36" s="194"/>
+      <c r="C36" s="195"/>
+      <c r="D36" s="200"/>
+      <c r="E36" s="195"/>
+      <c r="F36" s="161">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="211"/>
+      <c r="B37" s="194"/>
+      <c r="C37" s="195"/>
+      <c r="D37" s="200"/>
+      <c r="E37" s="195"/>
+      <c r="F37" s="161">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="211"/>
+      <c r="B38" s="194"/>
+      <c r="C38" s="195"/>
+      <c r="D38" s="200"/>
+      <c r="E38" s="195"/>
+      <c r="F38" s="161">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="163"/>
+      <c r="B39" s="160"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="159"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="161">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="163"/>
+      <c r="B40" s="160"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="159"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="161">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="163"/>
+      <c r="B41" s="160"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="159"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="161">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="164"/>
+      <c r="B42" s="165"/>
+      <c r="C42" s="166"/>
+      <c r="D42" s="159"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="161">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="164"/>
+      <c r="B43" s="165"/>
+      <c r="C43" s="166"/>
+      <c r="D43" s="159"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="161">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="164"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="166"/>
+      <c r="D44" s="159"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="161">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="164"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="166"/>
+      <c r="D45" s="159"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="161">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="164"/>
+      <c r="B46" s="165"/>
+      <c r="C46" s="166"/>
+      <c r="D46" s="159"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="161">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="164"/>
+      <c r="B47" s="165"/>
+      <c r="C47" s="166"/>
+      <c r="D47" s="159"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="161">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="164"/>
+      <c r="B48" s="165"/>
+      <c r="C48" s="166"/>
+      <c r="D48" s="159"/>
+      <c r="E48" s="86"/>
+      <c r="F48" s="161">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="164"/>
+      <c r="B49" s="165"/>
+      <c r="C49" s="166"/>
+      <c r="D49" s="159"/>
+      <c r="E49" s="86"/>
+      <c r="F49" s="161">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="164"/>
+      <c r="B50" s="165"/>
+      <c r="C50" s="166"/>
+      <c r="D50" s="159"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="161">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="164"/>
+      <c r="B51" s="165"/>
+      <c r="C51" s="166"/>
+      <c r="D51" s="159"/>
+      <c r="E51" s="86"/>
+      <c r="F51" s="161">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="164"/>
+      <c r="B52" s="165"/>
+      <c r="C52" s="166"/>
+      <c r="D52" s="159"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="161">
+        <f t="shared" ref="F52:F76" si="2">F51+C52-E52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="164"/>
+      <c r="B53" s="165"/>
+      <c r="C53" s="166"/>
+      <c r="D53" s="159"/>
+      <c r="E53" s="86"/>
+      <c r="F53" s="161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="164"/>
+      <c r="B54" s="165"/>
+      <c r="C54" s="166"/>
+      <c r="D54" s="159"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="164"/>
+      <c r="B55" s="165"/>
+      <c r="C55" s="166"/>
+      <c r="D55" s="159"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="164"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="166"/>
+      <c r="D56" s="159"/>
+      <c r="E56" s="86"/>
+      <c r="F56" s="161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="164"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="166"/>
+      <c r="D57" s="159"/>
+      <c r="E57" s="86"/>
+      <c r="F57" s="161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="164"/>
+      <c r="B58" s="165"/>
+      <c r="C58" s="166"/>
+      <c r="D58" s="159"/>
+      <c r="E58" s="86"/>
+      <c r="F58" s="161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="164"/>
+      <c r="B59" s="165"/>
+      <c r="C59" s="166"/>
+      <c r="D59" s="159"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="167"/>
+      <c r="B60" s="168"/>
+      <c r="C60" s="169"/>
+      <c r="D60" s="170"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="167"/>
+      <c r="B61" s="168"/>
+      <c r="C61" s="169"/>
+      <c r="D61" s="170"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="167"/>
+      <c r="B62" s="168"/>
+      <c r="C62" s="169"/>
+      <c r="D62" s="170"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="167"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="169"/>
+      <c r="D63" s="170"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="167"/>
+      <c r="B64" s="168"/>
+      <c r="C64" s="169"/>
+      <c r="D64" s="170"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="167"/>
+      <c r="B65" s="168"/>
+      <c r="C65" s="169"/>
+      <c r="D65" s="170"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="164"/>
+      <c r="B66" s="165"/>
+      <c r="C66" s="166"/>
+      <c r="D66" s="171"/>
+      <c r="E66" s="86"/>
+      <c r="F66" s="161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="164"/>
+      <c r="B67" s="165"/>
+      <c r="C67" s="166"/>
+      <c r="D67" s="171"/>
+      <c r="E67" s="86"/>
+      <c r="F67" s="161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="164"/>
+      <c r="B68" s="165"/>
+      <c r="C68" s="166"/>
+      <c r="D68" s="171"/>
+      <c r="E68" s="86"/>
+      <c r="F68" s="161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="164"/>
+      <c r="B69" s="165"/>
+      <c r="C69" s="166"/>
+      <c r="D69" s="171"/>
+      <c r="E69" s="86"/>
+      <c r="F69" s="161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="164"/>
+      <c r="B70" s="165"/>
+      <c r="C70" s="166"/>
+      <c r="D70" s="171"/>
+      <c r="E70" s="86"/>
+      <c r="F70" s="161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="164"/>
+      <c r="B71" s="165"/>
+      <c r="C71" s="166"/>
+      <c r="D71" s="171"/>
+      <c r="E71" s="86"/>
+      <c r="F71" s="161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="164"/>
+      <c r="B72" s="165"/>
+      <c r="C72" s="166"/>
+      <c r="D72" s="171"/>
+      <c r="E72" s="86"/>
+      <c r="F72" s="161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="164"/>
+      <c r="B73" s="165"/>
+      <c r="C73" s="166"/>
+      <c r="D73" s="171"/>
+      <c r="E73" s="86"/>
+      <c r="F73" s="161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="164"/>
+      <c r="B74" s="165"/>
+      <c r="C74" s="166"/>
+      <c r="D74" s="171"/>
+      <c r="E74" s="86"/>
+      <c r="F74" s="161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="164"/>
+      <c r="B75" s="165"/>
+      <c r="C75" s="166"/>
+      <c r="D75" s="171"/>
+      <c r="E75" s="86"/>
+      <c r="F75" s="161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="172"/>
+      <c r="B76" s="173"/>
+      <c r="C76" s="34">
+        <v>0</v>
+      </c>
+      <c r="D76" s="174"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="212"/>
+      <c r="B77" s="176"/>
+      <c r="C77" s="177">
+        <f>SUM(C3:C76)</f>
+        <v>1631962.7700000003</v>
+      </c>
+      <c r="D77" s="189"/>
+      <c r="E77" s="178">
+        <f>SUM(E6:E76)</f>
+        <v>1437628.0899999999</v>
+      </c>
+      <c r="F77" s="179">
+        <f>F76</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D78" s="170"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D79" s="170"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B80" s="190"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="190"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="190"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="190"/>
+      <c r="F83" s="117"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="190"/>
+      <c r="F84" s="117"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="190"/>
+      <c r="F85" s="117"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="190"/>
+      <c r="F86" s="117"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="190"/>
+      <c r="F87" s="117"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="190"/>
+      <c r="F88" s="117"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="190"/>
+      <c r="F89" s="117"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="190"/>
+      <c r="F90" s="117"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="190"/>
+      <c r="F91" s="117"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="190"/>
+      <c r="E92" s="117"/>
+      <c r="F92" s="117"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="190"/>
+      <c r="E93" s="117"/>
+      <c r="F93" s="117"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="190"/>
+      <c r="E94" s="117"/>
+      <c r="F94" s="117"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="190"/>
+      <c r="E95" s="117"/>
+      <c r="F95" s="117"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="190"/>
+      <c r="E96" s="117"/>
+      <c r="F96" s="117"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="190"/>
+      <c r="E97" s="117"/>
+      <c r="F97" s="117"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="190"/>
+      <c r="E98" s="117"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="190"/>
+      <c r="E99" s="117"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="190"/>
+      <c r="E100" s="117"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="190"/>
+      <c r="E101" s="117"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="190"/>
+      <c r="E102" s="117"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="190"/>
+      <c r="E103" s="117"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="190"/>
+      <c r="E104" s="117"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="190"/>
+      <c r="E105" s="117"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="190"/>
+      <c r="E106" s="117"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="190"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="190"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="190"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="190"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="190"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="190"/>
+    </row>
+    <row r="113" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C113" s="180"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:U81"/>
+  <sheetViews>
+    <sheetView topLeftCell="I19" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="116" customWidth="1"/>
+    <col min="3" max="3" width="16" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="12" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B1" s="239"/>
+      <c r="C1" s="241" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
+    </row>
+    <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="240"/>
+      <c r="C2" s="3"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="243" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="244"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="H3" s="245" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="245"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="14"/>
+      <c r="R3" s="250" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17">
+        <v>184342.19</v>
+      </c>
+      <c r="D4" s="18">
+        <v>44619</v>
+      </c>
+      <c r="E4" s="246" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="247"/>
+      <c r="H4" s="248" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="249"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="257" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="258"/>
+      <c r="R4" s="251"/>
+    </row>
+    <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="25">
+        <v>44620</v>
+      </c>
+      <c r="C5" s="26">
+        <v>0</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="28">
+        <v>44620</v>
+      </c>
+      <c r="F5" s="29">
+        <v>56916</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="30">
+        <v>44620</v>
+      </c>
+      <c r="I5" s="31">
+        <v>698</v>
+      </c>
+      <c r="J5" s="7">
+        <v>44620</v>
+      </c>
+      <c r="K5" s="182" t="s">
+        <v>192</v>
+      </c>
+      <c r="L5" s="9">
+        <v>11500</v>
+      </c>
+      <c r="M5" s="32">
+        <f>20000+23470</f>
+        <v>43470</v>
+      </c>
+      <c r="N5" s="33">
+        <v>1246</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="34">
+        <f>N5+M5+L5+I5+C5</f>
+        <v>56914</v>
+      </c>
+      <c r="Q5" s="61">
+        <f>P5-F5</f>
+        <v>-2</v>
+      </c>
+      <c r="R5" s="9"/>
+    </row>
+    <row r="6" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25">
+        <v>44621</v>
+      </c>
+      <c r="C6" s="26">
+        <v>5100</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" s="28">
+        <v>44621</v>
+      </c>
+      <c r="F6" s="29">
+        <v>58709</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="30">
+        <v>44621</v>
+      </c>
+      <c r="I6" s="31">
+        <v>60</v>
+      </c>
+      <c r="J6" s="38"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="32">
+        <f>15000+38320</f>
+        <v>53320</v>
+      </c>
+      <c r="N6" s="33">
+        <v>234</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="34">
+        <f t="shared" ref="P6:P39" si="0">N6+M6+L6+I6+C6</f>
+        <v>58714</v>
+      </c>
+      <c r="Q6" s="13">
+        <f t="shared" ref="Q6:Q40" si="1">P6-F6</f>
+        <v>5</v>
+      </c>
+      <c r="R6" s="8"/>
+    </row>
+    <row r="7" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25">
+        <v>44622</v>
+      </c>
+      <c r="C7" s="26">
+        <v>0</v>
+      </c>
+      <c r="D7" s="41"/>
+      <c r="E7" s="28">
+        <v>44622</v>
+      </c>
+      <c r="F7" s="29">
+        <v>33319</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="30">
+        <v>44622</v>
+      </c>
+      <c r="I7" s="31">
+        <v>113</v>
+      </c>
+      <c r="J7" s="38"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="32">
+        <v>33206</v>
+      </c>
+      <c r="N7" s="33">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="34">
+        <f t="shared" si="0"/>
+        <v>33319</v>
+      </c>
+      <c r="Q7" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="9"/>
+    </row>
+    <row r="8" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25">
+        <v>44623</v>
+      </c>
+      <c r="C8" s="26">
+        <v>0</v>
+      </c>
+      <c r="D8" s="41"/>
+      <c r="E8" s="28">
+        <v>44623</v>
+      </c>
+      <c r="F8" s="29">
+        <v>74800</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="30">
+        <v>44623</v>
+      </c>
+      <c r="I8" s="31">
+        <v>15</v>
+      </c>
+      <c r="J8" s="44"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="32">
+        <f>24900+47651</f>
+        <v>72551</v>
+      </c>
+      <c r="N8" s="33">
+        <v>2234</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="34">
+        <f t="shared" si="0"/>
+        <v>74800</v>
+      </c>
+      <c r="Q8" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25">
+        <v>44624</v>
+      </c>
+      <c r="C9" s="26">
+        <v>0</v>
+      </c>
+      <c r="D9" s="41"/>
+      <c r="E9" s="28">
+        <v>44624</v>
+      </c>
+      <c r="F9" s="29">
+        <v>74961</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="30">
+        <v>44624</v>
+      </c>
+      <c r="I9" s="31">
+        <v>107</v>
+      </c>
+      <c r="J9" s="38"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="32">
+        <f>40000+34810</f>
+        <v>74810</v>
+      </c>
+      <c r="N9" s="33">
+        <v>44</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="34">
+        <f>N9+M9+L9+I9+C9</f>
+        <v>74961</v>
+      </c>
+      <c r="Q9" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="8"/>
+    </row>
+    <row r="10" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25">
+        <v>44625</v>
+      </c>
+      <c r="C10" s="26">
+        <v>0</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="28">
+        <v>44625</v>
+      </c>
+      <c r="F10" s="29">
+        <v>84896</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="30">
+        <v>44625</v>
+      </c>
+      <c r="I10" s="31">
+        <v>39</v>
+      </c>
+      <c r="J10" s="38">
+        <v>44625</v>
+      </c>
+      <c r="K10" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="L10" s="48">
+        <v>9800</v>
+      </c>
+      <c r="M10" s="32">
+        <f>45000+21140</f>
+        <v>66140</v>
+      </c>
+      <c r="N10" s="33">
+        <v>8922</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="34">
+        <f t="shared" si="0"/>
+        <v>84901</v>
+      </c>
+      <c r="Q10" s="13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="R10" s="9"/>
+      <c r="U10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="24"/>
+      <c r="B11" s="25">
+        <v>44626</v>
+      </c>
+      <c r="C11" s="26">
+        <v>7790</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" s="28">
+        <v>44626</v>
+      </c>
+      <c r="F11" s="29">
+        <v>110400</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="30">
+        <v>44626</v>
+      </c>
+      <c r="I11" s="31">
+        <v>52</v>
+      </c>
+      <c r="J11" s="44"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="32">
+        <f>60000+30000+11311</f>
+        <v>101311</v>
+      </c>
+      <c r="N11" s="33">
+        <v>1247</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="34">
+        <f>N11+M11+L11+I11+C11</f>
+        <v>110400</v>
+      </c>
+      <c r="Q11" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25">
+        <v>44627</v>
+      </c>
+      <c r="C12" s="26">
+        <v>0</v>
+      </c>
+      <c r="D12" s="36"/>
+      <c r="E12" s="28">
+        <v>44627</v>
+      </c>
+      <c r="F12" s="29">
+        <v>52725</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="30">
+        <v>44627</v>
+      </c>
+      <c r="I12" s="31">
+        <v>45</v>
+      </c>
+      <c r="J12" s="38"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="32">
+        <f>26020+25560</f>
+        <v>51580</v>
+      </c>
+      <c r="N12" s="33">
+        <v>1100</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="34">
+        <f t="shared" si="0"/>
+        <v>52725</v>
+      </c>
+      <c r="Q12" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="8"/>
+    </row>
+    <row r="13" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="24"/>
+      <c r="B13" s="25">
+        <v>44628</v>
+      </c>
+      <c r="C13" s="26">
+        <v>2840</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" s="28">
+        <v>44628</v>
+      </c>
+      <c r="F13" s="29">
+        <v>53875</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="30">
+        <v>44628</v>
+      </c>
+      <c r="I13" s="31">
+        <v>67</v>
+      </c>
+      <c r="J13" s="38"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="32">
+        <f>25000+25970</f>
+        <v>50970</v>
+      </c>
+      <c r="N13" s="33">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="34">
+        <f t="shared" si="0"/>
+        <v>53877</v>
+      </c>
+      <c r="Q13" s="13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R13" s="185"/>
+    </row>
+    <row r="14" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="24"/>
+      <c r="B14" s="25">
+        <v>44629</v>
+      </c>
+      <c r="C14" s="26">
+        <v>0</v>
+      </c>
+      <c r="D14" s="51"/>
+      <c r="E14" s="28">
+        <v>44629</v>
+      </c>
+      <c r="F14" s="29">
+        <v>40883</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="30">
+        <v>44629</v>
+      </c>
+      <c r="I14" s="31">
+        <v>412</v>
+      </c>
+      <c r="J14" s="38"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="32">
+        <f>25430+15000</f>
+        <v>40430</v>
+      </c>
+      <c r="N14" s="33">
+        <v>40</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="34">
+        <f t="shared" si="0"/>
+        <v>40882</v>
+      </c>
+      <c r="Q14" s="61">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="R14" s="185"/>
+    </row>
+    <row r="15" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="24"/>
+      <c r="B15" s="25">
+        <v>44630</v>
+      </c>
+      <c r="C15" s="26">
+        <v>0</v>
+      </c>
+      <c r="D15" s="51"/>
+      <c r="E15" s="28">
+        <v>44630</v>
+      </c>
+      <c r="F15" s="29">
+        <v>67399</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="30">
+        <v>44630</v>
+      </c>
+      <c r="I15" s="31">
+        <v>88</v>
+      </c>
+      <c r="J15" s="38"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="32">
+        <f>10000+400+30000+26420</f>
+        <v>66820</v>
+      </c>
+      <c r="N15" s="33">
+        <v>497</v>
+      </c>
+      <c r="P15" s="34">
+        <f t="shared" si="0"/>
+        <v>67405</v>
+      </c>
+      <c r="Q15" s="13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="R15" s="8"/>
+    </row>
+    <row r="16" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25">
+        <v>44631</v>
+      </c>
+      <c r="C16" s="26">
+        <v>0</v>
+      </c>
+      <c r="D16" s="36"/>
+      <c r="E16" s="28">
+        <v>44631</v>
+      </c>
+      <c r="F16" s="29">
+        <v>90868</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="30">
+        <v>44631</v>
+      </c>
+      <c r="I16" s="31">
+        <v>30</v>
+      </c>
+      <c r="J16" s="38"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="32">
+        <f>45000+45700</f>
+        <v>90700</v>
+      </c>
+      <c r="N16" s="33">
+        <v>137</v>
+      </c>
+      <c r="P16" s="34">
+        <f t="shared" si="0"/>
+        <v>90867</v>
+      </c>
+      <c r="Q16" s="61">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="24"/>
+      <c r="B17" s="25">
+        <v>44632</v>
+      </c>
+      <c r="C17" s="26">
+        <v>2040</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="28">
+        <v>44632</v>
+      </c>
+      <c r="F17" s="29">
+        <v>87020</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="30">
+        <v>44632</v>
+      </c>
+      <c r="I17" s="31">
+        <v>28</v>
+      </c>
+      <c r="J17" s="38">
+        <v>44632</v>
+      </c>
+      <c r="K17" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="L17" s="48">
+        <v>9800</v>
+      </c>
+      <c r="M17" s="32">
+        <f>40000+23370</f>
+        <v>63370</v>
+      </c>
+      <c r="N17" s="33">
+        <v>11780</v>
+      </c>
+      <c r="P17" s="34">
+        <f t="shared" si="0"/>
+        <v>87018</v>
+      </c>
+      <c r="Q17" s="61">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="R17" s="8"/>
+    </row>
+    <row r="18" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25">
+        <v>44633</v>
+      </c>
+      <c r="C18" s="26">
+        <v>24281</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="E18" s="28">
+        <v>44633</v>
+      </c>
+      <c r="F18" s="29">
+        <v>109237</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="30">
+        <v>44633</v>
+      </c>
+      <c r="I18" s="31">
+        <v>48</v>
+      </c>
+      <c r="J18" s="38"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="32">
+        <f>65000+11662+7772</f>
+        <v>84434</v>
+      </c>
+      <c r="N18" s="33">
+        <v>474</v>
+      </c>
+      <c r="P18" s="34">
+        <f t="shared" si="0"/>
+        <v>109237</v>
+      </c>
+      <c r="Q18" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="8"/>
+    </row>
+    <row r="19" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25">
+        <v>44634</v>
+      </c>
+      <c r="C19" s="26">
+        <v>0</v>
+      </c>
+      <c r="D19" s="36"/>
+      <c r="E19" s="28">
+        <v>44634</v>
+      </c>
+      <c r="F19" s="29">
+        <v>44651</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="30">
+        <v>44634</v>
+      </c>
+      <c r="I19" s="31">
+        <v>85</v>
+      </c>
+      <c r="J19" s="38"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="32">
+        <f>21166+23400</f>
+        <v>44566</v>
+      </c>
+      <c r="N19" s="33">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" s="34">
+        <f t="shared" si="0"/>
+        <v>44651</v>
+      </c>
+      <c r="Q19" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="8"/>
+    </row>
+    <row r="20" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="24"/>
+      <c r="B20" s="25">
+        <v>44635</v>
+      </c>
+      <c r="C20" s="26">
+        <v>0</v>
+      </c>
+      <c r="D20" s="36"/>
+      <c r="E20" s="28">
+        <v>44635</v>
+      </c>
+      <c r="F20" s="29">
+        <v>65142</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="30">
+        <v>44635</v>
+      </c>
+      <c r="I20" s="31">
+        <v>10</v>
+      </c>
+      <c r="J20" s="38"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="32">
+        <f>40000+24630</f>
+        <v>64630</v>
+      </c>
+      <c r="N20" s="33">
+        <v>500</v>
+      </c>
+      <c r="P20" s="34">
+        <f t="shared" si="0"/>
+        <v>65140</v>
+      </c>
+      <c r="Q20" s="61">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="R20" s="8"/>
+    </row>
+    <row r="21" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="24"/>
+      <c r="B21" s="25">
+        <v>44636</v>
+      </c>
+      <c r="C21" s="26">
+        <v>2862</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="28">
+        <v>44636</v>
+      </c>
+      <c r="F21" s="29">
+        <v>37330</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="30">
+        <v>44636</v>
+      </c>
+      <c r="I21" s="31">
+        <v>66</v>
+      </c>
+      <c r="J21" s="38"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="32">
+        <f>15000+19350</f>
+        <v>34350</v>
+      </c>
+      <c r="N21" s="33">
+        <v>50</v>
+      </c>
+      <c r="P21" s="34">
+        <f t="shared" si="0"/>
+        <v>37328</v>
+      </c>
+      <c r="Q21" s="61">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="R21" s="8"/>
+    </row>
+    <row r="22" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="24"/>
+      <c r="B22" s="25">
+        <v>44637</v>
+      </c>
+      <c r="C22" s="26">
+        <v>0</v>
+      </c>
+      <c r="D22" s="36"/>
+      <c r="E22" s="28">
+        <v>44637</v>
+      </c>
+      <c r="F22" s="29">
+        <v>61658</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="30">
+        <v>44637</v>
+      </c>
+      <c r="I22" s="31">
+        <v>172</v>
+      </c>
+      <c r="J22" s="38"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="32">
+        <f>30000+29190</f>
+        <v>59190</v>
+      </c>
+      <c r="N22" s="33">
+        <v>2300</v>
+      </c>
+      <c r="P22" s="34">
+        <f t="shared" si="0"/>
+        <v>61662</v>
+      </c>
+      <c r="Q22" s="13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="R22" s="8"/>
+    </row>
+    <row r="23" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="24"/>
+      <c r="B23" s="25">
+        <v>44638</v>
+      </c>
+      <c r="C23" s="26">
+        <v>2160</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="28">
+        <v>44638</v>
+      </c>
+      <c r="F23" s="29">
+        <v>88642</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="30">
+        <v>44638</v>
+      </c>
+      <c r="I23" s="31">
+        <v>551</v>
+      </c>
+      <c r="J23" s="59"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="32">
+        <f>50920+35000</f>
+        <v>85920</v>
+      </c>
+      <c r="N23" s="33">
+        <v>0</v>
+      </c>
+      <c r="P23" s="34">
+        <f t="shared" si="0"/>
+        <v>88631</v>
+      </c>
+      <c r="Q23" s="61">
+        <f t="shared" si="1"/>
+        <v>-11</v>
+      </c>
+      <c r="R23" s="8"/>
+    </row>
+    <row r="24" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="24"/>
+      <c r="B24" s="25">
+        <v>44639</v>
+      </c>
+      <c r="C24" s="26">
+        <v>0</v>
+      </c>
+      <c r="D24" s="41"/>
+      <c r="E24" s="28">
+        <v>44639</v>
+      </c>
+      <c r="F24" s="29">
+        <v>100597</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="30">
+        <v>44639</v>
+      </c>
+      <c r="I24" s="31">
+        <v>43</v>
+      </c>
+      <c r="J24" s="181">
+        <v>44639</v>
+      </c>
+      <c r="K24" s="62" t="s">
+        <v>222</v>
+      </c>
+      <c r="L24" s="63">
+        <v>12300</v>
+      </c>
+      <c r="M24" s="32">
+        <f>26940+45000</f>
+        <v>71940</v>
+      </c>
+      <c r="N24" s="33">
+        <v>16319</v>
+      </c>
+      <c r="P24" s="34">
+        <f t="shared" si="0"/>
+        <v>100602</v>
+      </c>
+      <c r="Q24" s="13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="R24" s="8"/>
+    </row>
+    <row r="25" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="24"/>
+      <c r="B25" s="25">
+        <v>44640</v>
+      </c>
+      <c r="C25" s="26">
+        <v>15145</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="E25" s="28">
+        <v>44640</v>
+      </c>
+      <c r="F25" s="29">
+        <v>85876</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="30">
+        <v>44640</v>
+      </c>
+      <c r="I25" s="31">
+        <v>23</v>
+      </c>
+      <c r="J25" s="64"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="32">
+        <f>50000+13533</f>
+        <v>63533</v>
+      </c>
+      <c r="N25" s="33">
+        <v>7175</v>
+      </c>
+      <c r="O25" t="s">
+        <v>8</v>
+      </c>
+      <c r="P25" s="34">
+        <f t="shared" si="0"/>
+        <v>85876</v>
+      </c>
+      <c r="Q25" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="8"/>
+      <c r="S25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="24"/>
+      <c r="B26" s="25">
+        <v>44641</v>
+      </c>
+      <c r="C26" s="26">
+        <v>0</v>
+      </c>
+      <c r="D26" s="36"/>
+      <c r="E26" s="28">
+        <v>44641</v>
+      </c>
+      <c r="F26" s="29">
+        <v>75915</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="30">
+        <v>44641</v>
+      </c>
+      <c r="I26" s="31">
+        <v>59</v>
+      </c>
+      <c r="J26" s="38"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="32">
+        <f>50600+25043</f>
+        <v>75643</v>
+      </c>
+      <c r="N26" s="33">
+        <v>213</v>
+      </c>
+      <c r="P26" s="34">
+        <f t="shared" si="0"/>
+        <v>75915</v>
+      </c>
+      <c r="Q26" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="9"/>
+    </row>
+    <row r="27" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="24"/>
+      <c r="B27" s="25">
+        <v>44642</v>
+      </c>
+      <c r="C27" s="26">
+        <v>4490</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="E27" s="28">
+        <v>44642</v>
+      </c>
+      <c r="F27" s="29">
+        <v>51455</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="30">
+        <v>44642</v>
+      </c>
+      <c r="I27" s="31">
+        <v>0</v>
+      </c>
+      <c r="J27" s="67"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="32">
+        <f>20000+26270</f>
+        <v>46270</v>
+      </c>
+      <c r="N27" s="33">
+        <v>696</v>
+      </c>
+      <c r="P27" s="34">
+        <f t="shared" si="0"/>
+        <v>51456</v>
+      </c>
+      <c r="Q27" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R27" s="8"/>
+    </row>
+    <row r="28" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="24"/>
+      <c r="B28" s="25">
+        <v>44643</v>
+      </c>
+      <c r="C28" s="26">
+        <v>0</v>
+      </c>
+      <c r="D28" s="41"/>
+      <c r="E28" s="28">
+        <v>44643</v>
+      </c>
+      <c r="F28" s="29">
+        <v>45642</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="30">
+        <v>44643</v>
+      </c>
+      <c r="I28" s="31">
+        <v>81</v>
+      </c>
+      <c r="J28" s="69"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="32">
+        <f>25570+20000</f>
+        <v>45570</v>
+      </c>
+      <c r="N28" s="33">
+        <v>0</v>
+      </c>
+      <c r="P28" s="34">
+        <f t="shared" si="0"/>
+        <v>45651</v>
+      </c>
+      <c r="Q28" s="13">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="R28" s="8"/>
+    </row>
+    <row r="29" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="24"/>
+      <c r="B29" s="25">
+        <v>44644</v>
+      </c>
+      <c r="C29" s="26">
+        <v>0</v>
+      </c>
+      <c r="D29" s="71"/>
+      <c r="E29" s="28">
+        <v>44644</v>
+      </c>
+      <c r="F29" s="29">
+        <v>64298</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="30">
+        <v>44644</v>
+      </c>
+      <c r="I29" s="31">
+        <v>157</v>
+      </c>
+      <c r="J29" s="67"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="32">
+        <f>44140+20000</f>
+        <v>64140</v>
+      </c>
+      <c r="N29" s="33">
+        <v>0</v>
+      </c>
+      <c r="P29" s="34">
+        <f t="shared" si="0"/>
+        <v>64297</v>
+      </c>
+      <c r="Q29" s="13">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="R29" s="8"/>
+    </row>
+    <row r="30" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="24"/>
+      <c r="B30" s="25">
+        <v>44645</v>
+      </c>
+      <c r="C30" s="26">
+        <v>0</v>
+      </c>
+      <c r="D30" s="71"/>
+      <c r="E30" s="28">
+        <v>44645</v>
+      </c>
+      <c r="F30" s="29">
+        <v>81544</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="30">
+        <v>44645</v>
+      </c>
+      <c r="I30" s="31">
+        <v>39</v>
+      </c>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="32">
+        <f>71505+10000</f>
+        <v>81505</v>
+      </c>
+      <c r="N30" s="33">
+        <v>0</v>
+      </c>
+      <c r="P30" s="34">
+        <f t="shared" si="0"/>
+        <v>81544</v>
+      </c>
+      <c r="Q30" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="8"/>
+    </row>
+    <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="24"/>
+      <c r="B31" s="25">
+        <v>44646</v>
+      </c>
+      <c r="C31" s="26">
+        <v>33</v>
+      </c>
+      <c r="D31" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="28">
+        <v>44646</v>
+      </c>
+      <c r="F31" s="29">
+        <v>92844</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="30">
+        <v>44646</v>
+      </c>
+      <c r="I31" s="31">
+        <v>554</v>
+      </c>
+      <c r="J31" s="73">
+        <v>44646</v>
+      </c>
+      <c r="K31" s="76" t="s">
+        <v>225</v>
+      </c>
+      <c r="L31" s="77">
+        <v>10185.709999999999</v>
+      </c>
+      <c r="M31" s="32">
+        <f>25000+48620</f>
+        <v>73620</v>
+      </c>
+      <c r="N31" s="33">
+        <v>8457</v>
+      </c>
+      <c r="P31" s="34">
+        <f t="shared" si="0"/>
+        <v>92849.709999999992</v>
+      </c>
+      <c r="Q31" s="13">
+        <f t="shared" si="1"/>
+        <v>5.7099999999918509</v>
+      </c>
+      <c r="R31" s="8"/>
+    </row>
+    <row r="32" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="24"/>
+      <c r="B32" s="25">
+        <v>44647</v>
+      </c>
+      <c r="C32" s="26">
+        <v>0</v>
+      </c>
+      <c r="D32" s="78"/>
+      <c r="E32" s="28">
+        <v>44647</v>
+      </c>
+      <c r="F32" s="29">
+        <v>89834</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="30">
+        <v>44647</v>
+      </c>
+      <c r="I32" s="31">
+        <v>58</v>
+      </c>
+      <c r="J32" s="73"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="32">
+        <f>80000+9446</f>
+        <v>89446</v>
+      </c>
+      <c r="N32" s="33">
+        <v>330</v>
+      </c>
+      <c r="P32" s="34">
+        <f t="shared" si="0"/>
+        <v>89834</v>
+      </c>
+      <c r="Q32" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="24"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="32">
+        <v>0</v>
+      </c>
+      <c r="N33" s="33">
+        <v>0</v>
+      </c>
+      <c r="P33" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="8"/>
+    </row>
+    <row r="34" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="24"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="32">
+        <v>0</v>
+      </c>
+      <c r="N34" s="33">
+        <v>0</v>
+      </c>
+      <c r="P34" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="8"/>
+    </row>
+    <row r="35" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="24"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="220">
+        <v>0</v>
+      </c>
+      <c r="N35" s="33">
+        <v>0</v>
+      </c>
+      <c r="P35" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="8"/>
+    </row>
+    <row r="36" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="24"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="220">
+        <v>0</v>
+      </c>
+      <c r="N36" s="33">
+        <v>0</v>
+      </c>
+      <c r="P36" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="8"/>
+    </row>
+    <row r="37" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="24"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="221"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="220">
+        <v>0</v>
+      </c>
+      <c r="N37" s="33">
+        <v>0</v>
+      </c>
+      <c r="P37" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="24"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="80"/>
+      <c r="M38" s="32">
+        <v>0</v>
+      </c>
+      <c r="N38" s="33">
+        <v>0</v>
+      </c>
+      <c r="P38" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="24"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="32">
+        <v>0</v>
+      </c>
+      <c r="N39" s="33">
+        <v>0</v>
+      </c>
+      <c r="P39" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="24"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="88"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="89"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="259">
+        <f>SUM(M5:M39)</f>
+        <v>1793435</v>
+      </c>
+      <c r="N40" s="261">
+        <f>SUM(N5:N39)</f>
+        <v>63995</v>
+      </c>
+      <c r="P40" s="34">
+        <f>SUM(P5:P39)</f>
+        <v>1981456.71</v>
+      </c>
+      <c r="Q40" s="13">
+        <f t="shared" si="1"/>
+        <v>1981456.71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="24"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="236" t="s">
+        <v>191</v>
+      </c>
+      <c r="L41" s="75">
+        <v>25678</v>
+      </c>
+      <c r="M41" s="260"/>
+      <c r="N41" s="262"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="9"/>
+    </row>
+    <row r="42" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="24"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="94"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="76"/>
+      <c r="L42" s="80"/>
+      <c r="M42" s="96"/>
+      <c r="N42" s="97"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="9"/>
+    </row>
+    <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="24"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="90"/>
+      <c r="D43" s="91"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="94"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="76"/>
+      <c r="L43" s="80"/>
+      <c r="M43" s="96"/>
+      <c r="N43" s="97"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="9"/>
+    </row>
+    <row r="44" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="24"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="91"/>
+      <c r="E44" s="92"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="94"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="73"/>
+      <c r="K44" s="76"/>
+      <c r="L44" s="80"/>
+      <c r="M44" s="96"/>
+      <c r="N44" s="97"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="9"/>
+    </row>
+    <row r="45" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="24"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="90"/>
+      <c r="D45" s="91"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="94"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="76"/>
+      <c r="L45" s="80"/>
+      <c r="M45" s="96"/>
+      <c r="N45" s="97"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="9"/>
+    </row>
+    <row r="46" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="24"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="90"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="92"/>
+      <c r="F46" s="93"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="94"/>
+      <c r="I46" s="95"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="76"/>
+      <c r="L46" s="80"/>
+      <c r="M46" s="96"/>
+      <c r="N46" s="97"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="9"/>
+    </row>
+    <row r="47" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="24"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="90"/>
+      <c r="D47" s="91"/>
+      <c r="E47" s="92"/>
+      <c r="F47" s="93"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="94"/>
+      <c r="I47" s="95"/>
+      <c r="J47" s="73"/>
+      <c r="K47" s="76"/>
+      <c r="L47" s="80"/>
+      <c r="M47" s="96"/>
+      <c r="N47" s="97"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="9"/>
+    </row>
+    <row r="48" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="24"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="91"/>
+      <c r="E48" s="92"/>
+      <c r="F48" s="93"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="94"/>
+      <c r="I48" s="95"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="76"/>
+      <c r="L48" s="80"/>
+      <c r="M48" s="96"/>
+      <c r="N48" s="97"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="9"/>
+    </row>
+    <row r="49" spans="1:17" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="24"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="91"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="93"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="94"/>
+      <c r="I49" s="95"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="76"/>
+      <c r="L49" s="80"/>
+      <c r="M49" s="96"/>
+      <c r="N49" s="97"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="9"/>
+    </row>
+    <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="24"/>
+      <c r="B50" s="98"/>
+      <c r="C50" s="26">
+        <v>0</v>
+      </c>
+      <c r="D50" s="99"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="90"/>
+      <c r="H50" s="101"/>
+      <c r="I50" s="95"/>
+      <c r="J50" s="102"/>
+      <c r="K50" s="103"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="104"/>
+      <c r="N50" s="33"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="9"/>
+    </row>
+    <row r="51" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="106">
+        <f>SUM(C5:C50)</f>
+        <v>66741</v>
+      </c>
+      <c r="D51" s="107"/>
+      <c r="E51" s="108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="109">
+        <f>SUM(F5:F50)</f>
+        <v>1981436</v>
+      </c>
+      <c r="G51" s="107"/>
+      <c r="H51" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" s="111">
+        <f>SUM(I5:I50)</f>
+        <v>3700</v>
+      </c>
+      <c r="J51" s="112"/>
+      <c r="K51" s="113" t="s">
+        <v>11</v>
+      </c>
+      <c r="L51" s="114">
+        <f>SUM(L5:L50)</f>
+        <v>79263.709999999992</v>
+      </c>
+      <c r="M51" s="115"/>
+      <c r="N51" s="115"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="9"/>
+    </row>
+    <row r="52" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="9"/>
+    </row>
+    <row r="53" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="117"/>
+      <c r="B53" s="118"/>
+      <c r="C53" s="1"/>
+      <c r="H53" s="263" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="264"/>
+      <c r="J53" s="119"/>
+      <c r="K53" s="265">
+        <f>I51+L51</f>
+        <v>82963.709999999992</v>
+      </c>
+      <c r="L53" s="266"/>
+      <c r="M53" s="267">
+        <f>N40+M40</f>
+        <v>1857430</v>
+      </c>
+      <c r="N53" s="268"/>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="9"/>
+    </row>
+    <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D54" s="269" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="269"/>
+      <c r="F54" s="120">
+        <f>F51-K53-C51</f>
+        <v>1831731.29</v>
+      </c>
+      <c r="I54" s="121"/>
+      <c r="J54" s="122"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="9"/>
+    </row>
+    <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D55" s="270" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="270"/>
+      <c r="F55" s="115">
+        <v>0</v>
+      </c>
+      <c r="I55" s="271" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" s="272"/>
+      <c r="K55" s="273">
+        <f>F57+F58+F59</f>
+        <v>1831731.29</v>
+      </c>
+      <c r="L55" s="274"/>
+      <c r="P55" s="34"/>
+      <c r="Q55" s="9"/>
+    </row>
+    <row r="56" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D56" s="123"/>
+      <c r="E56" s="117"/>
+      <c r="F56" s="124">
+        <v>0</v>
+      </c>
+      <c r="I56" s="125"/>
+      <c r="J56" s="126"/>
+      <c r="K56" s="127"/>
+      <c r="L56" s="128"/>
+    </row>
+    <row r="57" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="117" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="115">
+        <f>SUM(F54:F56)</f>
+        <v>1831731.29</v>
+      </c>
+      <c r="H57" s="24"/>
+      <c r="I57" s="129" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="130"/>
+      <c r="K57" s="275">
+        <f>-C4</f>
+        <v>-184342.19</v>
+      </c>
+      <c r="L57" s="276"/>
+    </row>
+    <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D58" s="131" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" s="132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C59" s="133"/>
+      <c r="D59" s="252" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="253"/>
+      <c r="F59" s="134">
+        <v>0</v>
+      </c>
+      <c r="I59" s="254" t="s">
+        <v>123</v>
+      </c>
+      <c r="J59" s="255"/>
+      <c r="K59" s="256">
+        <f>K55+K57</f>
+        <v>1647389.1</v>
+      </c>
+      <c r="L59" s="256"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -10257,3378 +13661,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF66CC"/>
-  </sheetPr>
-  <dimension ref="A1:G113"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.42578125" style="201" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="117" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="201" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="117"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="209" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="153" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="210" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="155" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="156" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="199" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="156" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="157" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="193" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="194" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="195">
-        <v>121165.94</v>
-      </c>
-      <c r="D3" s="207">
-        <v>44596</v>
-      </c>
-      <c r="E3" s="208">
-        <v>121165.94</v>
-      </c>
-      <c r="F3" s="158">
-        <f>C3-E3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="211">
-        <v>44593</v>
-      </c>
-      <c r="B4" s="194" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="195">
-        <v>5368.44</v>
-      </c>
-      <c r="D4" s="206">
-        <v>44596</v>
-      </c>
-      <c r="E4" s="191">
-        <v>5368.44</v>
-      </c>
-      <c r="F4" s="158">
-        <f>C4-E4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="211">
-        <v>44594</v>
-      </c>
-      <c r="B5" s="194" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="195">
-        <v>67800.3</v>
-      </c>
-      <c r="D5" s="206">
-        <v>44596</v>
-      </c>
-      <c r="E5" s="191">
-        <v>67800.3</v>
-      </c>
-      <c r="F5" s="196">
-        <f>C5-E5+F4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="211">
-        <v>44596</v>
-      </c>
-      <c r="B6" s="194" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" s="195">
-        <v>82150.22</v>
-      </c>
-      <c r="D6" s="206">
-        <v>44596</v>
-      </c>
-      <c r="E6" s="191">
-        <v>82150.22</v>
-      </c>
-      <c r="F6" s="161">
-        <f>C6-E6+F5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="211">
-        <v>44597</v>
-      </c>
-      <c r="B7" s="194" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="195">
-        <v>1276.5</v>
-      </c>
-      <c r="D7" s="200"/>
-      <c r="E7" s="195"/>
-      <c r="F7" s="161">
-        <f>F6+C7-E7</f>
-        <v>1276.5</v>
-      </c>
-      <c r="G7" s="162"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="211">
-        <v>44597</v>
-      </c>
-      <c r="B8" s="194" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="195">
-        <v>34446.5</v>
-      </c>
-      <c r="D8" s="200"/>
-      <c r="E8" s="195"/>
-      <c r="F8" s="161">
-        <f t="shared" ref="F8" si="0">F7+C8-E8</f>
-        <v>35723</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="211">
-        <v>44597</v>
-      </c>
-      <c r="B9" s="194" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="195">
-        <v>105739.83</v>
-      </c>
-      <c r="D9" s="200"/>
-      <c r="E9" s="195"/>
-      <c r="F9" s="161">
-        <f>F8+C9-E9</f>
-        <v>141462.83000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="211">
-        <v>44599</v>
-      </c>
-      <c r="B10" s="194" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="195">
-        <v>19806.88</v>
-      </c>
-      <c r="D10" s="200"/>
-      <c r="E10" s="195"/>
-      <c r="F10" s="161">
-        <f>F9+C10-E10</f>
-        <v>161269.71000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="211">
-        <v>44599</v>
-      </c>
-      <c r="B11" s="194" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" s="195">
-        <v>2830.84</v>
-      </c>
-      <c r="D11" s="200"/>
-      <c r="E11" s="195"/>
-      <c r="F11" s="161">
-        <f>F10+C11-E11</f>
-        <v>164100.55000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="211">
-        <v>44600</v>
-      </c>
-      <c r="B12" s="194" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="195">
-        <v>81188.800000000003</v>
-      </c>
-      <c r="D12" s="200"/>
-      <c r="E12" s="195"/>
-      <c r="F12" s="161">
-        <f t="shared" ref="F12:F51" si="1">F11+C12-E12</f>
-        <v>245289.35000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="211">
-        <v>44601</v>
-      </c>
-      <c r="B13" s="194" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="195">
-        <v>38204.76</v>
-      </c>
-      <c r="D13" s="200"/>
-      <c r="E13" s="195"/>
-      <c r="F13" s="161">
-        <f t="shared" si="1"/>
-        <v>283494.11000000004</v>
-      </c>
-      <c r="G13" s="162"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="211">
-        <v>44601</v>
-      </c>
-      <c r="B14" s="194" t="s">
-        <v>148</v>
-      </c>
-      <c r="C14" s="195">
-        <v>59088.9</v>
-      </c>
-      <c r="D14" s="200"/>
-      <c r="E14" s="195"/>
-      <c r="F14" s="161">
-        <f t="shared" si="1"/>
-        <v>342583.01000000007</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="211">
-        <v>44603</v>
-      </c>
-      <c r="B15" s="194" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" s="195">
-        <v>55757.3</v>
-      </c>
-      <c r="D15" s="200"/>
-      <c r="E15" s="195"/>
-      <c r="F15" s="161">
-        <f t="shared" si="1"/>
-        <v>398340.31000000006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="211">
-        <v>44603</v>
-      </c>
-      <c r="B16" s="194" t="s">
-        <v>150</v>
-      </c>
-      <c r="C16" s="195">
-        <v>50617.440000000002</v>
-      </c>
-      <c r="D16" s="213">
-        <v>44603</v>
-      </c>
-      <c r="E16" s="214">
-        <v>448957.75</v>
-      </c>
-      <c r="F16" s="161">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="211">
-        <v>44604</v>
-      </c>
-      <c r="B17" s="194" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="195">
-        <v>57701.599999999999</v>
-      </c>
-      <c r="D17" s="200"/>
-      <c r="E17" s="195"/>
-      <c r="F17" s="161">
-        <f t="shared" si="1"/>
-        <v>57701.599999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="211">
-        <v>44606</v>
-      </c>
-      <c r="B18" s="194" t="s">
-        <v>152</v>
-      </c>
-      <c r="C18" s="195">
-        <v>100500.86</v>
-      </c>
-      <c r="D18" s="200"/>
-      <c r="E18" s="195"/>
-      <c r="F18" s="161">
-        <f t="shared" si="1"/>
-        <v>158202.46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="211">
-        <v>44607</v>
-      </c>
-      <c r="B19" s="194" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="195">
-        <v>12524</v>
-      </c>
-      <c r="D19" s="200"/>
-      <c r="E19" s="195"/>
-      <c r="F19" s="161">
-        <f t="shared" si="1"/>
-        <v>170726.46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="211">
-        <v>44608</v>
-      </c>
-      <c r="B20" s="194" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" s="195">
-        <v>122099.28</v>
-      </c>
-      <c r="D20" s="200"/>
-      <c r="E20" s="195"/>
-      <c r="F20" s="161">
-        <f t="shared" si="1"/>
-        <v>292825.74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="211">
-        <v>44608</v>
-      </c>
-      <c r="B21" s="194" t="s">
-        <v>155</v>
-      </c>
-      <c r="C21" s="195">
-        <v>4846.3999999999996</v>
-      </c>
-      <c r="D21" s="200"/>
-      <c r="E21" s="195"/>
-      <c r="F21" s="161">
-        <f t="shared" si="1"/>
-        <v>297672.14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="211">
-        <v>44609</v>
-      </c>
-      <c r="B22" s="194" t="s">
-        <v>156</v>
-      </c>
-      <c r="C22" s="195">
-        <v>3707.2</v>
-      </c>
-      <c r="D22" s="200"/>
-      <c r="E22" s="195"/>
-      <c r="F22" s="161">
-        <f t="shared" si="1"/>
-        <v>301379.34000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="211">
-        <v>44610</v>
-      </c>
-      <c r="B23" s="194" t="s">
-        <v>157</v>
-      </c>
-      <c r="C23" s="195">
-        <v>130649.11</v>
-      </c>
-      <c r="D23" s="218">
-        <v>44610</v>
-      </c>
-      <c r="E23" s="217">
-        <v>432028.45</v>
-      </c>
-      <c r="F23" s="161">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="211">
-        <v>44610</v>
-      </c>
-      <c r="B24" s="194" t="s">
-        <v>158</v>
-      </c>
-      <c r="C24" s="195">
-        <v>1371.2</v>
-      </c>
-      <c r="D24" s="200"/>
-      <c r="E24" s="195"/>
-      <c r="F24" s="161">
-        <f t="shared" si="1"/>
-        <v>1371.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="211">
-        <v>44610</v>
-      </c>
-      <c r="B25" s="194" t="s">
-        <v>159</v>
-      </c>
-      <c r="C25" s="195">
-        <v>4899.55</v>
-      </c>
-      <c r="D25" s="200"/>
-      <c r="E25" s="195"/>
-      <c r="F25" s="161">
-        <f t="shared" si="1"/>
-        <v>6270.75</v>
-      </c>
-      <c r="G25" s="162"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="211">
-        <v>44611</v>
-      </c>
-      <c r="B26" s="194" t="s">
-        <v>160</v>
-      </c>
-      <c r="C26" s="195">
-        <v>56596.6</v>
-      </c>
-      <c r="D26" s="200"/>
-      <c r="E26" s="195"/>
-      <c r="F26" s="161">
-        <f t="shared" si="1"/>
-        <v>62867.35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="211">
-        <v>44611</v>
-      </c>
-      <c r="B27" s="194" t="s">
-        <v>161</v>
-      </c>
-      <c r="C27" s="195">
-        <v>2100</v>
-      </c>
-      <c r="D27" s="200"/>
-      <c r="E27" s="195"/>
-      <c r="F27" s="161">
-        <f t="shared" si="1"/>
-        <v>64967.35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="211">
-        <v>44613</v>
-      </c>
-      <c r="B28" s="194" t="s">
-        <v>162</v>
-      </c>
-      <c r="C28" s="195">
-        <v>56699.519999999997</v>
-      </c>
-      <c r="D28" s="200"/>
-      <c r="E28" s="195"/>
-      <c r="F28" s="161">
-        <f t="shared" si="1"/>
-        <v>121666.87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="211">
-        <v>44613</v>
-      </c>
-      <c r="B29" s="194" t="s">
-        <v>163</v>
-      </c>
-      <c r="C29" s="195">
-        <v>6470</v>
-      </c>
-      <c r="D29" s="200"/>
-      <c r="E29" s="195"/>
-      <c r="F29" s="161">
-        <f t="shared" si="1"/>
-        <v>128136.87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="211">
-        <v>44613</v>
-      </c>
-      <c r="B30" s="194" t="s">
-        <v>164</v>
-      </c>
-      <c r="C30" s="195">
-        <v>5335</v>
-      </c>
-      <c r="D30" s="200"/>
-      <c r="E30" s="195"/>
-      <c r="F30" s="161">
-        <f t="shared" si="1"/>
-        <v>133471.87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="211">
-        <v>44615</v>
-      </c>
-      <c r="B31" s="194" t="s">
-        <v>165</v>
-      </c>
-      <c r="C31" s="195">
-        <v>105683.1</v>
-      </c>
-      <c r="D31" s="200"/>
-      <c r="E31" s="195"/>
-      <c r="F31" s="161">
-        <f t="shared" si="1"/>
-        <v>239154.97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="211">
-        <v>44616</v>
-      </c>
-      <c r="B32" s="194" t="s">
-        <v>166</v>
-      </c>
-      <c r="C32" s="195">
-        <v>40039.56</v>
-      </c>
-      <c r="D32" s="200"/>
-      <c r="E32" s="195"/>
-      <c r="F32" s="161">
-        <f t="shared" si="1"/>
-        <v>279194.53000000003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="211">
-        <v>44616</v>
-      </c>
-      <c r="B33" s="194" t="s">
-        <v>167</v>
-      </c>
-      <c r="C33" s="195">
-        <v>1553.4</v>
-      </c>
-      <c r="D33" s="200"/>
-      <c r="E33" s="195"/>
-      <c r="F33" s="161">
-        <f t="shared" si="1"/>
-        <v>280747.93000000005</v>
-      </c>
-      <c r="G33" s="162"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="211">
-        <v>44617</v>
-      </c>
-      <c r="B34" s="194" t="s">
-        <v>168</v>
-      </c>
-      <c r="C34" s="195">
-        <v>97272.02</v>
-      </c>
-      <c r="D34" s="219">
-        <v>44620</v>
-      </c>
-      <c r="E34" s="192">
-        <v>378019.95</v>
-      </c>
-      <c r="F34" s="161">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="211">
-        <v>44618</v>
-      </c>
-      <c r="B35" s="194" t="s">
-        <v>169</v>
-      </c>
-      <c r="C35" s="195">
-        <v>96471.72</v>
-      </c>
-      <c r="D35" s="200"/>
-      <c r="E35" s="195"/>
-      <c r="F35" s="161">
-        <f t="shared" si="1"/>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="211"/>
-      <c r="B36" s="194"/>
-      <c r="C36" s="195"/>
-      <c r="D36" s="200"/>
-      <c r="E36" s="195"/>
-      <c r="F36" s="161">
-        <f t="shared" si="1"/>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="211"/>
-      <c r="B37" s="194"/>
-      <c r="C37" s="195"/>
-      <c r="D37" s="200"/>
-      <c r="E37" s="195"/>
-      <c r="F37" s="161">
-        <f t="shared" si="1"/>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="211"/>
-      <c r="B38" s="194"/>
-      <c r="C38" s="195"/>
-      <c r="D38" s="200"/>
-      <c r="E38" s="195"/>
-      <c r="F38" s="161">
-        <f t="shared" si="1"/>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="163"/>
-      <c r="B39" s="160"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="159"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="161">
-        <f t="shared" si="1"/>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="163"/>
-      <c r="B40" s="160"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="159"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="161">
-        <f t="shared" si="1"/>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="163"/>
-      <c r="B41" s="160"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="159"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="161">
-        <f t="shared" si="1"/>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="164"/>
-      <c r="B42" s="165"/>
-      <c r="C42" s="166"/>
-      <c r="D42" s="159"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="161">
-        <f t="shared" si="1"/>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="164"/>
-      <c r="B43" s="165"/>
-      <c r="C43" s="166"/>
-      <c r="D43" s="159"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="161">
-        <f t="shared" si="1"/>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="164"/>
-      <c r="B44" s="165"/>
-      <c r="C44" s="166"/>
-      <c r="D44" s="159"/>
-      <c r="E44" s="86"/>
-      <c r="F44" s="161">
-        <f t="shared" si="1"/>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="164"/>
-      <c r="B45" s="165"/>
-      <c r="C45" s="166"/>
-      <c r="D45" s="159"/>
-      <c r="E45" s="86"/>
-      <c r="F45" s="161">
-        <f t="shared" si="1"/>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="164"/>
-      <c r="B46" s="165"/>
-      <c r="C46" s="166"/>
-      <c r="D46" s="159"/>
-      <c r="E46" s="86"/>
-      <c r="F46" s="161">
-        <f t="shared" si="1"/>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="164"/>
-      <c r="B47" s="165"/>
-      <c r="C47" s="166"/>
-      <c r="D47" s="159"/>
-      <c r="E47" s="86"/>
-      <c r="F47" s="161">
-        <f t="shared" si="1"/>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="164"/>
-      <c r="B48" s="165"/>
-      <c r="C48" s="166"/>
-      <c r="D48" s="159"/>
-      <c r="E48" s="86"/>
-      <c r="F48" s="161">
-        <f t="shared" si="1"/>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="164"/>
-      <c r="B49" s="165"/>
-      <c r="C49" s="166"/>
-      <c r="D49" s="159"/>
-      <c r="E49" s="86"/>
-      <c r="F49" s="161">
-        <f t="shared" si="1"/>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="164"/>
-      <c r="B50" s="165"/>
-      <c r="C50" s="166"/>
-      <c r="D50" s="159"/>
-      <c r="E50" s="86"/>
-      <c r="F50" s="161">
-        <f t="shared" si="1"/>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="164"/>
-      <c r="B51" s="165"/>
-      <c r="C51" s="166"/>
-      <c r="D51" s="159"/>
-      <c r="E51" s="86"/>
-      <c r="F51" s="161">
-        <f t="shared" si="1"/>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="164"/>
-      <c r="B52" s="165"/>
-      <c r="C52" s="166"/>
-      <c r="D52" s="159"/>
-      <c r="E52" s="86"/>
-      <c r="F52" s="161">
-        <f t="shared" ref="F52:F76" si="2">F51+C52-E52</f>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="164"/>
-      <c r="B53" s="165"/>
-      <c r="C53" s="166"/>
-      <c r="D53" s="159"/>
-      <c r="E53" s="86"/>
-      <c r="F53" s="161">
-        <f t="shared" si="2"/>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="164"/>
-      <c r="B54" s="165"/>
-      <c r="C54" s="166"/>
-      <c r="D54" s="159"/>
-      <c r="E54" s="86"/>
-      <c r="F54" s="161">
-        <f t="shared" si="2"/>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="164"/>
-      <c r="B55" s="165"/>
-      <c r="C55" s="166"/>
-      <c r="D55" s="159"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="161">
-        <f t="shared" si="2"/>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="164"/>
-      <c r="B56" s="165"/>
-      <c r="C56" s="166"/>
-      <c r="D56" s="159"/>
-      <c r="E56" s="86"/>
-      <c r="F56" s="161">
-        <f t="shared" si="2"/>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="164"/>
-      <c r="B57" s="165"/>
-      <c r="C57" s="166"/>
-      <c r="D57" s="159"/>
-      <c r="E57" s="86"/>
-      <c r="F57" s="161">
-        <f t="shared" si="2"/>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="164"/>
-      <c r="B58" s="165"/>
-      <c r="C58" s="166"/>
-      <c r="D58" s="159"/>
-      <c r="E58" s="86"/>
-      <c r="F58" s="161">
-        <f t="shared" si="2"/>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="164"/>
-      <c r="B59" s="165"/>
-      <c r="C59" s="166"/>
-      <c r="D59" s="159"/>
-      <c r="E59" s="86"/>
-      <c r="F59" s="161">
-        <f t="shared" si="2"/>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="167"/>
-      <c r="B60" s="168"/>
-      <c r="C60" s="169"/>
-      <c r="D60" s="170"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="161">
-        <f t="shared" si="2"/>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="167"/>
-      <c r="B61" s="168"/>
-      <c r="C61" s="169"/>
-      <c r="D61" s="170"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="161">
-        <f t="shared" si="2"/>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="167"/>
-      <c r="B62" s="168"/>
-      <c r="C62" s="169"/>
-      <c r="D62" s="170"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="161">
-        <f t="shared" si="2"/>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="167"/>
-      <c r="B63" s="168"/>
-      <c r="C63" s="169"/>
-      <c r="D63" s="170"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="161">
-        <f t="shared" si="2"/>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="167"/>
-      <c r="B64" s="168"/>
-      <c r="C64" s="169"/>
-      <c r="D64" s="170"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="161">
-        <f t="shared" si="2"/>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="167"/>
-      <c r="B65" s="168"/>
-      <c r="C65" s="169"/>
-      <c r="D65" s="170"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="161">
-        <f t="shared" si="2"/>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="164"/>
-      <c r="B66" s="165"/>
-      <c r="C66" s="166"/>
-      <c r="D66" s="171"/>
-      <c r="E66" s="86"/>
-      <c r="F66" s="161">
-        <f t="shared" si="2"/>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="164"/>
-      <c r="B67" s="165"/>
-      <c r="C67" s="166"/>
-      <c r="D67" s="171"/>
-      <c r="E67" s="86"/>
-      <c r="F67" s="161">
-        <f t="shared" si="2"/>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="164"/>
-      <c r="B68" s="165"/>
-      <c r="C68" s="166"/>
-      <c r="D68" s="171"/>
-      <c r="E68" s="86"/>
-      <c r="F68" s="161">
-        <f t="shared" si="2"/>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="164"/>
-      <c r="B69" s="165"/>
-      <c r="C69" s="166"/>
-      <c r="D69" s="171"/>
-      <c r="E69" s="86"/>
-      <c r="F69" s="161">
-        <f t="shared" si="2"/>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="164"/>
-      <c r="B70" s="165"/>
-      <c r="C70" s="166"/>
-      <c r="D70" s="171"/>
-      <c r="E70" s="86"/>
-      <c r="F70" s="161">
-        <f t="shared" si="2"/>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="164"/>
-      <c r="B71" s="165"/>
-      <c r="C71" s="166"/>
-      <c r="D71" s="171"/>
-      <c r="E71" s="86"/>
-      <c r="F71" s="161">
-        <f t="shared" si="2"/>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="164"/>
-      <c r="B72" s="165"/>
-      <c r="C72" s="166"/>
-      <c r="D72" s="171"/>
-      <c r="E72" s="86"/>
-      <c r="F72" s="161">
-        <f t="shared" si="2"/>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="164"/>
-      <c r="B73" s="165"/>
-      <c r="C73" s="166"/>
-      <c r="D73" s="171"/>
-      <c r="E73" s="86"/>
-      <c r="F73" s="161">
-        <f t="shared" si="2"/>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="164"/>
-      <c r="B74" s="165"/>
-      <c r="C74" s="166"/>
-      <c r="D74" s="171"/>
-      <c r="E74" s="86"/>
-      <c r="F74" s="161">
-        <f t="shared" si="2"/>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="164"/>
-      <c r="B75" s="165"/>
-      <c r="C75" s="166"/>
-      <c r="D75" s="171"/>
-      <c r="E75" s="86"/>
-      <c r="F75" s="161">
-        <f t="shared" si="2"/>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="172"/>
-      <c r="B76" s="173"/>
-      <c r="C76" s="34">
-        <v>0</v>
-      </c>
-      <c r="D76" s="174"/>
-      <c r="E76" s="34"/>
-      <c r="F76" s="161">
-        <f t="shared" si="2"/>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="212"/>
-      <c r="B77" s="176"/>
-      <c r="C77" s="177">
-        <f>SUM(C3:C76)</f>
-        <v>1631962.7700000003</v>
-      </c>
-      <c r="D77" s="189"/>
-      <c r="E77" s="178">
-        <f>SUM(E6:E76)</f>
-        <v>1341156.3699999999</v>
-      </c>
-      <c r="F77" s="179">
-        <f>F76</f>
-        <v>96471.72</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D78" s="170"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D79" s="170"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B80" s="190"/>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B81" s="190"/>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B82" s="190"/>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B83" s="190"/>
-      <c r="F83" s="117"/>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B84" s="190"/>
-      <c r="F84" s="117"/>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B85" s="190"/>
-      <c r="F85" s="117"/>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B86" s="190"/>
-      <c r="F86" s="117"/>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B87" s="190"/>
-      <c r="F87" s="117"/>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B88" s="190"/>
-      <c r="F88" s="117"/>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="190"/>
-      <c r="F89" s="117"/>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B90" s="190"/>
-      <c r="F90" s="117"/>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B91" s="190"/>
-      <c r="F91" s="117"/>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B92" s="190"/>
-      <c r="E92" s="117"/>
-      <c r="F92" s="117"/>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B93" s="190"/>
-      <c r="E93" s="117"/>
-      <c r="F93" s="117"/>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B94" s="190"/>
-      <c r="E94" s="117"/>
-      <c r="F94" s="117"/>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B95" s="190"/>
-      <c r="E95" s="117"/>
-      <c r="F95" s="117"/>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B96" s="190"/>
-      <c r="E96" s="117"/>
-      <c r="F96" s="117"/>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="190"/>
-      <c r="E97" s="117"/>
-      <c r="F97" s="117"/>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B98" s="190"/>
-      <c r="E98" s="117"/>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="190"/>
-      <c r="E99" s="117"/>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B100" s="190"/>
-      <c r="E100" s="117"/>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B101" s="190"/>
-      <c r="E101" s="117"/>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B102" s="190"/>
-      <c r="E102" s="117"/>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B103" s="190"/>
-      <c r="E103" s="117"/>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="190"/>
-      <c r="E104" s="117"/>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B105" s="190"/>
-      <c r="E105" s="117"/>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B106" s="190"/>
-      <c r="E106" s="117"/>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B107" s="190"/>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B108" s="190"/>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B109" s="190"/>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B110" s="190"/>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B111" s="190"/>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B112" s="190"/>
-    </row>
-    <row r="113" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C113" s="180"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:U81"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I19" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="116" customWidth="1"/>
-    <col min="3" max="3" width="16" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="2.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="12" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="266"/>
-      <c r="C1" s="268" t="s">
-        <v>137</v>
-      </c>
-      <c r="D1" s="269"/>
-      <c r="E1" s="269"/>
-      <c r="F1" s="269"/>
-      <c r="G1" s="269"/>
-      <c r="H1" s="269"/>
-      <c r="I1" s="269"/>
-      <c r="J1" s="269"/>
-      <c r="K1" s="269"/>
-      <c r="L1" s="269"/>
-      <c r="M1" s="269"/>
-    </row>
-    <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="267"/>
-      <c r="C2" s="3"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="9"/>
-    </row>
-    <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="270" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="271"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="H3" s="272" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="272"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="14"/>
-      <c r="R3" s="239" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17">
-        <v>184342.19</v>
-      </c>
-      <c r="D4" s="18">
-        <v>44619</v>
-      </c>
-      <c r="E4" s="273" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="274"/>
-      <c r="H4" s="275" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="276"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="N4" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="P4" s="246" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q4" s="247"/>
-      <c r="R4" s="240"/>
-    </row>
-    <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="25">
-        <v>44620</v>
-      </c>
-      <c r="C5" s="26">
-        <v>0</v>
-      </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28">
-        <v>44620</v>
-      </c>
-      <c r="F5" s="29">
-        <v>56916</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="30">
-        <v>44620</v>
-      </c>
-      <c r="I5" s="31">
-        <v>698</v>
-      </c>
-      <c r="J5" s="7">
-        <v>44620</v>
-      </c>
-      <c r="K5" s="182" t="s">
-        <v>193</v>
-      </c>
-      <c r="L5" s="9">
-        <v>11500</v>
-      </c>
-      <c r="M5" s="32">
-        <f>20000+23470</f>
-        <v>43470</v>
-      </c>
-      <c r="N5" s="33">
-        <v>1246</v>
-      </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="34">
-        <f>N5+M5+L5+I5+C5</f>
-        <v>56914</v>
-      </c>
-      <c r="Q5" s="61">
-        <f>P5-F5</f>
-        <v>-2</v>
-      </c>
-      <c r="R5" s="9"/>
-    </row>
-    <row r="6" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25">
-        <v>44621</v>
-      </c>
-      <c r="C6" s="26">
-        <v>5100</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="E6" s="28">
-        <v>44621</v>
-      </c>
-      <c r="F6" s="29">
-        <v>58709</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="30">
-        <v>44621</v>
-      </c>
-      <c r="I6" s="31">
-        <v>60</v>
-      </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="32">
-        <f>15000+38320</f>
-        <v>53320</v>
-      </c>
-      <c r="N6" s="33">
-        <v>234</v>
-      </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="34">
-        <f t="shared" ref="P6:P39" si="0">N6+M6+L6+I6+C6</f>
-        <v>58714</v>
-      </c>
-      <c r="Q6" s="13">
-        <f t="shared" ref="Q6:Q40" si="1">P6-F6</f>
-        <v>5</v>
-      </c>
-      <c r="R6" s="8"/>
-    </row>
-    <row r="7" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25">
-        <v>44622</v>
-      </c>
-      <c r="C7" s="26">
-        <v>0</v>
-      </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="28">
-        <v>44622</v>
-      </c>
-      <c r="F7" s="29">
-        <v>33319</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="30">
-        <v>44622</v>
-      </c>
-      <c r="I7" s="31">
-        <v>113</v>
-      </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="32">
-        <v>33206</v>
-      </c>
-      <c r="N7" s="33">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="34">
-        <f t="shared" si="0"/>
-        <v>33319</v>
-      </c>
-      <c r="Q7" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="9"/>
-    </row>
-    <row r="8" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25">
-        <v>44623</v>
-      </c>
-      <c r="C8" s="26">
-        <v>0</v>
-      </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="28">
-        <v>44623</v>
-      </c>
-      <c r="F8" s="29">
-        <v>74800</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="30">
-        <v>44623</v>
-      </c>
-      <c r="I8" s="31">
-        <v>15</v>
-      </c>
-      <c r="J8" s="44"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="32">
-        <f>24900+47651</f>
-        <v>72551</v>
-      </c>
-      <c r="N8" s="33">
-        <v>2234</v>
-      </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="34">
-        <f t="shared" si="0"/>
-        <v>74800</v>
-      </c>
-      <c r="Q8" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="9"/>
-    </row>
-    <row r="9" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25">
-        <v>44624</v>
-      </c>
-      <c r="C9" s="26">
-        <v>0</v>
-      </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="28">
-        <v>44624</v>
-      </c>
-      <c r="F9" s="29">
-        <v>74961</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="30">
-        <v>44624</v>
-      </c>
-      <c r="I9" s="31">
-        <v>107</v>
-      </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="32">
-        <f>40000+34810</f>
-        <v>74810</v>
-      </c>
-      <c r="N9" s="33">
-        <v>44</v>
-      </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="34">
-        <f>N9+M9+L9+I9+C9</f>
-        <v>74961</v>
-      </c>
-      <c r="Q9" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="8"/>
-    </row>
-    <row r="10" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25">
-        <v>44625</v>
-      </c>
-      <c r="C10" s="26">
-        <v>0</v>
-      </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="28">
-        <v>44625</v>
-      </c>
-      <c r="F10" s="29">
-        <v>84896</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="30">
-        <v>44625</v>
-      </c>
-      <c r="I10" s="31">
-        <v>39</v>
-      </c>
-      <c r="J10" s="38">
-        <v>44625</v>
-      </c>
-      <c r="K10" s="47" t="s">
-        <v>195</v>
-      </c>
-      <c r="L10" s="48">
-        <v>9800</v>
-      </c>
-      <c r="M10" s="32">
-        <f>45000+21140</f>
-        <v>66140</v>
-      </c>
-      <c r="N10" s="33">
-        <v>8922</v>
-      </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="34">
-        <f t="shared" si="0"/>
-        <v>84901</v>
-      </c>
-      <c r="Q10" s="13">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="R10" s="9"/>
-      <c r="U10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25">
-        <v>44626</v>
-      </c>
-      <c r="C11" s="26">
-        <v>7790</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="E11" s="28">
-        <v>44626</v>
-      </c>
-      <c r="F11" s="29">
-        <v>110400</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="30">
-        <v>44626</v>
-      </c>
-      <c r="I11" s="31">
-        <v>52</v>
-      </c>
-      <c r="J11" s="44"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="32">
-        <f>60000+30000+11311</f>
-        <v>101311</v>
-      </c>
-      <c r="N11" s="33">
-        <v>1247</v>
-      </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="34">
-        <f>N11+M11+L11+I11+C11</f>
-        <v>110400</v>
-      </c>
-      <c r="Q11" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25">
-        <v>44627</v>
-      </c>
-      <c r="C12" s="26">
-        <v>0</v>
-      </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="28">
-        <v>44627</v>
-      </c>
-      <c r="F12" s="29">
-        <v>52725</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="30">
-        <v>44627</v>
-      </c>
-      <c r="I12" s="31">
-        <v>45</v>
-      </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="32">
-        <f>26020+25560</f>
-        <v>51580</v>
-      </c>
-      <c r="N12" s="33">
-        <v>1100</v>
-      </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="34">
-        <f t="shared" si="0"/>
-        <v>52725</v>
-      </c>
-      <c r="Q12" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="8"/>
-    </row>
-    <row r="13" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25">
-        <v>44628</v>
-      </c>
-      <c r="C13" s="26">
-        <v>2840</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="E13" s="28">
-        <v>44628</v>
-      </c>
-      <c r="F13" s="29">
-        <v>53875</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="30">
-        <v>44628</v>
-      </c>
-      <c r="I13" s="31">
-        <v>67</v>
-      </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="32">
-        <f>25000+25970</f>
-        <v>50970</v>
-      </c>
-      <c r="N13" s="33">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2"/>
-      <c r="P13" s="34">
-        <f t="shared" si="0"/>
-        <v>53877</v>
-      </c>
-      <c r="Q13" s="13">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="R13" s="185"/>
-    </row>
-    <row r="14" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25">
-        <v>44629</v>
-      </c>
-      <c r="C14" s="26">
-        <v>0</v>
-      </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="28">
-        <v>44629</v>
-      </c>
-      <c r="F14" s="29">
-        <v>40883</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="30">
-        <v>44629</v>
-      </c>
-      <c r="I14" s="31">
-        <v>412</v>
-      </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="32">
-        <f>25430+15000</f>
-        <v>40430</v>
-      </c>
-      <c r="N14" s="33">
-        <v>40</v>
-      </c>
-      <c r="O14" s="2"/>
-      <c r="P14" s="34">
-        <f t="shared" si="0"/>
-        <v>40882</v>
-      </c>
-      <c r="Q14" s="61">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="R14" s="185"/>
-    </row>
-    <row r="15" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25">
-        <v>44630</v>
-      </c>
-      <c r="C15" s="26">
-        <v>0</v>
-      </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="28">
-        <v>44630</v>
-      </c>
-      <c r="F15" s="29">
-        <v>67399</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="30">
-        <v>44630</v>
-      </c>
-      <c r="I15" s="31">
-        <v>88</v>
-      </c>
-      <c r="J15" s="38"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="32">
-        <f>10000+400+30000+26420</f>
-        <v>66820</v>
-      </c>
-      <c r="N15" s="33">
-        <v>497</v>
-      </c>
-      <c r="P15" s="34">
-        <f t="shared" si="0"/>
-        <v>67405</v>
-      </c>
-      <c r="Q15" s="13">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="R15" s="8"/>
-    </row>
-    <row r="16" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25">
-        <v>44631</v>
-      </c>
-      <c r="C16" s="26">
-        <v>0</v>
-      </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="28">
-        <v>44631</v>
-      </c>
-      <c r="F16" s="29">
-        <v>90868</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="30">
-        <v>44631</v>
-      </c>
-      <c r="I16" s="31">
-        <v>30</v>
-      </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="32">
-        <f>45000+45700</f>
-        <v>90700</v>
-      </c>
-      <c r="N16" s="33">
-        <v>137</v>
-      </c>
-      <c r="P16" s="34">
-        <f t="shared" si="0"/>
-        <v>90867</v>
-      </c>
-      <c r="Q16" s="61">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="R16" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25">
-        <v>44632</v>
-      </c>
-      <c r="C17" s="26">
-        <v>2040</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="28">
-        <v>44632</v>
-      </c>
-      <c r="F17" s="29">
-        <v>87020</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="30">
-        <v>44632</v>
-      </c>
-      <c r="I17" s="31">
-        <v>28</v>
-      </c>
-      <c r="J17" s="38">
-        <v>44632</v>
-      </c>
-      <c r="K17" s="52" t="s">
-        <v>198</v>
-      </c>
-      <c r="L17" s="48">
-        <v>9800</v>
-      </c>
-      <c r="M17" s="32">
-        <f>40000+23370</f>
-        <v>63370</v>
-      </c>
-      <c r="N17" s="33">
-        <v>11780</v>
-      </c>
-      <c r="P17" s="34">
-        <f t="shared" si="0"/>
-        <v>87018</v>
-      </c>
-      <c r="Q17" s="61">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="R17" s="8"/>
-    </row>
-    <row r="18" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25">
-        <v>44633</v>
-      </c>
-      <c r="C18" s="26">
-        <v>24281</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="E18" s="28">
-        <v>44633</v>
-      </c>
-      <c r="F18" s="29">
-        <v>109237</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="30">
-        <v>44633</v>
-      </c>
-      <c r="I18" s="31">
-        <v>48</v>
-      </c>
-      <c r="J18" s="38"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="32">
-        <f>65000+11662+7772</f>
-        <v>84434</v>
-      </c>
-      <c r="N18" s="33">
-        <v>474</v>
-      </c>
-      <c r="P18" s="34">
-        <f t="shared" si="0"/>
-        <v>109237</v>
-      </c>
-      <c r="Q18" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="8"/>
-    </row>
-    <row r="19" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25">
-        <v>44634</v>
-      </c>
-      <c r="C19" s="26">
-        <v>0</v>
-      </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="28">
-        <v>44634</v>
-      </c>
-      <c r="F19" s="29">
-        <v>44651</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="30">
-        <v>44634</v>
-      </c>
-      <c r="I19" s="31">
-        <v>85</v>
-      </c>
-      <c r="J19" s="38"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="32">
-        <f>21166+23400</f>
-        <v>44566</v>
-      </c>
-      <c r="N19" s="33">
-        <v>0</v>
-      </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="34">
-        <f t="shared" si="0"/>
-        <v>44651</v>
-      </c>
-      <c r="Q19" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="8"/>
-    </row>
-    <row r="20" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25">
-        <v>44635</v>
-      </c>
-      <c r="C20" s="26">
-        <v>0</v>
-      </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="28">
-        <v>44635</v>
-      </c>
-      <c r="F20" s="29">
-        <v>65142</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="30">
-        <v>44635</v>
-      </c>
-      <c r="I20" s="31">
-        <v>10</v>
-      </c>
-      <c r="J20" s="38"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="32">
-        <f>40000+24630</f>
-        <v>64630</v>
-      </c>
-      <c r="N20" s="33">
-        <v>500</v>
-      </c>
-      <c r="P20" s="34">
-        <f t="shared" si="0"/>
-        <v>65140</v>
-      </c>
-      <c r="Q20" s="61">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="R20" s="8"/>
-    </row>
-    <row r="21" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25">
-        <v>44636</v>
-      </c>
-      <c r="C21" s="26">
-        <v>2862</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="28">
-        <v>44636</v>
-      </c>
-      <c r="F21" s="29">
-        <v>37330</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="30">
-        <v>44636</v>
-      </c>
-      <c r="I21" s="31">
-        <v>66</v>
-      </c>
-      <c r="J21" s="38"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="32">
-        <f>15000+19350</f>
-        <v>34350</v>
-      </c>
-      <c r="N21" s="33">
-        <v>50</v>
-      </c>
-      <c r="P21" s="34">
-        <f t="shared" si="0"/>
-        <v>37328</v>
-      </c>
-      <c r="Q21" s="61">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="R21" s="8"/>
-    </row>
-    <row r="22" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25">
-        <v>44637</v>
-      </c>
-      <c r="C22" s="26">
-        <v>0</v>
-      </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="28">
-        <v>44637</v>
-      </c>
-      <c r="F22" s="29">
-        <v>61658</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="30">
-        <v>44637</v>
-      </c>
-      <c r="I22" s="31">
-        <v>172</v>
-      </c>
-      <c r="J22" s="38"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="32">
-        <f>30000+29190</f>
-        <v>59190</v>
-      </c>
-      <c r="N22" s="33">
-        <v>2300</v>
-      </c>
-      <c r="P22" s="34">
-        <f t="shared" si="0"/>
-        <v>61662</v>
-      </c>
-      <c r="Q22" s="13">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="R22" s="8"/>
-    </row>
-    <row r="23" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="24"/>
-      <c r="B23" s="25">
-        <v>44638</v>
-      </c>
-      <c r="C23" s="26">
-        <v>2160</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="28">
-        <v>44638</v>
-      </c>
-      <c r="F23" s="29">
-        <v>88642</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="30">
-        <v>44638</v>
-      </c>
-      <c r="I23" s="31">
-        <v>551</v>
-      </c>
-      <c r="J23" s="59"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="32">
-        <f>50920+35000</f>
-        <v>85920</v>
-      </c>
-      <c r="N23" s="33">
-        <v>0</v>
-      </c>
-      <c r="P23" s="34">
-        <f t="shared" si="0"/>
-        <v>88631</v>
-      </c>
-      <c r="Q23" s="61">
-        <f t="shared" si="1"/>
-        <v>-11</v>
-      </c>
-      <c r="R23" s="8"/>
-    </row>
-    <row r="24" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25">
-        <v>44639</v>
-      </c>
-      <c r="C24" s="26">
-        <v>0</v>
-      </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="28">
-        <v>44639</v>
-      </c>
-      <c r="F24" s="29">
-        <v>100597</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="30">
-        <v>44639</v>
-      </c>
-      <c r="I24" s="31">
-        <v>43</v>
-      </c>
-      <c r="J24" s="181">
-        <v>44639</v>
-      </c>
-      <c r="K24" s="62" t="s">
-        <v>223</v>
-      </c>
-      <c r="L24" s="63">
-        <v>12300</v>
-      </c>
-      <c r="M24" s="32">
-        <f>26940+45000</f>
-        <v>71940</v>
-      </c>
-      <c r="N24" s="33">
-        <v>16319</v>
-      </c>
-      <c r="P24" s="34">
-        <f t="shared" si="0"/>
-        <v>100602</v>
-      </c>
-      <c r="Q24" s="13">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="R24" s="8"/>
-    </row>
-    <row r="25" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25">
-        <v>44640</v>
-      </c>
-      <c r="C25" s="26">
-        <v>15145</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="E25" s="28">
-        <v>44640</v>
-      </c>
-      <c r="F25" s="29">
-        <v>85876</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="30">
-        <v>44640</v>
-      </c>
-      <c r="I25" s="31">
-        <v>23</v>
-      </c>
-      <c r="J25" s="64"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="32">
-        <f>50000+13533</f>
-        <v>63533</v>
-      </c>
-      <c r="N25" s="33">
-        <v>7175</v>
-      </c>
-      <c r="O25" t="s">
-        <v>8</v>
-      </c>
-      <c r="P25" s="34">
-        <f t="shared" si="0"/>
-        <v>85876</v>
-      </c>
-      <c r="Q25" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="8"/>
-      <c r="S25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="24"/>
-      <c r="B26" s="25">
-        <v>44641</v>
-      </c>
-      <c r="C26" s="26">
-        <v>0</v>
-      </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="28">
-        <v>44641</v>
-      </c>
-      <c r="F26" s="29">
-        <v>75915</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="30">
-        <v>44641</v>
-      </c>
-      <c r="I26" s="31">
-        <v>59</v>
-      </c>
-      <c r="J26" s="38"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="32">
-        <f>50600+25043</f>
-        <v>75643</v>
-      </c>
-      <c r="N26" s="33">
-        <v>213</v>
-      </c>
-      <c r="P26" s="34">
-        <f t="shared" si="0"/>
-        <v>75915</v>
-      </c>
-      <c r="Q26" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="9"/>
-    </row>
-    <row r="27" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="24"/>
-      <c r="B27" s="25">
-        <v>44642</v>
-      </c>
-      <c r="C27" s="26">
-        <v>4490</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>225</v>
-      </c>
-      <c r="E27" s="28">
-        <v>44642</v>
-      </c>
-      <c r="F27" s="29">
-        <v>51455</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="30">
-        <v>44642</v>
-      </c>
-      <c r="I27" s="31">
-        <v>0</v>
-      </c>
-      <c r="J27" s="67"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="32">
-        <f>20000+26270</f>
-        <v>46270</v>
-      </c>
-      <c r="N27" s="33">
-        <v>696</v>
-      </c>
-      <c r="P27" s="34">
-        <f t="shared" si="0"/>
-        <v>51456</v>
-      </c>
-      <c r="Q27" s="13">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R27" s="8"/>
-    </row>
-    <row r="28" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="24"/>
-      <c r="B28" s="25">
-        <v>44643</v>
-      </c>
-      <c r="C28" s="26">
-        <v>0</v>
-      </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="28">
-        <v>44643</v>
-      </c>
-      <c r="F28" s="29">
-        <v>45642</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="30">
-        <v>44643</v>
-      </c>
-      <c r="I28" s="31">
-        <v>81</v>
-      </c>
-      <c r="J28" s="69"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="32">
-        <f>25570+20000</f>
-        <v>45570</v>
-      </c>
-      <c r="N28" s="33">
-        <v>0</v>
-      </c>
-      <c r="P28" s="34">
-        <f t="shared" si="0"/>
-        <v>45651</v>
-      </c>
-      <c r="Q28" s="13">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="R28" s="8"/>
-    </row>
-    <row r="29" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="24"/>
-      <c r="B29" s="25">
-        <v>44644</v>
-      </c>
-      <c r="C29" s="26">
-        <v>0</v>
-      </c>
-      <c r="D29" s="71"/>
-      <c r="E29" s="28">
-        <v>44644</v>
-      </c>
-      <c r="F29" s="29">
-        <v>64298</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="30">
-        <v>44644</v>
-      </c>
-      <c r="I29" s="31">
-        <v>157</v>
-      </c>
-      <c r="J29" s="67"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="32">
-        <f>44140+20000</f>
-        <v>64140</v>
-      </c>
-      <c r="N29" s="33">
-        <v>0</v>
-      </c>
-      <c r="P29" s="34">
-        <f t="shared" si="0"/>
-        <v>64297</v>
-      </c>
-      <c r="Q29" s="13">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="R29" s="8"/>
-    </row>
-    <row r="30" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="24"/>
-      <c r="B30" s="25">
-        <v>44645</v>
-      </c>
-      <c r="C30" s="26">
-        <v>0</v>
-      </c>
-      <c r="D30" s="71"/>
-      <c r="E30" s="28">
-        <v>44645</v>
-      </c>
-      <c r="F30" s="29">
-        <v>81544</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="30">
-        <v>44645</v>
-      </c>
-      <c r="I30" s="31">
-        <v>39</v>
-      </c>
-      <c r="J30" s="73"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="75"/>
-      <c r="M30" s="32">
-        <f>71505+10000</f>
-        <v>81505</v>
-      </c>
-      <c r="N30" s="33">
-        <v>0</v>
-      </c>
-      <c r="P30" s="34">
-        <f t="shared" si="0"/>
-        <v>81544</v>
-      </c>
-      <c r="Q30" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="8"/>
-    </row>
-    <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="24"/>
-      <c r="B31" s="25">
-        <v>44646</v>
-      </c>
-      <c r="C31" s="26">
-        <v>33</v>
-      </c>
-      <c r="D31" s="83" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="28">
-        <v>44646</v>
-      </c>
-      <c r="F31" s="29">
-        <v>92844</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="30">
-        <v>44646</v>
-      </c>
-      <c r="I31" s="31">
-        <v>554</v>
-      </c>
-      <c r="J31" s="73">
-        <v>44646</v>
-      </c>
-      <c r="K31" s="76" t="s">
-        <v>226</v>
-      </c>
-      <c r="L31" s="77">
-        <v>10185.709999999999</v>
-      </c>
-      <c r="M31" s="32">
-        <f>25000+48620</f>
-        <v>73620</v>
-      </c>
-      <c r="N31" s="33">
-        <v>8457</v>
-      </c>
-      <c r="P31" s="34">
-        <f t="shared" si="0"/>
-        <v>92849.709999999992</v>
-      </c>
-      <c r="Q31" s="13">
-        <f t="shared" si="1"/>
-        <v>5.7099999999918509</v>
-      </c>
-      <c r="R31" s="8"/>
-    </row>
-    <row r="32" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="24"/>
-      <c r="B32" s="25">
-        <v>44647</v>
-      </c>
-      <c r="C32" s="26">
-        <v>0</v>
-      </c>
-      <c r="D32" s="78"/>
-      <c r="E32" s="28">
-        <v>44647</v>
-      </c>
-      <c r="F32" s="29">
-        <v>89834</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="30">
-        <v>44647</v>
-      </c>
-      <c r="I32" s="31">
-        <v>58</v>
-      </c>
-      <c r="J32" s="73"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="32">
-        <f>80000+9446</f>
-        <v>89446</v>
-      </c>
-      <c r="N32" s="33">
-        <v>330</v>
-      </c>
-      <c r="P32" s="34">
-        <f t="shared" si="0"/>
-        <v>89834</v>
-      </c>
-      <c r="Q32" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R32" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="24"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="32">
-        <v>0</v>
-      </c>
-      <c r="N33" s="33">
-        <v>0</v>
-      </c>
-      <c r="P33" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R33" s="8"/>
-    </row>
-    <row r="34" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="24"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="82"/>
-      <c r="M34" s="32">
-        <v>0</v>
-      </c>
-      <c r="N34" s="33">
-        <v>0</v>
-      </c>
-      <c r="P34" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R34" s="8"/>
-    </row>
-    <row r="35" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="24"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="80"/>
-      <c r="M35" s="220">
-        <v>0</v>
-      </c>
-      <c r="N35" s="33">
-        <v>0</v>
-      </c>
-      <c r="P35" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R35" s="8"/>
-    </row>
-    <row r="36" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="24"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="73"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="80"/>
-      <c r="M36" s="220">
-        <v>0</v>
-      </c>
-      <c r="N36" s="33">
-        <v>0</v>
-      </c>
-      <c r="P36" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R36" s="8"/>
-    </row>
-    <row r="37" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="24"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="221"/>
-      <c r="L37" s="80"/>
-      <c r="M37" s="220">
-        <v>0</v>
-      </c>
-      <c r="N37" s="33">
-        <v>0</v>
-      </c>
-      <c r="P37" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="24"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="73"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="80"/>
-      <c r="M38" s="32">
-        <v>0</v>
-      </c>
-      <c r="N38" s="33">
-        <v>0</v>
-      </c>
-      <c r="P38" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="24"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="73"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="32">
-        <v>0</v>
-      </c>
-      <c r="N39" s="33">
-        <v>0</v>
-      </c>
-      <c r="P39" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="24"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="73"/>
-      <c r="K40" s="89"/>
-      <c r="L40" s="75"/>
-      <c r="M40" s="248">
-        <f>SUM(M5:M39)</f>
-        <v>1793435</v>
-      </c>
-      <c r="N40" s="250">
-        <f>SUM(N5:N39)</f>
-        <v>63995</v>
-      </c>
-      <c r="P40" s="34">
-        <f>SUM(P5:P39)</f>
-        <v>1981456.71</v>
-      </c>
-      <c r="Q40" s="13">
-        <f t="shared" si="1"/>
-        <v>1981456.71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="24"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="73"/>
-      <c r="K41" s="236" t="s">
-        <v>192</v>
-      </c>
-      <c r="L41" s="75">
-        <v>25678</v>
-      </c>
-      <c r="M41" s="249"/>
-      <c r="N41" s="251"/>
-      <c r="P41" s="34"/>
-      <c r="Q41" s="9"/>
-    </row>
-    <row r="42" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="24"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="90"/>
-      <c r="D42" s="91"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="94"/>
-      <c r="I42" s="95"/>
-      <c r="J42" s="73"/>
-      <c r="K42" s="76"/>
-      <c r="L42" s="80"/>
-      <c r="M42" s="96"/>
-      <c r="N42" s="97"/>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="9"/>
-    </row>
-    <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="24"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="90"/>
-      <c r="D43" s="91"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="94"/>
-      <c r="I43" s="95"/>
-      <c r="J43" s="73"/>
-      <c r="K43" s="76"/>
-      <c r="L43" s="80"/>
-      <c r="M43" s="96"/>
-      <c r="N43" s="97"/>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="9"/>
-    </row>
-    <row r="44" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="24"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="90"/>
-      <c r="D44" s="91"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="93"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="94"/>
-      <c r="I44" s="95"/>
-      <c r="J44" s="73"/>
-      <c r="K44" s="76"/>
-      <c r="L44" s="80"/>
-      <c r="M44" s="96"/>
-      <c r="N44" s="97"/>
-      <c r="P44" s="34"/>
-      <c r="Q44" s="9"/>
-    </row>
-    <row r="45" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="24"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="90"/>
-      <c r="D45" s="91"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="93"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="94"/>
-      <c r="I45" s="95"/>
-      <c r="J45" s="73"/>
-      <c r="K45" s="76"/>
-      <c r="L45" s="80"/>
-      <c r="M45" s="96"/>
-      <c r="N45" s="97"/>
-      <c r="P45" s="34"/>
-      <c r="Q45" s="9"/>
-    </row>
-    <row r="46" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="24"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="90"/>
-      <c r="D46" s="91"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="93"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="94"/>
-      <c r="I46" s="95"/>
-      <c r="J46" s="73"/>
-      <c r="K46" s="76"/>
-      <c r="L46" s="80"/>
-      <c r="M46" s="96"/>
-      <c r="N46" s="97"/>
-      <c r="P46" s="34"/>
-      <c r="Q46" s="9"/>
-    </row>
-    <row r="47" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="24"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="90"/>
-      <c r="D47" s="91"/>
-      <c r="E47" s="92"/>
-      <c r="F47" s="93"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="94"/>
-      <c r="I47" s="95"/>
-      <c r="J47" s="73"/>
-      <c r="K47" s="76"/>
-      <c r="L47" s="80"/>
-      <c r="M47" s="96"/>
-      <c r="N47" s="97"/>
-      <c r="P47" s="34"/>
-      <c r="Q47" s="9"/>
-    </row>
-    <row r="48" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="24"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="90"/>
-      <c r="D48" s="91"/>
-      <c r="E48" s="92"/>
-      <c r="F48" s="93"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="94"/>
-      <c r="I48" s="95"/>
-      <c r="J48" s="73"/>
-      <c r="K48" s="76"/>
-      <c r="L48" s="80"/>
-      <c r="M48" s="96"/>
-      <c r="N48" s="97"/>
-      <c r="P48" s="34"/>
-      <c r="Q48" s="9"/>
-    </row>
-    <row r="49" spans="1:17" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="24"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="90"/>
-      <c r="D49" s="91"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="93"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="94"/>
-      <c r="I49" s="95"/>
-      <c r="J49" s="73"/>
-      <c r="K49" s="76"/>
-      <c r="L49" s="80"/>
-      <c r="M49" s="96"/>
-      <c r="N49" s="97"/>
-      <c r="P49" s="34"/>
-      <c r="Q49" s="9"/>
-    </row>
-    <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="24"/>
-      <c r="B50" s="98"/>
-      <c r="C50" s="26">
-        <v>0</v>
-      </c>
-      <c r="D50" s="99"/>
-      <c r="E50" s="100"/>
-      <c r="F50" s="90"/>
-      <c r="H50" s="101"/>
-      <c r="I50" s="95"/>
-      <c r="J50" s="102"/>
-      <c r="K50" s="103"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="104"/>
-      <c r="N50" s="33"/>
-      <c r="P50" s="34"/>
-      <c r="Q50" s="9"/>
-    </row>
-    <row r="51" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="105" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="106">
-        <f>SUM(C5:C50)</f>
-        <v>66741</v>
-      </c>
-      <c r="D51" s="107"/>
-      <c r="E51" s="108" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="109">
-        <f>SUM(F5:F50)</f>
-        <v>1981436</v>
-      </c>
-      <c r="G51" s="107"/>
-      <c r="H51" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="I51" s="111">
-        <f>SUM(I5:I50)</f>
-        <v>3700</v>
-      </c>
-      <c r="J51" s="112"/>
-      <c r="K51" s="113" t="s">
-        <v>11</v>
-      </c>
-      <c r="L51" s="114">
-        <f>SUM(L5:L50)</f>
-        <v>79263.709999999992</v>
-      </c>
-      <c r="M51" s="115"/>
-      <c r="N51" s="115"/>
-      <c r="P51" s="34"/>
-      <c r="Q51" s="9"/>
-    </row>
-    <row r="52" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P52" s="34"/>
-      <c r="Q52" s="9"/>
-    </row>
-    <row r="53" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="117"/>
-      <c r="B53" s="118"/>
-      <c r="C53" s="1"/>
-      <c r="H53" s="252" t="s">
-        <v>12</v>
-      </c>
-      <c r="I53" s="253"/>
-      <c r="J53" s="119"/>
-      <c r="K53" s="254">
-        <f>I51+L51</f>
-        <v>82963.709999999992</v>
-      </c>
-      <c r="L53" s="255"/>
-      <c r="M53" s="256">
-        <f>N40+M40</f>
-        <v>1857430</v>
-      </c>
-      <c r="N53" s="257"/>
-      <c r="P53" s="34"/>
-      <c r="Q53" s="9"/>
-    </row>
-    <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="258" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="258"/>
-      <c r="F54" s="120">
-        <f>F51-K53-C51</f>
-        <v>1831731.29</v>
-      </c>
-      <c r="I54" s="121"/>
-      <c r="J54" s="122"/>
-      <c r="P54" s="34"/>
-      <c r="Q54" s="9"/>
-    </row>
-    <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="259" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" s="259"/>
-      <c r="F55" s="115">
-        <v>0</v>
-      </c>
-      <c r="I55" s="260" t="s">
-        <v>15</v>
-      </c>
-      <c r="J55" s="261"/>
-      <c r="K55" s="262">
-        <f>F57+F58+F59</f>
-        <v>1831731.29</v>
-      </c>
-      <c r="L55" s="263"/>
-      <c r="P55" s="34"/>
-      <c r="Q55" s="9"/>
-    </row>
-    <row r="56" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D56" s="123"/>
-      <c r="E56" s="117"/>
-      <c r="F56" s="124">
-        <v>0</v>
-      </c>
-      <c r="I56" s="125"/>
-      <c r="J56" s="126"/>
-      <c r="K56" s="127"/>
-      <c r="L56" s="128"/>
-    </row>
-    <row r="57" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="117" t="s">
-        <v>16</v>
-      </c>
-      <c r="F57" s="115">
-        <f>SUM(F54:F56)</f>
-        <v>1831731.29</v>
-      </c>
-      <c r="H57" s="24"/>
-      <c r="I57" s="129" t="s">
-        <v>17</v>
-      </c>
-      <c r="J57" s="130"/>
-      <c r="K57" s="264">
-        <f>-C4</f>
-        <v>-184342.19</v>
-      </c>
-      <c r="L57" s="265"/>
-    </row>
-    <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D58" s="131" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="117" t="s">
-        <v>19</v>
-      </c>
-      <c r="F58" s="132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C59" s="133"/>
-      <c r="D59" s="241" t="s">
-        <v>20</v>
-      </c>
-      <c r="E59" s="242"/>
-      <c r="F59" s="134">
-        <v>0</v>
-      </c>
-      <c r="I59" s="243" t="s">
-        <v>124</v>
-      </c>
-      <c r="J59" s="244"/>
-      <c r="K59" s="245">
-        <f>K55+K57</f>
-        <v>1647389.1</v>
-      </c>
-      <c r="L59" s="245"/>
-    </row>
-    <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C60" s="135"/>
-      <c r="D60" s="136"/>
-      <c r="E60" s="137"/>
-      <c r="F60" s="138"/>
-      <c r="J60" s="139"/>
-    </row>
-    <row r="61" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I61" s="140"/>
-      <c r="J61" s="140"/>
-      <c r="K61" s="141"/>
-      <c r="L61" s="141"/>
-    </row>
-    <row r="62" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="142"/>
-      <c r="C62" s="143"/>
-      <c r="D62" s="144"/>
-      <c r="E62" s="34"/>
-      <c r="I62" s="140"/>
-      <c r="J62" s="140"/>
-      <c r="K62" s="141"/>
-      <c r="L62" s="141"/>
-      <c r="M62" s="145"/>
-      <c r="N62" s="117"/>
-    </row>
-    <row r="63" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="142"/>
-      <c r="C63" s="146"/>
-      <c r="E63" s="34"/>
-      <c r="M63" s="145"/>
-      <c r="N63" s="117"/>
-    </row>
-    <row r="64" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="142"/>
-      <c r="C64" s="146"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="147"/>
-      <c r="L64" s="148"/>
-      <c r="M64" s="1"/>
-    </row>
-    <row r="65" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="142"/>
-      <c r="C65" s="146"/>
-      <c r="E65" s="34"/>
-      <c r="M65" s="1"/>
-    </row>
-    <row r="66" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="142"/>
-      <c r="C66" s="146"/>
-      <c r="D66" s="149"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="150"/>
-      <c r="M66" s="1"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D67" s="149"/>
-      <c r="E67" s="151"/>
-      <c r="F67" s="34"/>
-      <c r="M67" s="1"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D68" s="149"/>
-      <c r="E68" s="151"/>
-      <c r="F68" s="34"/>
-      <c r="M68" s="1"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D69" s="149"/>
-      <c r="E69" s="151"/>
-      <c r="F69" s="34"/>
-      <c r="M69" s="1"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D70" s="149"/>
-      <c r="E70" s="151"/>
-      <c r="F70" s="34"/>
-      <c r="M70" s="1"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D71" s="149"/>
-      <c r="E71" s="151"/>
-      <c r="F71" s="34"/>
-      <c r="M71" s="1"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D72" s="149"/>
-      <c r="E72" s="151"/>
-      <c r="F72" s="34"/>
-      <c r="M72" s="1"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D73" s="149"/>
-      <c r="E73" s="151"/>
-      <c r="F73" s="34"/>
-      <c r="M73" s="1"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D74" s="149"/>
-      <c r="E74" s="151"/>
-      <c r="F74" s="34"/>
-      <c r="M74" s="1"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D75" s="149"/>
-      <c r="E75" s="151"/>
-      <c r="F75" s="34"/>
-      <c r="M75" s="1"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D76" s="149"/>
-      <c r="E76" s="151"/>
-      <c r="F76" s="34"/>
-      <c r="M76" s="1"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D77" s="149"/>
-      <c r="E77" s="151"/>
-      <c r="F77" s="34"/>
-      <c r="M77" s="1"/>
-    </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D78" s="149"/>
-      <c r="E78" s="151"/>
-      <c r="F78" s="34"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D79" s="149"/>
-      <c r="E79" s="149"/>
-      <c r="F79" s="150"/>
-    </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D80" s="149"/>
-      <c r="E80" s="149"/>
-      <c r="F80" s="150"/>
-    </row>
-    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D81" s="149"/>
-      <c r="E81" s="149"/>
-      <c r="F81" s="150"/>
-    </row>
-  </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -13636,8 +13668,8 @@
   </sheetPr>
   <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13688,16 +13720,20 @@
         <v>44620</v>
       </c>
       <c r="B3" s="194" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C3" s="195">
         <v>63981.4</v>
       </c>
-      <c r="D3" s="200"/>
-      <c r="E3" s="195"/>
+      <c r="D3" s="200">
+        <v>44624</v>
+      </c>
+      <c r="E3" s="195">
+        <v>63981.4</v>
+      </c>
       <c r="F3" s="158">
         <f>C3-E3</f>
-        <v>63981.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -13705,16 +13741,20 @@
         <v>44620</v>
       </c>
       <c r="B4" s="194" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" s="195">
         <v>28417.4</v>
       </c>
-      <c r="D4" s="200"/>
-      <c r="E4" s="195"/>
+      <c r="D4" s="200">
+        <v>44624</v>
+      </c>
+      <c r="E4" s="195">
+        <v>28417.4</v>
+      </c>
       <c r="F4" s="196">
         <f>C4-E4+F3</f>
-        <v>92398.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -13722,16 +13762,20 @@
         <v>44620</v>
       </c>
       <c r="B5" s="194" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C5" s="195">
         <v>3848.8</v>
       </c>
-      <c r="D5" s="200"/>
-      <c r="E5" s="195"/>
+      <c r="D5" s="200">
+        <v>44624</v>
+      </c>
+      <c r="E5" s="195">
+        <v>3848.8</v>
+      </c>
       <c r="F5" s="196">
         <f t="shared" ref="F5:F68" si="0">C5-E5+F4</f>
-        <v>96247.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -13739,16 +13783,20 @@
         <v>44622</v>
       </c>
       <c r="B6" s="194" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C6" s="195">
         <v>20212.599999999999</v>
       </c>
-      <c r="D6" s="200"/>
-      <c r="E6" s="195"/>
+      <c r="D6" s="200">
+        <v>44624</v>
+      </c>
+      <c r="E6" s="195">
+        <v>20212.599999999999</v>
+      </c>
       <c r="F6" s="196">
         <f t="shared" si="0"/>
-        <v>116460.20000000001</v>
+        <v>0</v>
       </c>
       <c r="G6" s="162"/>
     </row>
@@ -13757,16 +13805,20 @@
         <v>44622</v>
       </c>
       <c r="B7" s="194" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C7" s="195">
         <v>2787.2</v>
       </c>
-      <c r="D7" s="200"/>
-      <c r="E7" s="195"/>
+      <c r="D7" s="200">
+        <v>44624</v>
+      </c>
+      <c r="E7" s="195">
+        <v>2787.2</v>
+      </c>
       <c r="F7" s="196">
         <f t="shared" si="0"/>
-        <v>119247.40000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -13774,16 +13826,20 @@
         <v>44622</v>
       </c>
       <c r="B8" s="194" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C8" s="195">
         <v>76427.399999999994</v>
       </c>
-      <c r="D8" s="200"/>
-      <c r="E8" s="195"/>
+      <c r="D8" s="200">
+        <v>44624</v>
+      </c>
+      <c r="E8" s="195">
+        <v>76427.399999999994</v>
+      </c>
       <c r="F8" s="196">
         <f t="shared" si="0"/>
-        <v>195674.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -13791,16 +13847,20 @@
         <v>44622</v>
       </c>
       <c r="B9" s="194" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C9" s="195">
         <v>21897</v>
       </c>
-      <c r="D9" s="200"/>
-      <c r="E9" s="195"/>
+      <c r="D9" s="200">
+        <v>44624</v>
+      </c>
+      <c r="E9" s="195">
+        <v>21897</v>
+      </c>
       <c r="F9" s="196">
         <f t="shared" si="0"/>
-        <v>217571.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -13808,16 +13868,20 @@
         <v>44624</v>
       </c>
       <c r="B10" s="194" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C10" s="195">
         <v>117583.32</v>
       </c>
-      <c r="D10" s="200"/>
-      <c r="E10" s="195"/>
+      <c r="D10" s="200">
+        <v>44624</v>
+      </c>
+      <c r="E10" s="195">
+        <v>117583.32</v>
+      </c>
       <c r="F10" s="196">
         <f t="shared" si="0"/>
-        <v>335155.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -13825,16 +13889,20 @@
         <v>44624</v>
       </c>
       <c r="B11" s="194" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C11" s="195">
         <v>23317.8</v>
       </c>
-      <c r="D11" s="200"/>
-      <c r="E11" s="195"/>
+      <c r="D11" s="281">
+        <v>44631</v>
+      </c>
+      <c r="E11" s="282">
+        <v>23317.8</v>
+      </c>
       <c r="F11" s="196">
         <f t="shared" si="0"/>
-        <v>358472.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -13842,16 +13910,20 @@
         <v>44625</v>
       </c>
       <c r="B12" s="194" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C12" s="195">
         <v>92582.65</v>
       </c>
-      <c r="D12" s="200"/>
-      <c r="E12" s="195"/>
+      <c r="D12" s="281">
+        <v>44631</v>
+      </c>
+      <c r="E12" s="282">
+        <v>92582.65</v>
+      </c>
       <c r="F12" s="196">
         <f t="shared" si="0"/>
-        <v>451055.56999999995</v>
+        <v>0</v>
       </c>
       <c r="G12" s="162"/>
     </row>
@@ -13860,16 +13932,20 @@
         <v>44625</v>
       </c>
       <c r="B13" s="194" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C13" s="195">
         <v>37678.199999999997</v>
       </c>
-      <c r="D13" s="200"/>
-      <c r="E13" s="195"/>
+      <c r="D13" s="281">
+        <v>44631</v>
+      </c>
+      <c r="E13" s="282">
+        <v>37678.199999999997</v>
+      </c>
       <c r="F13" s="196">
         <f t="shared" si="0"/>
-        <v>488733.76999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -13877,16 +13953,20 @@
         <v>44627</v>
       </c>
       <c r="B14" s="194" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C14" s="195">
         <v>71302.149999999994</v>
       </c>
-      <c r="D14" s="200"/>
-      <c r="E14" s="195"/>
+      <c r="D14" s="281">
+        <v>44631</v>
+      </c>
+      <c r="E14" s="282">
+        <v>71302.149999999994</v>
+      </c>
       <c r="F14" s="196">
         <f t="shared" si="0"/>
-        <v>560035.91999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -13894,16 +13974,20 @@
         <v>44629</v>
       </c>
       <c r="B15" s="194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C15" s="195">
         <v>122152.6</v>
       </c>
-      <c r="D15" s="200"/>
-      <c r="E15" s="195"/>
+      <c r="D15" s="281">
+        <v>44631</v>
+      </c>
+      <c r="E15" s="282">
+        <v>122152.6</v>
+      </c>
       <c r="F15" s="196">
         <f t="shared" si="0"/>
-        <v>682188.5199999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -13911,16 +13995,20 @@
         <v>44630</v>
       </c>
       <c r="B16" s="194" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C16" s="195">
         <v>19883.2</v>
       </c>
-      <c r="D16" s="200"/>
-      <c r="E16" s="195"/>
+      <c r="D16" s="281">
+        <v>44631</v>
+      </c>
+      <c r="E16" s="282">
+        <v>19883.2</v>
+      </c>
       <c r="F16" s="196">
         <f t="shared" si="0"/>
-        <v>702071.71999999986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -13928,16 +14016,20 @@
         <v>44630</v>
       </c>
       <c r="B17" s="194" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C17" s="195">
         <v>76107.320000000007</v>
       </c>
-      <c r="D17" s="200"/>
-      <c r="E17" s="195"/>
+      <c r="D17" s="281">
+        <v>44631</v>
+      </c>
+      <c r="E17" s="282">
+        <v>76107.320000000007</v>
+      </c>
       <c r="F17" s="196">
         <f t="shared" si="0"/>
-        <v>778179.0399999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -13945,16 +14037,20 @@
         <v>44631</v>
       </c>
       <c r="B18" s="194" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C18" s="195">
         <v>84276.9</v>
       </c>
-      <c r="D18" s="200"/>
-      <c r="E18" s="195"/>
+      <c r="D18" s="215">
+        <v>44638</v>
+      </c>
+      <c r="E18" s="216">
+        <v>84276.9</v>
+      </c>
       <c r="F18" s="196">
         <f t="shared" si="0"/>
-        <v>862455.93999999983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -13962,16 +14058,20 @@
         <v>44632</v>
       </c>
       <c r="B19" s="194" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C19" s="195">
         <v>47979.55</v>
       </c>
-      <c r="D19" s="200"/>
-      <c r="E19" s="195"/>
+      <c r="D19" s="215">
+        <v>44638</v>
+      </c>
+      <c r="E19" s="216">
+        <v>47979.55</v>
+      </c>
       <c r="F19" s="196">
         <f t="shared" si="0"/>
-        <v>910435.48999999987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -13979,16 +14079,20 @@
         <v>44632</v>
       </c>
       <c r="B20" s="194" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C20" s="195">
         <v>1377.6</v>
       </c>
-      <c r="D20" s="200"/>
-      <c r="E20" s="195"/>
+      <c r="D20" s="215">
+        <v>44638</v>
+      </c>
+      <c r="E20" s="216">
+        <v>1377.6</v>
+      </c>
       <c r="F20" s="196">
         <f t="shared" si="0"/>
-        <v>911813.08999999985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -13996,16 +14100,20 @@
         <v>44632</v>
       </c>
       <c r="B21" s="194" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C21" s="195">
         <v>12015.5</v>
       </c>
-      <c r="D21" s="200"/>
-      <c r="E21" s="195"/>
+      <c r="D21" s="215">
+        <v>44638</v>
+      </c>
+      <c r="E21" s="216">
+        <v>12015.5</v>
+      </c>
       <c r="F21" s="196">
         <f t="shared" si="0"/>
-        <v>923828.58999999985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -14013,16 +14121,20 @@
         <v>44634</v>
       </c>
       <c r="B22" s="194" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C22" s="195">
         <v>95938.68</v>
       </c>
-      <c r="D22" s="202"/>
-      <c r="E22" s="195"/>
+      <c r="D22" s="215">
+        <v>44638</v>
+      </c>
+      <c r="E22" s="216">
+        <v>95938.68</v>
+      </c>
       <c r="F22" s="196">
         <f t="shared" si="0"/>
-        <v>1019767.2699999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -14030,16 +14142,20 @@
         <v>44634</v>
       </c>
       <c r="B23" s="194" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C23" s="195">
         <v>9400.2000000000007</v>
       </c>
-      <c r="D23" s="200"/>
-      <c r="E23" s="195"/>
+      <c r="D23" s="215">
+        <v>44638</v>
+      </c>
+      <c r="E23" s="216">
+        <v>9400.2000000000007</v>
+      </c>
       <c r="F23" s="196">
         <f t="shared" si="0"/>
-        <v>1029167.4699999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -14047,16 +14163,20 @@
         <v>44636</v>
       </c>
       <c r="B24" s="194" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C24" s="195">
         <v>121105.5</v>
       </c>
-      <c r="D24" s="200"/>
-      <c r="E24" s="195"/>
+      <c r="D24" s="215">
+        <v>44638</v>
+      </c>
+      <c r="E24" s="216">
+        <v>121105.5</v>
+      </c>
       <c r="F24" s="196">
         <f t="shared" si="0"/>
-        <v>1150272.9699999997</v>
+        <v>0</v>
       </c>
       <c r="G24" s="162"/>
     </row>
@@ -14065,16 +14185,20 @@
         <v>44636</v>
       </c>
       <c r="B25" s="194" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C25" s="195">
         <v>17248.8</v>
       </c>
-      <c r="D25" s="200"/>
-      <c r="E25" s="195"/>
+      <c r="D25" s="215">
+        <v>44638</v>
+      </c>
+      <c r="E25" s="216">
+        <v>17248.8</v>
+      </c>
       <c r="F25" s="196">
         <f t="shared" si="0"/>
-        <v>1167521.7699999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -14082,16 +14206,20 @@
         <v>44637</v>
       </c>
       <c r="B26" s="194" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C26" s="195">
         <v>21554.400000000001</v>
       </c>
-      <c r="D26" s="200"/>
-      <c r="E26" s="195"/>
+      <c r="D26" s="215">
+        <v>44638</v>
+      </c>
+      <c r="E26" s="216">
+        <v>21554.400000000001</v>
+      </c>
       <c r="F26" s="196">
         <f t="shared" si="0"/>
-        <v>1189076.1699999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -14099,16 +14227,20 @@
         <v>44638</v>
       </c>
       <c r="B27" s="194" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C27" s="195">
         <v>79239.5</v>
       </c>
-      <c r="D27" s="200"/>
-      <c r="E27" s="195"/>
+      <c r="D27" s="215">
+        <v>44638</v>
+      </c>
+      <c r="E27" s="216">
+        <v>79239.5</v>
+      </c>
       <c r="F27" s="196">
         <f t="shared" si="0"/>
-        <v>1268315.6699999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -14116,16 +14248,20 @@
         <v>44638</v>
       </c>
       <c r="B28" s="194" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C28" s="195">
         <v>12469.8</v>
       </c>
-      <c r="D28" s="200"/>
-      <c r="E28" s="195"/>
+      <c r="D28" s="283">
+        <v>44645</v>
+      </c>
+      <c r="E28" s="284">
+        <v>12469.8</v>
+      </c>
       <c r="F28" s="196">
         <f t="shared" si="0"/>
-        <v>1280785.4699999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -14133,16 +14269,20 @@
         <v>44639</v>
       </c>
       <c r="B29" s="194" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C29" s="195">
         <v>99143.25</v>
       </c>
-      <c r="D29" s="200"/>
-      <c r="E29" s="195"/>
+      <c r="D29" s="283">
+        <v>44645</v>
+      </c>
+      <c r="E29" s="284">
+        <v>99143.25</v>
+      </c>
       <c r="F29" s="196">
         <f t="shared" si="0"/>
-        <v>1379928.7199999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -14150,16 +14290,20 @@
         <v>44639</v>
       </c>
       <c r="B30" s="194" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C30" s="195">
         <v>6625</v>
       </c>
-      <c r="D30" s="200"/>
-      <c r="E30" s="195"/>
+      <c r="D30" s="283">
+        <v>44645</v>
+      </c>
+      <c r="E30" s="284">
+        <v>6625</v>
+      </c>
       <c r="F30" s="196">
         <f t="shared" si="0"/>
-        <v>1386553.7199999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -14167,16 +14311,20 @@
         <v>44639</v>
       </c>
       <c r="B31" s="194" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C31" s="195">
         <v>2445.6</v>
       </c>
-      <c r="D31" s="200"/>
-      <c r="E31" s="195"/>
+      <c r="D31" s="283">
+        <v>44645</v>
+      </c>
+      <c r="E31" s="284">
+        <v>2445.6</v>
+      </c>
       <c r="F31" s="196">
         <f t="shared" si="0"/>
-        <v>1388999.3199999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -14184,16 +14332,20 @@
         <v>44641</v>
       </c>
       <c r="B32" s="194" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C32" s="195">
         <v>99443</v>
       </c>
-      <c r="D32" s="200"/>
-      <c r="E32" s="195"/>
+      <c r="D32" s="283">
+        <v>44645</v>
+      </c>
+      <c r="E32" s="284">
+        <v>99443</v>
+      </c>
       <c r="F32" s="196">
         <f t="shared" si="0"/>
-        <v>1488442.3199999998</v>
+        <v>0</v>
       </c>
       <c r="G32" s="162"/>
     </row>
@@ -14202,16 +14354,20 @@
         <v>44643</v>
       </c>
       <c r="B33" s="194" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C33" s="195">
         <v>117287.22</v>
       </c>
-      <c r="D33" s="200"/>
-      <c r="E33" s="195"/>
+      <c r="D33" s="283">
+        <v>44645</v>
+      </c>
+      <c r="E33" s="284">
+        <v>117287.22</v>
+      </c>
       <c r="F33" s="196">
         <f t="shared" si="0"/>
-        <v>1605729.5399999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14219,16 +14375,20 @@
         <v>44644</v>
       </c>
       <c r="B34" s="194" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C34" s="195">
         <v>27776.2</v>
       </c>
-      <c r="D34" s="200"/>
-      <c r="E34" s="195"/>
+      <c r="D34" s="283">
+        <v>44645</v>
+      </c>
+      <c r="E34" s="284">
+        <v>27776.2</v>
+      </c>
       <c r="F34" s="196">
         <f t="shared" si="0"/>
-        <v>1633505.7399999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14236,16 +14396,20 @@
         <v>44645</v>
       </c>
       <c r="B35" s="194" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C35" s="195">
         <v>100979.1</v>
       </c>
-      <c r="D35" s="200"/>
-      <c r="E35" s="195"/>
+      <c r="D35" s="283">
+        <v>44645</v>
+      </c>
+      <c r="E35" s="284">
+        <v>100979.1</v>
+      </c>
       <c r="F35" s="196">
         <f t="shared" si="0"/>
-        <v>1734484.8399999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14253,16 +14417,20 @@
         <v>44645</v>
       </c>
       <c r="B36" s="194" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C36" s="195">
         <v>2400</v>
       </c>
-      <c r="D36" s="200"/>
-      <c r="E36" s="195"/>
+      <c r="D36" s="279">
+        <v>44652</v>
+      </c>
+      <c r="E36" s="280">
+        <v>2400</v>
+      </c>
       <c r="F36" s="196">
         <f t="shared" si="0"/>
-        <v>1736884.8399999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14270,16 +14438,20 @@
         <v>44646</v>
       </c>
       <c r="B37" s="194" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C37" s="195">
         <v>100244.2</v>
       </c>
-      <c r="D37" s="200"/>
-      <c r="E37" s="195"/>
+      <c r="D37" s="279">
+        <v>44652</v>
+      </c>
+      <c r="E37" s="280">
+        <v>100244.2</v>
+      </c>
       <c r="F37" s="196">
         <f t="shared" si="0"/>
-        <v>1837129.0399999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14287,16 +14459,20 @@
         <v>44646</v>
       </c>
       <c r="B38" s="194" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C38" s="195">
         <v>400</v>
       </c>
-      <c r="D38" s="200"/>
-      <c r="E38" s="195"/>
+      <c r="D38" s="279">
+        <v>44652</v>
+      </c>
+      <c r="E38" s="280">
+        <v>400</v>
+      </c>
       <c r="F38" s="196">
         <f t="shared" si="0"/>
-        <v>1837529.0399999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14304,16 +14480,20 @@
         <v>44647</v>
       </c>
       <c r="B39" s="194" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C39" s="195">
         <v>2696.4</v>
       </c>
-      <c r="D39" s="200"/>
-      <c r="E39" s="195"/>
+      <c r="D39" s="279">
+        <v>44652</v>
+      </c>
+      <c r="E39" s="280">
+        <v>2696.4</v>
+      </c>
       <c r="F39" s="196">
         <f t="shared" si="0"/>
-        <v>1840225.4399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14321,16 +14501,20 @@
         <v>44647</v>
       </c>
       <c r="B40" s="194" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C40" s="195">
         <v>7911.2</v>
       </c>
-      <c r="D40" s="200"/>
-      <c r="E40" s="195"/>
+      <c r="D40" s="279">
+        <v>44652</v>
+      </c>
+      <c r="E40" s="280">
+        <v>7911.2</v>
+      </c>
       <c r="F40" s="196">
         <f t="shared" si="0"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14341,7 +14525,7 @@
       <c r="E41" s="195"/>
       <c r="F41" s="196">
         <f t="shared" si="0"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14352,7 +14536,7 @@
       <c r="E42" s="195"/>
       <c r="F42" s="196">
         <f t="shared" si="0"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14363,7 +14547,7 @@
       <c r="E43" s="195"/>
       <c r="F43" s="196">
         <f t="shared" si="0"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14374,7 +14558,7 @@
       <c r="E44" s="195"/>
       <c r="F44" s="196">
         <f t="shared" si="0"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14385,7 +14569,7 @@
       <c r="E45" s="195"/>
       <c r="F45" s="196">
         <f t="shared" si="0"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14396,7 +14580,7 @@
       <c r="E46" s="195"/>
       <c r="F46" s="196">
         <f t="shared" si="0"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14407,7 +14591,7 @@
       <c r="E47" s="195"/>
       <c r="F47" s="196">
         <f t="shared" si="0"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14418,7 +14602,7 @@
       <c r="E48" s="195"/>
       <c r="F48" s="196">
         <f t="shared" si="0"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14429,7 +14613,7 @@
       <c r="E49" s="195"/>
       <c r="F49" s="196">
         <f t="shared" si="0"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14440,7 +14624,7 @@
       <c r="E50" s="195"/>
       <c r="F50" s="196">
         <f t="shared" si="0"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14451,7 +14635,7 @@
       <c r="E51" s="195"/>
       <c r="F51" s="196">
         <f t="shared" si="0"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14462,7 +14646,7 @@
       <c r="E52" s="195"/>
       <c r="F52" s="196">
         <f t="shared" si="0"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14473,7 +14657,7 @@
       <c r="E53" s="86"/>
       <c r="F53" s="196">
         <f t="shared" si="0"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14484,7 +14668,7 @@
       <c r="E54" s="86"/>
       <c r="F54" s="196">
         <f t="shared" si="0"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14495,7 +14679,7 @@
       <c r="E55" s="86"/>
       <c r="F55" s="196">
         <f t="shared" si="0"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14506,7 +14690,7 @@
       <c r="E56" s="86"/>
       <c r="F56" s="196">
         <f t="shared" si="0"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14517,7 +14701,7 @@
       <c r="E57" s="86"/>
       <c r="F57" s="196">
         <f t="shared" si="0"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14528,7 +14712,7 @@
       <c r="E58" s="86"/>
       <c r="F58" s="196">
         <f t="shared" si="0"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14539,7 +14723,7 @@
       <c r="E59" s="86"/>
       <c r="F59" s="196">
         <f t="shared" si="0"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14550,7 +14734,7 @@
       <c r="E60" s="86"/>
       <c r="F60" s="196">
         <f t="shared" si="0"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14561,7 +14745,7 @@
       <c r="E61" s="86"/>
       <c r="F61" s="196">
         <f t="shared" si="0"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14572,7 +14756,7 @@
       <c r="E62" s="86"/>
       <c r="F62" s="196">
         <f t="shared" si="0"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14583,7 +14767,7 @@
       <c r="E63" s="86"/>
       <c r="F63" s="196">
         <f t="shared" si="0"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -14594,7 +14778,7 @@
       <c r="E64" s="86"/>
       <c r="F64" s="196">
         <f t="shared" si="0"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14605,7 +14789,7 @@
       <c r="E65" s="86"/>
       <c r="F65" s="196">
         <f t="shared" si="0"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14616,7 +14800,7 @@
       <c r="E66" s="86"/>
       <c r="F66" s="196">
         <f t="shared" si="0"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14627,7 +14811,7 @@
       <c r="E67" s="86"/>
       <c r="F67" s="196">
         <f t="shared" si="0"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14638,7 +14822,7 @@
       <c r="E68" s="86"/>
       <c r="F68" s="196">
         <f t="shared" si="0"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14649,7 +14833,7 @@
       <c r="E69" s="86"/>
       <c r="F69" s="196">
         <f t="shared" ref="F69:F99" si="1">C69-E69+F68</f>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14660,7 +14844,7 @@
       <c r="E70" s="86"/>
       <c r="F70" s="196">
         <f t="shared" si="1"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14671,7 +14855,7 @@
       <c r="E71" s="86"/>
       <c r="F71" s="196">
         <f t="shared" si="1"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14682,7 +14866,7 @@
       <c r="E72" s="86"/>
       <c r="F72" s="196">
         <f t="shared" si="1"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14693,7 +14877,7 @@
       <c r="E73" s="86"/>
       <c r="F73" s="196">
         <f t="shared" si="1"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14704,7 +14888,7 @@
       <c r="E74" s="86"/>
       <c r="F74" s="196">
         <f t="shared" si="1"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14715,7 +14899,7 @@
       <c r="E75" s="86"/>
       <c r="F75" s="196">
         <f t="shared" si="1"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14726,7 +14910,7 @@
       <c r="E76" s="86"/>
       <c r="F76" s="196">
         <f t="shared" si="1"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14737,7 +14921,7 @@
       <c r="E77" s="86"/>
       <c r="F77" s="196">
         <f t="shared" si="1"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14748,7 +14932,7 @@
       <c r="E78" s="86"/>
       <c r="F78" s="196">
         <f t="shared" si="1"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14759,7 +14943,7 @@
       <c r="E79" s="86"/>
       <c r="F79" s="196">
         <f t="shared" si="1"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14770,7 +14954,7 @@
       <c r="E80" s="86"/>
       <c r="F80" s="196">
         <f t="shared" si="1"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14781,7 +14965,7 @@
       <c r="E81" s="86"/>
       <c r="F81" s="196">
         <f t="shared" si="1"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14792,7 +14976,7 @@
       <c r="E82" s="86"/>
       <c r="F82" s="196">
         <f t="shared" si="1"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14803,7 +14987,7 @@
       <c r="E83" s="34"/>
       <c r="F83" s="196">
         <f t="shared" si="1"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14814,7 +14998,7 @@
       <c r="E84" s="34"/>
       <c r="F84" s="196">
         <f t="shared" si="1"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14825,7 +15009,7 @@
       <c r="E85" s="34"/>
       <c r="F85" s="196">
         <f t="shared" si="1"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14836,7 +15020,7 @@
       <c r="E86" s="34"/>
       <c r="F86" s="196">
         <f t="shared" si="1"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14847,7 +15031,7 @@
       <c r="E87" s="34"/>
       <c r="F87" s="196">
         <f t="shared" si="1"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14858,7 +15042,7 @@
       <c r="E88" s="34"/>
       <c r="F88" s="196">
         <f t="shared" si="1"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14869,7 +15053,7 @@
       <c r="E89" s="86"/>
       <c r="F89" s="196">
         <f t="shared" si="1"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14880,7 +15064,7 @@
       <c r="E90" s="86"/>
       <c r="F90" s="196">
         <f t="shared" si="1"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14891,7 +15075,7 @@
       <c r="E91" s="86"/>
       <c r="F91" s="196">
         <f t="shared" si="1"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14902,7 +15086,7 @@
       <c r="E92" s="86"/>
       <c r="F92" s="196">
         <f t="shared" si="1"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14913,7 +15097,7 @@
       <c r="E93" s="86"/>
       <c r="F93" s="196">
         <f t="shared" si="1"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14924,7 +15108,7 @@
       <c r="E94" s="86"/>
       <c r="F94" s="196">
         <f t="shared" si="1"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14935,7 +15119,7 @@
       <c r="E95" s="86"/>
       <c r="F95" s="196">
         <f t="shared" si="1"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14946,7 +15130,7 @@
       <c r="E96" s="86"/>
       <c r="F96" s="196">
         <f t="shared" si="1"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14957,7 +15141,7 @@
       <c r="E97" s="86"/>
       <c r="F97" s="196">
         <f t="shared" si="1"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14968,7 +15152,7 @@
       <c r="E98" s="86"/>
       <c r="F98" s="196">
         <f t="shared" si="1"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14981,7 +15165,7 @@
       <c r="E99" s="34"/>
       <c r="F99" s="196">
         <f t="shared" si="1"/>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -14993,12 +15177,12 @@
       </c>
       <c r="D100" s="189"/>
       <c r="E100" s="178">
-        <f>SUM(E5:E99)</f>
-        <v>0</v>
+        <f>SUM(E3:E99)</f>
+        <v>1848136.6399999997</v>
       </c>
       <c r="F100" s="179">
         <f>F99</f>
-        <v>1848136.6399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
